--- a/公司股票成本表+總表113.12.12改.xlsx
+++ b/公司股票成本表+總表113.12.12改.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28227"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{758CB4A1-511A-4113-9C8C-508C397B03BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0698F54E-DD35-4C32-A99F-8832155A5A3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="741" firstSheet="7" activeTab="16" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="741" firstSheet="7" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="總表20240312" sheetId="46" r:id="rId1"/>
@@ -15,9 +15,9 @@
     <sheet name="總表 (空白可填)" sheetId="52" r:id="rId5"/>
     <sheet name="元大高股息" sheetId="27" r:id="rId6"/>
     <sheet name="元大美債20" sheetId="48" r:id="rId7"/>
-    <sheet name="統一" sheetId="49" r:id="rId8"/>
-    <sheet name="台塑化" sheetId="56" r:id="rId9"/>
-    <sheet name="達欣工" sheetId="17" r:id="rId10"/>
+    <sheet name="統一(入檔)" sheetId="49" r:id="rId8"/>
+    <sheet name="台塑化(入檔)" sheetId="56" r:id="rId9"/>
+    <sheet name="達欣工(入檔)" sheetId="17" r:id="rId10"/>
     <sheet name="台企銀" sheetId="4" r:id="rId11"/>
     <sheet name="玉山金" sheetId="44" r:id="rId12"/>
     <sheet name="台新金" sheetId="15" r:id="rId13"/>
@@ -4923,6 +4923,150 @@
     <xf numFmtId="177" fontId="0" fillId="11" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="177" fontId="6" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="6" fillId="0" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="17" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="17" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="17" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="6" fillId="0" borderId="25" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="6" fillId="0" borderId="53" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="6" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="6" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="6" fillId="9" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="6" fillId="9" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="6" fillId="9" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="6" fillId="9" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="13" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="6" fillId="0" borderId="63" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="6" fillId="0" borderId="64" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="10" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="10" fillId="6" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="10" fillId="6" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="6" fillId="0" borderId="57" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="6" fillId="0" borderId="60" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="6" fillId="7" borderId="57" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="6" fillId="7" borderId="60" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="6" fillId="0" borderId="34" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="6" fillId="0" borderId="54" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="12" fillId="7" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="12" fillId="7" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="12" fillId="7" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="12" fillId="7" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="6" fillId="9" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="6" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="6" fillId="0" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
@@ -5025,205 +5169,61 @@
     <xf numFmtId="2" fontId="6" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="6" fillId="0" borderId="57" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="6" fillId="0" borderId="60" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="6" fillId="7" borderId="57" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="6" fillId="7" borderId="60" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="6" fillId="0" borderId="34" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="6" fillId="0" borderId="54" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="12" fillId="7" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="12" fillId="7" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="12" fillId="7" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="12" fillId="7" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="6" fillId="9" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="6" fillId="9" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="6" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="6" fillId="0" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="10" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="10" fillId="6" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="10" fillId="6" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="6" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="6" fillId="0" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="17" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="17" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="17" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="6" fillId="0" borderId="25" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="6" fillId="0" borderId="53" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="6" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="6" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="6" fillId="9" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="6" fillId="9" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="6" fillId="9" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="13" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="6" fillId="0" borderId="63" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="6" fillId="0" borderId="64" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="177" fontId="6" fillId="0" borderId="50" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="12" fillId="7" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="12" fillId="7" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="44" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="66" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="6" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="66" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="67" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="6" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="6" fillId="0" borderId="68" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="6" fillId="9" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="6" fillId="9" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="6" fillId="0" borderId="49" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="177" fontId="6" fillId="6" borderId="63" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="6" fillId="6" borderId="64" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="6" fillId="0" borderId="50" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="12" fillId="7" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="12" fillId="7" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="44" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="66" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="6" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="66" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="6" fillId="0" borderId="67" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="6" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="6" fillId="0" borderId="68" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="6" fillId="9" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="6" fillId="9" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="6" fillId="0" borderId="49" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="18" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -6117,8 +6117,8 @@
       <c r="B3" s="72"/>
       <c r="C3" s="72"/>
       <c r="D3" s="72"/>
-      <c r="E3" s="388"/>
-      <c r="F3" s="389"/>
+      <c r="E3" s="355"/>
+      <c r="F3" s="356"/>
       <c r="G3" s="72"/>
       <c r="H3" s="72" t="s">
         <v>372</v>
@@ -6128,64 +6128,64 @@
         <v>373</v>
       </c>
       <c r="K3" s="6"/>
-      <c r="L3" s="391" t="s">
+      <c r="L3" s="358" t="s">
         <v>374</v>
       </c>
-      <c r="M3" s="392"/>
+      <c r="M3" s="359"/>
       <c r="N3" s="120" t="s">
         <v>375</v>
       </c>
       <c r="O3" s="168" t="s">
         <v>376</v>
       </c>
-      <c r="P3" s="393" t="s">
+      <c r="P3" s="360" t="s">
         <v>483</v>
       </c>
-      <c r="Q3" s="392"/>
-      <c r="R3" s="383" t="s">
+      <c r="Q3" s="359"/>
+      <c r="R3" s="353" t="s">
         <v>484</v>
       </c>
-      <c r="S3" s="378"/>
-      <c r="T3" s="368" t="s">
+      <c r="S3" s="354"/>
+      <c r="T3" s="365" t="s">
         <v>485</v>
       </c>
-      <c r="U3" s="369"/>
+      <c r="U3" s="366"/>
     </row>
     <row r="4" spans="1:23" ht="18.75" customHeight="1">
       <c r="A4" s="7"/>
       <c r="B4" s="122"/>
       <c r="C4" s="122"/>
       <c r="D4" s="122"/>
-      <c r="E4" s="390" t="s">
+      <c r="E4" s="357" t="s">
         <v>493</v>
       </c>
-      <c r="F4" s="390"/>
+      <c r="F4" s="357"/>
       <c r="G4" s="209"/>
-      <c r="H4" s="395" t="s">
+      <c r="H4" s="362" t="s">
         <v>515</v>
       </c>
-      <c r="I4" s="396"/>
-      <c r="J4" s="396"/>
-      <c r="K4" s="396"/>
-      <c r="L4" s="396"/>
-      <c r="M4" s="396"/>
-      <c r="N4" s="396"/>
-      <c r="O4" s="397"/>
-      <c r="P4" s="376" t="s">
+      <c r="I4" s="363"/>
+      <c r="J4" s="363"/>
+      <c r="K4" s="363"/>
+      <c r="L4" s="363"/>
+      <c r="M4" s="363"/>
+      <c r="N4" s="363"/>
+      <c r="O4" s="364"/>
+      <c r="P4" s="373" t="s">
         <v>380</v>
       </c>
-      <c r="Q4" s="377"/>
-      <c r="R4" s="377"/>
-      <c r="S4" s="377"/>
-      <c r="T4" s="377"/>
-      <c r="U4" s="378"/>
+      <c r="Q4" s="374"/>
+      <c r="R4" s="374"/>
+      <c r="S4" s="374"/>
+      <c r="T4" s="374"/>
+      <c r="U4" s="354"/>
     </row>
     <row r="5" spans="1:23" ht="20.25" customHeight="1">
       <c r="A5" s="7"/>
-      <c r="B5" s="383" t="s">
+      <c r="B5" s="353" t="s">
         <v>381</v>
       </c>
-      <c r="C5" s="378"/>
+      <c r="C5" s="354"/>
       <c r="D5" s="123" t="s">
         <v>382</v>
       </c>
@@ -6196,14 +6196,14 @@
         <v>384</v>
       </c>
       <c r="G5" s="123"/>
-      <c r="H5" s="394" t="s">
+      <c r="H5" s="361" t="s">
         <v>377</v>
       </c>
-      <c r="I5" s="394"/>
-      <c r="J5" s="394" t="s">
+      <c r="I5" s="361"/>
+      <c r="J5" s="361" t="s">
         <v>378</v>
       </c>
-      <c r="K5" s="394"/>
+      <c r="K5" s="361"/>
       <c r="L5" s="193" t="s">
         <v>482</v>
       </c>
@@ -6236,7 +6236,7 @@
       </c>
     </row>
     <row r="6" spans="1:23" ht="20.25" customHeight="1">
-      <c r="A6" s="346" t="s">
+      <c r="A6" s="394" t="s">
         <v>512</v>
       </c>
       <c r="B6" s="123">
@@ -6282,7 +6282,7 @@
       </c>
     </row>
     <row r="7" spans="1:23" ht="20.25" customHeight="1">
-      <c r="A7" s="347"/>
+      <c r="A7" s="395"/>
       <c r="B7" s="123">
         <v>2</v>
       </c>
@@ -6326,7 +6326,7 @@
       </c>
     </row>
     <row r="8" spans="1:23" ht="20.25" customHeight="1">
-      <c r="A8" s="347"/>
+      <c r="A8" s="395"/>
       <c r="B8" s="121">
         <v>3</v>
       </c>
@@ -6351,7 +6351,7 @@
       <c r="U8" s="265"/>
     </row>
     <row r="9" spans="1:23" ht="20.25" customHeight="1">
-      <c r="A9" s="347"/>
+      <c r="A9" s="395"/>
       <c r="B9" s="121">
         <v>4</v>
       </c>
@@ -6376,7 +6376,7 @@
       <c r="U9" s="265"/>
     </row>
     <row r="10" spans="1:23" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A10" s="347"/>
+      <c r="A10" s="395"/>
       <c r="B10" s="224">
         <v>5</v>
       </c>
@@ -6401,7 +6401,7 @@
       <c r="U10" s="236"/>
     </row>
     <row r="11" spans="1:23" ht="20.25" customHeight="1">
-      <c r="A11" s="348"/>
+      <c r="A11" s="396"/>
       <c r="B11" s="179"/>
       <c r="C11" s="179"/>
       <c r="D11" s="223" t="s">
@@ -6444,7 +6444,7 @@
       </c>
     </row>
     <row r="12" spans="1:23" ht="20.25" customHeight="1">
-      <c r="A12" s="349" t="s">
+      <c r="A12" s="397" t="s">
         <v>513</v>
       </c>
       <c r="B12" s="133">
@@ -6515,7 +6515,7 @@
       <c r="W12" s="136"/>
     </row>
     <row r="13" spans="1:23" ht="20.25" customHeight="1">
-      <c r="A13" s="350"/>
+      <c r="A13" s="398"/>
       <c r="B13" s="133">
         <v>2</v>
       </c>
@@ -6583,7 +6583,7 @@
       </c>
     </row>
     <row r="14" spans="1:23" ht="20.25" customHeight="1">
-      <c r="A14" s="350"/>
+      <c r="A14" s="398"/>
       <c r="B14" s="133">
         <v>3</v>
       </c>
@@ -6651,7 +6651,7 @@
       </c>
     </row>
     <row r="15" spans="1:23" ht="20.25" customHeight="1">
-      <c r="A15" s="350"/>
+      <c r="A15" s="398"/>
       <c r="B15" s="133">
         <v>4</v>
       </c>
@@ -6719,7 +6719,7 @@
       </c>
     </row>
     <row r="16" spans="1:23" ht="20.25" customHeight="1">
-      <c r="A16" s="350"/>
+      <c r="A16" s="398"/>
       <c r="B16" s="133">
         <v>5</v>
       </c>
@@ -6784,7 +6784,7 @@
       </c>
     </row>
     <row r="17" spans="1:21" ht="20.25" customHeight="1">
-      <c r="A17" s="350"/>
+      <c r="A17" s="398"/>
       <c r="B17" s="133">
         <v>6</v>
       </c>
@@ -6852,7 +6852,7 @@
       </c>
     </row>
     <row r="18" spans="1:21" ht="20.25" customHeight="1">
-      <c r="A18" s="350"/>
+      <c r="A18" s="398"/>
       <c r="B18" s="133">
         <v>7</v>
       </c>
@@ -6920,7 +6920,7 @@
       </c>
     </row>
     <row r="19" spans="1:21" ht="20.25" customHeight="1">
-      <c r="A19" s="350"/>
+      <c r="A19" s="398"/>
       <c r="B19" s="133">
         <v>8</v>
       </c>
@@ -6985,7 +6985,7 @@
       </c>
     </row>
     <row r="20" spans="1:21" ht="20.25" customHeight="1">
-      <c r="A20" s="350"/>
+      <c r="A20" s="398"/>
       <c r="B20" s="133">
         <v>9</v>
       </c>
@@ -7053,7 +7053,7 @@
       </c>
     </row>
     <row r="21" spans="1:21" ht="20.25" customHeight="1">
-      <c r="A21" s="350"/>
+      <c r="A21" s="398"/>
       <c r="B21" s="133">
         <v>10</v>
       </c>
@@ -7121,7 +7121,7 @@
       </c>
     </row>
     <row r="22" spans="1:21" ht="20.25" customHeight="1">
-      <c r="A22" s="350"/>
+      <c r="A22" s="398"/>
       <c r="B22" s="133">
         <v>11</v>
       </c>
@@ -7186,7 +7186,7 @@
       </c>
     </row>
     <row r="23" spans="1:21" ht="20.25" customHeight="1">
-      <c r="A23" s="350"/>
+      <c r="A23" s="398"/>
       <c r="B23" s="133">
         <v>12</v>
       </c>
@@ -7254,7 +7254,7 @@
       </c>
     </row>
     <row r="24" spans="1:21" ht="20.25" customHeight="1">
-      <c r="A24" s="350"/>
+      <c r="A24" s="398"/>
       <c r="B24" s="133">
         <v>13</v>
       </c>
@@ -7279,7 +7279,7 @@
       <c r="U24" s="244"/>
     </row>
     <row r="25" spans="1:21" ht="20.25" customHeight="1">
-      <c r="A25" s="350"/>
+      <c r="A25" s="398"/>
       <c r="B25" s="133">
         <v>14</v>
       </c>
@@ -7304,7 +7304,7 @@
       <c r="U25" s="244"/>
     </row>
     <row r="26" spans="1:21" ht="20.25" customHeight="1">
-      <c r="A26" s="350"/>
+      <c r="A26" s="398"/>
       <c r="B26" s="133">
         <v>15</v>
       </c>
@@ -7329,7 +7329,7 @@
       <c r="U26" s="244"/>
     </row>
     <row r="27" spans="1:21" ht="20.25" customHeight="1">
-      <c r="A27" s="350"/>
+      <c r="A27" s="398"/>
       <c r="B27" s="133">
         <v>16</v>
       </c>
@@ -7354,7 +7354,7 @@
       <c r="U27" s="244"/>
     </row>
     <row r="28" spans="1:21" ht="20.25" customHeight="1">
-      <c r="A28" s="350"/>
+      <c r="A28" s="398"/>
       <c r="B28" s="133">
         <v>17</v>
       </c>
@@ -7379,7 +7379,7 @@
       <c r="U28" s="244"/>
     </row>
     <row r="29" spans="1:21" ht="17.25" thickBot="1">
-      <c r="A29" s="351"/>
+      <c r="A29" s="399"/>
       <c r="B29" s="151">
         <v>18</v>
       </c>
@@ -7404,142 +7404,142 @@
       <c r="U29" s="270"/>
     </row>
     <row r="30" spans="1:21" ht="14.1" customHeight="1">
-      <c r="A30" s="334" t="s">
+      <c r="A30" s="382" t="s">
         <v>510</v>
       </c>
-      <c r="B30" s="335"/>
-      <c r="C30" s="335"/>
-      <c r="D30" s="335"/>
-      <c r="E30" s="336"/>
-      <c r="F30" s="354">
+      <c r="B30" s="383"/>
+      <c r="C30" s="383"/>
+      <c r="D30" s="383"/>
+      <c r="E30" s="384"/>
+      <c r="F30" s="402">
         <f>O30+T32</f>
         <v>171792474.03200001</v>
       </c>
-      <c r="G30" s="355">
+      <c r="G30" s="403">
         <f t="shared" ref="G30:H31" si="10">B20+G22</f>
         <v>9</v>
       </c>
-      <c r="H30" s="356">
+      <c r="H30" s="404">
         <f t="shared" si="10"/>
         <v>167887</v>
       </c>
       <c r="I30" s="219"/>
-      <c r="J30" s="366" t="s">
+      <c r="J30" s="414" t="s">
         <v>508</v>
       </c>
       <c r="K30" s="139"/>
-      <c r="L30" s="405">
+      <c r="L30" s="341">
         <f>SUM(L12:L29)</f>
         <v>96989979.96800001</v>
       </c>
       <c r="M30" s="271"/>
-      <c r="N30" s="410" t="s">
+      <c r="N30" s="347" t="s">
         <v>517</v>
       </c>
-      <c r="O30" s="398">
+      <c r="O30" s="334">
         <f>SUM(O12:O29)</f>
         <v>151411841</v>
       </c>
-      <c r="P30" s="407">
+      <c r="P30" s="343">
         <f>O30-L30</f>
         <v>54421861.03199999</v>
       </c>
-      <c r="Q30" s="408">
+      <c r="Q30" s="345">
         <f>SUM(Q12:Q29)</f>
         <v>88.081094833898462</v>
       </c>
-      <c r="R30" s="374">
+      <c r="R30" s="371">
         <f>SUM(R12:R29)</f>
         <v>41405453</v>
       </c>
-      <c r="S30" s="403">
+      <c r="S30" s="339">
         <f>SUM(S12:S23)</f>
         <v>100</v>
       </c>
-      <c r="T30" s="381">
+      <c r="T30" s="377">
         <f>SUM(T12:T29)</f>
         <v>13016408.032000002</v>
       </c>
-      <c r="U30" s="379">
+      <c r="U30" s="375">
         <f>SUM(U12:U29)</f>
         <v>63.866554152477512</v>
       </c>
     </row>
     <row r="31" spans="1:21" ht="14.1" customHeight="1" thickBot="1">
-      <c r="A31" s="337"/>
-      <c r="B31" s="338"/>
-      <c r="C31" s="338"/>
-      <c r="D31" s="338"/>
-      <c r="E31" s="339"/>
-      <c r="F31" s="357" t="e">
+      <c r="A31" s="385"/>
+      <c r="B31" s="386"/>
+      <c r="C31" s="386"/>
+      <c r="D31" s="386"/>
+      <c r="E31" s="387"/>
+      <c r="F31" s="405" t="e">
         <f>#REF!+F23</f>
         <v>#REF!</v>
       </c>
-      <c r="G31" s="358">
+      <c r="G31" s="406">
         <f t="shared" si="10"/>
         <v>10</v>
       </c>
-      <c r="H31" s="359">
+      <c r="H31" s="407">
         <f t="shared" si="10"/>
         <v>180410</v>
       </c>
       <c r="I31" s="219"/>
-      <c r="J31" s="367"/>
+      <c r="J31" s="415"/>
       <c r="K31" s="139"/>
-      <c r="L31" s="406"/>
+      <c r="L31" s="342"/>
       <c r="M31" s="272"/>
-      <c r="N31" s="411"/>
-      <c r="O31" s="399"/>
-      <c r="P31" s="385"/>
-      <c r="Q31" s="409"/>
-      <c r="R31" s="375"/>
-      <c r="S31" s="404"/>
-      <c r="T31" s="382"/>
-      <c r="U31" s="380"/>
+      <c r="N31" s="348"/>
+      <c r="O31" s="335"/>
+      <c r="P31" s="344"/>
+      <c r="Q31" s="346"/>
+      <c r="R31" s="372"/>
+      <c r="S31" s="340"/>
+      <c r="T31" s="378"/>
+      <c r="U31" s="376"/>
     </row>
     <row r="32" spans="1:21" ht="13.7" customHeight="1">
-      <c r="A32" s="340" t="s">
+      <c r="A32" s="388" t="s">
         <v>511</v>
       </c>
-      <c r="B32" s="341"/>
-      <c r="C32" s="341"/>
-      <c r="D32" s="341"/>
-      <c r="E32" s="342"/>
-      <c r="F32" s="360">
+      <c r="B32" s="389"/>
+      <c r="C32" s="389"/>
+      <c r="D32" s="389"/>
+      <c r="E32" s="390"/>
+      <c r="F32" s="408">
         <f>T35/L30</f>
         <v>1.7712394011080284</v>
       </c>
-      <c r="G32" s="361"/>
-      <c r="H32" s="362"/>
+      <c r="G32" s="409"/>
+      <c r="H32" s="410"/>
       <c r="I32" s="220"/>
-      <c r="J32" s="352" t="s">
+      <c r="J32" s="400" t="s">
         <v>509</v>
       </c>
       <c r="K32" s="7"/>
       <c r="L32" s="247"/>
       <c r="M32" s="273"/>
-      <c r="N32" s="412" t="s">
+      <c r="N32" s="349" t="s">
         <v>518</v>
       </c>
-      <c r="O32" s="414">
+      <c r="O32" s="351">
         <v>150815890</v>
       </c>
-      <c r="P32" s="384">
+      <c r="P32" s="379">
         <f>P30+P11</f>
         <v>61786086.03199999</v>
       </c>
-      <c r="Q32" s="386">
+      <c r="Q32" s="380">
         <f>Q30+Q11</f>
         <v>100.00000000000001</v>
       </c>
-      <c r="R32" s="370">
+      <c r="R32" s="367">
         <f>R30</f>
         <v>41405453</v>
       </c>
       <c r="S32" s="280" t="s">
         <v>491</v>
       </c>
-      <c r="T32" s="372">
+      <c r="T32" s="369">
         <f>T30+T11</f>
         <v>20380633.032000002</v>
       </c>
@@ -7548,29 +7548,29 @@
       </c>
     </row>
     <row r="33" spans="1:21" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A33" s="343"/>
-      <c r="B33" s="344"/>
-      <c r="C33" s="344"/>
-      <c r="D33" s="344"/>
-      <c r="E33" s="345"/>
-      <c r="F33" s="363"/>
-      <c r="G33" s="364"/>
-      <c r="H33" s="365"/>
+      <c r="A33" s="391"/>
+      <c r="B33" s="392"/>
+      <c r="C33" s="392"/>
+      <c r="D33" s="392"/>
+      <c r="E33" s="393"/>
+      <c r="F33" s="411"/>
+      <c r="G33" s="412"/>
+      <c r="H33" s="413"/>
       <c r="I33" s="220"/>
-      <c r="J33" s="353"/>
+      <c r="J33" s="401"/>
       <c r="K33" s="7"/>
       <c r="L33" s="248"/>
       <c r="M33" s="274"/>
-      <c r="N33" s="413"/>
-      <c r="O33" s="415"/>
-      <c r="P33" s="385"/>
-      <c r="Q33" s="387"/>
-      <c r="R33" s="371"/>
+      <c r="N33" s="350"/>
+      <c r="O33" s="352"/>
+      <c r="P33" s="344"/>
+      <c r="Q33" s="381"/>
+      <c r="R33" s="368"/>
       <c r="S33" s="282">
         <f>R32/P32*100</f>
         <v>67.014202807012992</v>
       </c>
-      <c r="T33" s="373"/>
+      <c r="T33" s="370"/>
       <c r="U33" s="283">
         <f>T32/P32*100</f>
         <v>32.985797192987029</v>
@@ -7613,12 +7613,12 @@
       <c r="M35" s="141"/>
       <c r="N35" s="142"/>
       <c r="O35" s="173"/>
-      <c r="P35" s="400" t="s">
+      <c r="P35" s="336" t="s">
         <v>489</v>
       </c>
-      <c r="Q35" s="401"/>
-      <c r="R35" s="401"/>
-      <c r="S35" s="402"/>
+      <c r="Q35" s="337"/>
+      <c r="R35" s="337"/>
+      <c r="S35" s="338"/>
       <c r="T35" s="221">
         <f>O30+T32</f>
         <v>171792474.03200001</v>
@@ -7640,12 +7640,12 @@
       <c r="M36" s="141"/>
       <c r="N36" s="142"/>
       <c r="O36" s="173"/>
-      <c r="P36" s="400" t="s">
+      <c r="P36" s="336" t="s">
         <v>490</v>
       </c>
-      <c r="Q36" s="401"/>
-      <c r="R36" s="401"/>
-      <c r="S36" s="402"/>
+      <c r="Q36" s="337"/>
+      <c r="R36" s="337"/>
+      <c r="S36" s="338"/>
       <c r="T36" s="222">
         <f>T35/L30</f>
         <v>1.7712394011080284</v>
@@ -7694,6 +7694,32 @@
     </row>
   </sheetData>
   <mergeCells count="36">
+    <mergeCell ref="A30:E31"/>
+    <mergeCell ref="A32:E33"/>
+    <mergeCell ref="A6:A11"/>
+    <mergeCell ref="A12:A29"/>
+    <mergeCell ref="J32:J33"/>
+    <mergeCell ref="F30:H31"/>
+    <mergeCell ref="F32:H33"/>
+    <mergeCell ref="J30:J31"/>
+    <mergeCell ref="T3:U3"/>
+    <mergeCell ref="R32:R33"/>
+    <mergeCell ref="T32:T33"/>
+    <mergeCell ref="R30:R31"/>
+    <mergeCell ref="P4:U4"/>
+    <mergeCell ref="U30:U31"/>
+    <mergeCell ref="T30:T31"/>
+    <mergeCell ref="R3:S3"/>
+    <mergeCell ref="P32:P33"/>
+    <mergeCell ref="Q32:Q33"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="P3:Q3"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="H4:O4"/>
     <mergeCell ref="O30:O31"/>
     <mergeCell ref="P35:S35"/>
     <mergeCell ref="P36:S36"/>
@@ -7704,32 +7730,6 @@
     <mergeCell ref="N30:N31"/>
     <mergeCell ref="N32:N33"/>
     <mergeCell ref="O32:O33"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="L3:M3"/>
-    <mergeCell ref="P3:Q3"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="J5:K5"/>
-    <mergeCell ref="H4:O4"/>
-    <mergeCell ref="T3:U3"/>
-    <mergeCell ref="R32:R33"/>
-    <mergeCell ref="T32:T33"/>
-    <mergeCell ref="R30:R31"/>
-    <mergeCell ref="P4:U4"/>
-    <mergeCell ref="U30:U31"/>
-    <mergeCell ref="T30:T31"/>
-    <mergeCell ref="R3:S3"/>
-    <mergeCell ref="P32:P33"/>
-    <mergeCell ref="Q32:Q33"/>
-    <mergeCell ref="A30:E31"/>
-    <mergeCell ref="A32:E33"/>
-    <mergeCell ref="A6:A11"/>
-    <mergeCell ref="A12:A29"/>
-    <mergeCell ref="J32:J33"/>
-    <mergeCell ref="F30:H31"/>
-    <mergeCell ref="F32:H33"/>
-    <mergeCell ref="J30:J31"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
@@ -7743,8 +7743,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:L67"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F57" sqref="F57"/>
+    <sheetView tabSelected="1" topLeftCell="A34" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H59" sqref="H59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -9614,7 +9614,9 @@
         <v>217</v>
       </c>
       <c r="G58" s="33"/>
-      <c r="H58" s="33"/>
+      <c r="H58" s="33">
+        <v>10</v>
+      </c>
       <c r="I58" s="33"/>
       <c r="J58" s="32"/>
       <c r="K58" s="32"/>
@@ -9685,7 +9687,7 @@
       </c>
       <c r="H61" s="83">
         <f>+H57+H58+10</f>
-        <v>-1199990</v>
+        <v>-1199980</v>
       </c>
       <c r="I61" s="83"/>
       <c r="J61" s="83"/>
@@ -9721,7 +9723,7 @@
       </c>
       <c r="H62" s="94">
         <f t="shared" si="28"/>
-        <v>4901421.0159999998</v>
+        <v>4901431.0159999998</v>
       </c>
       <c r="I62" s="94"/>
       <c r="J62" s="77"/>
@@ -9791,7 +9793,7 @@
       </c>
       <c r="H64" s="20">
         <f t="shared" ref="H64" si="31">+H62/H63/1000</f>
-        <v>12.253552539999999</v>
+        <v>12.25357754</v>
       </c>
       <c r="I64" s="20"/>
       <c r="J64" s="20"/>
@@ -21730,8 +21732,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
   <dimension ref="A1:L67"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F66" sqref="F66"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7:L7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -21942,15 +21944,15 @@
         <v>10</v>
       </c>
       <c r="C6" s="80">
-        <f>+C4*C5*1000</f>
+        <f>ROUNDDOWN(+C4*C5*1000,0)</f>
         <v>170500</v>
       </c>
       <c r="D6" s="80">
-        <f>+D4*D5*1000</f>
+        <f t="shared" ref="D6:L6" si="0">ROUNDDOWN(+D4*D5*1000,0)</f>
         <v>170000</v>
       </c>
       <c r="E6" s="80">
-        <f t="shared" ref="E6:F6" si="0">+E4*E5*1000</f>
+        <f t="shared" si="0"/>
         <v>339000</v>
       </c>
       <c r="F6" s="80">
@@ -21958,27 +21960,27 @@
         <v>168250</v>
       </c>
       <c r="G6" s="80">
-        <f t="shared" ref="G6:H6" si="1">+G4*G5*1000</f>
+        <f t="shared" si="0"/>
         <v>1430000</v>
       </c>
       <c r="H6" s="80">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>141250</v>
       </c>
       <c r="I6" s="80">
-        <f t="shared" ref="I6:K6" si="2">+I4*I5*1000</f>
+        <f t="shared" si="0"/>
         <v>144250</v>
       </c>
       <c r="J6" s="80">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>434250</v>
       </c>
       <c r="K6" s="80">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>432750</v>
       </c>
       <c r="L6" s="80">
-        <f t="shared" ref="L6" si="3">+L4*L5*1000</f>
+        <f t="shared" si="0"/>
         <v>432000</v>
       </c>
     </row>
@@ -21990,44 +21992,44 @@
         <v>12</v>
       </c>
       <c r="C7" s="33">
-        <f>+C6*0.001425*0.45</f>
-        <v>109.33312500000001</v>
+        <f>ROUNDDOWN(+C6*0.001425*0.45,0)</f>
+        <v>109</v>
       </c>
       <c r="D7" s="33">
-        <f>+D6*0.001425*0.45</f>
-        <v>109.0125</v>
+        <f t="shared" ref="D7:L7" si="1">ROUNDDOWN(+D6*0.001425*0.45,0)</f>
+        <v>109</v>
       </c>
       <c r="E7" s="33">
-        <f t="shared" ref="E7:F7" si="4">+E6*0.001425*0.45</f>
-        <v>217.38375000000002</v>
+        <f t="shared" si="1"/>
+        <v>217</v>
       </c>
       <c r="F7" s="33">
-        <f t="shared" si="4"/>
-        <v>107.89031250000001</v>
+        <f t="shared" si="1"/>
+        <v>107</v>
       </c>
       <c r="G7" s="33">
-        <f t="shared" ref="G7:H7" si="5">+G6*0.001425*0.45</f>
-        <v>916.98750000000007</v>
+        <f t="shared" si="1"/>
+        <v>916</v>
       </c>
       <c r="H7" s="33">
-        <f t="shared" si="5"/>
-        <v>90.576562500000009</v>
+        <f t="shared" si="1"/>
+        <v>90</v>
       </c>
       <c r="I7" s="33">
-        <f t="shared" ref="I7:K7" si="6">+I6*0.001425*0.45</f>
-        <v>92.500312500000007</v>
+        <f t="shared" si="1"/>
+        <v>92</v>
       </c>
       <c r="J7" s="33">
-        <f t="shared" si="6"/>
-        <v>278.46281249999998</v>
+        <f t="shared" si="1"/>
+        <v>278</v>
       </c>
       <c r="K7" s="33">
-        <f t="shared" si="6"/>
-        <v>277.50093750000002</v>
+        <f t="shared" si="1"/>
+        <v>277</v>
       </c>
       <c r="L7" s="33">
-        <f t="shared" ref="L7" si="7">+L6*0.001425*0.45</f>
-        <v>277.02000000000004</v>
+        <f t="shared" si="1"/>
+        <v>277</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -22075,43 +22077,43 @@
       </c>
       <c r="C10" s="83">
         <f>SUM(C6:C9)</f>
-        <v>170609.333125</v>
+        <v>170609</v>
       </c>
       <c r="D10" s="83">
         <f>SUM(D6:D9)</f>
-        <v>170109.01250000001</v>
+        <v>170109</v>
       </c>
       <c r="E10" s="83">
-        <f t="shared" ref="E10:F10" si="8">SUM(E6:E9)</f>
-        <v>339217.38374999998</v>
+        <f t="shared" ref="E10:F10" si="2">SUM(E6:E9)</f>
+        <v>339217</v>
       </c>
       <c r="F10" s="83">
-        <f t="shared" si="8"/>
-        <v>168357.89031250001</v>
+        <f t="shared" si="2"/>
+        <v>168357</v>
       </c>
       <c r="G10" s="83">
-        <f t="shared" ref="G10:H10" si="9">SUM(G6:G9)</f>
-        <v>1430916.9875</v>
+        <f t="shared" ref="G10:H10" si="3">SUM(G6:G9)</f>
+        <v>1430916</v>
       </c>
       <c r="H10" s="83">
-        <f t="shared" si="9"/>
-        <v>141340.57656250001</v>
+        <f t="shared" si="3"/>
+        <v>141340</v>
       </c>
       <c r="I10" s="83">
-        <f t="shared" ref="I10:K10" si="10">SUM(I6:I9)</f>
-        <v>144342.50031249999</v>
+        <f t="shared" ref="I10:K10" si="4">SUM(I6:I9)</f>
+        <v>144342</v>
       </c>
       <c r="J10" s="83">
-        <f t="shared" si="10"/>
-        <v>434528.46281250002</v>
+        <f t="shared" si="4"/>
+        <v>434528</v>
       </c>
       <c r="K10" s="83">
-        <f t="shared" si="10"/>
-        <v>433027.50093749998</v>
+        <f t="shared" si="4"/>
+        <v>433027</v>
       </c>
       <c r="L10" s="83">
-        <f t="shared" ref="L10" si="11">SUM(L6:L9)</f>
-        <v>432277.02</v>
+        <f t="shared" ref="L10" si="5">SUM(L6:L9)</f>
+        <v>432277</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -22123,43 +22125,43 @@
       </c>
       <c r="C11" s="77">
         <f>+C10</f>
-        <v>170609.333125</v>
+        <v>170609</v>
       </c>
       <c r="D11" s="77">
         <f>+C11+D10</f>
-        <v>340718.34562500002</v>
+        <v>340718</v>
       </c>
       <c r="E11" s="77">
-        <f t="shared" ref="E11:I11" si="12">+D11+E10</f>
-        <v>679935.729375</v>
+        <f t="shared" ref="E11:I11" si="6">+D11+E10</f>
+        <v>679935</v>
       </c>
       <c r="F11" s="77">
-        <f t="shared" si="12"/>
-        <v>848293.61968749994</v>
+        <f t="shared" si="6"/>
+        <v>848292</v>
       </c>
       <c r="G11" s="77">
-        <f t="shared" si="12"/>
-        <v>2279210.6071875002</v>
+        <f t="shared" si="6"/>
+        <v>2279208</v>
       </c>
       <c r="H11" s="77">
-        <f t="shared" si="12"/>
-        <v>2420551.1837500003</v>
+        <f t="shared" si="6"/>
+        <v>2420548</v>
       </c>
       <c r="I11" s="77">
-        <f t="shared" si="12"/>
-        <v>2564893.6840625005</v>
+        <f t="shared" si="6"/>
+        <v>2564890</v>
       </c>
       <c r="J11" s="77">
-        <f t="shared" ref="J11" si="13">+I11+J10</f>
-        <v>2999422.1468750006</v>
+        <f t="shared" ref="J11" si="7">+I11+J10</f>
+        <v>2999418</v>
       </c>
       <c r="K11" s="77">
-        <f t="shared" ref="K11:L11" si="14">+J11+K10</f>
-        <v>3432449.6478125006</v>
+        <f t="shared" ref="K11:L11" si="8">+J11+K10</f>
+        <v>3432445</v>
       </c>
       <c r="L11" s="77">
-        <f t="shared" si="14"/>
-        <v>3864726.6678125006</v>
+        <f t="shared" si="8"/>
+        <v>3864722</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -22178,35 +22180,35 @@
         <v>10</v>
       </c>
       <c r="E12" s="19">
-        <f t="shared" ref="E12:I12" si="15">+D12+E5</f>
+        <f t="shared" ref="E12:I12" si="9">+D12+E5</f>
         <v>20</v>
       </c>
       <c r="F12" s="19">
-        <f t="shared" si="15"/>
+        <f t="shared" si="9"/>
         <v>25</v>
       </c>
       <c r="G12" s="19">
-        <f t="shared" si="15"/>
+        <f t="shared" si="9"/>
         <v>75</v>
       </c>
       <c r="H12" s="19">
-        <f t="shared" si="15"/>
+        <f t="shared" si="9"/>
         <v>80</v>
       </c>
       <c r="I12" s="19">
-        <f t="shared" si="15"/>
+        <f t="shared" si="9"/>
         <v>85</v>
       </c>
       <c r="J12" s="19">
-        <f t="shared" ref="J12" si="16">+I12+J5</f>
+        <f t="shared" ref="J12" si="10">+I12+J5</f>
         <v>100</v>
       </c>
       <c r="K12" s="19">
-        <f t="shared" ref="K12:L12" si="17">+J12+K5</f>
+        <f t="shared" ref="K12:L12" si="11">+J12+K5</f>
         <v>115</v>
       </c>
       <c r="L12" s="19">
-        <f t="shared" si="17"/>
+        <f t="shared" si="11"/>
         <v>130</v>
       </c>
     </row>
@@ -22219,43 +22221,43 @@
       </c>
       <c r="C13" s="20">
         <f>+C11/C12/1000</f>
-        <v>34.121866625000003</v>
+        <v>34.1218</v>
       </c>
       <c r="D13" s="20">
         <f>+D11/D12/1000</f>
-        <v>34.071834562500001</v>
+        <v>34.071800000000003</v>
       </c>
       <c r="E13" s="20">
-        <f t="shared" ref="E13:F13" si="18">+E11/E12/1000</f>
-        <v>33.996786468749995</v>
+        <f t="shared" ref="E13:F13" si="12">+E11/E12/1000</f>
+        <v>33.996749999999999</v>
       </c>
       <c r="F13" s="20">
-        <f t="shared" si="18"/>
-        <v>33.931744787500001</v>
+        <f t="shared" si="12"/>
+        <v>33.93168</v>
       </c>
       <c r="G13" s="20">
-        <f t="shared" ref="G13:H13" si="19">+G11/G12/1000</f>
-        <v>30.389474762500001</v>
+        <f t="shared" ref="G13:H13" si="13">+G11/G12/1000</f>
+        <v>30.38944</v>
       </c>
       <c r="H13" s="20">
-        <f t="shared" si="19"/>
-        <v>30.256889796875001</v>
+        <f t="shared" si="13"/>
+        <v>30.25685</v>
       </c>
       <c r="I13" s="34">
-        <f t="shared" ref="I13:K13" si="20">+I11/I12/1000</f>
-        <v>30.175219812500007</v>
+        <f t="shared" ref="I13:K13" si="14">+I11/I12/1000</f>
+        <v>30.175176470588234</v>
       </c>
       <c r="J13" s="34">
-        <f t="shared" si="20"/>
-        <v>29.994221468750005</v>
+        <f t="shared" si="14"/>
+        <v>29.99418</v>
       </c>
       <c r="K13" s="34">
-        <f t="shared" si="20"/>
-        <v>29.847388241847831</v>
+        <f t="shared" si="14"/>
+        <v>29.847347826086956</v>
       </c>
       <c r="L13" s="34">
-        <f t="shared" ref="L13" si="21">+L11/L12/1000</f>
-        <v>29.728666675480774</v>
+        <f t="shared" ref="L13" si="15">+L11/L12/1000</f>
+        <v>29.728630769230772</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -22531,23 +22533,23 @@
         <v>143500</v>
       </c>
       <c r="E23" s="80">
-        <f t="shared" ref="E23:L23" si="22">+E21*E22*1000</f>
+        <f t="shared" ref="E23:L23" si="16">+E21*E22*1000</f>
         <v>143250</v>
       </c>
       <c r="F23" s="80">
-        <f t="shared" si="22"/>
+        <f t="shared" si="16"/>
         <v>286000</v>
       </c>
       <c r="G23" s="80">
-        <f t="shared" si="22"/>
+        <f t="shared" si="16"/>
         <v>142750</v>
       </c>
       <c r="H23" s="80">
-        <f t="shared" si="22"/>
+        <f t="shared" si="16"/>
         <v>142500</v>
       </c>
       <c r="I23" s="80">
-        <f t="shared" si="22"/>
+        <f t="shared" si="16"/>
         <v>142250</v>
       </c>
       <c r="J23" s="80">
@@ -22555,11 +22557,11 @@
         <v>-350000</v>
       </c>
       <c r="K23" s="80">
-        <f t="shared" si="22"/>
+        <f t="shared" si="16"/>
         <v>-350000</v>
       </c>
       <c r="L23" s="80">
-        <f t="shared" si="22"/>
+        <f t="shared" si="16"/>
         <v>-402499.99999999994</v>
       </c>
     </row>
@@ -22579,23 +22581,23 @@
         <v>204.48750000000001</v>
       </c>
       <c r="E24" s="33">
-        <f t="shared" ref="E24:I24" si="23">+E23*0.001425</f>
+        <f t="shared" ref="E24:I24" si="17">+E23*0.001425</f>
         <v>204.13124999999999</v>
       </c>
       <c r="F24" s="33">
-        <f t="shared" si="23"/>
+        <f t="shared" si="17"/>
         <v>407.55</v>
       </c>
       <c r="G24" s="33">
-        <f t="shared" si="23"/>
+        <f t="shared" si="17"/>
         <v>203.41875000000002</v>
       </c>
       <c r="H24" s="33">
-        <f t="shared" si="23"/>
+        <f t="shared" si="17"/>
         <v>203.0625</v>
       </c>
       <c r="I24" s="33">
-        <f t="shared" si="23"/>
+        <f t="shared" si="17"/>
         <v>202.70625000000001</v>
       </c>
       <c r="J24" s="31"/>
@@ -22654,23 +22656,23 @@
         <v>143704.48749999999</v>
       </c>
       <c r="E27" s="83">
-        <f t="shared" ref="E27:I27" si="24">SUM(E23:E26)</f>
+        <f t="shared" ref="E27:I27" si="18">SUM(E23:E26)</f>
         <v>143454.13125000001</v>
       </c>
       <c r="F27" s="83">
-        <f t="shared" si="24"/>
+        <f t="shared" si="18"/>
         <v>286407.55</v>
       </c>
       <c r="G27" s="83">
-        <f t="shared" si="24"/>
+        <f t="shared" si="18"/>
         <v>142953.41875000001</v>
       </c>
       <c r="H27" s="83">
-        <f t="shared" si="24"/>
+        <f t="shared" si="18"/>
         <v>142703.0625</v>
       </c>
       <c r="I27" s="83">
-        <f t="shared" si="24"/>
+        <f t="shared" si="18"/>
         <v>142452.70624999999</v>
       </c>
       <c r="J27" s="83">
@@ -22692,43 +22694,43 @@
       </c>
       <c r="C28" s="77">
         <f>+L11+C23</f>
-        <v>4152226.6678125006</v>
+        <v>4152222</v>
       </c>
       <c r="D28" s="94">
         <f>+C28+D27</f>
-        <v>4295931.1553125009</v>
+        <v>4295926.4874999998</v>
       </c>
       <c r="E28" s="94">
-        <f t="shared" ref="E28:I28" si="25">+D28+E27</f>
-        <v>4439385.2865625005</v>
+        <f t="shared" ref="E28:I28" si="19">+D28+E27</f>
+        <v>4439380.6187499994</v>
       </c>
       <c r="F28" s="94">
-        <f t="shared" si="25"/>
-        <v>4725792.8365625003</v>
+        <f t="shared" si="19"/>
+        <v>4725788.1687499993</v>
       </c>
       <c r="G28" s="94">
-        <f t="shared" si="25"/>
-        <v>4868746.2553125005</v>
+        <f t="shared" si="19"/>
+        <v>4868741.5874999994</v>
       </c>
       <c r="H28" s="94">
-        <f t="shared" si="25"/>
-        <v>5011449.3178125005</v>
+        <f t="shared" si="19"/>
+        <v>5011444.6499999994</v>
       </c>
       <c r="I28" s="94">
-        <f t="shared" si="25"/>
-        <v>5153902.0240625003</v>
+        <f t="shared" si="19"/>
+        <v>5153897.3562499993</v>
       </c>
       <c r="J28" s="77">
         <f>I28+J27</f>
-        <v>4804141.0240625003</v>
+        <v>4804136.3562499993</v>
       </c>
       <c r="K28" s="77">
-        <f t="shared" ref="K28" si="26">J28+K27</f>
-        <v>4454380.0240625003</v>
+        <f t="shared" ref="K28" si="20">J28+K27</f>
+        <v>4454375.3562499993</v>
       </c>
       <c r="L28" s="77">
         <f>K28+L27</f>
-        <v>4058841.0240625003</v>
+        <v>4058836.3562499993</v>
       </c>
     </row>
     <row r="29" spans="1:12">
@@ -22747,23 +22749,23 @@
         <v>145</v>
       </c>
       <c r="E29" s="26">
-        <f t="shared" ref="E29:I29" si="27">+D29+E22</f>
+        <f t="shared" ref="E29:I29" si="21">+D29+E22</f>
         <v>150</v>
       </c>
       <c r="F29" s="26">
-        <f t="shared" si="27"/>
+        <f t="shared" si="21"/>
         <v>160</v>
       </c>
       <c r="G29" s="26">
-        <f t="shared" si="27"/>
+        <f t="shared" si="21"/>
         <v>165</v>
       </c>
       <c r="H29" s="26">
-        <f t="shared" si="27"/>
+        <f t="shared" si="21"/>
         <v>170</v>
       </c>
       <c r="I29" s="26">
-        <f t="shared" si="27"/>
+        <f t="shared" si="21"/>
         <v>175</v>
       </c>
       <c r="J29" s="17">
@@ -22771,11 +22773,11 @@
         <v>175</v>
       </c>
       <c r="K29" s="17">
-        <f t="shared" ref="K29:L29" si="28">K22</f>
+        <f t="shared" ref="K29:L29" si="22">K22</f>
         <v>175</v>
       </c>
       <c r="L29" s="17">
-        <f t="shared" si="28"/>
+        <f t="shared" si="22"/>
         <v>175</v>
       </c>
     </row>
@@ -22788,43 +22790,43 @@
       </c>
       <c r="C30" s="20">
         <f>+C28/C29/1000</f>
-        <v>29.658761912946431</v>
+        <v>29.658728571428572</v>
       </c>
       <c r="D30" s="20">
         <f>+D28/D29/1000</f>
-        <v>29.627111415948281</v>
+        <v>29.62707922413793</v>
       </c>
       <c r="E30" s="20">
-        <f t="shared" ref="E30:I30" si="29">+E28/E29/1000</f>
-        <v>29.595901910416668</v>
+        <f t="shared" ref="E30:I30" si="23">+E28/E29/1000</f>
+        <v>29.595870791666666</v>
       </c>
       <c r="F30" s="20">
-        <f t="shared" si="29"/>
-        <v>29.536205228515627</v>
+        <f t="shared" si="23"/>
+        <v>29.536176054687495</v>
       </c>
       <c r="G30" s="20">
-        <f t="shared" si="29"/>
-        <v>29.507553062500001</v>
+        <f t="shared" si="23"/>
+        <v>29.507524772727269</v>
       </c>
       <c r="H30" s="20">
-        <f t="shared" si="29"/>
-        <v>29.479113634191179</v>
+        <f t="shared" si="23"/>
+        <v>29.479086176470584</v>
       </c>
       <c r="I30" s="20">
-        <f t="shared" si="29"/>
-        <v>29.450868708928574</v>
+        <f t="shared" si="23"/>
+        <v>29.450842035714281</v>
       </c>
       <c r="J30" s="45">
         <f>J28/J29/1000</f>
-        <v>27.452234423214286</v>
+        <v>27.452207749999992</v>
       </c>
       <c r="K30" s="45">
-        <f t="shared" ref="K30:L30" si="30">K28/K29/1000</f>
-        <v>25.4536001375</v>
+        <f t="shared" ref="K30:L30" si="24">K28/K29/1000</f>
+        <v>25.453573464285711</v>
       </c>
       <c r="L30" s="45">
-        <f t="shared" si="30"/>
-        <v>23.193377280357144</v>
+        <f t="shared" si="24"/>
+        <v>23.193350607142854</v>
       </c>
     </row>
     <row r="31" spans="1:12">
@@ -23092,39 +23094,39 @@
         <v>-402499.99999999994</v>
       </c>
       <c r="D40" s="80">
-        <f t="shared" ref="D40:E40" si="31">+D38*D39*1000</f>
+        <f t="shared" ref="D40:E40" si="25">+D38*D39*1000</f>
         <v>-331800</v>
       </c>
       <c r="E40" s="80">
-        <f t="shared" si="31"/>
+        <f t="shared" si="25"/>
         <v>-105200</v>
       </c>
       <c r="F40" s="80">
-        <f t="shared" ref="F40:I40" si="32">+F38*F39*1000</f>
+        <f t="shared" ref="F40:I40" si="26">+F38*F39*1000</f>
         <v>-159899.99999999997</v>
       </c>
       <c r="G40" s="80">
-        <f t="shared" si="32"/>
+        <f t="shared" si="26"/>
         <v>-268000</v>
       </c>
       <c r="H40" s="80">
-        <f t="shared" si="32"/>
+        <f t="shared" si="26"/>
         <v>-269000</v>
       </c>
       <c r="I40" s="80">
-        <f t="shared" si="32"/>
+        <f t="shared" si="26"/>
         <v>-270000</v>
       </c>
       <c r="J40" s="80">
-        <f t="shared" ref="J40:K40" si="33">+J38*J39*1000</f>
+        <f t="shared" ref="J40:K40" si="27">+J38*J39*1000</f>
         <v>-266500</v>
       </c>
       <c r="K40" s="80">
-        <f t="shared" si="33"/>
+        <f t="shared" si="27"/>
         <v>-268000</v>
       </c>
       <c r="L40" s="80">
-        <f t="shared" ref="L40" si="34">+L38*L39*1000</f>
+        <f t="shared" ref="L40" si="28">+L38*L39*1000</f>
         <v>-528000</v>
       </c>
     </row>
@@ -23140,35 +23142,35 @@
         <v>10</v>
       </c>
       <c r="E41" s="33">
-        <f t="shared" ref="E41:K41" si="35">-(+E40*0.001425*0.45)</f>
+        <f t="shared" ref="E41:K41" si="29">-(+E40*0.001425*0.45)</f>
         <v>67.459500000000006</v>
       </c>
       <c r="F41" s="33">
-        <f t="shared" si="35"/>
+        <f t="shared" si="29"/>
         <v>102.53587499999999</v>
       </c>
       <c r="G41" s="33">
-        <f t="shared" si="35"/>
+        <f t="shared" si="29"/>
         <v>171.85500000000002</v>
       </c>
       <c r="H41" s="33">
-        <f t="shared" si="35"/>
+        <f t="shared" si="29"/>
         <v>172.49625</v>
       </c>
       <c r="I41" s="33">
-        <f t="shared" si="35"/>
+        <f t="shared" si="29"/>
         <v>173.13750000000002</v>
       </c>
       <c r="J41" s="33">
-        <f t="shared" si="35"/>
+        <f t="shared" si="29"/>
         <v>170.893125</v>
       </c>
       <c r="K41" s="33">
-        <f t="shared" si="35"/>
+        <f t="shared" si="29"/>
         <v>171.85500000000002</v>
       </c>
       <c r="L41" s="33">
-        <f t="shared" ref="L41" si="36">-(+L40*0.001425*0.45)</f>
+        <f t="shared" ref="L41" si="30">-(+L40*0.001425*0.45)</f>
         <v>338.58</v>
       </c>
     </row>
@@ -23182,35 +23184,35 @@
       <c r="C42" s="33"/>
       <c r="D42" s="33"/>
       <c r="E42" s="33">
-        <f t="shared" ref="E42:K42" si="37">-ROUNDDOWN(E40*3/1000,0)</f>
+        <f t="shared" ref="E42:K42" si="31">-ROUNDDOWN(E40*3/1000,0)</f>
         <v>315</v>
       </c>
       <c r="F42" s="33">
-        <f t="shared" si="37"/>
+        <f t="shared" si="31"/>
         <v>479</v>
       </c>
       <c r="G42" s="33">
-        <f t="shared" si="37"/>
+        <f t="shared" si="31"/>
         <v>804</v>
       </c>
       <c r="H42" s="33">
-        <f t="shared" si="37"/>
+        <f t="shared" si="31"/>
         <v>807</v>
       </c>
       <c r="I42" s="33">
-        <f t="shared" si="37"/>
+        <f t="shared" si="31"/>
         <v>810</v>
       </c>
       <c r="J42" s="33">
-        <f t="shared" si="37"/>
+        <f t="shared" si="31"/>
         <v>799</v>
       </c>
       <c r="K42" s="33">
-        <f t="shared" si="37"/>
+        <f t="shared" si="31"/>
         <v>804</v>
       </c>
       <c r="L42" s="33">
-        <f t="shared" ref="L42" si="38">-ROUNDDOWN(L40*3/1000,0)</f>
+        <f t="shared" ref="L42" si="32">-ROUNDDOWN(L40*3/1000,0)</f>
         <v>1584</v>
       </c>
     </row>
@@ -23247,35 +23249,35 @@
         <v>-331790</v>
       </c>
       <c r="E44" s="83">
-        <f t="shared" ref="E44:I44" si="39">SUM(E40:E43)</f>
+        <f t="shared" ref="E44:I44" si="33">SUM(E40:E43)</f>
         <v>-104817.5405</v>
       </c>
       <c r="F44" s="83">
-        <f t="shared" si="39"/>
+        <f t="shared" si="33"/>
         <v>-159318.46412499997</v>
       </c>
       <c r="G44" s="83">
-        <f t="shared" si="39"/>
+        <f t="shared" si="33"/>
         <v>-267024.14500000002</v>
       </c>
       <c r="H44" s="83">
-        <f t="shared" si="39"/>
+        <f t="shared" si="33"/>
         <v>-268020.50374999997</v>
       </c>
       <c r="I44" s="83">
-        <f t="shared" si="39"/>
+        <f t="shared" si="33"/>
         <v>-269016.86249999999</v>
       </c>
       <c r="J44" s="83">
-        <f t="shared" ref="J44:K44" si="40">SUM(J40:J43)</f>
+        <f t="shared" ref="J44:K44" si="34">SUM(J40:J43)</f>
         <v>-265530.106875</v>
       </c>
       <c r="K44" s="83">
-        <f t="shared" si="40"/>
+        <f t="shared" si="34"/>
         <v>-267024.14500000002</v>
       </c>
       <c r="L44" s="83">
-        <f t="shared" ref="L44" si="41">SUM(L40:L43)</f>
+        <f t="shared" ref="L44" si="35">SUM(L40:L43)</f>
         <v>-526077.42000000004</v>
       </c>
     </row>
@@ -23294,35 +23296,35 @@
         <v>3727051.0240625003</v>
       </c>
       <c r="E45" s="77">
-        <f t="shared" ref="E45" si="42">E44+D45</f>
+        <f t="shared" ref="E45" si="36">E44+D45</f>
         <v>3622233.4835625002</v>
       </c>
       <c r="F45" s="77">
-        <f t="shared" ref="F45" si="43">F44+E45</f>
+        <f t="shared" ref="F45" si="37">F44+E45</f>
         <v>3462915.0194375003</v>
       </c>
       <c r="G45" s="77">
-        <f t="shared" ref="G45" si="44">G44+F45</f>
+        <f t="shared" ref="G45" si="38">G44+F45</f>
         <v>3195890.8744375003</v>
       </c>
       <c r="H45" s="77">
-        <f t="shared" ref="H45" si="45">H44+G45</f>
+        <f t="shared" ref="H45" si="39">H44+G45</f>
         <v>2927870.3706875001</v>
       </c>
       <c r="I45" s="77">
-        <f t="shared" ref="I45:L45" si="46">I44+H45</f>
+        <f t="shared" ref="I45:L45" si="40">I44+H45</f>
         <v>2658853.5081875003</v>
       </c>
       <c r="J45" s="77">
-        <f t="shared" si="46"/>
+        <f t="shared" si="40"/>
         <v>2393323.4013125002</v>
       </c>
       <c r="K45" s="77">
-        <f t="shared" si="46"/>
+        <f t="shared" si="40"/>
         <v>2126299.2563125002</v>
       </c>
       <c r="L45" s="77">
-        <f t="shared" si="46"/>
+        <f t="shared" si="40"/>
         <v>1600221.8363125003</v>
       </c>
     </row>
@@ -23340,35 +23342,35 @@
         <v>175</v>
       </c>
       <c r="E46" s="19">
-        <f t="shared" ref="E46" si="47">+D46+E39</f>
+        <f t="shared" ref="E46" si="41">+D46+E39</f>
         <v>173</v>
       </c>
       <c r="F46" s="19">
-        <f t="shared" ref="F46" si="48">+E46+F39</f>
+        <f t="shared" ref="F46" si="42">+E46+F39</f>
         <v>170</v>
       </c>
       <c r="G46" s="19">
-        <f t="shared" ref="G46" si="49">+F46+G39</f>
+        <f t="shared" ref="G46" si="43">+F46+G39</f>
         <v>165</v>
       </c>
       <c r="H46" s="19">
-        <f t="shared" ref="H46" si="50">+G46+H39</f>
+        <f t="shared" ref="H46" si="44">+G46+H39</f>
         <v>160</v>
       </c>
       <c r="I46" s="19">
-        <f t="shared" ref="I46" si="51">+H46+I39</f>
+        <f t="shared" ref="I46" si="45">+H46+I39</f>
         <v>155</v>
       </c>
       <c r="J46" s="19">
-        <f t="shared" ref="J46" si="52">+I46+J39</f>
+        <f t="shared" ref="J46" si="46">+I46+J39</f>
         <v>150</v>
       </c>
       <c r="K46" s="19">
-        <f t="shared" ref="K46:L46" si="53">+J46+K39</f>
+        <f t="shared" ref="K46:L46" si="47">+J46+K39</f>
         <v>145</v>
       </c>
       <c r="L46" s="19">
-        <f t="shared" si="53"/>
+        <f t="shared" si="47"/>
         <v>135</v>
       </c>
     </row>
@@ -23387,35 +23389,35 @@
         <v>21.297434423214288</v>
       </c>
       <c r="E47" s="20">
-        <f t="shared" ref="E47:I47" si="54">+E45/E46/1000</f>
+        <f t="shared" ref="E47:I47" si="48">+E45/E46/1000</f>
         <v>20.93776580093931</v>
       </c>
       <c r="F47" s="20">
-        <f t="shared" si="54"/>
+        <f t="shared" si="48"/>
         <v>20.370088349632354</v>
       </c>
       <c r="G47" s="20">
-        <f t="shared" si="54"/>
+        <f t="shared" si="48"/>
         <v>19.369035602651518</v>
       </c>
       <c r="H47" s="20">
-        <f t="shared" si="54"/>
+        <f t="shared" si="48"/>
         <v>18.299189816796876</v>
       </c>
       <c r="I47" s="34">
-        <f t="shared" si="54"/>
+        <f t="shared" si="48"/>
         <v>17.153893601209678</v>
       </c>
       <c r="J47" s="34">
-        <f t="shared" ref="J47:K47" si="55">+J45/J46/1000</f>
+        <f t="shared" ref="J47:K47" si="49">+J45/J46/1000</f>
         <v>15.955489342083334</v>
       </c>
       <c r="K47" s="34">
-        <f t="shared" si="55"/>
+        <f t="shared" si="49"/>
         <v>14.664132802155175</v>
       </c>
       <c r="L47" s="34">
-        <f t="shared" ref="L47" si="56">+L45/L46/1000</f>
+        <f t="shared" ref="L47" si="50">+L45/L46/1000</f>
         <v>11.853495083796298</v>
       </c>
     </row>
@@ -23631,19 +23633,19 @@
         <v>10</v>
       </c>
       <c r="C57" s="80">
-        <f t="shared" ref="C57:F57" si="57">+C55*C56*1000</f>
+        <f t="shared" ref="C57:F57" si="51">+C55*C56*1000</f>
         <v>-264500</v>
       </c>
       <c r="D57" s="80">
-        <f t="shared" si="57"/>
+        <f t="shared" si="51"/>
         <v>-267500</v>
       </c>
       <c r="E57" s="80">
-        <f t="shared" si="57"/>
+        <f t="shared" si="51"/>
         <v>-268000</v>
       </c>
       <c r="F57" s="80">
-        <f t="shared" si="57"/>
+        <f t="shared" si="51"/>
         <v>-245834.99999999997</v>
       </c>
       <c r="G57" s="80"/>
@@ -23661,15 +23663,15 @@
         <v>12</v>
       </c>
       <c r="C58" s="33">
-        <f t="shared" ref="C58:E58" si="58">-(+C57*0.001425*0.45)</f>
+        <f t="shared" ref="C58:E58" si="52">-(+C57*0.001425*0.45)</f>
         <v>169.61062500000003</v>
       </c>
       <c r="D58" s="33">
-        <f t="shared" si="58"/>
+        <f t="shared" si="52"/>
         <v>171.53437500000001</v>
       </c>
       <c r="E58" s="33">
-        <f t="shared" si="58"/>
+        <f t="shared" si="52"/>
         <v>171.85500000000002</v>
       </c>
       <c r="F58" s="31">
@@ -23690,15 +23692,15 @@
         <v>14</v>
       </c>
       <c r="C59" s="33">
-        <f t="shared" ref="C59:E59" si="59">-ROUNDDOWN(C57*3/1000,0)</f>
+        <f t="shared" ref="C59:E59" si="53">-ROUNDDOWN(C57*3/1000,0)</f>
         <v>793</v>
       </c>
       <c r="D59" s="33">
-        <f t="shared" si="59"/>
+        <f t="shared" si="53"/>
         <v>802</v>
       </c>
       <c r="E59" s="33">
-        <f t="shared" si="59"/>
+        <f t="shared" si="53"/>
         <v>804</v>
       </c>
       <c r="F59" s="31"/>
@@ -23735,15 +23737,15 @@
         <v>18</v>
       </c>
       <c r="C61" s="83">
-        <f t="shared" ref="C61:E61" si="60">SUM(C57:C60)</f>
+        <f t="shared" ref="C61:E61" si="54">SUM(C57:C60)</f>
         <v>-263537.38937500003</v>
       </c>
       <c r="D61" s="83">
-        <f t="shared" si="60"/>
+        <f t="shared" si="54"/>
         <v>-266526.46562500001</v>
       </c>
       <c r="E61" s="83">
-        <f t="shared" si="60"/>
+        <f t="shared" si="54"/>
         <v>-267024.14500000002</v>
       </c>
       <c r="F61" s="83">
@@ -23807,7 +23809,7 @@
         <v>120</v>
       </c>
       <c r="F63" s="17">
-        <f t="shared" ref="F63" si="61">F56</f>
+        <f t="shared" ref="F63" si="55">F56</f>
         <v>120</v>
       </c>
       <c r="G63" s="26"/>
@@ -23829,15 +23831,15 @@
         <v>10.282188053365388</v>
       </c>
       <c r="D64" s="34">
-        <f t="shared" ref="D64:F64" si="62">D62/D63/1000</f>
+        <f t="shared" ref="D64:F64" si="56">D62/D63/1000</f>
         <v>8.5612638505000032</v>
       </c>
       <c r="E64" s="34">
-        <f t="shared" si="62"/>
+        <f t="shared" si="56"/>
         <v>6.6927819692708352</v>
       </c>
       <c r="F64" s="45">
-        <f t="shared" si="62"/>
+        <f t="shared" si="56"/>
         <v>4.6442403026041692</v>
       </c>
       <c r="G64" s="20"/>
@@ -28382,8 +28384,8 @@
       <c r="B3" s="72"/>
       <c r="C3" s="72"/>
       <c r="D3" s="72"/>
-      <c r="E3" s="388"/>
-      <c r="F3" s="389"/>
+      <c r="E3" s="355"/>
+      <c r="F3" s="356"/>
       <c r="G3" s="72"/>
       <c r="H3" s="72" t="s">
         <v>372</v>
@@ -28393,64 +28395,64 @@
         <v>373</v>
       </c>
       <c r="K3" s="6"/>
-      <c r="L3" s="391" t="s">
+      <c r="L3" s="358" t="s">
         <v>374</v>
       </c>
-      <c r="M3" s="392"/>
+      <c r="M3" s="359"/>
       <c r="N3" s="120" t="s">
         <v>375</v>
       </c>
       <c r="O3" s="168" t="s">
         <v>376</v>
       </c>
-      <c r="P3" s="393" t="s">
+      <c r="P3" s="360" t="s">
         <v>483</v>
       </c>
-      <c r="Q3" s="392"/>
-      <c r="R3" s="383" t="s">
+      <c r="Q3" s="359"/>
+      <c r="R3" s="353" t="s">
         <v>484</v>
       </c>
-      <c r="S3" s="378"/>
-      <c r="T3" s="368" t="s">
+      <c r="S3" s="354"/>
+      <c r="T3" s="365" t="s">
         <v>485</v>
       </c>
-      <c r="U3" s="369"/>
+      <c r="U3" s="366"/>
     </row>
     <row r="4" spans="1:23" ht="18.75" customHeight="1">
       <c r="A4" s="7"/>
       <c r="B4" s="122"/>
       <c r="C4" s="122"/>
       <c r="D4" s="122"/>
-      <c r="E4" s="390" t="s">
+      <c r="E4" s="357" t="s">
         <v>493</v>
       </c>
-      <c r="F4" s="390"/>
+      <c r="F4" s="357"/>
       <c r="G4" s="209"/>
-      <c r="H4" s="395" t="s">
+      <c r="H4" s="362" t="s">
         <v>571</v>
       </c>
-      <c r="I4" s="396"/>
-      <c r="J4" s="396"/>
-      <c r="K4" s="396"/>
-      <c r="L4" s="396"/>
-      <c r="M4" s="396"/>
-      <c r="N4" s="396"/>
-      <c r="O4" s="397"/>
-      <c r="P4" s="376" t="s">
+      <c r="I4" s="363"/>
+      <c r="J4" s="363"/>
+      <c r="K4" s="363"/>
+      <c r="L4" s="363"/>
+      <c r="M4" s="363"/>
+      <c r="N4" s="363"/>
+      <c r="O4" s="364"/>
+      <c r="P4" s="373" t="s">
         <v>380</v>
       </c>
-      <c r="Q4" s="377"/>
-      <c r="R4" s="377"/>
-      <c r="S4" s="377"/>
-      <c r="T4" s="377"/>
-      <c r="U4" s="378"/>
+      <c r="Q4" s="374"/>
+      <c r="R4" s="374"/>
+      <c r="S4" s="374"/>
+      <c r="T4" s="374"/>
+      <c r="U4" s="354"/>
     </row>
     <row r="5" spans="1:23" ht="20.25" customHeight="1">
       <c r="A5" s="7"/>
-      <c r="B5" s="383" t="s">
+      <c r="B5" s="353" t="s">
         <v>381</v>
       </c>
-      <c r="C5" s="378"/>
+      <c r="C5" s="354"/>
       <c r="D5" s="123" t="s">
         <v>382</v>
       </c>
@@ -28461,14 +28463,14 @@
         <v>384</v>
       </c>
       <c r="G5" s="123"/>
-      <c r="H5" s="394" t="s">
+      <c r="H5" s="361" t="s">
         <v>377</v>
       </c>
-      <c r="I5" s="394"/>
-      <c r="J5" s="394" t="s">
+      <c r="I5" s="361"/>
+      <c r="J5" s="361" t="s">
         <v>378</v>
       </c>
-      <c r="K5" s="394"/>
+      <c r="K5" s="361"/>
       <c r="L5" s="193" t="s">
         <v>482</v>
       </c>
@@ -28501,7 +28503,7 @@
       </c>
     </row>
     <row r="6" spans="1:23" ht="20.25" customHeight="1">
-      <c r="A6" s="346" t="s">
+      <c r="A6" s="394" t="s">
         <v>512</v>
       </c>
       <c r="B6" s="123">
@@ -28547,7 +28549,7 @@
       </c>
     </row>
     <row r="7" spans="1:23" ht="20.25" customHeight="1">
-      <c r="A7" s="347"/>
+      <c r="A7" s="395"/>
       <c r="B7" s="123">
         <v>2</v>
       </c>
@@ -28591,7 +28593,7 @@
       </c>
     </row>
     <row r="8" spans="1:23" ht="20.25" customHeight="1">
-      <c r="A8" s="347"/>
+      <c r="A8" s="395"/>
       <c r="B8" s="121">
         <v>3</v>
       </c>
@@ -28630,7 +28632,7 @@
       </c>
     </row>
     <row r="9" spans="1:23" ht="20.25" customHeight="1">
-      <c r="A9" s="347"/>
+      <c r="A9" s="395"/>
       <c r="B9" s="121">
         <v>4</v>
       </c>
@@ -28655,7 +28657,7 @@
       <c r="U9" s="265"/>
     </row>
     <row r="10" spans="1:23" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A10" s="347"/>
+      <c r="A10" s="395"/>
       <c r="B10" s="224">
         <v>5</v>
       </c>
@@ -28680,7 +28682,7 @@
       <c r="U10" s="236"/>
     </row>
     <row r="11" spans="1:23" ht="20.25" customHeight="1">
-      <c r="A11" s="348"/>
+      <c r="A11" s="396"/>
       <c r="B11" s="179"/>
       <c r="C11" s="179"/>
       <c r="D11" s="223" t="s">
@@ -28723,7 +28725,7 @@
       </c>
     </row>
     <row r="12" spans="1:23" ht="20.25" customHeight="1">
-      <c r="A12" s="349" t="s">
+      <c r="A12" s="397" t="s">
         <v>513</v>
       </c>
       <c r="B12" s="133">
@@ -28794,7 +28796,7 @@
       <c r="W12" s="136"/>
     </row>
     <row r="13" spans="1:23" ht="20.25" customHeight="1">
-      <c r="A13" s="350"/>
+      <c r="A13" s="398"/>
       <c r="B13" s="133">
         <v>2</v>
       </c>
@@ -28862,7 +28864,7 @@
       </c>
     </row>
     <row r="14" spans="1:23" ht="20.25" customHeight="1">
-      <c r="A14" s="350"/>
+      <c r="A14" s="398"/>
       <c r="B14" s="133">
         <v>3</v>
       </c>
@@ -28930,7 +28932,7 @@
       </c>
     </row>
     <row r="15" spans="1:23" ht="20.25" customHeight="1">
-      <c r="A15" s="350"/>
+      <c r="A15" s="398"/>
       <c r="B15" s="133">
         <v>4</v>
       </c>
@@ -28995,7 +28997,7 @@
       </c>
     </row>
     <row r="16" spans="1:23" ht="20.25" customHeight="1">
-      <c r="A16" s="350"/>
+      <c r="A16" s="398"/>
       <c r="B16" s="133">
         <v>5</v>
       </c>
@@ -29063,7 +29065,7 @@
       </c>
     </row>
     <row r="17" spans="1:21" ht="20.25" customHeight="1">
-      <c r="A17" s="350"/>
+      <c r="A17" s="398"/>
       <c r="B17" s="133">
         <v>6</v>
       </c>
@@ -29131,7 +29133,7 @@
       </c>
     </row>
     <row r="18" spans="1:21" ht="20.25" customHeight="1">
-      <c r="A18" s="350"/>
+      <c r="A18" s="398"/>
       <c r="B18" s="133">
         <v>7</v>
       </c>
@@ -29196,7 +29198,7 @@
       </c>
     </row>
     <row r="19" spans="1:21" ht="20.25" customHeight="1">
-      <c r="A19" s="350"/>
+      <c r="A19" s="398"/>
       <c r="B19" s="133">
         <v>8</v>
       </c>
@@ -29264,7 +29266,7 @@
       </c>
     </row>
     <row r="20" spans="1:21" ht="20.25" customHeight="1">
-      <c r="A20" s="350"/>
+      <c r="A20" s="398"/>
       <c r="B20" s="133">
         <v>9</v>
       </c>
@@ -29332,7 +29334,7 @@
       </c>
     </row>
     <row r="21" spans="1:21" ht="20.25" customHeight="1">
-      <c r="A21" s="350"/>
+      <c r="A21" s="398"/>
       <c r="B21" s="133">
         <v>10</v>
       </c>
@@ -29397,7 +29399,7 @@
       </c>
     </row>
     <row r="22" spans="1:21" ht="20.25" customHeight="1">
-      <c r="A22" s="350"/>
+      <c r="A22" s="398"/>
       <c r="B22" s="133">
         <v>11</v>
       </c>
@@ -29465,7 +29467,7 @@
       </c>
     </row>
     <row r="23" spans="1:21" ht="20.25" customHeight="1">
-      <c r="A23" s="350"/>
+      <c r="A23" s="398"/>
       <c r="B23" s="133">
         <v>12</v>
       </c>
@@ -29490,7 +29492,7 @@
       <c r="U23" s="244"/>
     </row>
     <row r="24" spans="1:21" ht="20.25" customHeight="1">
-      <c r="A24" s="350"/>
+      <c r="A24" s="398"/>
       <c r="B24" s="133">
         <v>13</v>
       </c>
@@ -29515,7 +29517,7 @@
       <c r="U24" s="244"/>
     </row>
     <row r="25" spans="1:21" ht="20.25" customHeight="1">
-      <c r="A25" s="350"/>
+      <c r="A25" s="398"/>
       <c r="B25" s="133">
         <v>14</v>
       </c>
@@ -29540,7 +29542,7 @@
       <c r="U25" s="244"/>
     </row>
     <row r="26" spans="1:21" ht="20.25" customHeight="1">
-      <c r="A26" s="350"/>
+      <c r="A26" s="398"/>
       <c r="B26" s="133">
         <v>15</v>
       </c>
@@ -29590,7 +29592,7 @@
       <c r="U27" s="244"/>
     </row>
     <row r="28" spans="1:21" ht="20.25" customHeight="1">
-      <c r="A28" s="350" t="s">
+      <c r="A28" s="398" t="s">
         <v>572</v>
       </c>
       <c r="B28" s="133">
@@ -29636,7 +29638,7 @@
       <c r="U28" s="244"/>
     </row>
     <row r="29" spans="1:21" ht="17.25" thickBot="1">
-      <c r="A29" s="351"/>
+      <c r="A29" s="399"/>
       <c r="B29" s="151">
         <v>2</v>
       </c>
@@ -29661,142 +29663,142 @@
       <c r="U29" s="270"/>
     </row>
     <row r="30" spans="1:21" ht="14.1" customHeight="1">
-      <c r="A30" s="334" t="s">
+      <c r="A30" s="382" t="s">
         <v>489</v>
       </c>
-      <c r="B30" s="335"/>
-      <c r="C30" s="335"/>
-      <c r="D30" s="335"/>
-      <c r="E30" s="336"/>
-      <c r="F30" s="354">
+      <c r="B30" s="383"/>
+      <c r="C30" s="383"/>
+      <c r="D30" s="383"/>
+      <c r="E30" s="384"/>
+      <c r="F30" s="402">
         <f>O30+T32</f>
         <v>165716881.03200001</v>
       </c>
-      <c r="G30" s="355">
+      <c r="G30" s="403">
         <f t="shared" ref="G30:H31" si="9">B19+G21</f>
         <v>8</v>
       </c>
-      <c r="H30" s="356">
+      <c r="H30" s="404">
         <f t="shared" si="9"/>
         <v>167887</v>
       </c>
       <c r="I30" s="219"/>
-      <c r="J30" s="366" t="s">
+      <c r="J30" s="414" t="s">
         <v>479</v>
       </c>
       <c r="K30" s="139"/>
-      <c r="L30" s="405">
+      <c r="L30" s="341">
         <f>SUM(L12:L29)-L28</f>
         <v>91346259.96800001</v>
       </c>
       <c r="M30" s="271"/>
-      <c r="N30" s="410" t="s">
+      <c r="N30" s="347" t="s">
         <v>517</v>
       </c>
-      <c r="O30" s="398">
+      <c r="O30" s="334">
         <f>SUM(O12:O29)-O28</f>
         <v>141056481</v>
       </c>
-      <c r="P30" s="407">
+      <c r="P30" s="343">
         <f>O30-L30</f>
         <v>49710221.03199999</v>
       </c>
-      <c r="Q30" s="408">
+      <c r="Q30" s="345">
         <f>SUM(Q12:Q29)</f>
         <v>80.8339887445198</v>
       </c>
-      <c r="R30" s="374">
+      <c r="R30" s="371">
         <f>SUM(R12:R29)</f>
         <v>36836282</v>
       </c>
-      <c r="S30" s="403">
+      <c r="S30" s="339">
         <f>SUM(S12:S22)</f>
         <v>100</v>
       </c>
-      <c r="T30" s="381">
+      <c r="T30" s="377">
         <f>SUM(T12:T29)</f>
         <v>12873939.032000002</v>
       </c>
-      <c r="U30" s="379">
+      <c r="U30" s="375">
         <f>SUM(U12:U29)</f>
         <v>52.204907524997282</v>
       </c>
     </row>
     <row r="31" spans="1:21" ht="14.1" customHeight="1" thickBot="1">
-      <c r="A31" s="337"/>
-      <c r="B31" s="338"/>
-      <c r="C31" s="338"/>
-      <c r="D31" s="338"/>
-      <c r="E31" s="339"/>
-      <c r="F31" s="357" t="e">
+      <c r="A31" s="385"/>
+      <c r="B31" s="386"/>
+      <c r="C31" s="386"/>
+      <c r="D31" s="386"/>
+      <c r="E31" s="387"/>
+      <c r="F31" s="405" t="e">
         <f>#REF!+F22</f>
         <v>#REF!</v>
       </c>
-      <c r="G31" s="358">
+      <c r="G31" s="406">
         <f t="shared" si="9"/>
         <v>9</v>
       </c>
-      <c r="H31" s="359">
+      <c r="H31" s="407">
         <f t="shared" si="9"/>
         <v>180410</v>
       </c>
       <c r="I31" s="219"/>
-      <c r="J31" s="367"/>
+      <c r="J31" s="415"/>
       <c r="K31" s="139"/>
-      <c r="L31" s="406"/>
+      <c r="L31" s="342"/>
       <c r="M31" s="272"/>
-      <c r="N31" s="411"/>
-      <c r="O31" s="399"/>
-      <c r="P31" s="385"/>
-      <c r="Q31" s="409"/>
-      <c r="R31" s="375"/>
-      <c r="S31" s="404"/>
-      <c r="T31" s="382"/>
-      <c r="U31" s="380"/>
+      <c r="N31" s="348"/>
+      <c r="O31" s="335"/>
+      <c r="P31" s="344"/>
+      <c r="Q31" s="346"/>
+      <c r="R31" s="372"/>
+      <c r="S31" s="340"/>
+      <c r="T31" s="378"/>
+      <c r="U31" s="376"/>
     </row>
     <row r="32" spans="1:21" ht="13.7" customHeight="1">
-      <c r="A32" s="340" t="s">
+      <c r="A32" s="388" t="s">
         <v>490</v>
       </c>
-      <c r="B32" s="341"/>
-      <c r="C32" s="341"/>
-      <c r="D32" s="341"/>
-      <c r="E32" s="342"/>
-      <c r="F32" s="360">
+      <c r="B32" s="389"/>
+      <c r="C32" s="389"/>
+      <c r="D32" s="389"/>
+      <c r="E32" s="390"/>
+      <c r="F32" s="408">
         <f>T35/L30</f>
         <v>1.8141616426337888</v>
       </c>
-      <c r="G32" s="361"/>
-      <c r="H32" s="362"/>
+      <c r="G32" s="409"/>
+      <c r="H32" s="410"/>
       <c r="I32" s="220"/>
-      <c r="J32" s="352" t="s">
+      <c r="J32" s="400" t="s">
         <v>509</v>
       </c>
       <c r="K32" s="7"/>
       <c r="L32" s="247"/>
       <c r="M32" s="273"/>
-      <c r="N32" s="412" t="s">
+      <c r="N32" s="349" t="s">
         <v>518</v>
       </c>
-      <c r="O32" s="414">
+      <c r="O32" s="351">
         <v>150815890</v>
       </c>
-      <c r="P32" s="384">
+      <c r="P32" s="379">
         <f>P30+P11</f>
         <v>61496682.03199999</v>
       </c>
-      <c r="Q32" s="386">
+      <c r="Q32" s="380">
         <f>Q30+Q11</f>
         <v>100.00000000000003</v>
       </c>
-      <c r="R32" s="370">
+      <c r="R32" s="367">
         <f>R30</f>
         <v>36836282</v>
       </c>
       <c r="S32" s="280" t="s">
         <v>491</v>
       </c>
-      <c r="T32" s="372">
+      <c r="T32" s="369">
         <f>T30+T11</f>
         <v>24660400.032000002</v>
       </c>
@@ -29805,29 +29807,29 @@
       </c>
     </row>
     <row r="33" spans="1:21" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A33" s="343"/>
-      <c r="B33" s="344"/>
-      <c r="C33" s="344"/>
-      <c r="D33" s="344"/>
-      <c r="E33" s="345"/>
-      <c r="F33" s="363"/>
-      <c r="G33" s="364"/>
-      <c r="H33" s="365"/>
+      <c r="A33" s="391"/>
+      <c r="B33" s="392"/>
+      <c r="C33" s="392"/>
+      <c r="D33" s="392"/>
+      <c r="E33" s="393"/>
+      <c r="F33" s="411"/>
+      <c r="G33" s="412"/>
+      <c r="H33" s="413"/>
       <c r="I33" s="220"/>
-      <c r="J33" s="353"/>
+      <c r="J33" s="401"/>
       <c r="K33" s="7"/>
       <c r="L33" s="248"/>
       <c r="M33" s="274"/>
-      <c r="N33" s="413"/>
-      <c r="O33" s="415"/>
-      <c r="P33" s="385"/>
-      <c r="Q33" s="387"/>
-      <c r="R33" s="371"/>
+      <c r="N33" s="350"/>
+      <c r="O33" s="352"/>
+      <c r="P33" s="344"/>
+      <c r="Q33" s="381"/>
+      <c r="R33" s="368"/>
       <c r="S33" s="282">
         <f>R32/P32*100</f>
         <v>59.899625122591374</v>
       </c>
-      <c r="T33" s="373"/>
+      <c r="T33" s="370"/>
       <c r="U33" s="283">
         <f>T32/P32*100</f>
         <v>40.100374877408647</v>
@@ -29870,12 +29872,12 @@
       <c r="M35" s="141"/>
       <c r="N35" s="142"/>
       <c r="O35" s="173"/>
-      <c r="P35" s="400" t="s">
+      <c r="P35" s="336" t="s">
         <v>489</v>
       </c>
-      <c r="Q35" s="401"/>
-      <c r="R35" s="401"/>
-      <c r="S35" s="402"/>
+      <c r="Q35" s="337"/>
+      <c r="R35" s="337"/>
+      <c r="S35" s="338"/>
       <c r="T35" s="221">
         <f>O30+T32</f>
         <v>165716881.03200001</v>
@@ -29897,12 +29899,12 @@
       <c r="M36" s="141"/>
       <c r="N36" s="142"/>
       <c r="O36" s="173"/>
-      <c r="P36" s="400" t="s">
+      <c r="P36" s="336" t="s">
         <v>490</v>
       </c>
-      <c r="Q36" s="401"/>
-      <c r="R36" s="401"/>
-      <c r="S36" s="402"/>
+      <c r="Q36" s="337"/>
+      <c r="R36" s="337"/>
+      <c r="S36" s="338"/>
       <c r="T36" s="222">
         <f>T35/L30</f>
         <v>1.8141616426337888</v>
@@ -29951,27 +29953,6 @@
     </row>
   </sheetData>
   <mergeCells count="37">
-    <mergeCell ref="P36:S36"/>
-    <mergeCell ref="S30:S31"/>
-    <mergeCell ref="T30:T31"/>
-    <mergeCell ref="P32:P33"/>
-    <mergeCell ref="Q32:Q33"/>
-    <mergeCell ref="P30:P31"/>
-    <mergeCell ref="Q30:Q31"/>
-    <mergeCell ref="R32:R33"/>
-    <mergeCell ref="T32:T33"/>
-    <mergeCell ref="P35:S35"/>
-    <mergeCell ref="J32:J33"/>
-    <mergeCell ref="N32:N33"/>
-    <mergeCell ref="O32:O33"/>
-    <mergeCell ref="L30:L31"/>
-    <mergeCell ref="N30:N31"/>
-    <mergeCell ref="O30:O31"/>
-    <mergeCell ref="A6:A11"/>
-    <mergeCell ref="A28:A29"/>
-    <mergeCell ref="A12:A27"/>
-    <mergeCell ref="A32:E33"/>
-    <mergeCell ref="F32:H33"/>
     <mergeCell ref="T3:U3"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="H4:O4"/>
@@ -29988,6 +29969,27 @@
     <mergeCell ref="B5:C5"/>
     <mergeCell ref="H5:I5"/>
     <mergeCell ref="J5:K5"/>
+    <mergeCell ref="A6:A11"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="A12:A27"/>
+    <mergeCell ref="A32:E33"/>
+    <mergeCell ref="F32:H33"/>
+    <mergeCell ref="J32:J33"/>
+    <mergeCell ref="N32:N33"/>
+    <mergeCell ref="O32:O33"/>
+    <mergeCell ref="L30:L31"/>
+    <mergeCell ref="N30:N31"/>
+    <mergeCell ref="O30:O31"/>
+    <mergeCell ref="P36:S36"/>
+    <mergeCell ref="S30:S31"/>
+    <mergeCell ref="T30:T31"/>
+    <mergeCell ref="P32:P33"/>
+    <mergeCell ref="Q32:Q33"/>
+    <mergeCell ref="P30:P31"/>
+    <mergeCell ref="Q30:Q31"/>
+    <mergeCell ref="R32:R33"/>
+    <mergeCell ref="T32:T33"/>
+    <mergeCell ref="P35:S35"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
@@ -31180,10 +31182,10 @@
       <c r="H33" s="6"/>
       <c r="I33" s="6"/>
       <c r="J33" s="6"/>
-      <c r="K33" s="388" t="s">
+      <c r="K33" s="355" t="s">
         <v>477</v>
       </c>
-      <c r="L33" s="389"/>
+      <c r="L33" s="356"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -33593,8 +33595,8 @@
       <c r="B3" s="72"/>
       <c r="C3" s="72"/>
       <c r="D3" s="72"/>
-      <c r="E3" s="388"/>
-      <c r="F3" s="389"/>
+      <c r="E3" s="355"/>
+      <c r="F3" s="356"/>
       <c r="G3" s="72"/>
       <c r="H3" s="72" t="s">
         <v>372</v>
@@ -33604,64 +33606,64 @@
         <v>373</v>
       </c>
       <c r="K3" s="6"/>
-      <c r="L3" s="391" t="s">
+      <c r="L3" s="358" t="s">
         <v>374</v>
       </c>
-      <c r="M3" s="392"/>
+      <c r="M3" s="359"/>
       <c r="N3" s="120" t="s">
         <v>375</v>
       </c>
       <c r="O3" s="168" t="s">
         <v>376</v>
       </c>
-      <c r="P3" s="393" t="s">
+      <c r="P3" s="360" t="s">
         <v>483</v>
       </c>
-      <c r="Q3" s="392"/>
-      <c r="R3" s="383" t="s">
+      <c r="Q3" s="359"/>
+      <c r="R3" s="353" t="s">
         <v>484</v>
       </c>
-      <c r="S3" s="378"/>
-      <c r="T3" s="368" t="s">
+      <c r="S3" s="354"/>
+      <c r="T3" s="365" t="s">
         <v>485</v>
       </c>
-      <c r="U3" s="369"/>
+      <c r="U3" s="366"/>
     </row>
     <row r="4" spans="1:23" ht="18.75" customHeight="1">
       <c r="A4" s="7"/>
       <c r="B4" s="122"/>
       <c r="C4" s="122"/>
       <c r="D4" s="122"/>
-      <c r="E4" s="390" t="s">
+      <c r="E4" s="357" t="s">
         <v>493</v>
       </c>
-      <c r="F4" s="390"/>
+      <c r="F4" s="357"/>
       <c r="G4" s="209"/>
-      <c r="H4" s="395" t="s">
+      <c r="H4" s="362" t="s">
         <v>583</v>
       </c>
-      <c r="I4" s="396"/>
-      <c r="J4" s="396"/>
-      <c r="K4" s="396"/>
-      <c r="L4" s="396"/>
-      <c r="M4" s="396"/>
-      <c r="N4" s="396"/>
-      <c r="O4" s="397"/>
-      <c r="P4" s="376" t="s">
+      <c r="I4" s="363"/>
+      <c r="J4" s="363"/>
+      <c r="K4" s="363"/>
+      <c r="L4" s="363"/>
+      <c r="M4" s="363"/>
+      <c r="N4" s="363"/>
+      <c r="O4" s="364"/>
+      <c r="P4" s="373" t="s">
         <v>380</v>
       </c>
-      <c r="Q4" s="377"/>
-      <c r="R4" s="377"/>
-      <c r="S4" s="377"/>
-      <c r="T4" s="377"/>
-      <c r="U4" s="378"/>
+      <c r="Q4" s="374"/>
+      <c r="R4" s="374"/>
+      <c r="S4" s="374"/>
+      <c r="T4" s="374"/>
+      <c r="U4" s="354"/>
     </row>
     <row r="5" spans="1:23" ht="20.25" customHeight="1">
       <c r="A5" s="7"/>
-      <c r="B5" s="383" t="s">
+      <c r="B5" s="353" t="s">
         <v>381</v>
       </c>
-      <c r="C5" s="378"/>
+      <c r="C5" s="354"/>
       <c r="D5" s="123" t="s">
         <v>382</v>
       </c>
@@ -33672,14 +33674,14 @@
         <v>384</v>
       </c>
       <c r="G5" s="123"/>
-      <c r="H5" s="394" t="s">
+      <c r="H5" s="361" t="s">
         <v>377</v>
       </c>
-      <c r="I5" s="394"/>
-      <c r="J5" s="394" t="s">
+      <c r="I5" s="361"/>
+      <c r="J5" s="361" t="s">
         <v>378</v>
       </c>
-      <c r="K5" s="394"/>
+      <c r="K5" s="361"/>
       <c r="L5" s="193" t="s">
         <v>482</v>
       </c>
@@ -33712,7 +33714,7 @@
       </c>
     </row>
     <row r="6" spans="1:23" ht="20.25" customHeight="1">
-      <c r="A6" s="346" t="s">
+      <c r="A6" s="394" t="s">
         <v>512</v>
       </c>
       <c r="B6" s="123">
@@ -33758,7 +33760,7 @@
       </c>
     </row>
     <row r="7" spans="1:23" ht="20.25" customHeight="1">
-      <c r="A7" s="347"/>
+      <c r="A7" s="395"/>
       <c r="B7" s="123">
         <v>2</v>
       </c>
@@ -33802,7 +33804,7 @@
       </c>
     </row>
     <row r="8" spans="1:23" ht="20.25" customHeight="1">
-      <c r="A8" s="347"/>
+      <c r="A8" s="395"/>
       <c r="B8" s="121">
         <v>3</v>
       </c>
@@ -33841,7 +33843,7 @@
       </c>
     </row>
     <row r="9" spans="1:23" ht="20.25" customHeight="1">
-      <c r="A9" s="347"/>
+      <c r="A9" s="395"/>
       <c r="B9" s="121">
         <v>4</v>
       </c>
@@ -33866,7 +33868,7 @@
       <c r="U9" s="265"/>
     </row>
     <row r="10" spans="1:23" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A10" s="347"/>
+      <c r="A10" s="395"/>
       <c r="B10" s="224">
         <v>5</v>
       </c>
@@ -33891,7 +33893,7 @@
       <c r="U10" s="236"/>
     </row>
     <row r="11" spans="1:23" ht="20.25" customHeight="1">
-      <c r="A11" s="348"/>
+      <c r="A11" s="396"/>
       <c r="B11" s="179"/>
       <c r="C11" s="179"/>
       <c r="D11" s="223" t="s">
@@ -33934,7 +33936,7 @@
       </c>
     </row>
     <row r="12" spans="1:23" ht="20.25" customHeight="1">
-      <c r="A12" s="349" t="s">
+      <c r="A12" s="397" t="s">
         <v>513</v>
       </c>
       <c r="B12" s="133">
@@ -34005,7 +34007,7 @@
       <c r="W12" s="136"/>
     </row>
     <row r="13" spans="1:23" ht="20.25" customHeight="1">
-      <c r="A13" s="350"/>
+      <c r="A13" s="398"/>
       <c r="B13" s="133">
         <v>2</v>
       </c>
@@ -34073,7 +34075,7 @@
       </c>
     </row>
     <row r="14" spans="1:23" ht="20.25" customHeight="1">
-      <c r="A14" s="350"/>
+      <c r="A14" s="398"/>
       <c r="B14" s="133">
         <v>3</v>
       </c>
@@ -34141,7 +34143,7 @@
       </c>
     </row>
     <row r="15" spans="1:23" ht="20.25" customHeight="1">
-      <c r="A15" s="350"/>
+      <c r="A15" s="398"/>
       <c r="B15" s="133">
         <v>4</v>
       </c>
@@ -34206,7 +34208,7 @@
       </c>
     </row>
     <row r="16" spans="1:23" ht="20.25" customHeight="1">
-      <c r="A16" s="350"/>
+      <c r="A16" s="398"/>
       <c r="B16" s="133">
         <v>5</v>
       </c>
@@ -34274,7 +34276,7 @@
       </c>
     </row>
     <row r="17" spans="1:21" ht="20.25" customHeight="1">
-      <c r="A17" s="350"/>
+      <c r="A17" s="398"/>
       <c r="B17" s="133">
         <v>6</v>
       </c>
@@ -34342,7 +34344,7 @@
       </c>
     </row>
     <row r="18" spans="1:21" ht="20.25" customHeight="1">
-      <c r="A18" s="350"/>
+      <c r="A18" s="398"/>
       <c r="B18" s="133">
         <v>7</v>
       </c>
@@ -34407,7 +34409,7 @@
       </c>
     </row>
     <row r="19" spans="1:21" ht="20.25" customHeight="1">
-      <c r="A19" s="350"/>
+      <c r="A19" s="398"/>
       <c r="B19" s="133">
         <v>8</v>
       </c>
@@ -34475,7 +34477,7 @@
       </c>
     </row>
     <row r="20" spans="1:21" ht="20.25" customHeight="1">
-      <c r="A20" s="350"/>
+      <c r="A20" s="398"/>
       <c r="B20" s="133">
         <v>9</v>
       </c>
@@ -34543,7 +34545,7 @@
       </c>
     </row>
     <row r="21" spans="1:21" ht="20.25" customHeight="1">
-      <c r="A21" s="350"/>
+      <c r="A21" s="398"/>
       <c r="B21" s="133">
         <v>10</v>
       </c>
@@ -34608,7 +34610,7 @@
       </c>
     </row>
     <row r="22" spans="1:21" ht="20.25" customHeight="1">
-      <c r="A22" s="350"/>
+      <c r="A22" s="398"/>
       <c r="B22" s="133">
         <v>11</v>
       </c>
@@ -34676,7 +34678,7 @@
       </c>
     </row>
     <row r="23" spans="1:21" ht="20.25" customHeight="1">
-      <c r="A23" s="350"/>
+      <c r="A23" s="398"/>
       <c r="B23" s="133">
         <v>12</v>
       </c>
@@ -34701,7 +34703,7 @@
       <c r="U23" s="244"/>
     </row>
     <row r="24" spans="1:21" ht="20.25" customHeight="1">
-      <c r="A24" s="350"/>
+      <c r="A24" s="398"/>
       <c r="B24" s="133">
         <v>13</v>
       </c>
@@ -34726,7 +34728,7 @@
       <c r="U24" s="244"/>
     </row>
     <row r="25" spans="1:21" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A25" s="351"/>
+      <c r="A25" s="399"/>
       <c r="B25" s="292">
         <v>14</v>
       </c>
@@ -34751,142 +34753,142 @@
       <c r="U25" s="295"/>
     </row>
     <row r="26" spans="1:21" ht="14.1" customHeight="1">
-      <c r="A26" s="422" t="s">
+      <c r="A26" s="420" t="s">
         <v>489</v>
       </c>
-      <c r="B26" s="423"/>
-      <c r="C26" s="423"/>
-      <c r="D26" s="423"/>
-      <c r="E26" s="424"/>
-      <c r="F26" s="425">
+      <c r="B26" s="421"/>
+      <c r="C26" s="421"/>
+      <c r="D26" s="421"/>
+      <c r="E26" s="422"/>
+      <c r="F26" s="423">
         <f>O26+T28</f>
         <v>184462879.06200001</v>
       </c>
-      <c r="G26" s="426">
+      <c r="G26" s="424">
         <f t="shared" ref="G26:H27" si="9">B19+G21</f>
         <v>8</v>
       </c>
-      <c r="H26" s="427">
+      <c r="H26" s="425">
         <f t="shared" si="9"/>
         <v>167887</v>
       </c>
       <c r="I26" s="219"/>
-      <c r="J26" s="428" t="s">
+      <c r="J26" s="426" t="s">
         <v>479</v>
       </c>
       <c r="K26" s="139"/>
-      <c r="L26" s="429">
+      <c r="L26" s="427">
         <f>SUM(L12:L25)</f>
         <v>93355482.938000008</v>
       </c>
       <c r="M26" s="291"/>
-      <c r="N26" s="430" t="s">
+      <c r="N26" s="428" t="s">
         <v>517</v>
       </c>
-      <c r="O26" s="431">
+      <c r="O26" s="429">
         <f>SUM(O12:O25)</f>
         <v>157899774</v>
       </c>
-      <c r="P26" s="432">
+      <c r="P26" s="430">
         <f>O26-L26</f>
         <v>64544291.061999992</v>
       </c>
-      <c r="Q26" s="433">
+      <c r="Q26" s="431">
         <f>SUM(Q12:Q25)</f>
         <v>84.558699237724795</v>
       </c>
-      <c r="R26" s="434">
+      <c r="R26" s="432">
         <f>SUM(R12:R25)</f>
         <v>49767647</v>
       </c>
-      <c r="S26" s="419">
+      <c r="S26" s="417">
         <f>SUM(S12:S22)</f>
         <v>100.00000000000001</v>
       </c>
-      <c r="T26" s="420">
+      <c r="T26" s="418">
         <f>SUM(T12:T25)</f>
         <v>14776644.061999999</v>
       </c>
-      <c r="U26" s="421">
+      <c r="U26" s="419">
         <f>SUM(U12:U25)</f>
         <v>55.628451672010328</v>
       </c>
     </row>
     <row r="27" spans="1:21" ht="10.5" customHeight="1" thickBot="1">
-      <c r="A27" s="337"/>
-      <c r="B27" s="338"/>
-      <c r="C27" s="338"/>
-      <c r="D27" s="338"/>
-      <c r="E27" s="339"/>
-      <c r="F27" s="357" t="e">
+      <c r="A27" s="385"/>
+      <c r="B27" s="386"/>
+      <c r="C27" s="386"/>
+      <c r="D27" s="386"/>
+      <c r="E27" s="387"/>
+      <c r="F27" s="405" t="e">
         <f>#REF!+F22</f>
         <v>#REF!</v>
       </c>
-      <c r="G27" s="358">
+      <c r="G27" s="406">
         <f t="shared" si="9"/>
         <v>9</v>
       </c>
-      <c r="H27" s="359">
+      <c r="H27" s="407">
         <f t="shared" si="9"/>
         <v>160410</v>
       </c>
       <c r="I27" s="219"/>
-      <c r="J27" s="367"/>
+      <c r="J27" s="415"/>
       <c r="K27" s="139"/>
-      <c r="L27" s="406"/>
+      <c r="L27" s="342"/>
       <c r="M27" s="272"/>
-      <c r="N27" s="411"/>
-      <c r="O27" s="399"/>
-      <c r="P27" s="385"/>
-      <c r="Q27" s="409"/>
-      <c r="R27" s="375"/>
-      <c r="S27" s="404"/>
-      <c r="T27" s="382"/>
-      <c r="U27" s="380"/>
+      <c r="N27" s="348"/>
+      <c r="O27" s="335"/>
+      <c r="P27" s="344"/>
+      <c r="Q27" s="346"/>
+      <c r="R27" s="372"/>
+      <c r="S27" s="340"/>
+      <c r="T27" s="378"/>
+      <c r="U27" s="376"/>
     </row>
     <row r="28" spans="1:21" ht="12.75" customHeight="1">
-      <c r="A28" s="340" t="s">
+      <c r="A28" s="388" t="s">
         <v>490</v>
       </c>
-      <c r="B28" s="341"/>
-      <c r="C28" s="341"/>
-      <c r="D28" s="341"/>
-      <c r="E28" s="342"/>
-      <c r="F28" s="360">
+      <c r="B28" s="389"/>
+      <c r="C28" s="389"/>
+      <c r="D28" s="389"/>
+      <c r="E28" s="390"/>
+      <c r="F28" s="408">
         <f>T31/L26</f>
         <v>1.9759190703829037</v>
       </c>
-      <c r="G28" s="361"/>
-      <c r="H28" s="362"/>
+      <c r="G28" s="409"/>
+      <c r="H28" s="410"/>
       <c r="I28" s="220"/>
-      <c r="J28" s="352" t="s">
+      <c r="J28" s="400" t="s">
         <v>509</v>
       </c>
       <c r="K28" s="7"/>
       <c r="L28" s="247"/>
       <c r="M28" s="273"/>
-      <c r="N28" s="412" t="s">
+      <c r="N28" s="349" t="s">
         <v>518</v>
       </c>
-      <c r="O28" s="417">
+      <c r="O28" s="433">
         <v>157262951</v>
       </c>
-      <c r="P28" s="384">
+      <c r="P28" s="379">
         <f>P26+P11</f>
         <v>76330752.061999992</v>
       </c>
-      <c r="Q28" s="386">
+      <c r="Q28" s="380">
         <f>Q26+Q11</f>
         <v>100</v>
       </c>
-      <c r="R28" s="370">
+      <c r="R28" s="367">
         <f>R26</f>
         <v>49767647</v>
       </c>
       <c r="S28" s="280" t="s">
         <v>491</v>
       </c>
-      <c r="T28" s="372">
+      <c r="T28" s="369">
         <f>T26+T11</f>
         <v>26563105.061999999</v>
       </c>
@@ -34895,29 +34897,29 @@
       </c>
     </row>
     <row r="29" spans="1:21" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A29" s="343"/>
-      <c r="B29" s="344"/>
-      <c r="C29" s="344"/>
-      <c r="D29" s="344"/>
-      <c r="E29" s="345"/>
-      <c r="F29" s="363"/>
-      <c r="G29" s="364"/>
-      <c r="H29" s="365"/>
+      <c r="A29" s="391"/>
+      <c r="B29" s="392"/>
+      <c r="C29" s="392"/>
+      <c r="D29" s="392"/>
+      <c r="E29" s="393"/>
+      <c r="F29" s="411"/>
+      <c r="G29" s="412"/>
+      <c r="H29" s="413"/>
       <c r="I29" s="220"/>
-      <c r="J29" s="353"/>
+      <c r="J29" s="401"/>
       <c r="K29" s="7"/>
       <c r="L29" s="248"/>
       <c r="M29" s="274"/>
-      <c r="N29" s="413"/>
-      <c r="O29" s="418"/>
-      <c r="P29" s="385"/>
-      <c r="Q29" s="387"/>
-      <c r="R29" s="371"/>
+      <c r="N29" s="350"/>
+      <c r="O29" s="434"/>
+      <c r="P29" s="344"/>
+      <c r="Q29" s="381"/>
+      <c r="R29" s="368"/>
       <c r="S29" s="282">
         <f>R28/P28*100</f>
         <v>65.199995618510357</v>
       </c>
-      <c r="T29" s="373"/>
+      <c r="T29" s="370"/>
       <c r="U29" s="283">
         <f>T28/P28*100</f>
         <v>34.80000438148965</v>
@@ -34960,12 +34962,12 @@
       <c r="M31" s="141"/>
       <c r="N31" s="142"/>
       <c r="O31" s="173"/>
-      <c r="P31" s="400" t="s">
+      <c r="P31" s="336" t="s">
         <v>489</v>
       </c>
-      <c r="Q31" s="401"/>
-      <c r="R31" s="401"/>
-      <c r="S31" s="402"/>
+      <c r="Q31" s="337"/>
+      <c r="R31" s="337"/>
+      <c r="S31" s="338"/>
       <c r="T31" s="221">
         <f>O26+T28</f>
         <v>184462879.06200001</v>
@@ -34987,12 +34989,12 @@
       <c r="M32" s="141"/>
       <c r="N32" s="142"/>
       <c r="O32" s="173"/>
-      <c r="P32" s="400" t="s">
+      <c r="P32" s="336" t="s">
         <v>490</v>
       </c>
-      <c r="Q32" s="401"/>
-      <c r="R32" s="401"/>
-      <c r="S32" s="402"/>
+      <c r="Q32" s="337"/>
+      <c r="R32" s="337"/>
+      <c r="S32" s="338"/>
       <c r="T32" s="222">
         <f>T31/L26</f>
         <v>1.9759190703829037</v>
@@ -35025,36 +35027,36 @@
       <c r="B35" s="122"/>
       <c r="C35" s="122"/>
       <c r="D35" s="122"/>
-      <c r="E35" s="390" t="s">
+      <c r="E35" s="357" t="s">
         <v>493</v>
       </c>
-      <c r="F35" s="390"/>
+      <c r="F35" s="357"/>
       <c r="G35" s="209"/>
-      <c r="H35" s="395" t="s">
+      <c r="H35" s="362" t="s">
         <v>583</v>
       </c>
-      <c r="I35" s="396"/>
-      <c r="J35" s="396"/>
-      <c r="K35" s="396"/>
-      <c r="L35" s="396"/>
-      <c r="M35" s="396"/>
-      <c r="N35" s="396"/>
-      <c r="O35" s="397"/>
-      <c r="P35" s="376" t="s">
+      <c r="I35" s="363"/>
+      <c r="J35" s="363"/>
+      <c r="K35" s="363"/>
+      <c r="L35" s="363"/>
+      <c r="M35" s="363"/>
+      <c r="N35" s="363"/>
+      <c r="O35" s="364"/>
+      <c r="P35" s="373" t="s">
         <v>380</v>
       </c>
-      <c r="Q35" s="377"/>
-      <c r="R35" s="377"/>
-      <c r="S35" s="377"/>
-      <c r="T35" s="377"/>
-      <c r="U35" s="378"/>
+      <c r="Q35" s="374"/>
+      <c r="R35" s="374"/>
+      <c r="S35" s="374"/>
+      <c r="T35" s="374"/>
+      <c r="U35" s="354"/>
     </row>
     <row r="36" spans="1:21" ht="20.25" customHeight="1">
       <c r="A36" s="7"/>
-      <c r="B36" s="383" t="s">
+      <c r="B36" s="353" t="s">
         <v>381</v>
       </c>
-      <c r="C36" s="378"/>
+      <c r="C36" s="354"/>
       <c r="D36" s="123" t="s">
         <v>382</v>
       </c>
@@ -35065,14 +35067,14 @@
         <v>384</v>
       </c>
       <c r="G36" s="123"/>
-      <c r="H36" s="394" t="s">
+      <c r="H36" s="361" t="s">
         <v>377</v>
       </c>
-      <c r="I36" s="394"/>
-      <c r="J36" s="394" t="s">
+      <c r="I36" s="361"/>
+      <c r="J36" s="361" t="s">
         <v>378</v>
       </c>
-      <c r="K36" s="394"/>
+      <c r="K36" s="361"/>
       <c r="L36" s="193" t="s">
         <v>482</v>
       </c>
@@ -35105,7 +35107,7 @@
       </c>
     </row>
     <row r="37" spans="1:21" ht="20.25" customHeight="1">
-      <c r="A37" s="349" t="s">
+      <c r="A37" s="397" t="s">
         <v>572</v>
       </c>
       <c r="B37" s="133">
@@ -35151,7 +35153,7 @@
       <c r="U37" s="244"/>
     </row>
     <row r="38" spans="1:21" ht="17.25" thickBot="1">
-      <c r="A38" s="351"/>
+      <c r="A38" s="399"/>
       <c r="B38" s="151">
         <v>2</v>
       </c>
@@ -35196,19 +35198,24 @@
     </row>
   </sheetData>
   <mergeCells count="43">
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="H4:O4"/>
-    <mergeCell ref="P4:U4"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="L3:M3"/>
-    <mergeCell ref="P3:Q3"/>
-    <mergeCell ref="R3:S3"/>
-    <mergeCell ref="T3:U3"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="J5:K5"/>
-    <mergeCell ref="A6:A11"/>
-    <mergeCell ref="A12:A25"/>
+    <mergeCell ref="T28:T29"/>
+    <mergeCell ref="P31:S31"/>
+    <mergeCell ref="P32:S32"/>
+    <mergeCell ref="E35:F35"/>
+    <mergeCell ref="H35:O35"/>
+    <mergeCell ref="P35:U35"/>
+    <mergeCell ref="O28:O29"/>
+    <mergeCell ref="P28:P29"/>
+    <mergeCell ref="Q28:Q29"/>
+    <mergeCell ref="R28:R29"/>
+    <mergeCell ref="A37:A38"/>
+    <mergeCell ref="A28:E29"/>
+    <mergeCell ref="F28:H29"/>
+    <mergeCell ref="J28:J29"/>
+    <mergeCell ref="N28:N29"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="H36:I36"/>
+    <mergeCell ref="J36:K36"/>
     <mergeCell ref="S26:S27"/>
     <mergeCell ref="T26:T27"/>
     <mergeCell ref="U26:U27"/>
@@ -35221,24 +35228,19 @@
     <mergeCell ref="P26:P27"/>
     <mergeCell ref="Q26:Q27"/>
     <mergeCell ref="R26:R27"/>
-    <mergeCell ref="A37:A38"/>
-    <mergeCell ref="A28:E29"/>
-    <mergeCell ref="F28:H29"/>
-    <mergeCell ref="J28:J29"/>
-    <mergeCell ref="N28:N29"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="H36:I36"/>
-    <mergeCell ref="J36:K36"/>
-    <mergeCell ref="T28:T29"/>
-    <mergeCell ref="P31:S31"/>
-    <mergeCell ref="P32:S32"/>
-    <mergeCell ref="E35:F35"/>
-    <mergeCell ref="H35:O35"/>
-    <mergeCell ref="P35:U35"/>
-    <mergeCell ref="O28:O29"/>
-    <mergeCell ref="P28:P29"/>
-    <mergeCell ref="Q28:Q29"/>
-    <mergeCell ref="R28:R29"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="A6:A11"/>
+    <mergeCell ref="A12:A25"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="H4:O4"/>
+    <mergeCell ref="P4:U4"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="P3:Q3"/>
+    <mergeCell ref="R3:S3"/>
+    <mergeCell ref="T3:U3"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
@@ -35301,8 +35303,8 @@
       <c r="B3" s="72"/>
       <c r="C3" s="72"/>
       <c r="D3" s="72"/>
-      <c r="E3" s="388"/>
-      <c r="F3" s="389"/>
+      <c r="E3" s="355"/>
+      <c r="F3" s="356"/>
       <c r="G3" s="72"/>
       <c r="H3" s="72" t="s">
         <v>372</v>
@@ -35312,64 +35314,64 @@
         <v>373</v>
       </c>
       <c r="K3" s="6"/>
-      <c r="L3" s="391" t="s">
+      <c r="L3" s="358" t="s">
         <v>374</v>
       </c>
-      <c r="M3" s="392"/>
+      <c r="M3" s="359"/>
       <c r="N3" s="120" t="s">
         <v>375</v>
       </c>
       <c r="O3" s="168" t="s">
         <v>376</v>
       </c>
-      <c r="P3" s="393" t="s">
+      <c r="P3" s="360" t="s">
         <v>483</v>
       </c>
-      <c r="Q3" s="392"/>
-      <c r="R3" s="383" t="s">
+      <c r="Q3" s="359"/>
+      <c r="R3" s="353" t="s">
         <v>484</v>
       </c>
-      <c r="S3" s="378"/>
-      <c r="T3" s="368" t="s">
+      <c r="S3" s="354"/>
+      <c r="T3" s="365" t="s">
         <v>485</v>
       </c>
-      <c r="U3" s="369"/>
+      <c r="U3" s="366"/>
     </row>
     <row r="4" spans="1:23" ht="18.75" customHeight="1">
       <c r="A4" s="7"/>
       <c r="B4" s="122"/>
       <c r="C4" s="122"/>
       <c r="D4" s="122"/>
-      <c r="E4" s="390" t="s">
+      <c r="E4" s="357" t="s">
         <v>493</v>
       </c>
-      <c r="F4" s="390"/>
+      <c r="F4" s="357"/>
       <c r="G4" s="209"/>
-      <c r="H4" s="395" t="s">
+      <c r="H4" s="362" t="s">
         <v>583</v>
       </c>
-      <c r="I4" s="396"/>
-      <c r="J4" s="396"/>
-      <c r="K4" s="396"/>
-      <c r="L4" s="396"/>
-      <c r="M4" s="396"/>
-      <c r="N4" s="396"/>
-      <c r="O4" s="397"/>
-      <c r="P4" s="376" t="s">
+      <c r="I4" s="363"/>
+      <c r="J4" s="363"/>
+      <c r="K4" s="363"/>
+      <c r="L4" s="363"/>
+      <c r="M4" s="363"/>
+      <c r="N4" s="363"/>
+      <c r="O4" s="364"/>
+      <c r="P4" s="373" t="s">
         <v>380</v>
       </c>
-      <c r="Q4" s="377"/>
-      <c r="R4" s="377"/>
-      <c r="S4" s="377"/>
-      <c r="T4" s="377"/>
-      <c r="U4" s="378"/>
+      <c r="Q4" s="374"/>
+      <c r="R4" s="374"/>
+      <c r="S4" s="374"/>
+      <c r="T4" s="374"/>
+      <c r="U4" s="354"/>
     </row>
     <row r="5" spans="1:23" ht="20.25" customHeight="1">
       <c r="A5" s="7"/>
-      <c r="B5" s="383" t="s">
+      <c r="B5" s="353" t="s">
         <v>381</v>
       </c>
-      <c r="C5" s="378"/>
+      <c r="C5" s="354"/>
       <c r="D5" s="123" t="s">
         <v>382</v>
       </c>
@@ -35380,14 +35382,14 @@
         <v>384</v>
       </c>
       <c r="G5" s="123"/>
-      <c r="H5" s="394" t="s">
+      <c r="H5" s="361" t="s">
         <v>377</v>
       </c>
-      <c r="I5" s="394"/>
-      <c r="J5" s="394" t="s">
+      <c r="I5" s="361"/>
+      <c r="J5" s="361" t="s">
         <v>378</v>
       </c>
-      <c r="K5" s="394"/>
+      <c r="K5" s="361"/>
       <c r="L5" s="193" t="s">
         <v>482</v>
       </c>
@@ -35420,7 +35422,7 @@
       </c>
     </row>
     <row r="6" spans="1:23" ht="20.25" customHeight="1">
-      <c r="A6" s="346" t="s">
+      <c r="A6" s="394" t="s">
         <v>512</v>
       </c>
       <c r="B6" s="123">
@@ -35466,7 +35468,7 @@
       </c>
     </row>
     <row r="7" spans="1:23" ht="20.25" customHeight="1">
-      <c r="A7" s="347"/>
+      <c r="A7" s="395"/>
       <c r="B7" s="123">
         <v>2</v>
       </c>
@@ -35510,7 +35512,7 @@
       </c>
     </row>
     <row r="8" spans="1:23" ht="20.25" customHeight="1">
-      <c r="A8" s="347"/>
+      <c r="A8" s="395"/>
       <c r="B8" s="121">
         <v>3</v>
       </c>
@@ -35553,7 +35555,7 @@
       </c>
     </row>
     <row r="9" spans="1:23" ht="20.25" customHeight="1">
-      <c r="A9" s="347"/>
+      <c r="A9" s="395"/>
       <c r="B9" s="121">
         <v>4</v>
       </c>
@@ -35596,7 +35598,7 @@
       </c>
     </row>
     <row r="10" spans="1:23" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A10" s="347"/>
+      <c r="A10" s="395"/>
       <c r="B10" s="224">
         <v>5</v>
       </c>
@@ -35621,7 +35623,7 @@
       <c r="U10" s="236"/>
     </row>
     <row r="11" spans="1:23" ht="20.25" customHeight="1">
-      <c r="A11" s="348"/>
+      <c r="A11" s="396"/>
       <c r="B11" s="179"/>
       <c r="C11" s="179"/>
       <c r="D11" s="223" t="s">
@@ -35664,7 +35666,7 @@
       </c>
     </row>
     <row r="12" spans="1:23" ht="20.25" customHeight="1">
-      <c r="A12" s="349" t="s">
+      <c r="A12" s="397" t="s">
         <v>513</v>
       </c>
       <c r="B12" s="133">
@@ -35735,7 +35737,7 @@
       <c r="W12" s="136"/>
     </row>
     <row r="13" spans="1:23" ht="20.25" customHeight="1">
-      <c r="A13" s="350"/>
+      <c r="A13" s="398"/>
       <c r="B13" s="133">
         <v>2</v>
       </c>
@@ -35803,7 +35805,7 @@
       </c>
     </row>
     <row r="14" spans="1:23" ht="20.25" customHeight="1">
-      <c r="A14" s="350"/>
+      <c r="A14" s="398"/>
       <c r="B14" s="133">
         <v>4</v>
       </c>
@@ -35868,7 +35870,7 @@
       </c>
     </row>
     <row r="15" spans="1:23" ht="20.25" customHeight="1">
-      <c r="A15" s="350"/>
+      <c r="A15" s="398"/>
       <c r="B15" s="133">
         <v>5</v>
       </c>
@@ -35936,7 +35938,7 @@
       </c>
     </row>
     <row r="16" spans="1:23" ht="20.25" customHeight="1">
-      <c r="A16" s="350"/>
+      <c r="A16" s="398"/>
       <c r="B16" s="133">
         <v>6</v>
       </c>
@@ -36004,7 +36006,7 @@
       </c>
     </row>
     <row r="17" spans="1:21" ht="20.25" customHeight="1">
-      <c r="A17" s="350"/>
+      <c r="A17" s="398"/>
       <c r="B17" s="133">
         <v>7</v>
       </c>
@@ -36069,7 +36071,7 @@
       </c>
     </row>
     <row r="18" spans="1:21" ht="20.25" customHeight="1">
-      <c r="A18" s="350"/>
+      <c r="A18" s="398"/>
       <c r="B18" s="133">
         <v>8</v>
       </c>
@@ -36137,7 +36139,7 @@
       </c>
     </row>
     <row r="19" spans="1:21" ht="20.25" customHeight="1">
-      <c r="A19" s="350"/>
+      <c r="A19" s="398"/>
       <c r="B19" s="133">
         <v>9</v>
       </c>
@@ -36205,7 +36207,7 @@
       </c>
     </row>
     <row r="20" spans="1:21" ht="20.25" customHeight="1">
-      <c r="A20" s="350"/>
+      <c r="A20" s="398"/>
       <c r="B20" s="133">
         <v>10</v>
       </c>
@@ -36270,7 +36272,7 @@
       </c>
     </row>
     <row r="21" spans="1:21" ht="20.25" customHeight="1">
-      <c r="A21" s="350"/>
+      <c r="A21" s="398"/>
       <c r="B21" s="133">
         <v>11</v>
       </c>
@@ -36338,7 +36340,7 @@
       </c>
     </row>
     <row r="22" spans="1:21" ht="20.25" customHeight="1">
-      <c r="A22" s="350"/>
+      <c r="A22" s="398"/>
       <c r="B22" s="133">
         <v>12</v>
       </c>
@@ -36403,7 +36405,7 @@
       </c>
     </row>
     <row r="23" spans="1:21" ht="20.25" customHeight="1">
-      <c r="A23" s="350"/>
+      <c r="A23" s="398"/>
       <c r="B23" s="133">
         <v>13</v>
       </c>
@@ -36428,7 +36430,7 @@
       <c r="U23" s="244"/>
     </row>
     <row r="24" spans="1:21" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A24" s="351"/>
+      <c r="A24" s="399"/>
       <c r="B24" s="292">
         <v>14</v>
       </c>
@@ -36453,142 +36455,142 @@
       <c r="U24" s="295"/>
     </row>
     <row r="25" spans="1:21" ht="14.1" customHeight="1">
-      <c r="A25" s="334" t="s">
+      <c r="A25" s="382" t="s">
         <v>489</v>
       </c>
-      <c r="B25" s="335"/>
-      <c r="C25" s="335"/>
-      <c r="D25" s="335"/>
-      <c r="E25" s="336"/>
-      <c r="F25" s="425">
+      <c r="B25" s="383"/>
+      <c r="C25" s="383"/>
+      <c r="D25" s="383"/>
+      <c r="E25" s="384"/>
+      <c r="F25" s="423">
         <f>O25+T27</f>
         <v>188969858.07381201</v>
       </c>
-      <c r="G25" s="426">
+      <c r="G25" s="424">
         <f>B18+G20</f>
         <v>8</v>
       </c>
-      <c r="H25" s="427">
+      <c r="H25" s="425">
         <f t="shared" ref="H25:H26" si="8">C18+H20</f>
         <v>184387</v>
       </c>
       <c r="I25" s="219"/>
-      <c r="J25" s="428" t="s">
+      <c r="J25" s="426" t="s">
         <v>479</v>
       </c>
       <c r="K25" s="139"/>
-      <c r="L25" s="429">
+      <c r="L25" s="427">
         <f>SUM(L12:L24)</f>
         <v>88964637.926188007</v>
       </c>
       <c r="M25" s="291"/>
-      <c r="N25" s="430" t="s">
+      <c r="N25" s="428" t="s">
         <v>517</v>
       </c>
-      <c r="O25" s="431">
+      <c r="O25" s="429">
         <f>SUM(O12:O24)</f>
         <v>155684761</v>
       </c>
-      <c r="P25" s="432">
+      <c r="P25" s="430">
         <f>O25-L25</f>
         <v>66720123.073811993</v>
       </c>
-      <c r="Q25" s="433">
+      <c r="Q25" s="431">
         <f>SUM(Q12:Q24)</f>
         <v>82.417766951269883</v>
       </c>
-      <c r="R25" s="434">
+      <c r="R25" s="432">
         <f>SUM(R12:R24)</f>
         <v>47668471</v>
       </c>
-      <c r="S25" s="419">
+      <c r="S25" s="417">
         <f>SUM(S12:S21)</f>
         <v>100.56309966392672</v>
       </c>
-      <c r="T25" s="420">
+      <c r="T25" s="418">
         <f>SUM(T12:T24)</f>
         <v>19051652.073812</v>
       </c>
-      <c r="U25" s="421">
+      <c r="U25" s="419">
         <f>SUM(U12:U24)</f>
         <v>57.237784320002575</v>
       </c>
     </row>
     <row r="26" spans="1:21" ht="10.5" customHeight="1" thickBot="1">
-      <c r="A26" s="337"/>
-      <c r="B26" s="338"/>
-      <c r="C26" s="338"/>
-      <c r="D26" s="338"/>
-      <c r="E26" s="339"/>
-      <c r="F26" s="357" t="e">
+      <c r="A26" s="385"/>
+      <c r="B26" s="386"/>
+      <c r="C26" s="386"/>
+      <c r="D26" s="386"/>
+      <c r="E26" s="387"/>
+      <c r="F26" s="405" t="e">
         <f>#REF!+F21</f>
         <v>#REF!</v>
       </c>
-      <c r="G26" s="358">
+      <c r="G26" s="406">
         <f>B19+G21</f>
         <v>9</v>
       </c>
-      <c r="H26" s="359">
+      <c r="H26" s="407">
         <f t="shared" si="8"/>
         <v>125410</v>
       </c>
       <c r="I26" s="219"/>
-      <c r="J26" s="367"/>
+      <c r="J26" s="415"/>
       <c r="K26" s="139"/>
-      <c r="L26" s="406"/>
+      <c r="L26" s="342"/>
       <c r="M26" s="272"/>
-      <c r="N26" s="411"/>
-      <c r="O26" s="399"/>
-      <c r="P26" s="385"/>
-      <c r="Q26" s="409"/>
-      <c r="R26" s="375"/>
-      <c r="S26" s="404"/>
-      <c r="T26" s="382"/>
-      <c r="U26" s="380"/>
+      <c r="N26" s="348"/>
+      <c r="O26" s="335"/>
+      <c r="P26" s="344"/>
+      <c r="Q26" s="346"/>
+      <c r="R26" s="372"/>
+      <c r="S26" s="340"/>
+      <c r="T26" s="378"/>
+      <c r="U26" s="376"/>
     </row>
     <row r="27" spans="1:21" ht="12.75" customHeight="1">
-      <c r="A27" s="340" t="s">
+      <c r="A27" s="388" t="s">
         <v>490</v>
       </c>
-      <c r="B27" s="341"/>
-      <c r="C27" s="341"/>
-      <c r="D27" s="341"/>
-      <c r="E27" s="342"/>
-      <c r="F27" s="360">
+      <c r="B27" s="389"/>
+      <c r="C27" s="389"/>
+      <c r="D27" s="389"/>
+      <c r="E27" s="390"/>
+      <c r="F27" s="408">
         <f>T30/L25</f>
         <v>2.1241007941896659</v>
       </c>
-      <c r="G27" s="361"/>
-      <c r="H27" s="362"/>
+      <c r="G27" s="409"/>
+      <c r="H27" s="410"/>
       <c r="I27" s="220"/>
-      <c r="J27" s="352" t="s">
+      <c r="J27" s="400" t="s">
         <v>509</v>
       </c>
       <c r="K27" s="7"/>
       <c r="L27" s="247"/>
       <c r="M27" s="273"/>
-      <c r="N27" s="412" t="s">
+      <c r="N27" s="349" t="s">
         <v>518</v>
       </c>
-      <c r="O27" s="417">
+      <c r="O27" s="433">
         <v>154812385</v>
       </c>
-      <c r="P27" s="384">
+      <c r="P27" s="379">
         <f>P25+P11</f>
         <v>80953568.073811993</v>
       </c>
-      <c r="Q27" s="386">
+      <c r="Q27" s="380">
         <f>Q25+Q11</f>
         <v>100</v>
       </c>
-      <c r="R27" s="370">
+      <c r="R27" s="367">
         <f>R25</f>
         <v>47668471</v>
       </c>
       <c r="S27" s="280" t="s">
         <v>491</v>
       </c>
-      <c r="T27" s="372">
+      <c r="T27" s="369">
         <f>T25+T11</f>
         <v>33285097.073812</v>
       </c>
@@ -36597,29 +36599,29 @@
       </c>
     </row>
     <row r="28" spans="1:21" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A28" s="343"/>
-      <c r="B28" s="344"/>
-      <c r="C28" s="344"/>
-      <c r="D28" s="344"/>
-      <c r="E28" s="345"/>
-      <c r="F28" s="363"/>
-      <c r="G28" s="364"/>
-      <c r="H28" s="365"/>
+      <c r="A28" s="391"/>
+      <c r="B28" s="392"/>
+      <c r="C28" s="392"/>
+      <c r="D28" s="392"/>
+      <c r="E28" s="393"/>
+      <c r="F28" s="411"/>
+      <c r="G28" s="412"/>
+      <c r="H28" s="413"/>
       <c r="I28" s="220"/>
-      <c r="J28" s="353"/>
+      <c r="J28" s="401"/>
       <c r="K28" s="7"/>
       <c r="L28" s="248"/>
       <c r="M28" s="274"/>
-      <c r="N28" s="413"/>
-      <c r="O28" s="418"/>
-      <c r="P28" s="385"/>
-      <c r="Q28" s="387"/>
-      <c r="R28" s="371"/>
+      <c r="N28" s="350"/>
+      <c r="O28" s="434"/>
+      <c r="P28" s="344"/>
+      <c r="Q28" s="381"/>
+      <c r="R28" s="368"/>
       <c r="S28" s="282">
         <f>R27/P27*100</f>
         <v>58.883718326703956</v>
       </c>
-      <c r="T28" s="373"/>
+      <c r="T28" s="370"/>
       <c r="U28" s="283">
         <f>T27/P27*100</f>
         <v>41.116281673296044</v>
@@ -36662,12 +36664,12 @@
       <c r="M30" s="141"/>
       <c r="N30" s="142"/>
       <c r="O30" s="173"/>
-      <c r="P30" s="400" t="s">
+      <c r="P30" s="336" t="s">
         <v>489</v>
       </c>
-      <c r="Q30" s="401"/>
-      <c r="R30" s="401"/>
-      <c r="S30" s="402"/>
+      <c r="Q30" s="337"/>
+      <c r="R30" s="337"/>
+      <c r="S30" s="338"/>
       <c r="T30" s="221">
         <f>O25+T27</f>
         <v>188969858.07381201</v>
@@ -36689,12 +36691,12 @@
       <c r="M31" s="141"/>
       <c r="N31" s="142"/>
       <c r="O31" s="173"/>
-      <c r="P31" s="400" t="s">
+      <c r="P31" s="336" t="s">
         <v>490</v>
       </c>
-      <c r="Q31" s="401"/>
-      <c r="R31" s="401"/>
-      <c r="S31" s="402"/>
+      <c r="Q31" s="337"/>
+      <c r="R31" s="337"/>
+      <c r="S31" s="338"/>
       <c r="T31" s="222">
         <f>T30/L25</f>
         <v>2.1241007941896659</v>
@@ -36727,36 +36729,36 @@
       <c r="B34" s="122"/>
       <c r="C34" s="122"/>
       <c r="D34" s="122"/>
-      <c r="E34" s="390" t="s">
+      <c r="E34" s="357" t="s">
         <v>493</v>
       </c>
-      <c r="F34" s="390"/>
+      <c r="F34" s="357"/>
       <c r="G34" s="209"/>
-      <c r="H34" s="395" t="s">
+      <c r="H34" s="362" t="s">
         <v>583</v>
       </c>
-      <c r="I34" s="396"/>
-      <c r="J34" s="396"/>
-      <c r="K34" s="396"/>
-      <c r="L34" s="396"/>
-      <c r="M34" s="396"/>
-      <c r="N34" s="396"/>
-      <c r="O34" s="397"/>
-      <c r="P34" s="376" t="s">
+      <c r="I34" s="363"/>
+      <c r="J34" s="363"/>
+      <c r="K34" s="363"/>
+      <c r="L34" s="363"/>
+      <c r="M34" s="363"/>
+      <c r="N34" s="363"/>
+      <c r="O34" s="364"/>
+      <c r="P34" s="373" t="s">
         <v>380</v>
       </c>
-      <c r="Q34" s="377"/>
-      <c r="R34" s="377"/>
-      <c r="S34" s="377"/>
-      <c r="T34" s="377"/>
-      <c r="U34" s="378"/>
+      <c r="Q34" s="374"/>
+      <c r="R34" s="374"/>
+      <c r="S34" s="374"/>
+      <c r="T34" s="374"/>
+      <c r="U34" s="354"/>
     </row>
     <row r="35" spans="1:21" ht="20.25" customHeight="1">
       <c r="A35" s="7"/>
-      <c r="B35" s="383" t="s">
+      <c r="B35" s="353" t="s">
         <v>381</v>
       </c>
-      <c r="C35" s="378"/>
+      <c r="C35" s="354"/>
       <c r="D35" s="123" t="s">
         <v>382</v>
       </c>
@@ -36767,14 +36769,14 @@
         <v>384</v>
       </c>
       <c r="G35" s="123"/>
-      <c r="H35" s="394" t="s">
+      <c r="H35" s="361" t="s">
         <v>377</v>
       </c>
-      <c r="I35" s="394"/>
-      <c r="J35" s="394" t="s">
+      <c r="I35" s="361"/>
+      <c r="J35" s="361" t="s">
         <v>378</v>
       </c>
-      <c r="K35" s="394"/>
+      <c r="K35" s="361"/>
       <c r="L35" s="193" t="s">
         <v>482</v>
       </c>
@@ -36807,7 +36809,7 @@
       </c>
     </row>
     <row r="36" spans="1:21" ht="20.25" customHeight="1">
-      <c r="A36" s="349" t="s">
+      <c r="A36" s="397" t="s">
         <v>572</v>
       </c>
       <c r="B36" s="133">
@@ -36853,7 +36855,7 @@
       <c r="U36" s="244"/>
     </row>
     <row r="37" spans="1:21" ht="17.25" thickBot="1">
-      <c r="A37" s="351"/>
+      <c r="A37" s="399"/>
       <c r="B37" s="151">
         <v>2</v>
       </c>
@@ -36898,22 +36900,17 @@
     </row>
   </sheetData>
   <mergeCells count="43">
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="H4:O4"/>
-    <mergeCell ref="P4:U4"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="L3:M3"/>
-    <mergeCell ref="P3:Q3"/>
-    <mergeCell ref="R3:S3"/>
-    <mergeCell ref="T3:U3"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="J5:K5"/>
-    <mergeCell ref="A6:A11"/>
-    <mergeCell ref="A25:E26"/>
-    <mergeCell ref="F25:H26"/>
-    <mergeCell ref="J25:J26"/>
-    <mergeCell ref="A12:A24"/>
+    <mergeCell ref="A36:A37"/>
+    <mergeCell ref="A27:E28"/>
+    <mergeCell ref="E34:F34"/>
+    <mergeCell ref="H34:O34"/>
+    <mergeCell ref="R27:R28"/>
+    <mergeCell ref="P30:S30"/>
+    <mergeCell ref="P31:S31"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="H35:I35"/>
+    <mergeCell ref="J35:K35"/>
+    <mergeCell ref="P34:U34"/>
     <mergeCell ref="S25:S26"/>
     <mergeCell ref="T25:T26"/>
     <mergeCell ref="U25:U26"/>
@@ -36930,17 +36927,22 @@
     <mergeCell ref="Q25:Q26"/>
     <mergeCell ref="R25:R26"/>
     <mergeCell ref="T27:T28"/>
-    <mergeCell ref="A36:A37"/>
-    <mergeCell ref="A27:E28"/>
-    <mergeCell ref="E34:F34"/>
-    <mergeCell ref="H34:O34"/>
-    <mergeCell ref="R27:R28"/>
-    <mergeCell ref="P30:S30"/>
-    <mergeCell ref="P31:S31"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="H35:I35"/>
-    <mergeCell ref="J35:K35"/>
-    <mergeCell ref="P34:U34"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="A6:A11"/>
+    <mergeCell ref="A25:E26"/>
+    <mergeCell ref="F25:H26"/>
+    <mergeCell ref="J25:J26"/>
+    <mergeCell ref="A12:A24"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="H4:O4"/>
+    <mergeCell ref="P4:U4"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="P3:Q3"/>
+    <mergeCell ref="R3:S3"/>
+    <mergeCell ref="T3:U3"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
@@ -37003,8 +37005,8 @@
       <c r="B3" s="72"/>
       <c r="C3" s="72"/>
       <c r="D3" s="72"/>
-      <c r="E3" s="388"/>
-      <c r="F3" s="389"/>
+      <c r="E3" s="355"/>
+      <c r="F3" s="356"/>
       <c r="G3" s="72"/>
       <c r="H3" s="72" t="s">
         <v>372</v>
@@ -37014,38 +37016,38 @@
         <v>373</v>
       </c>
       <c r="K3" s="6"/>
-      <c r="L3" s="391" t="s">
+      <c r="L3" s="358" t="s">
         <v>374</v>
       </c>
-      <c r="M3" s="392"/>
+      <c r="M3" s="359"/>
       <c r="N3" s="120" t="s">
         <v>375</v>
       </c>
       <c r="O3" s="168" t="s">
         <v>376</v>
       </c>
-      <c r="P3" s="393" t="s">
+      <c r="P3" s="360" t="s">
         <v>483</v>
       </c>
-      <c r="Q3" s="392"/>
-      <c r="R3" s="383" t="s">
+      <c r="Q3" s="359"/>
+      <c r="R3" s="353" t="s">
         <v>484</v>
       </c>
-      <c r="S3" s="378"/>
-      <c r="T3" s="368" t="s">
+      <c r="S3" s="354"/>
+      <c r="T3" s="365" t="s">
         <v>485</v>
       </c>
-      <c r="U3" s="369"/>
+      <c r="U3" s="366"/>
     </row>
     <row r="4" spans="1:23" ht="18.75" customHeight="1">
       <c r="A4" s="7"/>
       <c r="B4" s="122"/>
       <c r="C4" s="122"/>
       <c r="D4" s="122"/>
-      <c r="E4" s="390" t="s">
+      <c r="E4" s="357" t="s">
         <v>493</v>
       </c>
-      <c r="F4" s="390"/>
+      <c r="F4" s="357"/>
       <c r="G4" s="209"/>
       <c r="H4" s="435" t="s">
         <v>515</v>
@@ -37057,21 +37059,21 @@
       <c r="M4" s="436"/>
       <c r="N4" s="436"/>
       <c r="O4" s="437"/>
-      <c r="P4" s="376" t="s">
+      <c r="P4" s="373" t="s">
         <v>380</v>
       </c>
-      <c r="Q4" s="377"/>
-      <c r="R4" s="377"/>
-      <c r="S4" s="377"/>
-      <c r="T4" s="377"/>
-      <c r="U4" s="378"/>
+      <c r="Q4" s="374"/>
+      <c r="R4" s="374"/>
+      <c r="S4" s="374"/>
+      <c r="T4" s="374"/>
+      <c r="U4" s="354"/>
     </row>
     <row r="5" spans="1:23" ht="20.25" customHeight="1">
       <c r="A5" s="7"/>
-      <c r="B5" s="383" t="s">
+      <c r="B5" s="353" t="s">
         <v>381</v>
       </c>
-      <c r="C5" s="378"/>
+      <c r="C5" s="354"/>
       <c r="D5" s="123" t="s">
         <v>382</v>
       </c>
@@ -37082,14 +37084,14 @@
         <v>384</v>
       </c>
       <c r="G5" s="123"/>
-      <c r="H5" s="394" t="s">
+      <c r="H5" s="361" t="s">
         <v>377</v>
       </c>
-      <c r="I5" s="394"/>
-      <c r="J5" s="394" t="s">
+      <c r="I5" s="361"/>
+      <c r="J5" s="361" t="s">
         <v>378</v>
       </c>
-      <c r="K5" s="394"/>
+      <c r="K5" s="361"/>
       <c r="L5" s="193" t="s">
         <v>482</v>
       </c>
@@ -37122,7 +37124,7 @@
       </c>
     </row>
     <row r="6" spans="1:23" ht="20.25" customHeight="1">
-      <c r="A6" s="346" t="s">
+      <c r="A6" s="394" t="s">
         <v>512</v>
       </c>
       <c r="B6" s="123">
@@ -37168,7 +37170,7 @@
       </c>
     </row>
     <row r="7" spans="1:23" ht="20.25" customHeight="1">
-      <c r="A7" s="347"/>
+      <c r="A7" s="395"/>
       <c r="B7" s="123">
         <v>2</v>
       </c>
@@ -37212,7 +37214,7 @@
       </c>
     </row>
     <row r="8" spans="1:23" ht="20.25" customHeight="1">
-      <c r="A8" s="347"/>
+      <c r="A8" s="395"/>
       <c r="B8" s="123">
         <v>3</v>
       </c>
@@ -37237,7 +37239,7 @@
       <c r="U8" s="243"/>
     </row>
     <row r="9" spans="1:23" ht="20.25" customHeight="1">
-      <c r="A9" s="347"/>
+      <c r="A9" s="395"/>
       <c r="B9" s="123">
         <v>4</v>
       </c>
@@ -37262,7 +37264,7 @@
       <c r="U9" s="243"/>
     </row>
     <row r="10" spans="1:23" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A10" s="347"/>
+      <c r="A10" s="395"/>
       <c r="B10" s="224">
         <v>5</v>
       </c>
@@ -37287,7 +37289,7 @@
       <c r="U10" s="236"/>
     </row>
     <row r="11" spans="1:23" ht="20.25" customHeight="1">
-      <c r="A11" s="348"/>
+      <c r="A11" s="396"/>
       <c r="B11" s="179"/>
       <c r="C11" s="179"/>
       <c r="D11" s="223" t="s">
@@ -37330,7 +37332,7 @@
       </c>
     </row>
     <row r="12" spans="1:23" ht="20.25" customHeight="1">
-      <c r="A12" s="349" t="s">
+      <c r="A12" s="397" t="s">
         <v>513</v>
       </c>
       <c r="B12" s="133">
@@ -37401,7 +37403,7 @@
       <c r="W12" s="136"/>
     </row>
     <row r="13" spans="1:23" ht="20.25" customHeight="1">
-      <c r="A13" s="350"/>
+      <c r="A13" s="398"/>
       <c r="B13" s="133">
         <v>2</v>
       </c>
@@ -37469,7 +37471,7 @@
       </c>
     </row>
     <row r="14" spans="1:23" ht="20.25" customHeight="1">
-      <c r="A14" s="350"/>
+      <c r="A14" s="398"/>
       <c r="B14" s="133">
         <v>3</v>
       </c>
@@ -37537,7 +37539,7 @@
       </c>
     </row>
     <row r="15" spans="1:23" ht="20.25" customHeight="1">
-      <c r="A15" s="350"/>
+      <c r="A15" s="398"/>
       <c r="B15" s="133">
         <v>4</v>
       </c>
@@ -37605,7 +37607,7 @@
       </c>
     </row>
     <row r="16" spans="1:23" ht="20.25" customHeight="1">
-      <c r="A16" s="350"/>
+      <c r="A16" s="398"/>
       <c r="B16" s="133">
         <v>5</v>
       </c>
@@ -37670,7 +37672,7 @@
       </c>
     </row>
     <row r="17" spans="1:21" ht="20.25" customHeight="1">
-      <c r="A17" s="350"/>
+      <c r="A17" s="398"/>
       <c r="B17" s="133">
         <v>6</v>
       </c>
@@ -37738,7 +37740,7 @@
       </c>
     </row>
     <row r="18" spans="1:21" ht="20.25" customHeight="1">
-      <c r="A18" s="350"/>
+      <c r="A18" s="398"/>
       <c r="B18" s="133">
         <v>7</v>
       </c>
@@ -37806,7 +37808,7 @@
       </c>
     </row>
     <row r="19" spans="1:21" ht="20.25" customHeight="1">
-      <c r="A19" s="350"/>
+      <c r="A19" s="398"/>
       <c r="B19" s="133">
         <v>8</v>
       </c>
@@ -37871,7 +37873,7 @@
       </c>
     </row>
     <row r="20" spans="1:21" ht="20.25" customHeight="1">
-      <c r="A20" s="350"/>
+      <c r="A20" s="398"/>
       <c r="B20" s="133">
         <v>9</v>
       </c>
@@ -37939,7 +37941,7 @@
       </c>
     </row>
     <row r="21" spans="1:21" ht="20.25" customHeight="1">
-      <c r="A21" s="350"/>
+      <c r="A21" s="398"/>
       <c r="B21" s="133">
         <v>10</v>
       </c>
@@ -38007,7 +38009,7 @@
       </c>
     </row>
     <row r="22" spans="1:21" ht="20.25" customHeight="1">
-      <c r="A22" s="350"/>
+      <c r="A22" s="398"/>
       <c r="B22" s="133">
         <v>11</v>
       </c>
@@ -38072,7 +38074,7 @@
       </c>
     </row>
     <row r="23" spans="1:21" ht="20.25" customHeight="1">
-      <c r="A23" s="350"/>
+      <c r="A23" s="398"/>
       <c r="B23" s="133">
         <v>12</v>
       </c>
@@ -38140,7 +38142,7 @@
       </c>
     </row>
     <row r="24" spans="1:21" ht="20.25" customHeight="1">
-      <c r="A24" s="350"/>
+      <c r="A24" s="398"/>
       <c r="B24" s="133">
         <v>13</v>
       </c>
@@ -38165,7 +38167,7 @@
       <c r="U24" s="244"/>
     </row>
     <row r="25" spans="1:21" ht="20.25" customHeight="1">
-      <c r="A25" s="350"/>
+      <c r="A25" s="398"/>
       <c r="B25" s="133">
         <v>14</v>
       </c>
@@ -38190,7 +38192,7 @@
       <c r="U25" s="244"/>
     </row>
     <row r="26" spans="1:21" ht="20.25" customHeight="1">
-      <c r="A26" s="350"/>
+      <c r="A26" s="398"/>
       <c r="B26" s="133">
         <v>15</v>
       </c>
@@ -38215,7 +38217,7 @@
       <c r="U26" s="244"/>
     </row>
     <row r="27" spans="1:21" ht="20.25" customHeight="1">
-      <c r="A27" s="350"/>
+      <c r="A27" s="398"/>
       <c r="B27" s="133">
         <v>16</v>
       </c>
@@ -38240,7 +38242,7 @@
       <c r="U27" s="244"/>
     </row>
     <row r="28" spans="1:21" ht="20.25" customHeight="1">
-      <c r="A28" s="350"/>
+      <c r="A28" s="398"/>
       <c r="B28" s="133">
         <v>17</v>
       </c>
@@ -38265,7 +38267,7 @@
       <c r="U28" s="244"/>
     </row>
     <row r="29" spans="1:21" ht="17.25" thickBot="1">
-      <c r="A29" s="351"/>
+      <c r="A29" s="399"/>
       <c r="B29" s="151">
         <v>18</v>
       </c>
@@ -38290,140 +38292,140 @@
       <c r="U29" s="270"/>
     </row>
     <row r="30" spans="1:21" ht="14.1" customHeight="1">
-      <c r="A30" s="334" t="s">
+      <c r="A30" s="382" t="s">
         <v>510</v>
       </c>
-      <c r="B30" s="335"/>
-      <c r="C30" s="335"/>
-      <c r="D30" s="335"/>
-      <c r="E30" s="336"/>
-      <c r="F30" s="354">
+      <c r="B30" s="383"/>
+      <c r="C30" s="383"/>
+      <c r="D30" s="383"/>
+      <c r="E30" s="384"/>
+      <c r="F30" s="402">
         <f>O30+T32</f>
         <v>171792474.03200001</v>
       </c>
-      <c r="G30" s="355">
+      <c r="G30" s="403">
         <f t="shared" ref="G30:H31" si="8">B20+G22</f>
         <v>9</v>
       </c>
-      <c r="H30" s="356">
+      <c r="H30" s="404">
         <f t="shared" si="8"/>
         <v>167887</v>
       </c>
       <c r="I30" s="219"/>
-      <c r="J30" s="366" t="s">
+      <c r="J30" s="414" t="s">
         <v>508</v>
       </c>
       <c r="K30" s="139"/>
-      <c r="L30" s="405">
+      <c r="L30" s="341">
         <f>SUM(L12:L29)</f>
         <v>96989979.96800001</v>
       </c>
       <c r="M30" s="271"/>
-      <c r="N30" s="410" t="s">
+      <c r="N30" s="347" t="s">
         <v>517</v>
       </c>
-      <c r="O30" s="398">
+      <c r="O30" s="334">
         <f>SUM(O12:O29)</f>
         <v>151411841</v>
       </c>
-      <c r="P30" s="407">
+      <c r="P30" s="343">
         <f>O30-L30</f>
         <v>54421861.03199999</v>
       </c>
-      <c r="Q30" s="408">
+      <c r="Q30" s="345">
         <f>SUM(Q12:Q29)</f>
         <v>88.081094833898462</v>
       </c>
-      <c r="R30" s="374">
+      <c r="R30" s="371">
         <f>SUM(R12:R29)</f>
         <v>41405453</v>
       </c>
-      <c r="S30" s="403">
+      <c r="S30" s="339">
         <f>SUM(S12:S23)</f>
         <v>100</v>
       </c>
-      <c r="T30" s="381">
+      <c r="T30" s="377">
         <f>SUM(T12:T29)</f>
         <v>13016408.032000002</v>
       </c>
-      <c r="U30" s="379">
+      <c r="U30" s="375">
         <f>SUM(U12:U29)</f>
         <v>63.866554152477512</v>
       </c>
     </row>
     <row r="31" spans="1:21" ht="14.1" customHeight="1" thickBot="1">
-      <c r="A31" s="337"/>
-      <c r="B31" s="338"/>
-      <c r="C31" s="338"/>
-      <c r="D31" s="338"/>
-      <c r="E31" s="339"/>
-      <c r="F31" s="357" t="e">
+      <c r="A31" s="385"/>
+      <c r="B31" s="386"/>
+      <c r="C31" s="386"/>
+      <c r="D31" s="386"/>
+      <c r="E31" s="387"/>
+      <c r="F31" s="405" t="e">
         <f>#REF!+F23</f>
         <v>#REF!</v>
       </c>
-      <c r="G31" s="358">
+      <c r="G31" s="406">
         <f t="shared" si="8"/>
         <v>10</v>
       </c>
-      <c r="H31" s="359">
+      <c r="H31" s="407">
         <f t="shared" si="8"/>
         <v>180410</v>
       </c>
       <c r="I31" s="219"/>
-      <c r="J31" s="367"/>
+      <c r="J31" s="415"/>
       <c r="K31" s="139"/>
-      <c r="L31" s="406"/>
+      <c r="L31" s="342"/>
       <c r="M31" s="272"/>
-      <c r="N31" s="411"/>
-      <c r="O31" s="399"/>
-      <c r="P31" s="385"/>
-      <c r="Q31" s="409"/>
-      <c r="R31" s="375"/>
-      <c r="S31" s="404"/>
-      <c r="T31" s="382"/>
-      <c r="U31" s="380"/>
+      <c r="N31" s="348"/>
+      <c r="O31" s="335"/>
+      <c r="P31" s="344"/>
+      <c r="Q31" s="346"/>
+      <c r="R31" s="372"/>
+      <c r="S31" s="340"/>
+      <c r="T31" s="378"/>
+      <c r="U31" s="376"/>
     </row>
     <row r="32" spans="1:21" ht="13.7" customHeight="1">
-      <c r="A32" s="340" t="s">
+      <c r="A32" s="388" t="s">
         <v>511</v>
       </c>
-      <c r="B32" s="341"/>
-      <c r="C32" s="341"/>
-      <c r="D32" s="341"/>
-      <c r="E32" s="342"/>
-      <c r="F32" s="360">
+      <c r="B32" s="389"/>
+      <c r="C32" s="389"/>
+      <c r="D32" s="389"/>
+      <c r="E32" s="390"/>
+      <c r="F32" s="408">
         <f>T35/L30</f>
         <v>1.7712394011080284</v>
       </c>
-      <c r="G32" s="361"/>
-      <c r="H32" s="362"/>
+      <c r="G32" s="409"/>
+      <c r="H32" s="410"/>
       <c r="I32" s="220"/>
-      <c r="J32" s="352" t="s">
+      <c r="J32" s="400" t="s">
         <v>509</v>
       </c>
       <c r="K32" s="7"/>
       <c r="L32" s="247"/>
       <c r="M32" s="273"/>
-      <c r="N32" s="412" t="s">
+      <c r="N32" s="349" t="s">
         <v>518</v>
       </c>
       <c r="O32" s="284"/>
-      <c r="P32" s="384">
+      <c r="P32" s="379">
         <f>P30+P11</f>
         <v>61786086.03199999</v>
       </c>
-      <c r="Q32" s="386">
+      <c r="Q32" s="380">
         <f>Q30+Q11</f>
         <v>100.00000000000001</v>
       </c>
-      <c r="R32" s="370">
+      <c r="R32" s="367">
         <f>R30</f>
         <v>41405453</v>
       </c>
       <c r="S32" s="280" t="s">
         <v>491</v>
       </c>
-      <c r="T32" s="372">
+      <c r="T32" s="369">
         <f>T30+T11</f>
         <v>20380633.032000002</v>
       </c>
@@ -38432,29 +38434,29 @@
       </c>
     </row>
     <row r="33" spans="1:21" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A33" s="343"/>
-      <c r="B33" s="344"/>
-      <c r="C33" s="344"/>
-      <c r="D33" s="344"/>
-      <c r="E33" s="345"/>
-      <c r="F33" s="363"/>
-      <c r="G33" s="364"/>
-      <c r="H33" s="365"/>
+      <c r="A33" s="391"/>
+      <c r="B33" s="392"/>
+      <c r="C33" s="392"/>
+      <c r="D33" s="392"/>
+      <c r="E33" s="393"/>
+      <c r="F33" s="411"/>
+      <c r="G33" s="412"/>
+      <c r="H33" s="413"/>
       <c r="I33" s="220"/>
-      <c r="J33" s="353"/>
+      <c r="J33" s="401"/>
       <c r="K33" s="7"/>
       <c r="L33" s="248"/>
       <c r="M33" s="274"/>
-      <c r="N33" s="413"/>
+      <c r="N33" s="350"/>
       <c r="O33" s="285"/>
-      <c r="P33" s="385"/>
-      <c r="Q33" s="387"/>
-      <c r="R33" s="371"/>
+      <c r="P33" s="344"/>
+      <c r="Q33" s="381"/>
+      <c r="R33" s="368"/>
       <c r="S33" s="282">
         <f>R32/P32*100</f>
         <v>67.014202807012992</v>
       </c>
-      <c r="T33" s="373"/>
+      <c r="T33" s="370"/>
       <c r="U33" s="283">
         <f>T32/P32*100</f>
         <v>32.985797192987029</v>
@@ -38497,12 +38499,12 @@
       <c r="M35" s="141"/>
       <c r="N35" s="142"/>
       <c r="O35" s="173"/>
-      <c r="P35" s="400" t="s">
+      <c r="P35" s="336" t="s">
         <v>489</v>
       </c>
-      <c r="Q35" s="401"/>
-      <c r="R35" s="401"/>
-      <c r="S35" s="402"/>
+      <c r="Q35" s="337"/>
+      <c r="R35" s="337"/>
+      <c r="S35" s="338"/>
       <c r="T35" s="221">
         <f>O30+T32</f>
         <v>171792474.03200001</v>
@@ -38524,12 +38526,12 @@
       <c r="M36" s="141"/>
       <c r="N36" s="142"/>
       <c r="O36" s="173"/>
-      <c r="P36" s="400" t="s">
+      <c r="P36" s="336" t="s">
         <v>490</v>
       </c>
-      <c r="Q36" s="401"/>
-      <c r="R36" s="401"/>
-      <c r="S36" s="402"/>
+      <c r="Q36" s="337"/>
+      <c r="R36" s="337"/>
+      <c r="S36" s="338"/>
       <c r="T36" s="222">
         <f>T35/L30</f>
         <v>1.7712394011080284</v>
@@ -38578,25 +38580,6 @@
     </row>
   </sheetData>
   <mergeCells count="35">
-    <mergeCell ref="P4:U4"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="L3:M3"/>
-    <mergeCell ref="P3:Q3"/>
-    <mergeCell ref="R3:S3"/>
-    <mergeCell ref="T3:U3"/>
-    <mergeCell ref="A6:A11"/>
-    <mergeCell ref="A30:E31"/>
-    <mergeCell ref="F30:H31"/>
-    <mergeCell ref="J30:J31"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="H4:O4"/>
-    <mergeCell ref="R30:R31"/>
-    <mergeCell ref="S30:S31"/>
-    <mergeCell ref="N32:N33"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="J5:K5"/>
-    <mergeCell ref="N30:N31"/>
     <mergeCell ref="P35:S35"/>
     <mergeCell ref="P36:S36"/>
     <mergeCell ref="A12:A29"/>
@@ -38613,6 +38596,25 @@
     <mergeCell ref="O30:O31"/>
     <mergeCell ref="P30:P31"/>
     <mergeCell ref="Q30:Q31"/>
+    <mergeCell ref="R30:R31"/>
+    <mergeCell ref="S30:S31"/>
+    <mergeCell ref="N32:N33"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="N30:N31"/>
+    <mergeCell ref="A6:A11"/>
+    <mergeCell ref="A30:E31"/>
+    <mergeCell ref="F30:H31"/>
+    <mergeCell ref="J30:J31"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="H4:O4"/>
+    <mergeCell ref="P4:U4"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="P3:Q3"/>
+    <mergeCell ref="R3:S3"/>
+    <mergeCell ref="T3:U3"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
@@ -41303,7 +41305,7 @@
   <dimension ref="A1:L33"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>

--- a/公司股票成本表+總表113.12.12改.xlsx
+++ b/公司股票成本表+總表113.12.12改.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28227"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0698F54E-DD35-4C32-A99F-8832155A5A3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{275961ED-CDE1-40BC-AD1C-C9B00ED0C25A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="741" firstSheet="7" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="741" firstSheet="5" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="總表20240312" sheetId="46" r:id="rId1"/>
@@ -13,11 +13,11 @@
     <sheet name="總表20240517" sheetId="54" r:id="rId3"/>
     <sheet name="總表20240918" sheetId="57" r:id="rId4"/>
     <sheet name="總表 (空白可填)" sheetId="52" r:id="rId5"/>
-    <sheet name="元大高股息" sheetId="27" r:id="rId6"/>
-    <sheet name="元大美債20" sheetId="48" r:id="rId7"/>
-    <sheet name="統一(入檔)" sheetId="49" r:id="rId8"/>
-    <sheet name="台塑化(入檔)" sheetId="56" r:id="rId9"/>
-    <sheet name="達欣工(入檔)" sheetId="17" r:id="rId10"/>
+    <sheet name="元大高股息(OK)" sheetId="27" r:id="rId6"/>
+    <sheet name="元大美債20(OK)" sheetId="48" r:id="rId7"/>
+    <sheet name="統一(OK)" sheetId="49" r:id="rId8"/>
+    <sheet name="台塑化(OK)" sheetId="56" r:id="rId9"/>
+    <sheet name="達欣工(OK)" sheetId="17" r:id="rId10"/>
     <sheet name="台企銀" sheetId="4" r:id="rId11"/>
     <sheet name="玉山金" sheetId="44" r:id="rId12"/>
     <sheet name="台新金" sheetId="15" r:id="rId13"/>
@@ -4923,6 +4923,198 @@
     <xf numFmtId="177" fontId="0" fillId="11" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="40" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="41" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="6" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="42" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="43" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="13" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="19" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="6" fillId="0" borderId="57" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="6" fillId="0" borderId="60" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="6" fillId="7" borderId="57" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="6" fillId="7" borderId="60" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="6" fillId="0" borderId="34" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="6" fillId="0" borderId="54" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="12" fillId="7" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="12" fillId="7" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="12" fillId="7" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="12" fillId="7" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="6" fillId="9" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="6" fillId="9" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="6" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="6" fillId="0" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="10" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="10" fillId="6" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="10" fillId="6" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="177" fontId="6" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -4953,9 +5145,6 @@
     <xf numFmtId="177" fontId="6" fillId="9" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="6" fillId="9" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="177" fontId="6" fillId="9" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4980,198 +5169,15 @@
     <xf numFmtId="177" fontId="6" fillId="0" borderId="64" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="10" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="10" fillId="6" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="10" fillId="6" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="6" fillId="0" borderId="57" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="6" fillId="0" borderId="60" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="6" fillId="7" borderId="57" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="6" fillId="7" borderId="60" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="6" fillId="0" borderId="34" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="6" fillId="0" borderId="54" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="12" fillId="7" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="12" fillId="7" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="12" fillId="7" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="12" fillId="7" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="6" fillId="9" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="6" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="6" fillId="0" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="40" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="41" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="6" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="42" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="43" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="13" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="19" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="6" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="6" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="177" fontId="6" fillId="6" borderId="63" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="6" fillId="6" borderId="64" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="177" fontId="6" fillId="0" borderId="50" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -5218,12 +5224,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="6" fillId="0" borderId="49" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="6" fillId="6" borderId="63" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="6" fillId="6" borderId="64" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="18" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -6117,8 +6117,8 @@
       <c r="B3" s="72"/>
       <c r="C3" s="72"/>
       <c r="D3" s="72"/>
-      <c r="E3" s="355"/>
-      <c r="F3" s="356"/>
+      <c r="E3" s="388"/>
+      <c r="F3" s="389"/>
       <c r="G3" s="72"/>
       <c r="H3" s="72" t="s">
         <v>372</v>
@@ -6128,64 +6128,64 @@
         <v>373</v>
       </c>
       <c r="K3" s="6"/>
-      <c r="L3" s="358" t="s">
+      <c r="L3" s="391" t="s">
         <v>374</v>
       </c>
-      <c r="M3" s="359"/>
+      <c r="M3" s="392"/>
       <c r="N3" s="120" t="s">
         <v>375</v>
       </c>
       <c r="O3" s="168" t="s">
         <v>376</v>
       </c>
-      <c r="P3" s="360" t="s">
+      <c r="P3" s="393" t="s">
         <v>483</v>
       </c>
-      <c r="Q3" s="359"/>
-      <c r="R3" s="353" t="s">
+      <c r="Q3" s="392"/>
+      <c r="R3" s="383" t="s">
         <v>484</v>
       </c>
-      <c r="S3" s="354"/>
-      <c r="T3" s="365" t="s">
+      <c r="S3" s="378"/>
+      <c r="T3" s="368" t="s">
         <v>485</v>
       </c>
-      <c r="U3" s="366"/>
+      <c r="U3" s="369"/>
     </row>
     <row r="4" spans="1:23" ht="18.75" customHeight="1">
       <c r="A4" s="7"/>
       <c r="B4" s="122"/>
       <c r="C4" s="122"/>
       <c r="D4" s="122"/>
-      <c r="E4" s="357" t="s">
+      <c r="E4" s="390" t="s">
         <v>493</v>
       </c>
-      <c r="F4" s="357"/>
+      <c r="F4" s="390"/>
       <c r="G4" s="209"/>
-      <c r="H4" s="362" t="s">
+      <c r="H4" s="395" t="s">
         <v>515</v>
       </c>
-      <c r="I4" s="363"/>
-      <c r="J4" s="363"/>
-      <c r="K4" s="363"/>
-      <c r="L4" s="363"/>
-      <c r="M4" s="363"/>
-      <c r="N4" s="363"/>
-      <c r="O4" s="364"/>
-      <c r="P4" s="373" t="s">
+      <c r="I4" s="396"/>
+      <c r="J4" s="396"/>
+      <c r="K4" s="396"/>
+      <c r="L4" s="396"/>
+      <c r="M4" s="396"/>
+      <c r="N4" s="396"/>
+      <c r="O4" s="397"/>
+      <c r="P4" s="376" t="s">
         <v>380</v>
       </c>
-      <c r="Q4" s="374"/>
-      <c r="R4" s="374"/>
-      <c r="S4" s="374"/>
-      <c r="T4" s="374"/>
-      <c r="U4" s="354"/>
+      <c r="Q4" s="377"/>
+      <c r="R4" s="377"/>
+      <c r="S4" s="377"/>
+      <c r="T4" s="377"/>
+      <c r="U4" s="378"/>
     </row>
     <row r="5" spans="1:23" ht="20.25" customHeight="1">
       <c r="A5" s="7"/>
-      <c r="B5" s="353" t="s">
+      <c r="B5" s="383" t="s">
         <v>381</v>
       </c>
-      <c r="C5" s="354"/>
+      <c r="C5" s="378"/>
       <c r="D5" s="123" t="s">
         <v>382</v>
       </c>
@@ -6196,14 +6196,14 @@
         <v>384</v>
       </c>
       <c r="G5" s="123"/>
-      <c r="H5" s="361" t="s">
+      <c r="H5" s="394" t="s">
         <v>377</v>
       </c>
-      <c r="I5" s="361"/>
-      <c r="J5" s="361" t="s">
+      <c r="I5" s="394"/>
+      <c r="J5" s="394" t="s">
         <v>378</v>
       </c>
-      <c r="K5" s="361"/>
+      <c r="K5" s="394"/>
       <c r="L5" s="193" t="s">
         <v>482</v>
       </c>
@@ -6236,7 +6236,7 @@
       </c>
     </row>
     <row r="6" spans="1:23" ht="20.25" customHeight="1">
-      <c r="A6" s="394" t="s">
+      <c r="A6" s="346" t="s">
         <v>512</v>
       </c>
       <c r="B6" s="123">
@@ -6282,7 +6282,7 @@
       </c>
     </row>
     <row r="7" spans="1:23" ht="20.25" customHeight="1">
-      <c r="A7" s="395"/>
+      <c r="A7" s="347"/>
       <c r="B7" s="123">
         <v>2</v>
       </c>
@@ -6326,7 +6326,7 @@
       </c>
     </row>
     <row r="8" spans="1:23" ht="20.25" customHeight="1">
-      <c r="A8" s="395"/>
+      <c r="A8" s="347"/>
       <c r="B8" s="121">
         <v>3</v>
       </c>
@@ -6351,7 +6351,7 @@
       <c r="U8" s="265"/>
     </row>
     <row r="9" spans="1:23" ht="20.25" customHeight="1">
-      <c r="A9" s="395"/>
+      <c r="A9" s="347"/>
       <c r="B9" s="121">
         <v>4</v>
       </c>
@@ -6376,7 +6376,7 @@
       <c r="U9" s="265"/>
     </row>
     <row r="10" spans="1:23" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A10" s="395"/>
+      <c r="A10" s="347"/>
       <c r="B10" s="224">
         <v>5</v>
       </c>
@@ -6401,7 +6401,7 @@
       <c r="U10" s="236"/>
     </row>
     <row r="11" spans="1:23" ht="20.25" customHeight="1">
-      <c r="A11" s="396"/>
+      <c r="A11" s="348"/>
       <c r="B11" s="179"/>
       <c r="C11" s="179"/>
       <c r="D11" s="223" t="s">
@@ -6444,7 +6444,7 @@
       </c>
     </row>
     <row r="12" spans="1:23" ht="20.25" customHeight="1">
-      <c r="A12" s="397" t="s">
+      <c r="A12" s="349" t="s">
         <v>513</v>
       </c>
       <c r="B12" s="133">
@@ -6515,7 +6515,7 @@
       <c r="W12" s="136"/>
     </row>
     <row r="13" spans="1:23" ht="20.25" customHeight="1">
-      <c r="A13" s="398"/>
+      <c r="A13" s="350"/>
       <c r="B13" s="133">
         <v>2</v>
       </c>
@@ -6583,7 +6583,7 @@
       </c>
     </row>
     <row r="14" spans="1:23" ht="20.25" customHeight="1">
-      <c r="A14" s="398"/>
+      <c r="A14" s="350"/>
       <c r="B14" s="133">
         <v>3</v>
       </c>
@@ -6651,7 +6651,7 @@
       </c>
     </row>
     <row r="15" spans="1:23" ht="20.25" customHeight="1">
-      <c r="A15" s="398"/>
+      <c r="A15" s="350"/>
       <c r="B15" s="133">
         <v>4</v>
       </c>
@@ -6719,7 +6719,7 @@
       </c>
     </row>
     <row r="16" spans="1:23" ht="20.25" customHeight="1">
-      <c r="A16" s="398"/>
+      <c r="A16" s="350"/>
       <c r="B16" s="133">
         <v>5</v>
       </c>
@@ -6784,7 +6784,7 @@
       </c>
     </row>
     <row r="17" spans="1:21" ht="20.25" customHeight="1">
-      <c r="A17" s="398"/>
+      <c r="A17" s="350"/>
       <c r="B17" s="133">
         <v>6</v>
       </c>
@@ -6852,7 +6852,7 @@
       </c>
     </row>
     <row r="18" spans="1:21" ht="20.25" customHeight="1">
-      <c r="A18" s="398"/>
+      <c r="A18" s="350"/>
       <c r="B18" s="133">
         <v>7</v>
       </c>
@@ -6920,7 +6920,7 @@
       </c>
     </row>
     <row r="19" spans="1:21" ht="20.25" customHeight="1">
-      <c r="A19" s="398"/>
+      <c r="A19" s="350"/>
       <c r="B19" s="133">
         <v>8</v>
       </c>
@@ -6985,7 +6985,7 @@
       </c>
     </row>
     <row r="20" spans="1:21" ht="20.25" customHeight="1">
-      <c r="A20" s="398"/>
+      <c r="A20" s="350"/>
       <c r="B20" s="133">
         <v>9</v>
       </c>
@@ -7053,7 +7053,7 @@
       </c>
     </row>
     <row r="21" spans="1:21" ht="20.25" customHeight="1">
-      <c r="A21" s="398"/>
+      <c r="A21" s="350"/>
       <c r="B21" s="133">
         <v>10</v>
       </c>
@@ -7121,7 +7121,7 @@
       </c>
     </row>
     <row r="22" spans="1:21" ht="20.25" customHeight="1">
-      <c r="A22" s="398"/>
+      <c r="A22" s="350"/>
       <c r="B22" s="133">
         <v>11</v>
       </c>
@@ -7186,7 +7186,7 @@
       </c>
     </row>
     <row r="23" spans="1:21" ht="20.25" customHeight="1">
-      <c r="A23" s="398"/>
+      <c r="A23" s="350"/>
       <c r="B23" s="133">
         <v>12</v>
       </c>
@@ -7254,7 +7254,7 @@
       </c>
     </row>
     <row r="24" spans="1:21" ht="20.25" customHeight="1">
-      <c r="A24" s="398"/>
+      <c r="A24" s="350"/>
       <c r="B24" s="133">
         <v>13</v>
       </c>
@@ -7279,7 +7279,7 @@
       <c r="U24" s="244"/>
     </row>
     <row r="25" spans="1:21" ht="20.25" customHeight="1">
-      <c r="A25" s="398"/>
+      <c r="A25" s="350"/>
       <c r="B25" s="133">
         <v>14</v>
       </c>
@@ -7304,7 +7304,7 @@
       <c r="U25" s="244"/>
     </row>
     <row r="26" spans="1:21" ht="20.25" customHeight="1">
-      <c r="A26" s="398"/>
+      <c r="A26" s="350"/>
       <c r="B26" s="133">
         <v>15</v>
       </c>
@@ -7329,7 +7329,7 @@
       <c r="U26" s="244"/>
     </row>
     <row r="27" spans="1:21" ht="20.25" customHeight="1">
-      <c r="A27" s="398"/>
+      <c r="A27" s="350"/>
       <c r="B27" s="133">
         <v>16</v>
       </c>
@@ -7354,7 +7354,7 @@
       <c r="U27" s="244"/>
     </row>
     <row r="28" spans="1:21" ht="20.25" customHeight="1">
-      <c r="A28" s="398"/>
+      <c r="A28" s="350"/>
       <c r="B28" s="133">
         <v>17</v>
       </c>
@@ -7379,7 +7379,7 @@
       <c r="U28" s="244"/>
     </row>
     <row r="29" spans="1:21" ht="17.25" thickBot="1">
-      <c r="A29" s="399"/>
+      <c r="A29" s="351"/>
       <c r="B29" s="151">
         <v>18</v>
       </c>
@@ -7404,142 +7404,142 @@
       <c r="U29" s="270"/>
     </row>
     <row r="30" spans="1:21" ht="14.1" customHeight="1">
-      <c r="A30" s="382" t="s">
+      <c r="A30" s="334" t="s">
         <v>510</v>
       </c>
-      <c r="B30" s="383"/>
-      <c r="C30" s="383"/>
-      <c r="D30" s="383"/>
-      <c r="E30" s="384"/>
-      <c r="F30" s="402">
+      <c r="B30" s="335"/>
+      <c r="C30" s="335"/>
+      <c r="D30" s="335"/>
+      <c r="E30" s="336"/>
+      <c r="F30" s="354">
         <f>O30+T32</f>
         <v>171792474.03200001</v>
       </c>
-      <c r="G30" s="403">
+      <c r="G30" s="355">
         <f t="shared" ref="G30:H31" si="10">B20+G22</f>
         <v>9</v>
       </c>
-      <c r="H30" s="404">
+      <c r="H30" s="356">
         <f t="shared" si="10"/>
         <v>167887</v>
       </c>
       <c r="I30" s="219"/>
-      <c r="J30" s="414" t="s">
+      <c r="J30" s="366" t="s">
         <v>508</v>
       </c>
       <c r="K30" s="139"/>
-      <c r="L30" s="341">
+      <c r="L30" s="405">
         <f>SUM(L12:L29)</f>
         <v>96989979.96800001</v>
       </c>
       <c r="M30" s="271"/>
-      <c r="N30" s="347" t="s">
+      <c r="N30" s="410" t="s">
         <v>517</v>
       </c>
-      <c r="O30" s="334">
+      <c r="O30" s="398">
         <f>SUM(O12:O29)</f>
         <v>151411841</v>
       </c>
-      <c r="P30" s="343">
+      <c r="P30" s="407">
         <f>O30-L30</f>
         <v>54421861.03199999</v>
       </c>
-      <c r="Q30" s="345">
+      <c r="Q30" s="408">
         <f>SUM(Q12:Q29)</f>
         <v>88.081094833898462</v>
       </c>
-      <c r="R30" s="371">
+      <c r="R30" s="374">
         <f>SUM(R12:R29)</f>
         <v>41405453</v>
       </c>
-      <c r="S30" s="339">
+      <c r="S30" s="403">
         <f>SUM(S12:S23)</f>
         <v>100</v>
       </c>
-      <c r="T30" s="377">
+      <c r="T30" s="381">
         <f>SUM(T12:T29)</f>
         <v>13016408.032000002</v>
       </c>
-      <c r="U30" s="375">
+      <c r="U30" s="379">
         <f>SUM(U12:U29)</f>
         <v>63.866554152477512</v>
       </c>
     </row>
     <row r="31" spans="1:21" ht="14.1" customHeight="1" thickBot="1">
-      <c r="A31" s="385"/>
-      <c r="B31" s="386"/>
-      <c r="C31" s="386"/>
-      <c r="D31" s="386"/>
-      <c r="E31" s="387"/>
-      <c r="F31" s="405" t="e">
+      <c r="A31" s="337"/>
+      <c r="B31" s="338"/>
+      <c r="C31" s="338"/>
+      <c r="D31" s="338"/>
+      <c r="E31" s="339"/>
+      <c r="F31" s="357" t="e">
         <f>#REF!+F23</f>
         <v>#REF!</v>
       </c>
-      <c r="G31" s="406">
+      <c r="G31" s="358">
         <f t="shared" si="10"/>
         <v>10</v>
       </c>
-      <c r="H31" s="407">
+      <c r="H31" s="359">
         <f t="shared" si="10"/>
         <v>180410</v>
       </c>
       <c r="I31" s="219"/>
-      <c r="J31" s="415"/>
+      <c r="J31" s="367"/>
       <c r="K31" s="139"/>
-      <c r="L31" s="342"/>
+      <c r="L31" s="406"/>
       <c r="M31" s="272"/>
-      <c r="N31" s="348"/>
-      <c r="O31" s="335"/>
-      <c r="P31" s="344"/>
-      <c r="Q31" s="346"/>
-      <c r="R31" s="372"/>
-      <c r="S31" s="340"/>
-      <c r="T31" s="378"/>
-      <c r="U31" s="376"/>
+      <c r="N31" s="411"/>
+      <c r="O31" s="399"/>
+      <c r="P31" s="385"/>
+      <c r="Q31" s="409"/>
+      <c r="R31" s="375"/>
+      <c r="S31" s="404"/>
+      <c r="T31" s="382"/>
+      <c r="U31" s="380"/>
     </row>
     <row r="32" spans="1:21" ht="13.7" customHeight="1">
-      <c r="A32" s="388" t="s">
+      <c r="A32" s="340" t="s">
         <v>511</v>
       </c>
-      <c r="B32" s="389"/>
-      <c r="C32" s="389"/>
-      <c r="D32" s="389"/>
-      <c r="E32" s="390"/>
-      <c r="F32" s="408">
+      <c r="B32" s="341"/>
+      <c r="C32" s="341"/>
+      <c r="D32" s="341"/>
+      <c r="E32" s="342"/>
+      <c r="F32" s="360">
         <f>T35/L30</f>
         <v>1.7712394011080284</v>
       </c>
-      <c r="G32" s="409"/>
-      <c r="H32" s="410"/>
+      <c r="G32" s="361"/>
+      <c r="H32" s="362"/>
       <c r="I32" s="220"/>
-      <c r="J32" s="400" t="s">
+      <c r="J32" s="352" t="s">
         <v>509</v>
       </c>
       <c r="K32" s="7"/>
       <c r="L32" s="247"/>
       <c r="M32" s="273"/>
-      <c r="N32" s="349" t="s">
+      <c r="N32" s="412" t="s">
         <v>518</v>
       </c>
-      <c r="O32" s="351">
+      <c r="O32" s="414">
         <v>150815890</v>
       </c>
-      <c r="P32" s="379">
+      <c r="P32" s="384">
         <f>P30+P11</f>
         <v>61786086.03199999</v>
       </c>
-      <c r="Q32" s="380">
+      <c r="Q32" s="386">
         <f>Q30+Q11</f>
         <v>100.00000000000001</v>
       </c>
-      <c r="R32" s="367">
+      <c r="R32" s="370">
         <f>R30</f>
         <v>41405453</v>
       </c>
       <c r="S32" s="280" t="s">
         <v>491</v>
       </c>
-      <c r="T32" s="369">
+      <c r="T32" s="372">
         <f>T30+T11</f>
         <v>20380633.032000002</v>
       </c>
@@ -7548,29 +7548,29 @@
       </c>
     </row>
     <row r="33" spans="1:21" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A33" s="391"/>
-      <c r="B33" s="392"/>
-      <c r="C33" s="392"/>
-      <c r="D33" s="392"/>
-      <c r="E33" s="393"/>
-      <c r="F33" s="411"/>
-      <c r="G33" s="412"/>
-      <c r="H33" s="413"/>
+      <c r="A33" s="343"/>
+      <c r="B33" s="344"/>
+      <c r="C33" s="344"/>
+      <c r="D33" s="344"/>
+      <c r="E33" s="345"/>
+      <c r="F33" s="363"/>
+      <c r="G33" s="364"/>
+      <c r="H33" s="365"/>
       <c r="I33" s="220"/>
-      <c r="J33" s="401"/>
+      <c r="J33" s="353"/>
       <c r="K33" s="7"/>
       <c r="L33" s="248"/>
       <c r="M33" s="274"/>
-      <c r="N33" s="350"/>
-      <c r="O33" s="352"/>
-      <c r="P33" s="344"/>
-      <c r="Q33" s="381"/>
-      <c r="R33" s="368"/>
+      <c r="N33" s="413"/>
+      <c r="O33" s="415"/>
+      <c r="P33" s="385"/>
+      <c r="Q33" s="387"/>
+      <c r="R33" s="371"/>
       <c r="S33" s="282">
         <f>R32/P32*100</f>
         <v>67.014202807012992</v>
       </c>
-      <c r="T33" s="370"/>
+      <c r="T33" s="373"/>
       <c r="U33" s="283">
         <f>T32/P32*100</f>
         <v>32.985797192987029</v>
@@ -7613,12 +7613,12 @@
       <c r="M35" s="141"/>
       <c r="N35" s="142"/>
       <c r="O35" s="173"/>
-      <c r="P35" s="336" t="s">
+      <c r="P35" s="400" t="s">
         <v>489</v>
       </c>
-      <c r="Q35" s="337"/>
-      <c r="R35" s="337"/>
-      <c r="S35" s="338"/>
+      <c r="Q35" s="401"/>
+      <c r="R35" s="401"/>
+      <c r="S35" s="402"/>
       <c r="T35" s="221">
         <f>O30+T32</f>
         <v>171792474.03200001</v>
@@ -7640,12 +7640,12 @@
       <c r="M36" s="141"/>
       <c r="N36" s="142"/>
       <c r="O36" s="173"/>
-      <c r="P36" s="336" t="s">
+      <c r="P36" s="400" t="s">
         <v>490</v>
       </c>
-      <c r="Q36" s="337"/>
-      <c r="R36" s="337"/>
-      <c r="S36" s="338"/>
+      <c r="Q36" s="401"/>
+      <c r="R36" s="401"/>
+      <c r="S36" s="402"/>
       <c r="T36" s="222">
         <f>T35/L30</f>
         <v>1.7712394011080284</v>
@@ -7694,14 +7694,24 @@
     </row>
   </sheetData>
   <mergeCells count="36">
-    <mergeCell ref="A30:E31"/>
-    <mergeCell ref="A32:E33"/>
-    <mergeCell ref="A6:A11"/>
-    <mergeCell ref="A12:A29"/>
-    <mergeCell ref="J32:J33"/>
-    <mergeCell ref="F30:H31"/>
-    <mergeCell ref="F32:H33"/>
-    <mergeCell ref="J30:J31"/>
+    <mergeCell ref="O30:O31"/>
+    <mergeCell ref="P35:S35"/>
+    <mergeCell ref="P36:S36"/>
+    <mergeCell ref="S30:S31"/>
+    <mergeCell ref="L30:L31"/>
+    <mergeCell ref="P30:P31"/>
+    <mergeCell ref="Q30:Q31"/>
+    <mergeCell ref="N30:N31"/>
+    <mergeCell ref="N32:N33"/>
+    <mergeCell ref="O32:O33"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="P3:Q3"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="H4:O4"/>
     <mergeCell ref="T3:U3"/>
     <mergeCell ref="R32:R33"/>
     <mergeCell ref="T32:T33"/>
@@ -7712,24 +7722,14 @@
     <mergeCell ref="R3:S3"/>
     <mergeCell ref="P32:P33"/>
     <mergeCell ref="Q32:Q33"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="L3:M3"/>
-    <mergeCell ref="P3:Q3"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="J5:K5"/>
-    <mergeCell ref="H4:O4"/>
-    <mergeCell ref="O30:O31"/>
-    <mergeCell ref="P35:S35"/>
-    <mergeCell ref="P36:S36"/>
-    <mergeCell ref="S30:S31"/>
-    <mergeCell ref="L30:L31"/>
-    <mergeCell ref="P30:P31"/>
-    <mergeCell ref="Q30:Q31"/>
-    <mergeCell ref="N30:N31"/>
-    <mergeCell ref="N32:N33"/>
-    <mergeCell ref="O32:O33"/>
+    <mergeCell ref="A30:E31"/>
+    <mergeCell ref="A32:E33"/>
+    <mergeCell ref="A6:A11"/>
+    <mergeCell ref="A12:A29"/>
+    <mergeCell ref="J32:J33"/>
+    <mergeCell ref="F30:H31"/>
+    <mergeCell ref="F32:H33"/>
+    <mergeCell ref="J30:J31"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
@@ -7743,8 +7743,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:L67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H59" sqref="H59"/>
+    <sheetView topLeftCell="B34" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H62" sqref="H62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -8980,10 +8980,10 @@
         <v>-1.6211149600000001</v>
       </c>
       <c r="H38" s="6">
-        <v>-1.3923000000000001</v>
+        <v>-1.3922898100000001</v>
       </c>
       <c r="I38" s="6">
-        <v>-2.5082450000000001</v>
+        <v>-2.5082690799999998</v>
       </c>
       <c r="J38" s="6">
         <v>-2.5</v>
@@ -9052,23 +9052,23 @@
         <v>496800</v>
       </c>
       <c r="G40" s="80">
-        <f t="shared" ref="G40" si="13">+G38*G39*1000</f>
-        <v>-648445.98400000005</v>
+        <f>ROUNDDOWN(+G38*G39*1000,0)</f>
+        <v>-648445</v>
       </c>
       <c r="H40" s="80">
-        <f>H38*H39*1000</f>
-        <v>-556920.00000000012</v>
+        <f t="shared" ref="H40:K40" si="13">ROUNDDOWN(+H38*H39*1000,0)</f>
+        <v>-556915</v>
       </c>
       <c r="I40" s="80">
-        <f>I38*I39*1000</f>
-        <v>-1003298</v>
+        <f t="shared" si="13"/>
+        <v>-1003307</v>
       </c>
       <c r="J40" s="80">
-        <f t="shared" ref="J40:K40" si="14">J38*J39*1000</f>
+        <f t="shared" si="13"/>
         <v>-1000000</v>
       </c>
       <c r="K40" s="80">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>-1000000</v>
       </c>
       <c r="L40" s="80"/>
@@ -9088,15 +9088,19 @@
         <v>346</v>
       </c>
       <c r="E41" s="33">
-        <f t="shared" ref="E41:F41" si="15">ROUNDDOWN(+E40*0.001425*0.45,0)</f>
+        <f t="shared" ref="E41:F41" si="14">ROUNDDOWN(+E40*0.001425*0.45,0)</f>
         <v>345</v>
       </c>
       <c r="F41" s="33">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>318</v>
       </c>
-      <c r="G41" s="33"/>
-      <c r="H41" s="33"/>
+      <c r="G41" s="33">
+        <v>10</v>
+      </c>
+      <c r="H41" s="33">
+        <v>10</v>
+      </c>
       <c r="I41" s="33">
         <v>10</v>
       </c>
@@ -9159,31 +9163,31 @@
         <v>541146</v>
       </c>
       <c r="E44" s="83">
-        <f t="shared" ref="E44:F44" si="16">+E40+E41</f>
+        <f t="shared" ref="E44:F44" si="15">+E40+E41</f>
         <v>539845</v>
       </c>
       <c r="F44" s="83">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>497118</v>
       </c>
       <c r="G44" s="83">
         <f>SUM(G40:G43)</f>
-        <v>-648445.98400000005</v>
+        <v>-648435</v>
       </c>
       <c r="H44" s="83">
         <f>SUM(H40:H43)</f>
-        <v>-556920.00000000012</v>
+        <v>-556905</v>
       </c>
       <c r="I44" s="83">
         <f>SUM(I40:I43)</f>
-        <v>-1003288</v>
+        <v>-1003297</v>
       </c>
       <c r="J44" s="83">
-        <f t="shared" ref="J44:K44" si="17">SUM(J40:J43)</f>
+        <f t="shared" ref="J44:K44" si="16">SUM(J40:J43)</f>
         <v>-999990</v>
       </c>
       <c r="K44" s="83">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>-999990</v>
       </c>
       <c r="L44" s="83"/>
@@ -9203,32 +9207,32 @@
         <v>7199605</v>
       </c>
       <c r="E45" s="86">
-        <f t="shared" ref="E45:F45" si="18">+D45+E44</f>
+        <f t="shared" ref="E45:F45" si="17">+D45+E44</f>
         <v>7739450</v>
       </c>
       <c r="F45" s="86">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v>8236568</v>
       </c>
       <c r="G45" s="86">
         <f>+F45+G44</f>
-        <v>7588122.0159999998</v>
+        <v>7588133</v>
       </c>
       <c r="H45" s="86">
         <f>G45+H44</f>
-        <v>7031202.0159999998</v>
+        <v>7031228</v>
       </c>
       <c r="I45" s="86">
         <f>H45+I44</f>
-        <v>6027914.0159999998</v>
+        <v>6027931</v>
       </c>
       <c r="J45" s="86">
-        <f t="shared" ref="J45:K45" si="19">I45+J44</f>
-        <v>5027924.0159999998</v>
+        <f t="shared" ref="J45:K45" si="18">I45+J44</f>
+        <v>5027941</v>
       </c>
       <c r="K45" s="86">
-        <f t="shared" si="19"/>
-        <v>4027934.0159999998</v>
+        <f t="shared" si="18"/>
+        <v>4027951</v>
       </c>
       <c r="L45" s="86"/>
     </row>
@@ -9247,11 +9251,11 @@
         <v>350</v>
       </c>
       <c r="E46" s="19">
-        <f t="shared" ref="E46:F46" si="20">+D46+E39</f>
+        <f t="shared" ref="E46:F46" si="19">+D46+E39</f>
         <v>376</v>
       </c>
       <c r="F46" s="19">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>400</v>
       </c>
       <c r="G46" s="95">
@@ -9287,32 +9291,32 @@
         <v>20.5703</v>
       </c>
       <c r="E47" s="20">
-        <f t="shared" ref="E47:F47" si="21">+E45/E46/1000</f>
+        <f t="shared" ref="E47:F47" si="20">+E45/E46/1000</f>
         <v>20.583643617021277</v>
       </c>
       <c r="F47" s="20">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
         <v>20.591419999999999</v>
       </c>
       <c r="G47" s="44">
         <f>+G45/G46/1000</f>
-        <v>18.97030504</v>
+        <v>18.970332500000001</v>
       </c>
       <c r="H47" s="44">
         <f>H45/H46/1000</f>
-        <v>17.578005040000001</v>
+        <v>17.57807</v>
       </c>
       <c r="I47" s="44">
-        <f t="shared" ref="I47:K47" si="22">I45/I46/1000</f>
-        <v>15.069785039999999</v>
+        <f t="shared" ref="I47:K47" si="21">I45/I46/1000</f>
+        <v>15.069827499999999</v>
       </c>
       <c r="J47" s="44">
-        <f t="shared" si="22"/>
-        <v>12.56981004</v>
+        <f t="shared" si="21"/>
+        <v>12.569852500000001</v>
       </c>
       <c r="K47" s="44">
-        <f t="shared" si="22"/>
-        <v>10.069835039999999</v>
+        <f t="shared" si="21"/>
+        <v>10.0698775</v>
       </c>
       <c r="L47" s="44"/>
     </row>
@@ -9357,10 +9361,10 @@
         <v>1.6211149600000001</v>
       </c>
       <c r="H49" s="6">
-        <v>1.3923000000000001</v>
+        <v>1.3922898100000001</v>
       </c>
       <c r="I49" s="100">
-        <v>2.5082450000000001</v>
+        <v>2.5082690799999998</v>
       </c>
       <c r="J49" s="6">
         <v>2.5</v>
@@ -9566,23 +9570,23 @@
         <v>1525000</v>
       </c>
       <c r="D57" s="80">
-        <f t="shared" ref="D57:F57" si="23">ROUNDDOWN(+D55*D56*1000,0)</f>
+        <f t="shared" ref="D57:F57" si="22">ROUNDDOWN(+D55*D56*1000,0)</f>
         <v>605000</v>
       </c>
       <c r="E57" s="80">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v>602000</v>
       </c>
       <c r="F57" s="80">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v>339500</v>
       </c>
       <c r="G57" s="80">
-        <f t="shared" ref="G57" si="24">+G55*G56*1000</f>
+        <f t="shared" ref="G57" si="23">+G55*G56*1000</f>
         <v>-1000000</v>
       </c>
       <c r="H57" s="80">
-        <f t="shared" ref="H57" si="25">+H55*H56*1000</f>
+        <f t="shared" ref="H57" si="24">+H55*H56*1000</f>
         <v>-1200000</v>
       </c>
       <c r="I57" s="80"/>
@@ -9602,15 +9606,15 @@
         <v>977</v>
       </c>
       <c r="D58" s="33">
-        <f t="shared" ref="D58:F58" si="26">ROUNDDOWN(+D57*0.001425*0.45,0)</f>
+        <f t="shared" ref="D58:F58" si="25">ROUNDDOWN(+D57*0.001425*0.45,0)</f>
         <v>387</v>
       </c>
       <c r="E58" s="33">
-        <f t="shared" si="26"/>
+        <f t="shared" si="25"/>
         <v>386</v>
       </c>
       <c r="F58" s="33">
-        <f t="shared" si="26"/>
+        <f t="shared" si="25"/>
         <v>217</v>
       </c>
       <c r="G58" s="33"/>
@@ -9666,28 +9670,28 @@
         <v>18</v>
       </c>
       <c r="C61" s="83">
-        <f t="shared" ref="C61:F61" si="27">+C57+C58</f>
+        <f t="shared" ref="C61:F61" si="26">+C57+C58</f>
         <v>1525977</v>
       </c>
       <c r="D61" s="83">
-        <f t="shared" si="27"/>
+        <f t="shared" si="26"/>
         <v>605387</v>
       </c>
       <c r="E61" s="83">
-        <f t="shared" si="27"/>
+        <f t="shared" si="26"/>
         <v>602386</v>
       </c>
       <c r="F61" s="83">
-        <f t="shared" si="27"/>
+        <f t="shared" si="26"/>
         <v>339717</v>
       </c>
       <c r="G61" s="83">
-        <f>+G57+G58+10</f>
-        <v>-999990</v>
+        <f>+G57+G58</f>
+        <v>-1000000</v>
       </c>
       <c r="H61" s="83">
-        <f>+H57+H58+10</f>
-        <v>-1199980</v>
+        <f>+H57+H58</f>
+        <v>-1199990</v>
       </c>
       <c r="I61" s="83"/>
       <c r="J61" s="83"/>
@@ -9703,27 +9707,27 @@
       </c>
       <c r="C62" s="87">
         <f>K45+C61</f>
-        <v>5553911.0159999998</v>
+        <v>5553928</v>
       </c>
       <c r="D62" s="87">
         <f>C62+D61</f>
-        <v>6159298.0159999998</v>
+        <v>6159315</v>
       </c>
       <c r="E62" s="87">
-        <f t="shared" ref="E62:H62" si="28">D62+E61</f>
-        <v>6761684.0159999998</v>
+        <f t="shared" ref="E62:H62" si="27">D62+E61</f>
+        <v>6761701</v>
       </c>
       <c r="F62" s="87">
-        <f t="shared" si="28"/>
-        <v>7101401.0159999998</v>
+        <f t="shared" si="27"/>
+        <v>7101418</v>
       </c>
       <c r="G62" s="87">
-        <f t="shared" si="28"/>
-        <v>6101411.0159999998</v>
+        <f t="shared" si="27"/>
+        <v>6101418</v>
       </c>
       <c r="H62" s="94">
-        <f t="shared" si="28"/>
-        <v>4901431.0159999998</v>
+        <f t="shared" si="27"/>
+        <v>4901428</v>
       </c>
       <c r="I62" s="94"/>
       <c r="J62" s="77"/>
@@ -9746,11 +9750,11 @@
         <v>470</v>
       </c>
       <c r="E63" s="26">
-        <f t="shared" ref="E63:F63" si="29">D63+E56</f>
+        <f t="shared" ref="E63:F63" si="28">D63+E56</f>
         <v>490</v>
       </c>
       <c r="F63" s="26">
-        <f t="shared" si="29"/>
+        <f t="shared" si="28"/>
         <v>500</v>
       </c>
       <c r="G63" s="26">
@@ -9772,28 +9776,28 @@
         <v>24</v>
       </c>
       <c r="C64" s="20">
-        <f t="shared" ref="C64:G64" si="30">+C62/C63/1000</f>
-        <v>12.342024479999999</v>
+        <f t="shared" ref="C64:G64" si="29">+C62/C63/1000</f>
+        <v>12.342062222222223</v>
       </c>
       <c r="D64" s="20">
-        <f t="shared" si="30"/>
-        <v>13.10488939574468</v>
+        <f t="shared" si="29"/>
+        <v>13.104925531914894</v>
       </c>
       <c r="E64" s="20">
-        <f t="shared" si="30"/>
-        <v>13.799355134693876</v>
+        <f t="shared" si="29"/>
+        <v>13.799389795918367</v>
       </c>
       <c r="F64" s="20">
-        <f t="shared" si="30"/>
-        <v>14.202802031999999</v>
+        <f t="shared" si="29"/>
+        <v>14.202836</v>
       </c>
       <c r="G64" s="20">
-        <f t="shared" si="30"/>
-        <v>15.253527539999999</v>
+        <f t="shared" si="29"/>
+        <v>15.253545000000001</v>
       </c>
       <c r="H64" s="20">
-        <f t="shared" ref="H64" si="31">+H62/H63/1000</f>
-        <v>12.25357754</v>
+        <f t="shared" ref="H64" si="30">+H62/H63/1000</f>
+        <v>12.25357</v>
       </c>
       <c r="I64" s="20"/>
       <c r="J64" s="20"/>
@@ -9880,7 +9884,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:L84"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A40" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
+    <sheetView view="pageBreakPreview" topLeftCell="A49" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
       <selection activeCell="C74" sqref="C74"/>
     </sheetView>
   </sheetViews>
@@ -12712,8 +12716,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1:L33"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G30" sqref="G30"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C24" sqref="C24:E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -12969,43 +12973,43 @@
         <v>12</v>
       </c>
       <c r="C7" s="33">
-        <f>+C6*0.001425*0.45</f>
-        <v>959.95124999999996</v>
+        <f>ROUNDDOWN(+C6*0.001425*0.45,0)</f>
+        <v>959</v>
       </c>
       <c r="D7" s="33">
-        <f t="shared" ref="D7:J7" si="1">+D6*0.001425*0.45</f>
-        <v>958.02750000000015</v>
+        <f t="shared" ref="D7:J7" si="1">ROUNDDOWN(+D6*0.001425*0.45,0)</f>
+        <v>958</v>
       </c>
       <c r="E7" s="33">
         <f t="shared" si="1"/>
-        <v>1274.8050000000001</v>
+        <v>1274</v>
       </c>
       <c r="F7" s="33">
         <f t="shared" si="1"/>
-        <v>630.99</v>
+        <v>630</v>
       </c>
       <c r="G7" s="33">
         <f t="shared" si="1"/>
-        <v>622.01250000000005</v>
+        <v>622</v>
       </c>
       <c r="H7" s="33">
         <f t="shared" si="1"/>
-        <v>616.88250000000005</v>
+        <v>616</v>
       </c>
       <c r="I7" s="33">
         <f t="shared" si="1"/>
-        <v>619.44749999999999</v>
+        <v>619</v>
       </c>
       <c r="J7" s="33">
         <f t="shared" si="1"/>
-        <v>618.16500000000008</v>
+        <v>618</v>
       </c>
       <c r="K7" s="33">
         <v>0</v>
       </c>
       <c r="L7" s="33">
-        <f t="shared" ref="L7" si="2">+L6*0.001425*0.45</f>
-        <v>321.90750000000003</v>
+        <f>ROUNDDOWN(+L6*0.001425*0.45,0)</f>
+        <v>321</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -13053,43 +13057,43 @@
       </c>
       <c r="C10" s="83">
         <f>+C6+C7</f>
-        <v>1497959.9512499999</v>
+        <v>1497959</v>
       </c>
       <c r="D10" s="83">
-        <f t="shared" ref="D10:L10" si="3">+D6+D7</f>
-        <v>1494958.0275000001</v>
+        <f t="shared" ref="D10:L10" si="2">+D6+D7</f>
+        <v>1494958</v>
       </c>
       <c r="E10" s="83">
-        <f t="shared" si="3"/>
-        <v>1989274.8049999999</v>
+        <f t="shared" si="2"/>
+        <v>1989274</v>
       </c>
       <c r="F10" s="83">
-        <f t="shared" si="3"/>
-        <v>984630.99</v>
+        <f t="shared" si="2"/>
+        <v>984630</v>
       </c>
       <c r="G10" s="83">
-        <f t="shared" si="3"/>
-        <v>970622.01249999995</v>
+        <f t="shared" si="2"/>
+        <v>970622</v>
       </c>
       <c r="H10" s="83">
-        <f t="shared" si="3"/>
-        <v>962616.88249999995</v>
+        <f t="shared" si="2"/>
+        <v>962616</v>
       </c>
       <c r="I10" s="83">
-        <f t="shared" si="3"/>
-        <v>966619.44750000001</v>
+        <f t="shared" si="2"/>
+        <v>966619</v>
       </c>
       <c r="J10" s="83">
-        <f t="shared" si="3"/>
-        <v>964618.16500000004</v>
+        <f t="shared" si="2"/>
+        <v>964618</v>
       </c>
       <c r="K10" s="83">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>336240</v>
       </c>
       <c r="L10" s="83">
-        <f t="shared" si="3"/>
-        <v>502321.90749999997</v>
+        <f t="shared" si="2"/>
+        <v>502321</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -13101,43 +13105,43 @@
       </c>
       <c r="C11" s="86">
         <f>+C10</f>
-        <v>1497959.9512499999</v>
+        <v>1497959</v>
       </c>
       <c r="D11" s="86">
         <f>+C11+D10</f>
-        <v>2992917.9787499998</v>
+        <v>2992917</v>
       </c>
       <c r="E11" s="86">
-        <f t="shared" ref="E11:L11" si="4">+D11+E10</f>
-        <v>4982192.7837499995</v>
+        <f t="shared" ref="E11:L11" si="3">+D11+E10</f>
+        <v>4982191</v>
       </c>
       <c r="F11" s="86">
-        <f t="shared" si="4"/>
-        <v>5966823.7737499997</v>
+        <f t="shared" si="3"/>
+        <v>5966821</v>
       </c>
       <c r="G11" s="86">
-        <f t="shared" si="4"/>
-        <v>6937445.7862499999</v>
+        <f t="shared" si="3"/>
+        <v>6937443</v>
       </c>
       <c r="H11" s="86">
-        <f t="shared" si="4"/>
-        <v>7900062.6687500002</v>
+        <f t="shared" si="3"/>
+        <v>7900059</v>
       </c>
       <c r="I11" s="86">
-        <f t="shared" si="4"/>
-        <v>8866682.1162500009</v>
+        <f t="shared" si="3"/>
+        <v>8866678</v>
       </c>
       <c r="J11" s="86">
-        <f t="shared" si="4"/>
-        <v>9831300.28125</v>
+        <f t="shared" si="3"/>
+        <v>9831296</v>
       </c>
       <c r="K11" s="86">
-        <f t="shared" si="4"/>
-        <v>10167540.28125</v>
+        <f t="shared" si="3"/>
+        <v>10167536</v>
       </c>
       <c r="L11" s="86">
-        <f t="shared" si="4"/>
-        <v>10669862.188750001</v>
+        <f t="shared" si="3"/>
+        <v>10669857</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -13156,19 +13160,19 @@
         <v>120</v>
       </c>
       <c r="E12" s="19">
-        <f t="shared" ref="E12:H12" si="5">+D12+E5</f>
+        <f t="shared" ref="E12:H12" si="4">+D12+E5</f>
         <v>200</v>
       </c>
       <c r="F12" s="19">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>240</v>
       </c>
       <c r="G12" s="19">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>280</v>
       </c>
       <c r="H12" s="19">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>320</v>
       </c>
       <c r="I12" s="19">
@@ -13176,15 +13180,15 @@
         <v>360</v>
       </c>
       <c r="J12" s="19">
-        <f t="shared" ref="J12:K12" si="6">J5+I12</f>
+        <f t="shared" ref="J12:K12" si="5">J5+I12</f>
         <v>400</v>
       </c>
       <c r="K12" s="36">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>416.81200000000001</v>
       </c>
       <c r="L12" s="36">
-        <f t="shared" ref="L12" si="7">L5+K12</f>
+        <f t="shared" ref="L12" si="6">L5+K12</f>
         <v>436.81200000000001</v>
       </c>
     </row>
@@ -13197,43 +13201,43 @@
       </c>
       <c r="C13" s="20">
         <f>+C11/C12/1000</f>
-        <v>24.965999187499996</v>
+        <v>24.965983333333334</v>
       </c>
       <c r="D13" s="20">
-        <f t="shared" ref="D13:L13" si="8">+D11/D12/1000</f>
-        <v>24.940983156249995</v>
+        <f t="shared" ref="D13:L13" si="7">+D11/D12/1000</f>
+        <v>24.940974999999998</v>
       </c>
       <c r="E13" s="20">
-        <f t="shared" si="8"/>
-        <v>24.910963918749996</v>
+        <f t="shared" si="7"/>
+        <v>24.910955000000001</v>
       </c>
       <c r="F13" s="20">
-        <f t="shared" si="8"/>
-        <v>24.861765723958332</v>
+        <f t="shared" si="7"/>
+        <v>24.861754166666664</v>
       </c>
       <c r="G13" s="20">
-        <f t="shared" si="8"/>
-        <v>24.776592093750001</v>
+        <f t="shared" si="7"/>
+        <v>24.776582142857144</v>
       </c>
       <c r="H13" s="20">
-        <f t="shared" si="8"/>
-        <v>24.687695839843748</v>
+        <f t="shared" si="7"/>
+        <v>24.687684375</v>
       </c>
       <c r="I13" s="20">
-        <f t="shared" si="8"/>
-        <v>24.629672545138892</v>
+        <f t="shared" si="7"/>
+        <v>24.629661111111112</v>
       </c>
       <c r="J13" s="20">
-        <f t="shared" si="8"/>
-        <v>24.578250703125001</v>
+        <f t="shared" si="7"/>
+        <v>24.578240000000001</v>
       </c>
       <c r="K13" s="34">
-        <f t="shared" si="8"/>
-        <v>24.393588191438827</v>
+        <f t="shared" si="7"/>
+        <v>24.393577920021496</v>
       </c>
       <c r="L13" s="34">
-        <f t="shared" si="8"/>
-        <v>24.426669113371428</v>
+        <f t="shared" si="7"/>
+        <v>24.426657234691351</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -13456,11 +13460,11 @@
         <v>520000</v>
       </c>
       <c r="D23" s="80">
-        <f t="shared" ref="D23:E23" si="9">+D21*D22*1000</f>
+        <f t="shared" ref="D23:E23" si="8">+D21*D22*1000</f>
         <v>778500</v>
       </c>
       <c r="E23" s="80">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>257500</v>
       </c>
       <c r="F23" s="80">
@@ -13484,16 +13488,16 @@
         <v>12</v>
       </c>
       <c r="C24" s="33">
-        <f>+C23*0.001425*0.45</f>
-        <v>333.45</v>
+        <f>ROUNDDOWN(+C23*0.001425*0.45,0)</f>
+        <v>333</v>
       </c>
       <c r="D24" s="33">
-        <f t="shared" ref="D24:E24" si="10">+D23*0.001425*0.45</f>
-        <v>499.21312499999999</v>
+        <f t="shared" ref="D24:E24" si="9">ROUNDDOWN(+D23*0.001425*0.45,0)</f>
+        <v>499</v>
       </c>
       <c r="E24" s="33">
-        <f t="shared" si="10"/>
-        <v>165.12187500000002</v>
+        <f t="shared" si="9"/>
+        <v>165</v>
       </c>
       <c r="F24" s="33">
         <v>10</v>
@@ -13552,22 +13556,22 @@
       </c>
       <c r="C27" s="83">
         <f>+C23+C24</f>
-        <v>520333.45</v>
+        <v>520333</v>
       </c>
       <c r="D27" s="83">
-        <f t="shared" ref="D27:F27" si="11">+D23+D24</f>
-        <v>778999.21312500001</v>
+        <f t="shared" ref="D27:F27" si="10">+D23+D24</f>
+        <v>778999</v>
       </c>
       <c r="E27" s="83">
-        <f t="shared" si="11"/>
-        <v>257665.12187500001</v>
+        <f t="shared" si="10"/>
+        <v>257665</v>
       </c>
       <c r="F27" s="83">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>-94080.192800000004</v>
       </c>
       <c r="G27" s="83">
-        <f t="shared" ref="G27" si="12">+G23+G24</f>
+        <f t="shared" ref="G27" si="11">+G23+G24</f>
         <v>-618744</v>
       </c>
       <c r="H27" s="83"/>
@@ -13585,23 +13589,23 @@
       </c>
       <c r="C28" s="86">
         <f>+C27+L11</f>
-        <v>11190195.63875</v>
+        <v>11190190</v>
       </c>
       <c r="D28" s="86">
         <f>D27+C28</f>
-        <v>11969194.851875</v>
+        <v>11969189</v>
       </c>
       <c r="E28" s="86">
-        <f t="shared" ref="E28:G28" si="13">E27+D28</f>
-        <v>12226859.973749999</v>
+        <f t="shared" ref="E28:G28" si="12">E27+D28</f>
+        <v>12226854</v>
       </c>
       <c r="F28" s="86">
-        <f t="shared" si="13"/>
-        <v>12132779.780949999</v>
+        <f t="shared" si="12"/>
+        <v>12132773.8072</v>
       </c>
       <c r="G28" s="87">
-        <f t="shared" si="13"/>
-        <v>11514035.780949999</v>
+        <f t="shared" si="12"/>
+        <v>11514029.8072</v>
       </c>
       <c r="H28" s="77"/>
       <c r="I28" s="77"/>
@@ -13649,23 +13653,23 @@
       </c>
       <c r="C30" s="20">
         <f>+C28/C29/1000</f>
-        <v>24.496282143967321</v>
+        <v>24.496269800267942</v>
       </c>
       <c r="D30" s="20">
-        <f t="shared" ref="D30:G30" si="14">+D28/D29/1000</f>
-        <v>24.586893609596721</v>
+        <f t="shared" ref="D30:G30" si="13">+D28/D29/1000</f>
+        <v>24.586881588785815</v>
       </c>
       <c r="E30" s="20">
-        <f t="shared" si="14"/>
-        <v>24.610637371379916</v>
+        <f t="shared" si="13"/>
+        <v>24.610625347213833</v>
       </c>
       <c r="F30" s="20">
-        <f t="shared" si="14"/>
-        <v>23.530057038975695</v>
+        <f t="shared" si="13"/>
+        <v>23.530045453611027</v>
       </c>
       <c r="G30" s="44">
-        <f t="shared" si="14"/>
-        <v>21.891549859399419</v>
+        <f t="shared" si="13"/>
+        <v>21.891538501553356</v>
       </c>
       <c r="H30" s="10"/>
       <c r="I30" s="10"/>
@@ -28384,8 +28388,8 @@
       <c r="B3" s="72"/>
       <c r="C3" s="72"/>
       <c r="D3" s="72"/>
-      <c r="E3" s="355"/>
-      <c r="F3" s="356"/>
+      <c r="E3" s="388"/>
+      <c r="F3" s="389"/>
       <c r="G3" s="72"/>
       <c r="H3" s="72" t="s">
         <v>372</v>
@@ -28395,64 +28399,64 @@
         <v>373</v>
       </c>
       <c r="K3" s="6"/>
-      <c r="L3" s="358" t="s">
+      <c r="L3" s="391" t="s">
         <v>374</v>
       </c>
-      <c r="M3" s="359"/>
+      <c r="M3" s="392"/>
       <c r="N3" s="120" t="s">
         <v>375</v>
       </c>
       <c r="O3" s="168" t="s">
         <v>376</v>
       </c>
-      <c r="P3" s="360" t="s">
+      <c r="P3" s="393" t="s">
         <v>483</v>
       </c>
-      <c r="Q3" s="359"/>
-      <c r="R3" s="353" t="s">
+      <c r="Q3" s="392"/>
+      <c r="R3" s="383" t="s">
         <v>484</v>
       </c>
-      <c r="S3" s="354"/>
-      <c r="T3" s="365" t="s">
+      <c r="S3" s="378"/>
+      <c r="T3" s="368" t="s">
         <v>485</v>
       </c>
-      <c r="U3" s="366"/>
+      <c r="U3" s="369"/>
     </row>
     <row r="4" spans="1:23" ht="18.75" customHeight="1">
       <c r="A4" s="7"/>
       <c r="B4" s="122"/>
       <c r="C4" s="122"/>
       <c r="D4" s="122"/>
-      <c r="E4" s="357" t="s">
+      <c r="E4" s="390" t="s">
         <v>493</v>
       </c>
-      <c r="F4" s="357"/>
+      <c r="F4" s="390"/>
       <c r="G4" s="209"/>
-      <c r="H4" s="362" t="s">
+      <c r="H4" s="395" t="s">
         <v>571</v>
       </c>
-      <c r="I4" s="363"/>
-      <c r="J4" s="363"/>
-      <c r="K4" s="363"/>
-      <c r="L4" s="363"/>
-      <c r="M4" s="363"/>
-      <c r="N4" s="363"/>
-      <c r="O4" s="364"/>
-      <c r="P4" s="373" t="s">
+      <c r="I4" s="396"/>
+      <c r="J4" s="396"/>
+      <c r="K4" s="396"/>
+      <c r="L4" s="396"/>
+      <c r="M4" s="396"/>
+      <c r="N4" s="396"/>
+      <c r="O4" s="397"/>
+      <c r="P4" s="376" t="s">
         <v>380</v>
       </c>
-      <c r="Q4" s="374"/>
-      <c r="R4" s="374"/>
-      <c r="S4" s="374"/>
-      <c r="T4" s="374"/>
-      <c r="U4" s="354"/>
+      <c r="Q4" s="377"/>
+      <c r="R4" s="377"/>
+      <c r="S4" s="377"/>
+      <c r="T4" s="377"/>
+      <c r="U4" s="378"/>
     </row>
     <row r="5" spans="1:23" ht="20.25" customHeight="1">
       <c r="A5" s="7"/>
-      <c r="B5" s="353" t="s">
+      <c r="B5" s="383" t="s">
         <v>381</v>
       </c>
-      <c r="C5" s="354"/>
+      <c r="C5" s="378"/>
       <c r="D5" s="123" t="s">
         <v>382</v>
       </c>
@@ -28463,14 +28467,14 @@
         <v>384</v>
       </c>
       <c r="G5" s="123"/>
-      <c r="H5" s="361" t="s">
+      <c r="H5" s="394" t="s">
         <v>377</v>
       </c>
-      <c r="I5" s="361"/>
-      <c r="J5" s="361" t="s">
+      <c r="I5" s="394"/>
+      <c r="J5" s="394" t="s">
         <v>378</v>
       </c>
-      <c r="K5" s="361"/>
+      <c r="K5" s="394"/>
       <c r="L5" s="193" t="s">
         <v>482</v>
       </c>
@@ -28503,7 +28507,7 @@
       </c>
     </row>
     <row r="6" spans="1:23" ht="20.25" customHeight="1">
-      <c r="A6" s="394" t="s">
+      <c r="A6" s="346" t="s">
         <v>512</v>
       </c>
       <c r="B6" s="123">
@@ -28549,7 +28553,7 @@
       </c>
     </row>
     <row r="7" spans="1:23" ht="20.25" customHeight="1">
-      <c r="A7" s="395"/>
+      <c r="A7" s="347"/>
       <c r="B7" s="123">
         <v>2</v>
       </c>
@@ -28593,7 +28597,7 @@
       </c>
     </row>
     <row r="8" spans="1:23" ht="20.25" customHeight="1">
-      <c r="A8" s="395"/>
+      <c r="A8" s="347"/>
       <c r="B8" s="121">
         <v>3</v>
       </c>
@@ -28632,7 +28636,7 @@
       </c>
     </row>
     <row r="9" spans="1:23" ht="20.25" customHeight="1">
-      <c r="A9" s="395"/>
+      <c r="A9" s="347"/>
       <c r="B9" s="121">
         <v>4</v>
       </c>
@@ -28657,7 +28661,7 @@
       <c r="U9" s="265"/>
     </row>
     <row r="10" spans="1:23" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A10" s="395"/>
+      <c r="A10" s="347"/>
       <c r="B10" s="224">
         <v>5</v>
       </c>
@@ -28682,7 +28686,7 @@
       <c r="U10" s="236"/>
     </row>
     <row r="11" spans="1:23" ht="20.25" customHeight="1">
-      <c r="A11" s="396"/>
+      <c r="A11" s="348"/>
       <c r="B11" s="179"/>
       <c r="C11" s="179"/>
       <c r="D11" s="223" t="s">
@@ -28725,7 +28729,7 @@
       </c>
     </row>
     <row r="12" spans="1:23" ht="20.25" customHeight="1">
-      <c r="A12" s="397" t="s">
+      <c r="A12" s="349" t="s">
         <v>513</v>
       </c>
       <c r="B12" s="133">
@@ -28796,7 +28800,7 @@
       <c r="W12" s="136"/>
     </row>
     <row r="13" spans="1:23" ht="20.25" customHeight="1">
-      <c r="A13" s="398"/>
+      <c r="A13" s="350"/>
       <c r="B13" s="133">
         <v>2</v>
       </c>
@@ -28864,7 +28868,7 @@
       </c>
     </row>
     <row r="14" spans="1:23" ht="20.25" customHeight="1">
-      <c r="A14" s="398"/>
+      <c r="A14" s="350"/>
       <c r="B14" s="133">
         <v>3</v>
       </c>
@@ -28932,7 +28936,7 @@
       </c>
     </row>
     <row r="15" spans="1:23" ht="20.25" customHeight="1">
-      <c r="A15" s="398"/>
+      <c r="A15" s="350"/>
       <c r="B15" s="133">
         <v>4</v>
       </c>
@@ -28997,7 +29001,7 @@
       </c>
     </row>
     <row r="16" spans="1:23" ht="20.25" customHeight="1">
-      <c r="A16" s="398"/>
+      <c r="A16" s="350"/>
       <c r="B16" s="133">
         <v>5</v>
       </c>
@@ -29065,7 +29069,7 @@
       </c>
     </row>
     <row r="17" spans="1:21" ht="20.25" customHeight="1">
-      <c r="A17" s="398"/>
+      <c r="A17" s="350"/>
       <c r="B17" s="133">
         <v>6</v>
       </c>
@@ -29133,7 +29137,7 @@
       </c>
     </row>
     <row r="18" spans="1:21" ht="20.25" customHeight="1">
-      <c r="A18" s="398"/>
+      <c r="A18" s="350"/>
       <c r="B18" s="133">
         <v>7</v>
       </c>
@@ -29198,7 +29202,7 @@
       </c>
     </row>
     <row r="19" spans="1:21" ht="20.25" customHeight="1">
-      <c r="A19" s="398"/>
+      <c r="A19" s="350"/>
       <c r="B19" s="133">
         <v>8</v>
       </c>
@@ -29266,7 +29270,7 @@
       </c>
     </row>
     <row r="20" spans="1:21" ht="20.25" customHeight="1">
-      <c r="A20" s="398"/>
+      <c r="A20" s="350"/>
       <c r="B20" s="133">
         <v>9</v>
       </c>
@@ -29334,7 +29338,7 @@
       </c>
     </row>
     <row r="21" spans="1:21" ht="20.25" customHeight="1">
-      <c r="A21" s="398"/>
+      <c r="A21" s="350"/>
       <c r="B21" s="133">
         <v>10</v>
       </c>
@@ -29399,7 +29403,7 @@
       </c>
     </row>
     <row r="22" spans="1:21" ht="20.25" customHeight="1">
-      <c r="A22" s="398"/>
+      <c r="A22" s="350"/>
       <c r="B22" s="133">
         <v>11</v>
       </c>
@@ -29467,7 +29471,7 @@
       </c>
     </row>
     <row r="23" spans="1:21" ht="20.25" customHeight="1">
-      <c r="A23" s="398"/>
+      <c r="A23" s="350"/>
       <c r="B23" s="133">
         <v>12</v>
       </c>
@@ -29492,7 +29496,7 @@
       <c r="U23" s="244"/>
     </row>
     <row r="24" spans="1:21" ht="20.25" customHeight="1">
-      <c r="A24" s="398"/>
+      <c r="A24" s="350"/>
       <c r="B24" s="133">
         <v>13</v>
       </c>
@@ -29517,7 +29521,7 @@
       <c r="U24" s="244"/>
     </row>
     <row r="25" spans="1:21" ht="20.25" customHeight="1">
-      <c r="A25" s="398"/>
+      <c r="A25" s="350"/>
       <c r="B25" s="133">
         <v>14</v>
       </c>
@@ -29542,7 +29546,7 @@
       <c r="U25" s="244"/>
     </row>
     <row r="26" spans="1:21" ht="20.25" customHeight="1">
-      <c r="A26" s="398"/>
+      <c r="A26" s="350"/>
       <c r="B26" s="133">
         <v>15</v>
       </c>
@@ -29592,7 +29596,7 @@
       <c r="U27" s="244"/>
     </row>
     <row r="28" spans="1:21" ht="20.25" customHeight="1">
-      <c r="A28" s="398" t="s">
+      <c r="A28" s="350" t="s">
         <v>572</v>
       </c>
       <c r="B28" s="133">
@@ -29638,7 +29642,7 @@
       <c r="U28" s="244"/>
     </row>
     <row r="29" spans="1:21" ht="17.25" thickBot="1">
-      <c r="A29" s="399"/>
+      <c r="A29" s="351"/>
       <c r="B29" s="151">
         <v>2</v>
       </c>
@@ -29663,142 +29667,142 @@
       <c r="U29" s="270"/>
     </row>
     <row r="30" spans="1:21" ht="14.1" customHeight="1">
-      <c r="A30" s="382" t="s">
+      <c r="A30" s="334" t="s">
         <v>489</v>
       </c>
-      <c r="B30" s="383"/>
-      <c r="C30" s="383"/>
-      <c r="D30" s="383"/>
-      <c r="E30" s="384"/>
-      <c r="F30" s="402">
+      <c r="B30" s="335"/>
+      <c r="C30" s="335"/>
+      <c r="D30" s="335"/>
+      <c r="E30" s="336"/>
+      <c r="F30" s="354">
         <f>O30+T32</f>
         <v>165716881.03200001</v>
       </c>
-      <c r="G30" s="403">
+      <c r="G30" s="355">
         <f t="shared" ref="G30:H31" si="9">B19+G21</f>
         <v>8</v>
       </c>
-      <c r="H30" s="404">
+      <c r="H30" s="356">
         <f t="shared" si="9"/>
         <v>167887</v>
       </c>
       <c r="I30" s="219"/>
-      <c r="J30" s="414" t="s">
+      <c r="J30" s="366" t="s">
         <v>479</v>
       </c>
       <c r="K30" s="139"/>
-      <c r="L30" s="341">
+      <c r="L30" s="405">
         <f>SUM(L12:L29)-L28</f>
         <v>91346259.96800001</v>
       </c>
       <c r="M30" s="271"/>
-      <c r="N30" s="347" t="s">
+      <c r="N30" s="410" t="s">
         <v>517</v>
       </c>
-      <c r="O30" s="334">
+      <c r="O30" s="398">
         <f>SUM(O12:O29)-O28</f>
         <v>141056481</v>
       </c>
-      <c r="P30" s="343">
+      <c r="P30" s="407">
         <f>O30-L30</f>
         <v>49710221.03199999</v>
       </c>
-      <c r="Q30" s="345">
+      <c r="Q30" s="408">
         <f>SUM(Q12:Q29)</f>
         <v>80.8339887445198</v>
       </c>
-      <c r="R30" s="371">
+      <c r="R30" s="374">
         <f>SUM(R12:R29)</f>
         <v>36836282</v>
       </c>
-      <c r="S30" s="339">
+      <c r="S30" s="403">
         <f>SUM(S12:S22)</f>
         <v>100</v>
       </c>
-      <c r="T30" s="377">
+      <c r="T30" s="381">
         <f>SUM(T12:T29)</f>
         <v>12873939.032000002</v>
       </c>
-      <c r="U30" s="375">
+      <c r="U30" s="379">
         <f>SUM(U12:U29)</f>
         <v>52.204907524997282</v>
       </c>
     </row>
     <row r="31" spans="1:21" ht="14.1" customHeight="1" thickBot="1">
-      <c r="A31" s="385"/>
-      <c r="B31" s="386"/>
-      <c r="C31" s="386"/>
-      <c r="D31" s="386"/>
-      <c r="E31" s="387"/>
-      <c r="F31" s="405" t="e">
+      <c r="A31" s="337"/>
+      <c r="B31" s="338"/>
+      <c r="C31" s="338"/>
+      <c r="D31" s="338"/>
+      <c r="E31" s="339"/>
+      <c r="F31" s="357" t="e">
         <f>#REF!+F22</f>
         <v>#REF!</v>
       </c>
-      <c r="G31" s="406">
+      <c r="G31" s="358">
         <f t="shared" si="9"/>
         <v>9</v>
       </c>
-      <c r="H31" s="407">
+      <c r="H31" s="359">
         <f t="shared" si="9"/>
         <v>180410</v>
       </c>
       <c r="I31" s="219"/>
-      <c r="J31" s="415"/>
+      <c r="J31" s="367"/>
       <c r="K31" s="139"/>
-      <c r="L31" s="342"/>
+      <c r="L31" s="406"/>
       <c r="M31" s="272"/>
-      <c r="N31" s="348"/>
-      <c r="O31" s="335"/>
-      <c r="P31" s="344"/>
-      <c r="Q31" s="346"/>
-      <c r="R31" s="372"/>
-      <c r="S31" s="340"/>
-      <c r="T31" s="378"/>
-      <c r="U31" s="376"/>
+      <c r="N31" s="411"/>
+      <c r="O31" s="399"/>
+      <c r="P31" s="385"/>
+      <c r="Q31" s="409"/>
+      <c r="R31" s="375"/>
+      <c r="S31" s="404"/>
+      <c r="T31" s="382"/>
+      <c r="U31" s="380"/>
     </row>
     <row r="32" spans="1:21" ht="13.7" customHeight="1">
-      <c r="A32" s="388" t="s">
+      <c r="A32" s="340" t="s">
         <v>490</v>
       </c>
-      <c r="B32" s="389"/>
-      <c r="C32" s="389"/>
-      <c r="D32" s="389"/>
-      <c r="E32" s="390"/>
-      <c r="F32" s="408">
+      <c r="B32" s="341"/>
+      <c r="C32" s="341"/>
+      <c r="D32" s="341"/>
+      <c r="E32" s="342"/>
+      <c r="F32" s="360">
         <f>T35/L30</f>
         <v>1.8141616426337888</v>
       </c>
-      <c r="G32" s="409"/>
-      <c r="H32" s="410"/>
+      <c r="G32" s="361"/>
+      <c r="H32" s="362"/>
       <c r="I32" s="220"/>
-      <c r="J32" s="400" t="s">
+      <c r="J32" s="352" t="s">
         <v>509</v>
       </c>
       <c r="K32" s="7"/>
       <c r="L32" s="247"/>
       <c r="M32" s="273"/>
-      <c r="N32" s="349" t="s">
+      <c r="N32" s="412" t="s">
         <v>518</v>
       </c>
-      <c r="O32" s="351">
+      <c r="O32" s="414">
         <v>150815890</v>
       </c>
-      <c r="P32" s="379">
+      <c r="P32" s="384">
         <f>P30+P11</f>
         <v>61496682.03199999</v>
       </c>
-      <c r="Q32" s="380">
+      <c r="Q32" s="386">
         <f>Q30+Q11</f>
         <v>100.00000000000003</v>
       </c>
-      <c r="R32" s="367">
+      <c r="R32" s="370">
         <f>R30</f>
         <v>36836282</v>
       </c>
       <c r="S32" s="280" t="s">
         <v>491</v>
       </c>
-      <c r="T32" s="369">
+      <c r="T32" s="372">
         <f>T30+T11</f>
         <v>24660400.032000002</v>
       </c>
@@ -29807,29 +29811,29 @@
       </c>
     </row>
     <row r="33" spans="1:21" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A33" s="391"/>
-      <c r="B33" s="392"/>
-      <c r="C33" s="392"/>
-      <c r="D33" s="392"/>
-      <c r="E33" s="393"/>
-      <c r="F33" s="411"/>
-      <c r="G33" s="412"/>
-      <c r="H33" s="413"/>
+      <c r="A33" s="343"/>
+      <c r="B33" s="344"/>
+      <c r="C33" s="344"/>
+      <c r="D33" s="344"/>
+      <c r="E33" s="345"/>
+      <c r="F33" s="363"/>
+      <c r="G33" s="364"/>
+      <c r="H33" s="365"/>
       <c r="I33" s="220"/>
-      <c r="J33" s="401"/>
+      <c r="J33" s="353"/>
       <c r="K33" s="7"/>
       <c r="L33" s="248"/>
       <c r="M33" s="274"/>
-      <c r="N33" s="350"/>
-      <c r="O33" s="352"/>
-      <c r="P33" s="344"/>
-      <c r="Q33" s="381"/>
-      <c r="R33" s="368"/>
+      <c r="N33" s="413"/>
+      <c r="O33" s="415"/>
+      <c r="P33" s="385"/>
+      <c r="Q33" s="387"/>
+      <c r="R33" s="371"/>
       <c r="S33" s="282">
         <f>R32/P32*100</f>
         <v>59.899625122591374</v>
       </c>
-      <c r="T33" s="370"/>
+      <c r="T33" s="373"/>
       <c r="U33" s="283">
         <f>T32/P32*100</f>
         <v>40.100374877408647</v>
@@ -29872,12 +29876,12 @@
       <c r="M35" s="141"/>
       <c r="N35" s="142"/>
       <c r="O35" s="173"/>
-      <c r="P35" s="336" t="s">
+      <c r="P35" s="400" t="s">
         <v>489</v>
       </c>
-      <c r="Q35" s="337"/>
-      <c r="R35" s="337"/>
-      <c r="S35" s="338"/>
+      <c r="Q35" s="401"/>
+      <c r="R35" s="401"/>
+      <c r="S35" s="402"/>
       <c r="T35" s="221">
         <f>O30+T32</f>
         <v>165716881.03200001</v>
@@ -29899,12 +29903,12 @@
       <c r="M36" s="141"/>
       <c r="N36" s="142"/>
       <c r="O36" s="173"/>
-      <c r="P36" s="336" t="s">
+      <c r="P36" s="400" t="s">
         <v>490</v>
       </c>
-      <c r="Q36" s="337"/>
-      <c r="R36" s="337"/>
-      <c r="S36" s="338"/>
+      <c r="Q36" s="401"/>
+      <c r="R36" s="401"/>
+      <c r="S36" s="402"/>
       <c r="T36" s="222">
         <f>T35/L30</f>
         <v>1.8141616426337888</v>
@@ -29953,6 +29957,27 @@
     </row>
   </sheetData>
   <mergeCells count="37">
+    <mergeCell ref="P36:S36"/>
+    <mergeCell ref="S30:S31"/>
+    <mergeCell ref="T30:T31"/>
+    <mergeCell ref="P32:P33"/>
+    <mergeCell ref="Q32:Q33"/>
+    <mergeCell ref="P30:P31"/>
+    <mergeCell ref="Q30:Q31"/>
+    <mergeCell ref="R32:R33"/>
+    <mergeCell ref="T32:T33"/>
+    <mergeCell ref="P35:S35"/>
+    <mergeCell ref="J32:J33"/>
+    <mergeCell ref="N32:N33"/>
+    <mergeCell ref="O32:O33"/>
+    <mergeCell ref="L30:L31"/>
+    <mergeCell ref="N30:N31"/>
+    <mergeCell ref="O30:O31"/>
+    <mergeCell ref="A6:A11"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="A12:A27"/>
+    <mergeCell ref="A32:E33"/>
+    <mergeCell ref="F32:H33"/>
     <mergeCell ref="T3:U3"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="H4:O4"/>
@@ -29969,27 +29994,6 @@
     <mergeCell ref="B5:C5"/>
     <mergeCell ref="H5:I5"/>
     <mergeCell ref="J5:K5"/>
-    <mergeCell ref="A6:A11"/>
-    <mergeCell ref="A28:A29"/>
-    <mergeCell ref="A12:A27"/>
-    <mergeCell ref="A32:E33"/>
-    <mergeCell ref="F32:H33"/>
-    <mergeCell ref="J32:J33"/>
-    <mergeCell ref="N32:N33"/>
-    <mergeCell ref="O32:O33"/>
-    <mergeCell ref="L30:L31"/>
-    <mergeCell ref="N30:N31"/>
-    <mergeCell ref="O30:O31"/>
-    <mergeCell ref="P36:S36"/>
-    <mergeCell ref="S30:S31"/>
-    <mergeCell ref="T30:T31"/>
-    <mergeCell ref="P32:P33"/>
-    <mergeCell ref="Q32:Q33"/>
-    <mergeCell ref="P30:P31"/>
-    <mergeCell ref="Q30:Q31"/>
-    <mergeCell ref="R32:R33"/>
-    <mergeCell ref="T32:T33"/>
-    <mergeCell ref="P35:S35"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
@@ -31182,10 +31186,10 @@
       <c r="H33" s="6"/>
       <c r="I33" s="6"/>
       <c r="J33" s="6"/>
-      <c r="K33" s="355" t="s">
+      <c r="K33" s="388" t="s">
         <v>477</v>
       </c>
-      <c r="L33" s="356"/>
+      <c r="L33" s="389"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -33595,8 +33599,8 @@
       <c r="B3" s="72"/>
       <c r="C3" s="72"/>
       <c r="D3" s="72"/>
-      <c r="E3" s="355"/>
-      <c r="F3" s="356"/>
+      <c r="E3" s="388"/>
+      <c r="F3" s="389"/>
       <c r="G3" s="72"/>
       <c r="H3" s="72" t="s">
         <v>372</v>
@@ -33606,64 +33610,64 @@
         <v>373</v>
       </c>
       <c r="K3" s="6"/>
-      <c r="L3" s="358" t="s">
+      <c r="L3" s="391" t="s">
         <v>374</v>
       </c>
-      <c r="M3" s="359"/>
+      <c r="M3" s="392"/>
       <c r="N3" s="120" t="s">
         <v>375</v>
       </c>
       <c r="O3" s="168" t="s">
         <v>376</v>
       </c>
-      <c r="P3" s="360" t="s">
+      <c r="P3" s="393" t="s">
         <v>483</v>
       </c>
-      <c r="Q3" s="359"/>
-      <c r="R3" s="353" t="s">
+      <c r="Q3" s="392"/>
+      <c r="R3" s="383" t="s">
         <v>484</v>
       </c>
-      <c r="S3" s="354"/>
-      <c r="T3" s="365" t="s">
+      <c r="S3" s="378"/>
+      <c r="T3" s="368" t="s">
         <v>485</v>
       </c>
-      <c r="U3" s="366"/>
+      <c r="U3" s="369"/>
     </row>
     <row r="4" spans="1:23" ht="18.75" customHeight="1">
       <c r="A4" s="7"/>
       <c r="B4" s="122"/>
       <c r="C4" s="122"/>
       <c r="D4" s="122"/>
-      <c r="E4" s="357" t="s">
+      <c r="E4" s="390" t="s">
         <v>493</v>
       </c>
-      <c r="F4" s="357"/>
+      <c r="F4" s="390"/>
       <c r="G4" s="209"/>
-      <c r="H4" s="362" t="s">
+      <c r="H4" s="395" t="s">
         <v>583</v>
       </c>
-      <c r="I4" s="363"/>
-      <c r="J4" s="363"/>
-      <c r="K4" s="363"/>
-      <c r="L4" s="363"/>
-      <c r="M4" s="363"/>
-      <c r="N4" s="363"/>
-      <c r="O4" s="364"/>
-      <c r="P4" s="373" t="s">
+      <c r="I4" s="396"/>
+      <c r="J4" s="396"/>
+      <c r="K4" s="396"/>
+      <c r="L4" s="396"/>
+      <c r="M4" s="396"/>
+      <c r="N4" s="396"/>
+      <c r="O4" s="397"/>
+      <c r="P4" s="376" t="s">
         <v>380</v>
       </c>
-      <c r="Q4" s="374"/>
-      <c r="R4" s="374"/>
-      <c r="S4" s="374"/>
-      <c r="T4" s="374"/>
-      <c r="U4" s="354"/>
+      <c r="Q4" s="377"/>
+      <c r="R4" s="377"/>
+      <c r="S4" s="377"/>
+      <c r="T4" s="377"/>
+      <c r="U4" s="378"/>
     </row>
     <row r="5" spans="1:23" ht="20.25" customHeight="1">
       <c r="A5" s="7"/>
-      <c r="B5" s="353" t="s">
+      <c r="B5" s="383" t="s">
         <v>381</v>
       </c>
-      <c r="C5" s="354"/>
+      <c r="C5" s="378"/>
       <c r="D5" s="123" t="s">
         <v>382</v>
       </c>
@@ -33674,14 +33678,14 @@
         <v>384</v>
       </c>
       <c r="G5" s="123"/>
-      <c r="H5" s="361" t="s">
+      <c r="H5" s="394" t="s">
         <v>377</v>
       </c>
-      <c r="I5" s="361"/>
-      <c r="J5" s="361" t="s">
+      <c r="I5" s="394"/>
+      <c r="J5" s="394" t="s">
         <v>378</v>
       </c>
-      <c r="K5" s="361"/>
+      <c r="K5" s="394"/>
       <c r="L5" s="193" t="s">
         <v>482</v>
       </c>
@@ -33714,7 +33718,7 @@
       </c>
     </row>
     <row r="6" spans="1:23" ht="20.25" customHeight="1">
-      <c r="A6" s="394" t="s">
+      <c r="A6" s="346" t="s">
         <v>512</v>
       </c>
       <c r="B6" s="123">
@@ -33760,7 +33764,7 @@
       </c>
     </row>
     <row r="7" spans="1:23" ht="20.25" customHeight="1">
-      <c r="A7" s="395"/>
+      <c r="A7" s="347"/>
       <c r="B7" s="123">
         <v>2</v>
       </c>
@@ -33804,7 +33808,7 @@
       </c>
     </row>
     <row r="8" spans="1:23" ht="20.25" customHeight="1">
-      <c r="A8" s="395"/>
+      <c r="A8" s="347"/>
       <c r="B8" s="121">
         <v>3</v>
       </c>
@@ -33843,7 +33847,7 @@
       </c>
     </row>
     <row r="9" spans="1:23" ht="20.25" customHeight="1">
-      <c r="A9" s="395"/>
+      <c r="A9" s="347"/>
       <c r="B9" s="121">
         <v>4</v>
       </c>
@@ -33868,7 +33872,7 @@
       <c r="U9" s="265"/>
     </row>
     <row r="10" spans="1:23" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A10" s="395"/>
+      <c r="A10" s="347"/>
       <c r="B10" s="224">
         <v>5</v>
       </c>
@@ -33893,7 +33897,7 @@
       <c r="U10" s="236"/>
     </row>
     <row r="11" spans="1:23" ht="20.25" customHeight="1">
-      <c r="A11" s="396"/>
+      <c r="A11" s="348"/>
       <c r="B11" s="179"/>
       <c r="C11" s="179"/>
       <c r="D11" s="223" t="s">
@@ -33936,7 +33940,7 @@
       </c>
     </row>
     <row r="12" spans="1:23" ht="20.25" customHeight="1">
-      <c r="A12" s="397" t="s">
+      <c r="A12" s="349" t="s">
         <v>513</v>
       </c>
       <c r="B12" s="133">
@@ -34007,7 +34011,7 @@
       <c r="W12" s="136"/>
     </row>
     <row r="13" spans="1:23" ht="20.25" customHeight="1">
-      <c r="A13" s="398"/>
+      <c r="A13" s="350"/>
       <c r="B13" s="133">
         <v>2</v>
       </c>
@@ -34075,7 +34079,7 @@
       </c>
     </row>
     <row r="14" spans="1:23" ht="20.25" customHeight="1">
-      <c r="A14" s="398"/>
+      <c r="A14" s="350"/>
       <c r="B14" s="133">
         <v>3</v>
       </c>
@@ -34143,7 +34147,7 @@
       </c>
     </row>
     <row r="15" spans="1:23" ht="20.25" customHeight="1">
-      <c r="A15" s="398"/>
+      <c r="A15" s="350"/>
       <c r="B15" s="133">
         <v>4</v>
       </c>
@@ -34208,7 +34212,7 @@
       </c>
     </row>
     <row r="16" spans="1:23" ht="20.25" customHeight="1">
-      <c r="A16" s="398"/>
+      <c r="A16" s="350"/>
       <c r="B16" s="133">
         <v>5</v>
       </c>
@@ -34276,7 +34280,7 @@
       </c>
     </row>
     <row r="17" spans="1:21" ht="20.25" customHeight="1">
-      <c r="A17" s="398"/>
+      <c r="A17" s="350"/>
       <c r="B17" s="133">
         <v>6</v>
       </c>
@@ -34344,7 +34348,7 @@
       </c>
     </row>
     <row r="18" spans="1:21" ht="20.25" customHeight="1">
-      <c r="A18" s="398"/>
+      <c r="A18" s="350"/>
       <c r="B18" s="133">
         <v>7</v>
       </c>
@@ -34409,7 +34413,7 @@
       </c>
     </row>
     <row r="19" spans="1:21" ht="20.25" customHeight="1">
-      <c r="A19" s="398"/>
+      <c r="A19" s="350"/>
       <c r="B19" s="133">
         <v>8</v>
       </c>
@@ -34477,7 +34481,7 @@
       </c>
     </row>
     <row r="20" spans="1:21" ht="20.25" customHeight="1">
-      <c r="A20" s="398"/>
+      <c r="A20" s="350"/>
       <c r="B20" s="133">
         <v>9</v>
       </c>
@@ -34545,7 +34549,7 @@
       </c>
     </row>
     <row r="21" spans="1:21" ht="20.25" customHeight="1">
-      <c r="A21" s="398"/>
+      <c r="A21" s="350"/>
       <c r="B21" s="133">
         <v>10</v>
       </c>
@@ -34610,7 +34614,7 @@
       </c>
     </row>
     <row r="22" spans="1:21" ht="20.25" customHeight="1">
-      <c r="A22" s="398"/>
+      <c r="A22" s="350"/>
       <c r="B22" s="133">
         <v>11</v>
       </c>
@@ -34678,7 +34682,7 @@
       </c>
     </row>
     <row r="23" spans="1:21" ht="20.25" customHeight="1">
-      <c r="A23" s="398"/>
+      <c r="A23" s="350"/>
       <c r="B23" s="133">
         <v>12</v>
       </c>
@@ -34703,7 +34707,7 @@
       <c r="U23" s="244"/>
     </row>
     <row r="24" spans="1:21" ht="20.25" customHeight="1">
-      <c r="A24" s="398"/>
+      <c r="A24" s="350"/>
       <c r="B24" s="133">
         <v>13</v>
       </c>
@@ -34728,7 +34732,7 @@
       <c r="U24" s="244"/>
     </row>
     <row r="25" spans="1:21" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A25" s="399"/>
+      <c r="A25" s="351"/>
       <c r="B25" s="292">
         <v>14</v>
       </c>
@@ -34753,142 +34757,142 @@
       <c r="U25" s="295"/>
     </row>
     <row r="26" spans="1:21" ht="14.1" customHeight="1">
-      <c r="A26" s="420" t="s">
+      <c r="A26" s="422" t="s">
         <v>489</v>
       </c>
-      <c r="B26" s="421"/>
-      <c r="C26" s="421"/>
-      <c r="D26" s="421"/>
-      <c r="E26" s="422"/>
-      <c r="F26" s="423">
+      <c r="B26" s="423"/>
+      <c r="C26" s="423"/>
+      <c r="D26" s="423"/>
+      <c r="E26" s="424"/>
+      <c r="F26" s="425">
         <f>O26+T28</f>
         <v>184462879.06200001</v>
       </c>
-      <c r="G26" s="424">
+      <c r="G26" s="426">
         <f t="shared" ref="G26:H27" si="9">B19+G21</f>
         <v>8</v>
       </c>
-      <c r="H26" s="425">
+      <c r="H26" s="427">
         <f t="shared" si="9"/>
         <v>167887</v>
       </c>
       <c r="I26" s="219"/>
-      <c r="J26" s="426" t="s">
+      <c r="J26" s="428" t="s">
         <v>479</v>
       </c>
       <c r="K26" s="139"/>
-      <c r="L26" s="427">
+      <c r="L26" s="429">
         <f>SUM(L12:L25)</f>
         <v>93355482.938000008</v>
       </c>
       <c r="M26" s="291"/>
-      <c r="N26" s="428" t="s">
+      <c r="N26" s="430" t="s">
         <v>517</v>
       </c>
-      <c r="O26" s="429">
+      <c r="O26" s="431">
         <f>SUM(O12:O25)</f>
         <v>157899774</v>
       </c>
-      <c r="P26" s="430">
+      <c r="P26" s="432">
         <f>O26-L26</f>
         <v>64544291.061999992</v>
       </c>
-      <c r="Q26" s="431">
+      <c r="Q26" s="433">
         <f>SUM(Q12:Q25)</f>
         <v>84.558699237724795</v>
       </c>
-      <c r="R26" s="432">
+      <c r="R26" s="434">
         <f>SUM(R12:R25)</f>
         <v>49767647</v>
       </c>
-      <c r="S26" s="417">
+      <c r="S26" s="419">
         <f>SUM(S12:S22)</f>
         <v>100.00000000000001</v>
       </c>
-      <c r="T26" s="418">
+      <c r="T26" s="420">
         <f>SUM(T12:T25)</f>
         <v>14776644.061999999</v>
       </c>
-      <c r="U26" s="419">
+      <c r="U26" s="421">
         <f>SUM(U12:U25)</f>
         <v>55.628451672010328</v>
       </c>
     </row>
     <row r="27" spans="1:21" ht="10.5" customHeight="1" thickBot="1">
-      <c r="A27" s="385"/>
-      <c r="B27" s="386"/>
-      <c r="C27" s="386"/>
-      <c r="D27" s="386"/>
-      <c r="E27" s="387"/>
-      <c r="F27" s="405" t="e">
+      <c r="A27" s="337"/>
+      <c r="B27" s="338"/>
+      <c r="C27" s="338"/>
+      <c r="D27" s="338"/>
+      <c r="E27" s="339"/>
+      <c r="F27" s="357" t="e">
         <f>#REF!+F22</f>
         <v>#REF!</v>
       </c>
-      <c r="G27" s="406">
+      <c r="G27" s="358">
         <f t="shared" si="9"/>
         <v>9</v>
       </c>
-      <c r="H27" s="407">
+      <c r="H27" s="359">
         <f t="shared" si="9"/>
         <v>160410</v>
       </c>
       <c r="I27" s="219"/>
-      <c r="J27" s="415"/>
+      <c r="J27" s="367"/>
       <c r="K27" s="139"/>
-      <c r="L27" s="342"/>
+      <c r="L27" s="406"/>
       <c r="M27" s="272"/>
-      <c r="N27" s="348"/>
-      <c r="O27" s="335"/>
-      <c r="P27" s="344"/>
-      <c r="Q27" s="346"/>
-      <c r="R27" s="372"/>
-      <c r="S27" s="340"/>
-      <c r="T27" s="378"/>
-      <c r="U27" s="376"/>
+      <c r="N27" s="411"/>
+      <c r="O27" s="399"/>
+      <c r="P27" s="385"/>
+      <c r="Q27" s="409"/>
+      <c r="R27" s="375"/>
+      <c r="S27" s="404"/>
+      <c r="T27" s="382"/>
+      <c r="U27" s="380"/>
     </row>
     <row r="28" spans="1:21" ht="12.75" customHeight="1">
-      <c r="A28" s="388" t="s">
+      <c r="A28" s="340" t="s">
         <v>490</v>
       </c>
-      <c r="B28" s="389"/>
-      <c r="C28" s="389"/>
-      <c r="D28" s="389"/>
-      <c r="E28" s="390"/>
-      <c r="F28" s="408">
+      <c r="B28" s="341"/>
+      <c r="C28" s="341"/>
+      <c r="D28" s="341"/>
+      <c r="E28" s="342"/>
+      <c r="F28" s="360">
         <f>T31/L26</f>
         <v>1.9759190703829037</v>
       </c>
-      <c r="G28" s="409"/>
-      <c r="H28" s="410"/>
+      <c r="G28" s="361"/>
+      <c r="H28" s="362"/>
       <c r="I28" s="220"/>
-      <c r="J28" s="400" t="s">
+      <c r="J28" s="352" t="s">
         <v>509</v>
       </c>
       <c r="K28" s="7"/>
       <c r="L28" s="247"/>
       <c r="M28" s="273"/>
-      <c r="N28" s="349" t="s">
+      <c r="N28" s="412" t="s">
         <v>518</v>
       </c>
-      <c r="O28" s="433">
+      <c r="O28" s="417">
         <v>157262951</v>
       </c>
-      <c r="P28" s="379">
+      <c r="P28" s="384">
         <f>P26+P11</f>
         <v>76330752.061999992</v>
       </c>
-      <c r="Q28" s="380">
+      <c r="Q28" s="386">
         <f>Q26+Q11</f>
         <v>100</v>
       </c>
-      <c r="R28" s="367">
+      <c r="R28" s="370">
         <f>R26</f>
         <v>49767647</v>
       </c>
       <c r="S28" s="280" t="s">
         <v>491</v>
       </c>
-      <c r="T28" s="369">
+      <c r="T28" s="372">
         <f>T26+T11</f>
         <v>26563105.061999999</v>
       </c>
@@ -34897,29 +34901,29 @@
       </c>
     </row>
     <row r="29" spans="1:21" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A29" s="391"/>
-      <c r="B29" s="392"/>
-      <c r="C29" s="392"/>
-      <c r="D29" s="392"/>
-      <c r="E29" s="393"/>
-      <c r="F29" s="411"/>
-      <c r="G29" s="412"/>
-      <c r="H29" s="413"/>
+      <c r="A29" s="343"/>
+      <c r="B29" s="344"/>
+      <c r="C29" s="344"/>
+      <c r="D29" s="344"/>
+      <c r="E29" s="345"/>
+      <c r="F29" s="363"/>
+      <c r="G29" s="364"/>
+      <c r="H29" s="365"/>
       <c r="I29" s="220"/>
-      <c r="J29" s="401"/>
+      <c r="J29" s="353"/>
       <c r="K29" s="7"/>
       <c r="L29" s="248"/>
       <c r="M29" s="274"/>
-      <c r="N29" s="350"/>
-      <c r="O29" s="434"/>
-      <c r="P29" s="344"/>
-      <c r="Q29" s="381"/>
-      <c r="R29" s="368"/>
+      <c r="N29" s="413"/>
+      <c r="O29" s="418"/>
+      <c r="P29" s="385"/>
+      <c r="Q29" s="387"/>
+      <c r="R29" s="371"/>
       <c r="S29" s="282">
         <f>R28/P28*100</f>
         <v>65.199995618510357</v>
       </c>
-      <c r="T29" s="370"/>
+      <c r="T29" s="373"/>
       <c r="U29" s="283">
         <f>T28/P28*100</f>
         <v>34.80000438148965</v>
@@ -34962,12 +34966,12 @@
       <c r="M31" s="141"/>
       <c r="N31" s="142"/>
       <c r="O31" s="173"/>
-      <c r="P31" s="336" t="s">
+      <c r="P31" s="400" t="s">
         <v>489</v>
       </c>
-      <c r="Q31" s="337"/>
-      <c r="R31" s="337"/>
-      <c r="S31" s="338"/>
+      <c r="Q31" s="401"/>
+      <c r="R31" s="401"/>
+      <c r="S31" s="402"/>
       <c r="T31" s="221">
         <f>O26+T28</f>
         <v>184462879.06200001</v>
@@ -34989,12 +34993,12 @@
       <c r="M32" s="141"/>
       <c r="N32" s="142"/>
       <c r="O32" s="173"/>
-      <c r="P32" s="336" t="s">
+      <c r="P32" s="400" t="s">
         <v>490</v>
       </c>
-      <c r="Q32" s="337"/>
-      <c r="R32" s="337"/>
-      <c r="S32" s="338"/>
+      <c r="Q32" s="401"/>
+      <c r="R32" s="401"/>
+      <c r="S32" s="402"/>
       <c r="T32" s="222">
         <f>T31/L26</f>
         <v>1.9759190703829037</v>
@@ -35027,36 +35031,36 @@
       <c r="B35" s="122"/>
       <c r="C35" s="122"/>
       <c r="D35" s="122"/>
-      <c r="E35" s="357" t="s">
+      <c r="E35" s="390" t="s">
         <v>493</v>
       </c>
-      <c r="F35" s="357"/>
+      <c r="F35" s="390"/>
       <c r="G35" s="209"/>
-      <c r="H35" s="362" t="s">
+      <c r="H35" s="395" t="s">
         <v>583</v>
       </c>
-      <c r="I35" s="363"/>
-      <c r="J35" s="363"/>
-      <c r="K35" s="363"/>
-      <c r="L35" s="363"/>
-      <c r="M35" s="363"/>
-      <c r="N35" s="363"/>
-      <c r="O35" s="364"/>
-      <c r="P35" s="373" t="s">
+      <c r="I35" s="396"/>
+      <c r="J35" s="396"/>
+      <c r="K35" s="396"/>
+      <c r="L35" s="396"/>
+      <c r="M35" s="396"/>
+      <c r="N35" s="396"/>
+      <c r="O35" s="397"/>
+      <c r="P35" s="376" t="s">
         <v>380</v>
       </c>
-      <c r="Q35" s="374"/>
-      <c r="R35" s="374"/>
-      <c r="S35" s="374"/>
-      <c r="T35" s="374"/>
-      <c r="U35" s="354"/>
+      <c r="Q35" s="377"/>
+      <c r="R35" s="377"/>
+      <c r="S35" s="377"/>
+      <c r="T35" s="377"/>
+      <c r="U35" s="378"/>
     </row>
     <row r="36" spans="1:21" ht="20.25" customHeight="1">
       <c r="A36" s="7"/>
-      <c r="B36" s="353" t="s">
+      <c r="B36" s="383" t="s">
         <v>381</v>
       </c>
-      <c r="C36" s="354"/>
+      <c r="C36" s="378"/>
       <c r="D36" s="123" t="s">
         <v>382</v>
       </c>
@@ -35067,14 +35071,14 @@
         <v>384</v>
       </c>
       <c r="G36" s="123"/>
-      <c r="H36" s="361" t="s">
+      <c r="H36" s="394" t="s">
         <v>377</v>
       </c>
-      <c r="I36" s="361"/>
-      <c r="J36" s="361" t="s">
+      <c r="I36" s="394"/>
+      <c r="J36" s="394" t="s">
         <v>378</v>
       </c>
-      <c r="K36" s="361"/>
+      <c r="K36" s="394"/>
       <c r="L36" s="193" t="s">
         <v>482</v>
       </c>
@@ -35107,7 +35111,7 @@
       </c>
     </row>
     <row r="37" spans="1:21" ht="20.25" customHeight="1">
-      <c r="A37" s="397" t="s">
+      <c r="A37" s="349" t="s">
         <v>572</v>
       </c>
       <c r="B37" s="133">
@@ -35153,7 +35157,7 @@
       <c r="U37" s="244"/>
     </row>
     <row r="38" spans="1:21" ht="17.25" thickBot="1">
-      <c r="A38" s="399"/>
+      <c r="A38" s="351"/>
       <c r="B38" s="151">
         <v>2</v>
       </c>
@@ -35198,24 +35202,19 @@
     </row>
   </sheetData>
   <mergeCells count="43">
-    <mergeCell ref="T28:T29"/>
-    <mergeCell ref="P31:S31"/>
-    <mergeCell ref="P32:S32"/>
-    <mergeCell ref="E35:F35"/>
-    <mergeCell ref="H35:O35"/>
-    <mergeCell ref="P35:U35"/>
-    <mergeCell ref="O28:O29"/>
-    <mergeCell ref="P28:P29"/>
-    <mergeCell ref="Q28:Q29"/>
-    <mergeCell ref="R28:R29"/>
-    <mergeCell ref="A37:A38"/>
-    <mergeCell ref="A28:E29"/>
-    <mergeCell ref="F28:H29"/>
-    <mergeCell ref="J28:J29"/>
-    <mergeCell ref="N28:N29"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="H36:I36"/>
-    <mergeCell ref="J36:K36"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="H4:O4"/>
+    <mergeCell ref="P4:U4"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="P3:Q3"/>
+    <mergeCell ref="R3:S3"/>
+    <mergeCell ref="T3:U3"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="A6:A11"/>
+    <mergeCell ref="A12:A25"/>
     <mergeCell ref="S26:S27"/>
     <mergeCell ref="T26:T27"/>
     <mergeCell ref="U26:U27"/>
@@ -35228,19 +35227,24 @@
     <mergeCell ref="P26:P27"/>
     <mergeCell ref="Q26:Q27"/>
     <mergeCell ref="R26:R27"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="J5:K5"/>
-    <mergeCell ref="A6:A11"/>
-    <mergeCell ref="A12:A25"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="H4:O4"/>
-    <mergeCell ref="P4:U4"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="L3:M3"/>
-    <mergeCell ref="P3:Q3"/>
-    <mergeCell ref="R3:S3"/>
-    <mergeCell ref="T3:U3"/>
+    <mergeCell ref="A37:A38"/>
+    <mergeCell ref="A28:E29"/>
+    <mergeCell ref="F28:H29"/>
+    <mergeCell ref="J28:J29"/>
+    <mergeCell ref="N28:N29"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="H36:I36"/>
+    <mergeCell ref="J36:K36"/>
+    <mergeCell ref="T28:T29"/>
+    <mergeCell ref="P31:S31"/>
+    <mergeCell ref="P32:S32"/>
+    <mergeCell ref="E35:F35"/>
+    <mergeCell ref="H35:O35"/>
+    <mergeCell ref="P35:U35"/>
+    <mergeCell ref="O28:O29"/>
+    <mergeCell ref="P28:P29"/>
+    <mergeCell ref="Q28:Q29"/>
+    <mergeCell ref="R28:R29"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
@@ -35303,8 +35307,8 @@
       <c r="B3" s="72"/>
       <c r="C3" s="72"/>
       <c r="D3" s="72"/>
-      <c r="E3" s="355"/>
-      <c r="F3" s="356"/>
+      <c r="E3" s="388"/>
+      <c r="F3" s="389"/>
       <c r="G3" s="72"/>
       <c r="H3" s="72" t="s">
         <v>372</v>
@@ -35314,64 +35318,64 @@
         <v>373</v>
       </c>
       <c r="K3" s="6"/>
-      <c r="L3" s="358" t="s">
+      <c r="L3" s="391" t="s">
         <v>374</v>
       </c>
-      <c r="M3" s="359"/>
+      <c r="M3" s="392"/>
       <c r="N3" s="120" t="s">
         <v>375</v>
       </c>
       <c r="O3" s="168" t="s">
         <v>376</v>
       </c>
-      <c r="P3" s="360" t="s">
+      <c r="P3" s="393" t="s">
         <v>483</v>
       </c>
-      <c r="Q3" s="359"/>
-      <c r="R3" s="353" t="s">
+      <c r="Q3" s="392"/>
+      <c r="R3" s="383" t="s">
         <v>484</v>
       </c>
-      <c r="S3" s="354"/>
-      <c r="T3" s="365" t="s">
+      <c r="S3" s="378"/>
+      <c r="T3" s="368" t="s">
         <v>485</v>
       </c>
-      <c r="U3" s="366"/>
+      <c r="U3" s="369"/>
     </row>
     <row r="4" spans="1:23" ht="18.75" customHeight="1">
       <c r="A4" s="7"/>
       <c r="B4" s="122"/>
       <c r="C4" s="122"/>
       <c r="D4" s="122"/>
-      <c r="E4" s="357" t="s">
+      <c r="E4" s="390" t="s">
         <v>493</v>
       </c>
-      <c r="F4" s="357"/>
+      <c r="F4" s="390"/>
       <c r="G4" s="209"/>
-      <c r="H4" s="362" t="s">
+      <c r="H4" s="395" t="s">
         <v>583</v>
       </c>
-      <c r="I4" s="363"/>
-      <c r="J4" s="363"/>
-      <c r="K4" s="363"/>
-      <c r="L4" s="363"/>
-      <c r="M4" s="363"/>
-      <c r="N4" s="363"/>
-      <c r="O4" s="364"/>
-      <c r="P4" s="373" t="s">
+      <c r="I4" s="396"/>
+      <c r="J4" s="396"/>
+      <c r="K4" s="396"/>
+      <c r="L4" s="396"/>
+      <c r="M4" s="396"/>
+      <c r="N4" s="396"/>
+      <c r="O4" s="397"/>
+      <c r="P4" s="376" t="s">
         <v>380</v>
       </c>
-      <c r="Q4" s="374"/>
-      <c r="R4" s="374"/>
-      <c r="S4" s="374"/>
-      <c r="T4" s="374"/>
-      <c r="U4" s="354"/>
+      <c r="Q4" s="377"/>
+      <c r="R4" s="377"/>
+      <c r="S4" s="377"/>
+      <c r="T4" s="377"/>
+      <c r="U4" s="378"/>
     </row>
     <row r="5" spans="1:23" ht="20.25" customHeight="1">
       <c r="A5" s="7"/>
-      <c r="B5" s="353" t="s">
+      <c r="B5" s="383" t="s">
         <v>381</v>
       </c>
-      <c r="C5" s="354"/>
+      <c r="C5" s="378"/>
       <c r="D5" s="123" t="s">
         <v>382</v>
       </c>
@@ -35382,14 +35386,14 @@
         <v>384</v>
       </c>
       <c r="G5" s="123"/>
-      <c r="H5" s="361" t="s">
+      <c r="H5" s="394" t="s">
         <v>377</v>
       </c>
-      <c r="I5" s="361"/>
-      <c r="J5" s="361" t="s">
+      <c r="I5" s="394"/>
+      <c r="J5" s="394" t="s">
         <v>378</v>
       </c>
-      <c r="K5" s="361"/>
+      <c r="K5" s="394"/>
       <c r="L5" s="193" t="s">
         <v>482</v>
       </c>
@@ -35422,7 +35426,7 @@
       </c>
     </row>
     <row r="6" spans="1:23" ht="20.25" customHeight="1">
-      <c r="A6" s="394" t="s">
+      <c r="A6" s="346" t="s">
         <v>512</v>
       </c>
       <c r="B6" s="123">
@@ -35468,7 +35472,7 @@
       </c>
     </row>
     <row r="7" spans="1:23" ht="20.25" customHeight="1">
-      <c r="A7" s="395"/>
+      <c r="A7" s="347"/>
       <c r="B7" s="123">
         <v>2</v>
       </c>
@@ -35512,7 +35516,7 @@
       </c>
     </row>
     <row r="8" spans="1:23" ht="20.25" customHeight="1">
-      <c r="A8" s="395"/>
+      <c r="A8" s="347"/>
       <c r="B8" s="121">
         <v>3</v>
       </c>
@@ -35555,7 +35559,7 @@
       </c>
     </row>
     <row r="9" spans="1:23" ht="20.25" customHeight="1">
-      <c r="A9" s="395"/>
+      <c r="A9" s="347"/>
       <c r="B9" s="121">
         <v>4</v>
       </c>
@@ -35598,7 +35602,7 @@
       </c>
     </row>
     <row r="10" spans="1:23" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A10" s="395"/>
+      <c r="A10" s="347"/>
       <c r="B10" s="224">
         <v>5</v>
       </c>
@@ -35623,7 +35627,7 @@
       <c r="U10" s="236"/>
     </row>
     <row r="11" spans="1:23" ht="20.25" customHeight="1">
-      <c r="A11" s="396"/>
+      <c r="A11" s="348"/>
       <c r="B11" s="179"/>
       <c r="C11" s="179"/>
       <c r="D11" s="223" t="s">
@@ -35666,7 +35670,7 @@
       </c>
     </row>
     <row r="12" spans="1:23" ht="20.25" customHeight="1">
-      <c r="A12" s="397" t="s">
+      <c r="A12" s="349" t="s">
         <v>513</v>
       </c>
       <c r="B12" s="133">
@@ -35737,7 +35741,7 @@
       <c r="W12" s="136"/>
     </row>
     <row r="13" spans="1:23" ht="20.25" customHeight="1">
-      <c r="A13" s="398"/>
+      <c r="A13" s="350"/>
       <c r="B13" s="133">
         <v>2</v>
       </c>
@@ -35805,7 +35809,7 @@
       </c>
     </row>
     <row r="14" spans="1:23" ht="20.25" customHeight="1">
-      <c r="A14" s="398"/>
+      <c r="A14" s="350"/>
       <c r="B14" s="133">
         <v>4</v>
       </c>
@@ -35870,7 +35874,7 @@
       </c>
     </row>
     <row r="15" spans="1:23" ht="20.25" customHeight="1">
-      <c r="A15" s="398"/>
+      <c r="A15" s="350"/>
       <c r="B15" s="133">
         <v>5</v>
       </c>
@@ -35938,7 +35942,7 @@
       </c>
     </row>
     <row r="16" spans="1:23" ht="20.25" customHeight="1">
-      <c r="A16" s="398"/>
+      <c r="A16" s="350"/>
       <c r="B16" s="133">
         <v>6</v>
       </c>
@@ -36006,7 +36010,7 @@
       </c>
     </row>
     <row r="17" spans="1:21" ht="20.25" customHeight="1">
-      <c r="A17" s="398"/>
+      <c r="A17" s="350"/>
       <c r="B17" s="133">
         <v>7</v>
       </c>
@@ -36071,7 +36075,7 @@
       </c>
     </row>
     <row r="18" spans="1:21" ht="20.25" customHeight="1">
-      <c r="A18" s="398"/>
+      <c r="A18" s="350"/>
       <c r="B18" s="133">
         <v>8</v>
       </c>
@@ -36139,7 +36143,7 @@
       </c>
     </row>
     <row r="19" spans="1:21" ht="20.25" customHeight="1">
-      <c r="A19" s="398"/>
+      <c r="A19" s="350"/>
       <c r="B19" s="133">
         <v>9</v>
       </c>
@@ -36207,7 +36211,7 @@
       </c>
     </row>
     <row r="20" spans="1:21" ht="20.25" customHeight="1">
-      <c r="A20" s="398"/>
+      <c r="A20" s="350"/>
       <c r="B20" s="133">
         <v>10</v>
       </c>
@@ -36272,7 +36276,7 @@
       </c>
     </row>
     <row r="21" spans="1:21" ht="20.25" customHeight="1">
-      <c r="A21" s="398"/>
+      <c r="A21" s="350"/>
       <c r="B21" s="133">
         <v>11</v>
       </c>
@@ -36340,7 +36344,7 @@
       </c>
     </row>
     <row r="22" spans="1:21" ht="20.25" customHeight="1">
-      <c r="A22" s="398"/>
+      <c r="A22" s="350"/>
       <c r="B22" s="133">
         <v>12</v>
       </c>
@@ -36405,7 +36409,7 @@
       </c>
     </row>
     <row r="23" spans="1:21" ht="20.25" customHeight="1">
-      <c r="A23" s="398"/>
+      <c r="A23" s="350"/>
       <c r="B23" s="133">
         <v>13</v>
       </c>
@@ -36430,7 +36434,7 @@
       <c r="U23" s="244"/>
     </row>
     <row r="24" spans="1:21" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A24" s="399"/>
+      <c r="A24" s="351"/>
       <c r="B24" s="292">
         <v>14</v>
       </c>
@@ -36455,142 +36459,142 @@
       <c r="U24" s="295"/>
     </row>
     <row r="25" spans="1:21" ht="14.1" customHeight="1">
-      <c r="A25" s="382" t="s">
+      <c r="A25" s="334" t="s">
         <v>489</v>
       </c>
-      <c r="B25" s="383"/>
-      <c r="C25" s="383"/>
-      <c r="D25" s="383"/>
-      <c r="E25" s="384"/>
-      <c r="F25" s="423">
+      <c r="B25" s="335"/>
+      <c r="C25" s="335"/>
+      <c r="D25" s="335"/>
+      <c r="E25" s="336"/>
+      <c r="F25" s="425">
         <f>O25+T27</f>
         <v>188969858.07381201</v>
       </c>
-      <c r="G25" s="424">
+      <c r="G25" s="426">
         <f>B18+G20</f>
         <v>8</v>
       </c>
-      <c r="H25" s="425">
+      <c r="H25" s="427">
         <f t="shared" ref="H25:H26" si="8">C18+H20</f>
         <v>184387</v>
       </c>
       <c r="I25" s="219"/>
-      <c r="J25" s="426" t="s">
+      <c r="J25" s="428" t="s">
         <v>479</v>
       </c>
       <c r="K25" s="139"/>
-      <c r="L25" s="427">
+      <c r="L25" s="429">
         <f>SUM(L12:L24)</f>
         <v>88964637.926188007</v>
       </c>
       <c r="M25" s="291"/>
-      <c r="N25" s="428" t="s">
+      <c r="N25" s="430" t="s">
         <v>517</v>
       </c>
-      <c r="O25" s="429">
+      <c r="O25" s="431">
         <f>SUM(O12:O24)</f>
         <v>155684761</v>
       </c>
-      <c r="P25" s="430">
+      <c r="P25" s="432">
         <f>O25-L25</f>
         <v>66720123.073811993</v>
       </c>
-      <c r="Q25" s="431">
+      <c r="Q25" s="433">
         <f>SUM(Q12:Q24)</f>
         <v>82.417766951269883</v>
       </c>
-      <c r="R25" s="432">
+      <c r="R25" s="434">
         <f>SUM(R12:R24)</f>
         <v>47668471</v>
       </c>
-      <c r="S25" s="417">
+      <c r="S25" s="419">
         <f>SUM(S12:S21)</f>
         <v>100.56309966392672</v>
       </c>
-      <c r="T25" s="418">
+      <c r="T25" s="420">
         <f>SUM(T12:T24)</f>
         <v>19051652.073812</v>
       </c>
-      <c r="U25" s="419">
+      <c r="U25" s="421">
         <f>SUM(U12:U24)</f>
         <v>57.237784320002575</v>
       </c>
     </row>
     <row r="26" spans="1:21" ht="10.5" customHeight="1" thickBot="1">
-      <c r="A26" s="385"/>
-      <c r="B26" s="386"/>
-      <c r="C26" s="386"/>
-      <c r="D26" s="386"/>
-      <c r="E26" s="387"/>
-      <c r="F26" s="405" t="e">
+      <c r="A26" s="337"/>
+      <c r="B26" s="338"/>
+      <c r="C26" s="338"/>
+      <c r="D26" s="338"/>
+      <c r="E26" s="339"/>
+      <c r="F26" s="357" t="e">
         <f>#REF!+F21</f>
         <v>#REF!</v>
       </c>
-      <c r="G26" s="406">
+      <c r="G26" s="358">
         <f>B19+G21</f>
         <v>9</v>
       </c>
-      <c r="H26" s="407">
+      <c r="H26" s="359">
         <f t="shared" si="8"/>
         <v>125410</v>
       </c>
       <c r="I26" s="219"/>
-      <c r="J26" s="415"/>
+      <c r="J26" s="367"/>
       <c r="K26" s="139"/>
-      <c r="L26" s="342"/>
+      <c r="L26" s="406"/>
       <c r="M26" s="272"/>
-      <c r="N26" s="348"/>
-      <c r="O26" s="335"/>
-      <c r="P26" s="344"/>
-      <c r="Q26" s="346"/>
-      <c r="R26" s="372"/>
-      <c r="S26" s="340"/>
-      <c r="T26" s="378"/>
-      <c r="U26" s="376"/>
+      <c r="N26" s="411"/>
+      <c r="O26" s="399"/>
+      <c r="P26" s="385"/>
+      <c r="Q26" s="409"/>
+      <c r="R26" s="375"/>
+      <c r="S26" s="404"/>
+      <c r="T26" s="382"/>
+      <c r="U26" s="380"/>
     </row>
     <row r="27" spans="1:21" ht="12.75" customHeight="1">
-      <c r="A27" s="388" t="s">
+      <c r="A27" s="340" t="s">
         <v>490</v>
       </c>
-      <c r="B27" s="389"/>
-      <c r="C27" s="389"/>
-      <c r="D27" s="389"/>
-      <c r="E27" s="390"/>
-      <c r="F27" s="408">
+      <c r="B27" s="341"/>
+      <c r="C27" s="341"/>
+      <c r="D27" s="341"/>
+      <c r="E27" s="342"/>
+      <c r="F27" s="360">
         <f>T30/L25</f>
         <v>2.1241007941896659</v>
       </c>
-      <c r="G27" s="409"/>
-      <c r="H27" s="410"/>
+      <c r="G27" s="361"/>
+      <c r="H27" s="362"/>
       <c r="I27" s="220"/>
-      <c r="J27" s="400" t="s">
+      <c r="J27" s="352" t="s">
         <v>509</v>
       </c>
       <c r="K27" s="7"/>
       <c r="L27" s="247"/>
       <c r="M27" s="273"/>
-      <c r="N27" s="349" t="s">
+      <c r="N27" s="412" t="s">
         <v>518</v>
       </c>
-      <c r="O27" s="433">
+      <c r="O27" s="417">
         <v>154812385</v>
       </c>
-      <c r="P27" s="379">
+      <c r="P27" s="384">
         <f>P25+P11</f>
         <v>80953568.073811993</v>
       </c>
-      <c r="Q27" s="380">
+      <c r="Q27" s="386">
         <f>Q25+Q11</f>
         <v>100</v>
       </c>
-      <c r="R27" s="367">
+      <c r="R27" s="370">
         <f>R25</f>
         <v>47668471</v>
       </c>
       <c r="S27" s="280" t="s">
         <v>491</v>
       </c>
-      <c r="T27" s="369">
+      <c r="T27" s="372">
         <f>T25+T11</f>
         <v>33285097.073812</v>
       </c>
@@ -36599,29 +36603,29 @@
       </c>
     </row>
     <row r="28" spans="1:21" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A28" s="391"/>
-      <c r="B28" s="392"/>
-      <c r="C28" s="392"/>
-      <c r="D28" s="392"/>
-      <c r="E28" s="393"/>
-      <c r="F28" s="411"/>
-      <c r="G28" s="412"/>
-      <c r="H28" s="413"/>
+      <c r="A28" s="343"/>
+      <c r="B28" s="344"/>
+      <c r="C28" s="344"/>
+      <c r="D28" s="344"/>
+      <c r="E28" s="345"/>
+      <c r="F28" s="363"/>
+      <c r="G28" s="364"/>
+      <c r="H28" s="365"/>
       <c r="I28" s="220"/>
-      <c r="J28" s="401"/>
+      <c r="J28" s="353"/>
       <c r="K28" s="7"/>
       <c r="L28" s="248"/>
       <c r="M28" s="274"/>
-      <c r="N28" s="350"/>
-      <c r="O28" s="434"/>
-      <c r="P28" s="344"/>
-      <c r="Q28" s="381"/>
-      <c r="R28" s="368"/>
+      <c r="N28" s="413"/>
+      <c r="O28" s="418"/>
+      <c r="P28" s="385"/>
+      <c r="Q28" s="387"/>
+      <c r="R28" s="371"/>
       <c r="S28" s="282">
         <f>R27/P27*100</f>
         <v>58.883718326703956</v>
       </c>
-      <c r="T28" s="370"/>
+      <c r="T28" s="373"/>
       <c r="U28" s="283">
         <f>T27/P27*100</f>
         <v>41.116281673296044</v>
@@ -36664,12 +36668,12 @@
       <c r="M30" s="141"/>
       <c r="N30" s="142"/>
       <c r="O30" s="173"/>
-      <c r="P30" s="336" t="s">
+      <c r="P30" s="400" t="s">
         <v>489</v>
       </c>
-      <c r="Q30" s="337"/>
-      <c r="R30" s="337"/>
-      <c r="S30" s="338"/>
+      <c r="Q30" s="401"/>
+      <c r="R30" s="401"/>
+      <c r="S30" s="402"/>
       <c r="T30" s="221">
         <f>O25+T27</f>
         <v>188969858.07381201</v>
@@ -36691,12 +36695,12 @@
       <c r="M31" s="141"/>
       <c r="N31" s="142"/>
       <c r="O31" s="173"/>
-      <c r="P31" s="336" t="s">
+      <c r="P31" s="400" t="s">
         <v>490</v>
       </c>
-      <c r="Q31" s="337"/>
-      <c r="R31" s="337"/>
-      <c r="S31" s="338"/>
+      <c r="Q31" s="401"/>
+      <c r="R31" s="401"/>
+      <c r="S31" s="402"/>
       <c r="T31" s="222">
         <f>T30/L25</f>
         <v>2.1241007941896659</v>
@@ -36729,36 +36733,36 @@
       <c r="B34" s="122"/>
       <c r="C34" s="122"/>
       <c r="D34" s="122"/>
-      <c r="E34" s="357" t="s">
+      <c r="E34" s="390" t="s">
         <v>493</v>
       </c>
-      <c r="F34" s="357"/>
+      <c r="F34" s="390"/>
       <c r="G34" s="209"/>
-      <c r="H34" s="362" t="s">
+      <c r="H34" s="395" t="s">
         <v>583</v>
       </c>
-      <c r="I34" s="363"/>
-      <c r="J34" s="363"/>
-      <c r="K34" s="363"/>
-      <c r="L34" s="363"/>
-      <c r="M34" s="363"/>
-      <c r="N34" s="363"/>
-      <c r="O34" s="364"/>
-      <c r="P34" s="373" t="s">
+      <c r="I34" s="396"/>
+      <c r="J34" s="396"/>
+      <c r="K34" s="396"/>
+      <c r="L34" s="396"/>
+      <c r="M34" s="396"/>
+      <c r="N34" s="396"/>
+      <c r="O34" s="397"/>
+      <c r="P34" s="376" t="s">
         <v>380</v>
       </c>
-      <c r="Q34" s="374"/>
-      <c r="R34" s="374"/>
-      <c r="S34" s="374"/>
-      <c r="T34" s="374"/>
-      <c r="U34" s="354"/>
+      <c r="Q34" s="377"/>
+      <c r="R34" s="377"/>
+      <c r="S34" s="377"/>
+      <c r="T34" s="377"/>
+      <c r="U34" s="378"/>
     </row>
     <row r="35" spans="1:21" ht="20.25" customHeight="1">
       <c r="A35" s="7"/>
-      <c r="B35" s="353" t="s">
+      <c r="B35" s="383" t="s">
         <v>381</v>
       </c>
-      <c r="C35" s="354"/>
+      <c r="C35" s="378"/>
       <c r="D35" s="123" t="s">
         <v>382</v>
       </c>
@@ -36769,14 +36773,14 @@
         <v>384</v>
       </c>
       <c r="G35" s="123"/>
-      <c r="H35" s="361" t="s">
+      <c r="H35" s="394" t="s">
         <v>377</v>
       </c>
-      <c r="I35" s="361"/>
-      <c r="J35" s="361" t="s">
+      <c r="I35" s="394"/>
+      <c r="J35" s="394" t="s">
         <v>378</v>
       </c>
-      <c r="K35" s="361"/>
+      <c r="K35" s="394"/>
       <c r="L35" s="193" t="s">
         <v>482</v>
       </c>
@@ -36809,7 +36813,7 @@
       </c>
     </row>
     <row r="36" spans="1:21" ht="20.25" customHeight="1">
-      <c r="A36" s="397" t="s">
+      <c r="A36" s="349" t="s">
         <v>572</v>
       </c>
       <c r="B36" s="133">
@@ -36855,7 +36859,7 @@
       <c r="U36" s="244"/>
     </row>
     <row r="37" spans="1:21" ht="17.25" thickBot="1">
-      <c r="A37" s="399"/>
+      <c r="A37" s="351"/>
       <c r="B37" s="151">
         <v>2</v>
       </c>
@@ -36900,17 +36904,22 @@
     </row>
   </sheetData>
   <mergeCells count="43">
-    <mergeCell ref="A36:A37"/>
-    <mergeCell ref="A27:E28"/>
-    <mergeCell ref="E34:F34"/>
-    <mergeCell ref="H34:O34"/>
-    <mergeCell ref="R27:R28"/>
-    <mergeCell ref="P30:S30"/>
-    <mergeCell ref="P31:S31"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="H35:I35"/>
-    <mergeCell ref="J35:K35"/>
-    <mergeCell ref="P34:U34"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="H4:O4"/>
+    <mergeCell ref="P4:U4"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="P3:Q3"/>
+    <mergeCell ref="R3:S3"/>
+    <mergeCell ref="T3:U3"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="A6:A11"/>
+    <mergeCell ref="A25:E26"/>
+    <mergeCell ref="F25:H26"/>
+    <mergeCell ref="J25:J26"/>
+    <mergeCell ref="A12:A24"/>
     <mergeCell ref="S25:S26"/>
     <mergeCell ref="T25:T26"/>
     <mergeCell ref="U25:U26"/>
@@ -36927,22 +36936,17 @@
     <mergeCell ref="Q25:Q26"/>
     <mergeCell ref="R25:R26"/>
     <mergeCell ref="T27:T28"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="J5:K5"/>
-    <mergeCell ref="A6:A11"/>
-    <mergeCell ref="A25:E26"/>
-    <mergeCell ref="F25:H26"/>
-    <mergeCell ref="J25:J26"/>
-    <mergeCell ref="A12:A24"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="H4:O4"/>
-    <mergeCell ref="P4:U4"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="L3:M3"/>
-    <mergeCell ref="P3:Q3"/>
-    <mergeCell ref="R3:S3"/>
-    <mergeCell ref="T3:U3"/>
+    <mergeCell ref="A36:A37"/>
+    <mergeCell ref="A27:E28"/>
+    <mergeCell ref="E34:F34"/>
+    <mergeCell ref="H34:O34"/>
+    <mergeCell ref="R27:R28"/>
+    <mergeCell ref="P30:S30"/>
+    <mergeCell ref="P31:S31"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="H35:I35"/>
+    <mergeCell ref="J35:K35"/>
+    <mergeCell ref="P34:U34"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
@@ -37005,8 +37009,8 @@
       <c r="B3" s="72"/>
       <c r="C3" s="72"/>
       <c r="D3" s="72"/>
-      <c r="E3" s="355"/>
-      <c r="F3" s="356"/>
+      <c r="E3" s="388"/>
+      <c r="F3" s="389"/>
       <c r="G3" s="72"/>
       <c r="H3" s="72" t="s">
         <v>372</v>
@@ -37016,38 +37020,38 @@
         <v>373</v>
       </c>
       <c r="K3" s="6"/>
-      <c r="L3" s="358" t="s">
+      <c r="L3" s="391" t="s">
         <v>374</v>
       </c>
-      <c r="M3" s="359"/>
+      <c r="M3" s="392"/>
       <c r="N3" s="120" t="s">
         <v>375</v>
       </c>
       <c r="O3" s="168" t="s">
         <v>376</v>
       </c>
-      <c r="P3" s="360" t="s">
+      <c r="P3" s="393" t="s">
         <v>483</v>
       </c>
-      <c r="Q3" s="359"/>
-      <c r="R3" s="353" t="s">
+      <c r="Q3" s="392"/>
+      <c r="R3" s="383" t="s">
         <v>484</v>
       </c>
-      <c r="S3" s="354"/>
-      <c r="T3" s="365" t="s">
+      <c r="S3" s="378"/>
+      <c r="T3" s="368" t="s">
         <v>485</v>
       </c>
-      <c r="U3" s="366"/>
+      <c r="U3" s="369"/>
     </row>
     <row r="4" spans="1:23" ht="18.75" customHeight="1">
       <c r="A4" s="7"/>
       <c r="B4" s="122"/>
       <c r="C4" s="122"/>
       <c r="D4" s="122"/>
-      <c r="E4" s="357" t="s">
+      <c r="E4" s="390" t="s">
         <v>493</v>
       </c>
-      <c r="F4" s="357"/>
+      <c r="F4" s="390"/>
       <c r="G4" s="209"/>
       <c r="H4" s="435" t="s">
         <v>515</v>
@@ -37059,21 +37063,21 @@
       <c r="M4" s="436"/>
       <c r="N4" s="436"/>
       <c r="O4" s="437"/>
-      <c r="P4" s="373" t="s">
+      <c r="P4" s="376" t="s">
         <v>380</v>
       </c>
-      <c r="Q4" s="374"/>
-      <c r="R4" s="374"/>
-      <c r="S4" s="374"/>
-      <c r="T4" s="374"/>
-      <c r="U4" s="354"/>
+      <c r="Q4" s="377"/>
+      <c r="R4" s="377"/>
+      <c r="S4" s="377"/>
+      <c r="T4" s="377"/>
+      <c r="U4" s="378"/>
     </row>
     <row r="5" spans="1:23" ht="20.25" customHeight="1">
       <c r="A5" s="7"/>
-      <c r="B5" s="353" t="s">
+      <c r="B5" s="383" t="s">
         <v>381</v>
       </c>
-      <c r="C5" s="354"/>
+      <c r="C5" s="378"/>
       <c r="D5" s="123" t="s">
         <v>382</v>
       </c>
@@ -37084,14 +37088,14 @@
         <v>384</v>
       </c>
       <c r="G5" s="123"/>
-      <c r="H5" s="361" t="s">
+      <c r="H5" s="394" t="s">
         <v>377</v>
       </c>
-      <c r="I5" s="361"/>
-      <c r="J5" s="361" t="s">
+      <c r="I5" s="394"/>
+      <c r="J5" s="394" t="s">
         <v>378</v>
       </c>
-      <c r="K5" s="361"/>
+      <c r="K5" s="394"/>
       <c r="L5" s="193" t="s">
         <v>482</v>
       </c>
@@ -37124,7 +37128,7 @@
       </c>
     </row>
     <row r="6" spans="1:23" ht="20.25" customHeight="1">
-      <c r="A6" s="394" t="s">
+      <c r="A6" s="346" t="s">
         <v>512</v>
       </c>
       <c r="B6" s="123">
@@ -37170,7 +37174,7 @@
       </c>
     </row>
     <row r="7" spans="1:23" ht="20.25" customHeight="1">
-      <c r="A7" s="395"/>
+      <c r="A7" s="347"/>
       <c r="B7" s="123">
         <v>2</v>
       </c>
@@ -37214,7 +37218,7 @@
       </c>
     </row>
     <row r="8" spans="1:23" ht="20.25" customHeight="1">
-      <c r="A8" s="395"/>
+      <c r="A8" s="347"/>
       <c r="B8" s="123">
         <v>3</v>
       </c>
@@ -37239,7 +37243,7 @@
       <c r="U8" s="243"/>
     </row>
     <row r="9" spans="1:23" ht="20.25" customHeight="1">
-      <c r="A9" s="395"/>
+      <c r="A9" s="347"/>
       <c r="B9" s="123">
         <v>4</v>
       </c>
@@ -37264,7 +37268,7 @@
       <c r="U9" s="243"/>
     </row>
     <row r="10" spans="1:23" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A10" s="395"/>
+      <c r="A10" s="347"/>
       <c r="B10" s="224">
         <v>5</v>
       </c>
@@ -37289,7 +37293,7 @@
       <c r="U10" s="236"/>
     </row>
     <row r="11" spans="1:23" ht="20.25" customHeight="1">
-      <c r="A11" s="396"/>
+      <c r="A11" s="348"/>
       <c r="B11" s="179"/>
       <c r="C11" s="179"/>
       <c r="D11" s="223" t="s">
@@ -37332,7 +37336,7 @@
       </c>
     </row>
     <row r="12" spans="1:23" ht="20.25" customHeight="1">
-      <c r="A12" s="397" t="s">
+      <c r="A12" s="349" t="s">
         <v>513</v>
       </c>
       <c r="B12" s="133">
@@ -37403,7 +37407,7 @@
       <c r="W12" s="136"/>
     </row>
     <row r="13" spans="1:23" ht="20.25" customHeight="1">
-      <c r="A13" s="398"/>
+      <c r="A13" s="350"/>
       <c r="B13" s="133">
         <v>2</v>
       </c>
@@ -37471,7 +37475,7 @@
       </c>
     </row>
     <row r="14" spans="1:23" ht="20.25" customHeight="1">
-      <c r="A14" s="398"/>
+      <c r="A14" s="350"/>
       <c r="B14" s="133">
         <v>3</v>
       </c>
@@ -37539,7 +37543,7 @@
       </c>
     </row>
     <row r="15" spans="1:23" ht="20.25" customHeight="1">
-      <c r="A15" s="398"/>
+      <c r="A15" s="350"/>
       <c r="B15" s="133">
         <v>4</v>
       </c>
@@ -37607,7 +37611,7 @@
       </c>
     </row>
     <row r="16" spans="1:23" ht="20.25" customHeight="1">
-      <c r="A16" s="398"/>
+      <c r="A16" s="350"/>
       <c r="B16" s="133">
         <v>5</v>
       </c>
@@ -37672,7 +37676,7 @@
       </c>
     </row>
     <row r="17" spans="1:21" ht="20.25" customHeight="1">
-      <c r="A17" s="398"/>
+      <c r="A17" s="350"/>
       <c r="B17" s="133">
         <v>6</v>
       </c>
@@ -37740,7 +37744,7 @@
       </c>
     </row>
     <row r="18" spans="1:21" ht="20.25" customHeight="1">
-      <c r="A18" s="398"/>
+      <c r="A18" s="350"/>
       <c r="B18" s="133">
         <v>7</v>
       </c>
@@ -37808,7 +37812,7 @@
       </c>
     </row>
     <row r="19" spans="1:21" ht="20.25" customHeight="1">
-      <c r="A19" s="398"/>
+      <c r="A19" s="350"/>
       <c r="B19" s="133">
         <v>8</v>
       </c>
@@ -37873,7 +37877,7 @@
       </c>
     </row>
     <row r="20" spans="1:21" ht="20.25" customHeight="1">
-      <c r="A20" s="398"/>
+      <c r="A20" s="350"/>
       <c r="B20" s="133">
         <v>9</v>
       </c>
@@ -37941,7 +37945,7 @@
       </c>
     </row>
     <row r="21" spans="1:21" ht="20.25" customHeight="1">
-      <c r="A21" s="398"/>
+      <c r="A21" s="350"/>
       <c r="B21" s="133">
         <v>10</v>
       </c>
@@ -38009,7 +38013,7 @@
       </c>
     </row>
     <row r="22" spans="1:21" ht="20.25" customHeight="1">
-      <c r="A22" s="398"/>
+      <c r="A22" s="350"/>
       <c r="B22" s="133">
         <v>11</v>
       </c>
@@ -38074,7 +38078,7 @@
       </c>
     </row>
     <row r="23" spans="1:21" ht="20.25" customHeight="1">
-      <c r="A23" s="398"/>
+      <c r="A23" s="350"/>
       <c r="B23" s="133">
         <v>12</v>
       </c>
@@ -38142,7 +38146,7 @@
       </c>
     </row>
     <row r="24" spans="1:21" ht="20.25" customHeight="1">
-      <c r="A24" s="398"/>
+      <c r="A24" s="350"/>
       <c r="B24" s="133">
         <v>13</v>
       </c>
@@ -38167,7 +38171,7 @@
       <c r="U24" s="244"/>
     </row>
     <row r="25" spans="1:21" ht="20.25" customHeight="1">
-      <c r="A25" s="398"/>
+      <c r="A25" s="350"/>
       <c r="B25" s="133">
         <v>14</v>
       </c>
@@ -38192,7 +38196,7 @@
       <c r="U25" s="244"/>
     </row>
     <row r="26" spans="1:21" ht="20.25" customHeight="1">
-      <c r="A26" s="398"/>
+      <c r="A26" s="350"/>
       <c r="B26" s="133">
         <v>15</v>
       </c>
@@ -38217,7 +38221,7 @@
       <c r="U26" s="244"/>
     </row>
     <row r="27" spans="1:21" ht="20.25" customHeight="1">
-      <c r="A27" s="398"/>
+      <c r="A27" s="350"/>
       <c r="B27" s="133">
         <v>16</v>
       </c>
@@ -38242,7 +38246,7 @@
       <c r="U27" s="244"/>
     </row>
     <row r="28" spans="1:21" ht="20.25" customHeight="1">
-      <c r="A28" s="398"/>
+      <c r="A28" s="350"/>
       <c r="B28" s="133">
         <v>17</v>
       </c>
@@ -38267,7 +38271,7 @@
       <c r="U28" s="244"/>
     </row>
     <row r="29" spans="1:21" ht="17.25" thickBot="1">
-      <c r="A29" s="399"/>
+      <c r="A29" s="351"/>
       <c r="B29" s="151">
         <v>18</v>
       </c>
@@ -38292,140 +38296,140 @@
       <c r="U29" s="270"/>
     </row>
     <row r="30" spans="1:21" ht="14.1" customHeight="1">
-      <c r="A30" s="382" t="s">
+      <c r="A30" s="334" t="s">
         <v>510</v>
       </c>
-      <c r="B30" s="383"/>
-      <c r="C30" s="383"/>
-      <c r="D30" s="383"/>
-      <c r="E30" s="384"/>
-      <c r="F30" s="402">
+      <c r="B30" s="335"/>
+      <c r="C30" s="335"/>
+      <c r="D30" s="335"/>
+      <c r="E30" s="336"/>
+      <c r="F30" s="354">
         <f>O30+T32</f>
         <v>171792474.03200001</v>
       </c>
-      <c r="G30" s="403">
+      <c r="G30" s="355">
         <f t="shared" ref="G30:H31" si="8">B20+G22</f>
         <v>9</v>
       </c>
-      <c r="H30" s="404">
+      <c r="H30" s="356">
         <f t="shared" si="8"/>
         <v>167887</v>
       </c>
       <c r="I30" s="219"/>
-      <c r="J30" s="414" t="s">
+      <c r="J30" s="366" t="s">
         <v>508</v>
       </c>
       <c r="K30" s="139"/>
-      <c r="L30" s="341">
+      <c r="L30" s="405">
         <f>SUM(L12:L29)</f>
         <v>96989979.96800001</v>
       </c>
       <c r="M30" s="271"/>
-      <c r="N30" s="347" t="s">
+      <c r="N30" s="410" t="s">
         <v>517</v>
       </c>
-      <c r="O30" s="334">
+      <c r="O30" s="398">
         <f>SUM(O12:O29)</f>
         <v>151411841</v>
       </c>
-      <c r="P30" s="343">
+      <c r="P30" s="407">
         <f>O30-L30</f>
         <v>54421861.03199999</v>
       </c>
-      <c r="Q30" s="345">
+      <c r="Q30" s="408">
         <f>SUM(Q12:Q29)</f>
         <v>88.081094833898462</v>
       </c>
-      <c r="R30" s="371">
+      <c r="R30" s="374">
         <f>SUM(R12:R29)</f>
         <v>41405453</v>
       </c>
-      <c r="S30" s="339">
+      <c r="S30" s="403">
         <f>SUM(S12:S23)</f>
         <v>100</v>
       </c>
-      <c r="T30" s="377">
+      <c r="T30" s="381">
         <f>SUM(T12:T29)</f>
         <v>13016408.032000002</v>
       </c>
-      <c r="U30" s="375">
+      <c r="U30" s="379">
         <f>SUM(U12:U29)</f>
         <v>63.866554152477512</v>
       </c>
     </row>
     <row r="31" spans="1:21" ht="14.1" customHeight="1" thickBot="1">
-      <c r="A31" s="385"/>
-      <c r="B31" s="386"/>
-      <c r="C31" s="386"/>
-      <c r="D31" s="386"/>
-      <c r="E31" s="387"/>
-      <c r="F31" s="405" t="e">
+      <c r="A31" s="337"/>
+      <c r="B31" s="338"/>
+      <c r="C31" s="338"/>
+      <c r="D31" s="338"/>
+      <c r="E31" s="339"/>
+      <c r="F31" s="357" t="e">
         <f>#REF!+F23</f>
         <v>#REF!</v>
       </c>
-      <c r="G31" s="406">
+      <c r="G31" s="358">
         <f t="shared" si="8"/>
         <v>10</v>
       </c>
-      <c r="H31" s="407">
+      <c r="H31" s="359">
         <f t="shared" si="8"/>
         <v>180410</v>
       </c>
       <c r="I31" s="219"/>
-      <c r="J31" s="415"/>
+      <c r="J31" s="367"/>
       <c r="K31" s="139"/>
-      <c r="L31" s="342"/>
+      <c r="L31" s="406"/>
       <c r="M31" s="272"/>
-      <c r="N31" s="348"/>
-      <c r="O31" s="335"/>
-      <c r="P31" s="344"/>
-      <c r="Q31" s="346"/>
-      <c r="R31" s="372"/>
-      <c r="S31" s="340"/>
-      <c r="T31" s="378"/>
-      <c r="U31" s="376"/>
+      <c r="N31" s="411"/>
+      <c r="O31" s="399"/>
+      <c r="P31" s="385"/>
+      <c r="Q31" s="409"/>
+      <c r="R31" s="375"/>
+      <c r="S31" s="404"/>
+      <c r="T31" s="382"/>
+      <c r="U31" s="380"/>
     </row>
     <row r="32" spans="1:21" ht="13.7" customHeight="1">
-      <c r="A32" s="388" t="s">
+      <c r="A32" s="340" t="s">
         <v>511</v>
       </c>
-      <c r="B32" s="389"/>
-      <c r="C32" s="389"/>
-      <c r="D32" s="389"/>
-      <c r="E32" s="390"/>
-      <c r="F32" s="408">
+      <c r="B32" s="341"/>
+      <c r="C32" s="341"/>
+      <c r="D32" s="341"/>
+      <c r="E32" s="342"/>
+      <c r="F32" s="360">
         <f>T35/L30</f>
         <v>1.7712394011080284</v>
       </c>
-      <c r="G32" s="409"/>
-      <c r="H32" s="410"/>
+      <c r="G32" s="361"/>
+      <c r="H32" s="362"/>
       <c r="I32" s="220"/>
-      <c r="J32" s="400" t="s">
+      <c r="J32" s="352" t="s">
         <v>509</v>
       </c>
       <c r="K32" s="7"/>
       <c r="L32" s="247"/>
       <c r="M32" s="273"/>
-      <c r="N32" s="349" t="s">
+      <c r="N32" s="412" t="s">
         <v>518</v>
       </c>
       <c r="O32" s="284"/>
-      <c r="P32" s="379">
+      <c r="P32" s="384">
         <f>P30+P11</f>
         <v>61786086.03199999</v>
       </c>
-      <c r="Q32" s="380">
+      <c r="Q32" s="386">
         <f>Q30+Q11</f>
         <v>100.00000000000001</v>
       </c>
-      <c r="R32" s="367">
+      <c r="R32" s="370">
         <f>R30</f>
         <v>41405453</v>
       </c>
       <c r="S32" s="280" t="s">
         <v>491</v>
       </c>
-      <c r="T32" s="369">
+      <c r="T32" s="372">
         <f>T30+T11</f>
         <v>20380633.032000002</v>
       </c>
@@ -38434,29 +38438,29 @@
       </c>
     </row>
     <row r="33" spans="1:21" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A33" s="391"/>
-      <c r="B33" s="392"/>
-      <c r="C33" s="392"/>
-      <c r="D33" s="392"/>
-      <c r="E33" s="393"/>
-      <c r="F33" s="411"/>
-      <c r="G33" s="412"/>
-      <c r="H33" s="413"/>
+      <c r="A33" s="343"/>
+      <c r="B33" s="344"/>
+      <c r="C33" s="344"/>
+      <c r="D33" s="344"/>
+      <c r="E33" s="345"/>
+      <c r="F33" s="363"/>
+      <c r="G33" s="364"/>
+      <c r="H33" s="365"/>
       <c r="I33" s="220"/>
-      <c r="J33" s="401"/>
+      <c r="J33" s="353"/>
       <c r="K33" s="7"/>
       <c r="L33" s="248"/>
       <c r="M33" s="274"/>
-      <c r="N33" s="350"/>
+      <c r="N33" s="413"/>
       <c r="O33" s="285"/>
-      <c r="P33" s="344"/>
-      <c r="Q33" s="381"/>
-      <c r="R33" s="368"/>
+      <c r="P33" s="385"/>
+      <c r="Q33" s="387"/>
+      <c r="R33" s="371"/>
       <c r="S33" s="282">
         <f>R32/P32*100</f>
         <v>67.014202807012992</v>
       </c>
-      <c r="T33" s="370"/>
+      <c r="T33" s="373"/>
       <c r="U33" s="283">
         <f>T32/P32*100</f>
         <v>32.985797192987029</v>
@@ -38499,12 +38503,12 @@
       <c r="M35" s="141"/>
       <c r="N35" s="142"/>
       <c r="O35" s="173"/>
-      <c r="P35" s="336" t="s">
+      <c r="P35" s="400" t="s">
         <v>489</v>
       </c>
-      <c r="Q35" s="337"/>
-      <c r="R35" s="337"/>
-      <c r="S35" s="338"/>
+      <c r="Q35" s="401"/>
+      <c r="R35" s="401"/>
+      <c r="S35" s="402"/>
       <c r="T35" s="221">
         <f>O30+T32</f>
         <v>171792474.03200001</v>
@@ -38526,12 +38530,12 @@
       <c r="M36" s="141"/>
       <c r="N36" s="142"/>
       <c r="O36" s="173"/>
-      <c r="P36" s="336" t="s">
+      <c r="P36" s="400" t="s">
         <v>490</v>
       </c>
-      <c r="Q36" s="337"/>
-      <c r="R36" s="337"/>
-      <c r="S36" s="338"/>
+      <c r="Q36" s="401"/>
+      <c r="R36" s="401"/>
+      <c r="S36" s="402"/>
       <c r="T36" s="222">
         <f>T35/L30</f>
         <v>1.7712394011080284</v>
@@ -38580,6 +38584,25 @@
     </row>
   </sheetData>
   <mergeCells count="35">
+    <mergeCell ref="P4:U4"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="P3:Q3"/>
+    <mergeCell ref="R3:S3"/>
+    <mergeCell ref="T3:U3"/>
+    <mergeCell ref="A6:A11"/>
+    <mergeCell ref="A30:E31"/>
+    <mergeCell ref="F30:H31"/>
+    <mergeCell ref="J30:J31"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="H4:O4"/>
+    <mergeCell ref="R30:R31"/>
+    <mergeCell ref="S30:S31"/>
+    <mergeCell ref="N32:N33"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="N30:N31"/>
     <mergeCell ref="P35:S35"/>
     <mergeCell ref="P36:S36"/>
     <mergeCell ref="A12:A29"/>
@@ -38596,25 +38619,6 @@
     <mergeCell ref="O30:O31"/>
     <mergeCell ref="P30:P31"/>
     <mergeCell ref="Q30:Q31"/>
-    <mergeCell ref="R30:R31"/>
-    <mergeCell ref="S30:S31"/>
-    <mergeCell ref="N32:N33"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="J5:K5"/>
-    <mergeCell ref="N30:N31"/>
-    <mergeCell ref="A6:A11"/>
-    <mergeCell ref="A30:E31"/>
-    <mergeCell ref="F30:H31"/>
-    <mergeCell ref="J30:J31"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="H4:O4"/>
-    <mergeCell ref="P4:U4"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="L3:M3"/>
-    <mergeCell ref="P3:Q3"/>
-    <mergeCell ref="R3:S3"/>
-    <mergeCell ref="T3:U3"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
@@ -38628,8 +38632,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:L33"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C35" sqref="C35"/>
+    <sheetView topLeftCell="A7" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -38883,44 +38887,44 @@
         <v>12</v>
       </c>
       <c r="C7" s="318">
-        <f>+C6*0.001425*0.45</f>
-        <v>359.8694999999999</v>
+        <f>ROUNDDOWN(+C6*0.001425*0.45,0)</f>
+        <v>359</v>
       </c>
       <c r="D7" s="318">
-        <f t="shared" ref="D7:G7" si="3">+D6*0.001425*0.45</f>
-        <v>359.8694999999999</v>
+        <f t="shared" ref="D7:I7" si="3">ROUNDDOWN(+D6*0.001425*0.45,0)</f>
+        <v>359</v>
       </c>
       <c r="E7" s="318">
         <f t="shared" si="3"/>
-        <v>359.8694999999999</v>
+        <v>359</v>
       </c>
       <c r="F7" s="318">
         <f t="shared" si="3"/>
-        <v>359.74125000000004</v>
+        <v>359</v>
       </c>
       <c r="G7" s="318">
         <f t="shared" si="3"/>
-        <v>359.613</v>
+        <v>359</v>
       </c>
       <c r="H7" s="318">
-        <f t="shared" ref="H7:I7" si="4">+H6*0.001425*0.45</f>
-        <v>356.27850000000001</v>
+        <f t="shared" si="3"/>
+        <v>356</v>
       </c>
       <c r="I7" s="318">
+        <f t="shared" si="3"/>
+        <v>356</v>
+      </c>
+      <c r="J7" s="318">
+        <f>ROUNDDOWN(ABS(J6)*0.001425*0.45,0)</f>
+        <v>192</v>
+      </c>
+      <c r="K7" s="318">
+        <f t="shared" ref="K7:L7" si="4">ROUNDDOWN(ABS(K6)*0.001425*0.45,0)</f>
+        <v>192</v>
+      </c>
+      <c r="L7" s="318">
         <f t="shared" si="4"/>
-        <v>356.02200000000005</v>
-      </c>
-      <c r="J7" s="318">
-        <f>-+J6*0.001425*0.45</f>
-        <v>192.69562500000001</v>
-      </c>
-      <c r="K7" s="318">
-        <f t="shared" ref="K7:L7" si="5">-+K6*0.001425*0.45</f>
-        <v>192.88799999999998</v>
-      </c>
-      <c r="L7" s="318">
-        <f t="shared" si="5"/>
-        <v>386.03250000000003</v>
+        <v>386</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -38944,7 +38948,7 @@
         <v>300</v>
       </c>
       <c r="L8" s="14">
-        <f t="shared" ref="L8" si="6">+-L6*0.001</f>
+        <f t="shared" ref="L8" si="5">+-L6*0.001</f>
         <v>602</v>
       </c>
     </row>
@@ -38975,43 +38979,43 @@
       </c>
       <c r="C10" s="319">
         <f>+C6+C7</f>
-        <v>561559.86949999991</v>
+        <v>561558.99999999988</v>
       </c>
       <c r="D10" s="319">
-        <f t="shared" ref="D10:G10" si="7">+D6+D7</f>
-        <v>561559.86949999991</v>
+        <f t="shared" ref="D10:G10" si="6">+D6+D7</f>
+        <v>561558.99999999988</v>
       </c>
       <c r="E10" s="319">
+        <f t="shared" si="6"/>
+        <v>561558.99999999988</v>
+      </c>
+      <c r="F10" s="319">
+        <f t="shared" si="6"/>
+        <v>561359</v>
+      </c>
+      <c r="G10" s="319">
+        <f t="shared" si="6"/>
+        <v>561159</v>
+      </c>
+      <c r="H10" s="319">
+        <f t="shared" ref="H10:I10" si="7">+H6+H7</f>
+        <v>555956</v>
+      </c>
+      <c r="I10" s="319">
         <f t="shared" si="7"/>
-        <v>561559.86949999991</v>
-      </c>
-      <c r="F10" s="319">
-        <f t="shared" si="7"/>
-        <v>561359.74124999996</v>
-      </c>
-      <c r="G10" s="319">
-        <f t="shared" si="7"/>
-        <v>561159.61300000001</v>
-      </c>
-      <c r="H10" s="319">
-        <f t="shared" ref="H10:I10" si="8">+H6+H7</f>
-        <v>555956.27850000001</v>
-      </c>
-      <c r="I10" s="319">
-        <f t="shared" si="8"/>
-        <v>555556.022</v>
+        <v>555556</v>
       </c>
       <c r="J10" s="319">
         <f>SUM(J6:J9)</f>
-        <v>-300007.30437500001</v>
+        <v>-300008</v>
       </c>
       <c r="K10" s="319">
-        <f t="shared" ref="K10:L10" si="9">SUM(K6:K9)</f>
-        <v>-300307.11199999996</v>
+        <f t="shared" ref="K10:L10" si="8">SUM(K6:K9)</f>
+        <v>-300307.99999999994</v>
       </c>
       <c r="L10" s="319">
-        <f t="shared" si="9"/>
-        <v>-601011.96750000003</v>
+        <f t="shared" si="8"/>
+        <v>-601012</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -39023,43 +39027,43 @@
       </c>
       <c r="C11" s="77">
         <f>+C10</f>
-        <v>561559.86949999991</v>
+        <v>561558.99999999988</v>
       </c>
       <c r="D11" s="77">
         <f>+C11+D10</f>
-        <v>1123119.7389999998</v>
+        <v>1123117.9999999998</v>
       </c>
       <c r="E11" s="77">
-        <f t="shared" ref="E11:G11" si="10">+D11+E10</f>
-        <v>1684679.6084999996</v>
+        <f t="shared" ref="E11:G11" si="9">+D11+E10</f>
+        <v>1684676.9999999995</v>
       </c>
       <c r="F11" s="77">
-        <f t="shared" si="10"/>
-        <v>2246039.3497499996</v>
+        <f t="shared" si="9"/>
+        <v>2246035.9999999995</v>
       </c>
       <c r="G11" s="77">
-        <f t="shared" si="10"/>
-        <v>2807198.9627499995</v>
+        <f t="shared" si="9"/>
+        <v>2807194.9999999995</v>
       </c>
       <c r="H11" s="77">
-        <f t="shared" ref="H11" si="11">+G11+H10</f>
-        <v>3363155.2412499995</v>
+        <f t="shared" ref="H11" si="10">+G11+H10</f>
+        <v>3363150.9999999995</v>
       </c>
       <c r="I11" s="77">
-        <f t="shared" ref="I11" si="12">+H11+I10</f>
-        <v>3918711.2632499994</v>
+        <f t="shared" ref="I11" si="11">+H11+I10</f>
+        <v>3918706.9999999995</v>
       </c>
       <c r="J11" s="77">
         <f>+I11+J10</f>
-        <v>3618703.9588749995</v>
+        <v>3618698.9999999995</v>
       </c>
       <c r="K11" s="77">
-        <f t="shared" ref="K11:L11" si="13">+J11+K10</f>
-        <v>3318396.8468749998</v>
+        <f t="shared" ref="K11:L11" si="12">+J11+K10</f>
+        <v>3318390.9999999995</v>
       </c>
       <c r="L11" s="77">
-        <f t="shared" si="13"/>
-        <v>2717384.8793749996</v>
+        <f t="shared" si="12"/>
+        <v>2717378.9999999995</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -39078,23 +39082,23 @@
         <v>40</v>
       </c>
       <c r="E12" s="19">
-        <f t="shared" ref="E12:G12" si="14">+D12+E5</f>
+        <f t="shared" ref="E12:G12" si="13">+D12+E5</f>
         <v>60</v>
       </c>
       <c r="F12" s="19">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>80</v>
       </c>
       <c r="G12" s="19">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>100</v>
       </c>
       <c r="H12" s="19">
-        <f t="shared" ref="H12" si="15">+G12+H5</f>
+        <f t="shared" ref="H12" si="14">+G12+H5</f>
         <v>120</v>
       </c>
       <c r="I12" s="19">
-        <f t="shared" ref="I12" si="16">+H12+I5</f>
+        <f t="shared" ref="I12" si="15">+H12+I5</f>
         <v>140</v>
       </c>
       <c r="J12" s="17">
@@ -39102,11 +39106,11 @@
         <v>130</v>
       </c>
       <c r="K12" s="17">
-        <f t="shared" ref="K12:L12" si="17">+J12+K5</f>
+        <f t="shared" ref="K12:L12" si="16">+J12+K5</f>
         <v>120</v>
       </c>
       <c r="L12" s="17">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>100</v>
       </c>
     </row>
@@ -39119,43 +39123,43 @@
       </c>
       <c r="C13" s="20">
         <f>+C11/C12/1000</f>
-        <v>28.077993474999996</v>
+        <v>28.077949999999994</v>
       </c>
       <c r="D13" s="20">
-        <f t="shared" ref="D13:G13" si="18">+D11/D12/1000</f>
-        <v>28.077993474999996</v>
+        <f t="shared" ref="D13:G13" si="17">+D11/D12/1000</f>
+        <v>28.077949999999994</v>
       </c>
       <c r="E13" s="20">
+        <f t="shared" si="17"/>
+        <v>28.077949999999994</v>
+      </c>
+      <c r="F13" s="20">
+        <f t="shared" si="17"/>
+        <v>28.075449999999993</v>
+      </c>
+      <c r="G13" s="20">
+        <f t="shared" si="17"/>
+        <v>28.071949999999998</v>
+      </c>
+      <c r="H13" s="20">
+        <f t="shared" ref="H13:J13" si="18">+H11/H12/1000</f>
+        <v>28.026258333333327</v>
+      </c>
+      <c r="I13" s="20">
         <f t="shared" si="18"/>
-        <v>28.077993474999992</v>
-      </c>
-      <c r="F13" s="20">
+        <v>27.990764285714281</v>
+      </c>
+      <c r="J13" s="20">
         <f t="shared" si="18"/>
-        <v>28.075491871874995</v>
-      </c>
-      <c r="G13" s="20">
-        <f t="shared" si="18"/>
-        <v>28.071989627499995</v>
-      </c>
-      <c r="H13" s="20">
-        <f t="shared" ref="H13:J13" si="19">+H11/H12/1000</f>
-        <v>28.026293677083331</v>
-      </c>
-      <c r="I13" s="20">
+        <v>27.836146153846151</v>
+      </c>
+      <c r="K13" s="20">
+        <f t="shared" ref="K13:L13" si="19">+K11/K12/1000</f>
+        <v>27.653258333333326</v>
+      </c>
+      <c r="L13" s="35">
         <f t="shared" si="19"/>
-        <v>27.990794737499996</v>
-      </c>
-      <c r="J13" s="20">
-        <f t="shared" si="19"/>
-        <v>27.836184299038457</v>
-      </c>
-      <c r="K13" s="20">
-        <f t="shared" ref="K13:L13" si="20">+K11/K12/1000</f>
-        <v>27.653307057291666</v>
-      </c>
-      <c r="L13" s="35">
-        <f t="shared" si="20"/>
-        <v>27.173848793749997</v>
+        <v>27.173789999999993</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -39416,35 +39420,35 @@
         <v>-160000</v>
       </c>
       <c r="D23" s="324">
-        <f t="shared" ref="D23:G23" si="21">D21*D22*1000</f>
+        <f t="shared" ref="D23:G23" si="20">D21*D22*1000</f>
         <v>-180000</v>
       </c>
       <c r="E23" s="324">
+        <f t="shared" si="20"/>
+        <v>-210000</v>
+      </c>
+      <c r="F23" s="324">
+        <f t="shared" si="20"/>
+        <v>-100000</v>
+      </c>
+      <c r="G23" s="324">
+        <f t="shared" si="20"/>
+        <v>-120000</v>
+      </c>
+      <c r="H23" s="324">
+        <f t="shared" ref="H23:I23" si="21">H21*H22*1000</f>
+        <v>-70000</v>
+      </c>
+      <c r="I23" s="324">
         <f t="shared" si="21"/>
-        <v>-210000</v>
-      </c>
-      <c r="F23" s="324">
-        <f t="shared" si="21"/>
-        <v>-100000</v>
-      </c>
-      <c r="G23" s="324">
-        <f t="shared" si="21"/>
-        <v>-120000</v>
-      </c>
-      <c r="H23" s="324">
-        <f t="shared" ref="H23:I23" si="22">H21*H22*1000</f>
-        <v>-70000</v>
-      </c>
-      <c r="I23" s="324">
-        <f t="shared" si="22"/>
         <v>-79000</v>
       </c>
       <c r="J23" s="324">
-        <f t="shared" ref="J23" si="23">J21*J22*1000</f>
+        <f t="shared" ref="J23" si="22">J21*J22*1000</f>
         <v>-107000</v>
       </c>
       <c r="K23" s="324">
-        <f t="shared" ref="K23" si="24">K21*K22*1000</f>
+        <f t="shared" ref="K23" si="23">K21*K22*1000</f>
         <v>-107000</v>
       </c>
       <c r="L23" s="324"/>
@@ -39533,35 +39537,35 @@
         <v>-159990</v>
       </c>
       <c r="D27" s="327">
-        <f t="shared" ref="D27:G27" si="25">SUM(D23:D26)</f>
+        <f t="shared" ref="D27:G27" si="24">SUM(D23:D26)</f>
         <v>-179990</v>
       </c>
       <c r="E27" s="327">
+        <f t="shared" si="24"/>
+        <v>-209990</v>
+      </c>
+      <c r="F27" s="327">
+        <f t="shared" si="24"/>
+        <v>-99990</v>
+      </c>
+      <c r="G27" s="327">
+        <f t="shared" si="24"/>
+        <v>-119990</v>
+      </c>
+      <c r="H27" s="327">
+        <f t="shared" ref="H27:I27" si="25">SUM(H23:H26)</f>
+        <v>-69990</v>
+      </c>
+      <c r="I27" s="327">
         <f t="shared" si="25"/>
-        <v>-209990</v>
-      </c>
-      <c r="F27" s="327">
-        <f t="shared" si="25"/>
-        <v>-99990</v>
-      </c>
-      <c r="G27" s="327">
-        <f t="shared" si="25"/>
-        <v>-119990</v>
-      </c>
-      <c r="H27" s="327">
-        <f t="shared" ref="H27:I27" si="26">SUM(H23:H26)</f>
-        <v>-69990</v>
-      </c>
-      <c r="I27" s="327">
+        <v>-78990</v>
+      </c>
+      <c r="J27" s="327">
+        <f t="shared" ref="J27:K27" si="26">SUM(J23:J26)</f>
+        <v>-106990</v>
+      </c>
+      <c r="K27" s="327">
         <f t="shared" si="26"/>
-        <v>-78990</v>
-      </c>
-      <c r="J27" s="327">
-        <f t="shared" ref="J27:K27" si="27">SUM(J23:J26)</f>
-        <v>-106990</v>
-      </c>
-      <c r="K27" s="327">
-        <f t="shared" si="27"/>
         <v>-106990</v>
       </c>
       <c r="L27" s="327"/>
@@ -39575,39 +39579,39 @@
       </c>
       <c r="C28" s="77">
         <f>C27+L11</f>
-        <v>2557394.8793749996</v>
+        <v>2557388.9999999995</v>
       </c>
       <c r="D28" s="94">
         <f>C28+D27</f>
-        <v>2377404.8793749996</v>
+        <v>2377398.9999999995</v>
       </c>
       <c r="E28" s="94">
-        <f t="shared" ref="E28:K28" si="28">D28+E27</f>
-        <v>2167414.8793749996</v>
+        <f t="shared" ref="E28:K28" si="27">D28+E27</f>
+        <v>2167408.9999999995</v>
       </c>
       <c r="F28" s="94">
-        <f t="shared" si="28"/>
-        <v>2067424.8793749996</v>
+        <f t="shared" si="27"/>
+        <v>2067418.9999999995</v>
       </c>
       <c r="G28" s="94">
-        <f t="shared" si="28"/>
-        <v>1947434.8793749996</v>
+        <f t="shared" si="27"/>
+        <v>1947428.9999999995</v>
       </c>
       <c r="H28" s="77">
-        <f t="shared" si="28"/>
-        <v>1877444.8793749996</v>
+        <f t="shared" si="27"/>
+        <v>1877438.9999999995</v>
       </c>
       <c r="I28" s="77">
-        <f t="shared" si="28"/>
-        <v>1798454.8793749996</v>
+        <f t="shared" si="27"/>
+        <v>1798448.9999999995</v>
       </c>
       <c r="J28" s="77">
-        <f t="shared" si="28"/>
-        <v>1691464.8793749996</v>
+        <f t="shared" si="27"/>
+        <v>1691458.9999999995</v>
       </c>
       <c r="K28" s="77">
-        <f t="shared" si="28"/>
-        <v>1584474.8793749996</v>
+        <f t="shared" si="27"/>
+        <v>1584468.9999999995</v>
       </c>
       <c r="L28" s="77"/>
     </row>
@@ -39656,39 +39660,39 @@
       </c>
       <c r="C30" s="44">
         <f>C28/C29/1000</f>
-        <v>25.573948793749995</v>
+        <v>25.573889999999995</v>
       </c>
       <c r="D30" s="44">
-        <f t="shared" ref="D30:G30" si="29">D28/D29/1000</f>
-        <v>23.774048793749998</v>
+        <f t="shared" ref="D30:G30" si="28">D28/D29/1000</f>
+        <v>23.773989999999994</v>
       </c>
       <c r="E30" s="44">
+        <f t="shared" si="28"/>
+        <v>21.674089999999996</v>
+      </c>
+      <c r="F30" s="44">
+        <f t="shared" si="28"/>
+        <v>20.674189999999996</v>
+      </c>
+      <c r="G30" s="44">
+        <f t="shared" si="28"/>
+        <v>19.474289999999993</v>
+      </c>
+      <c r="H30" s="10">
+        <f t="shared" ref="H30:I30" si="29">H28/H29/1000</f>
+        <v>18.774389999999997</v>
+      </c>
+      <c r="I30" s="20">
         <f t="shared" si="29"/>
-        <v>21.674148793749996</v>
-      </c>
-      <c r="F30" s="44">
-        <f t="shared" si="29"/>
-        <v>20.674248793749996</v>
-      </c>
-      <c r="G30" s="44">
-        <f t="shared" si="29"/>
-        <v>19.474348793749996</v>
-      </c>
-      <c r="H30" s="10">
-        <f t="shared" ref="H30:I30" si="30">H28/H29/1000</f>
-        <v>18.774448793749993</v>
-      </c>
-      <c r="I30" s="20">
+        <v>17.984489999999994</v>
+      </c>
+      <c r="J30" s="20">
+        <f t="shared" ref="J30:K30" si="30">J28/J29/1000</f>
+        <v>16.914589999999997</v>
+      </c>
+      <c r="K30" s="20">
         <f t="shared" si="30"/>
-        <v>17.984548793749997</v>
-      </c>
-      <c r="J30" s="20">
-        <f t="shared" ref="J30:K30" si="31">J28/J29/1000</f>
-        <v>16.914648793749993</v>
-      </c>
-      <c r="K30" s="20">
-        <f t="shared" si="31"/>
-        <v>15.844748793749995</v>
+        <v>15.844689999999995</v>
       </c>
       <c r="L30" s="10"/>
     </row>
@@ -39784,8 +39788,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:L50"/>
   <sheetViews>
-    <sheetView topLeftCell="A27" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E48" sqref="E48"/>
+    <sheetView topLeftCell="A13" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="L25" sqref="L25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -40041,44 +40045,44 @@
         <v>12</v>
       </c>
       <c r="C7" s="318">
-        <f>+C6*0.001425*0.45</f>
-        <v>366.41025000000002</v>
+        <f>ROUNDDOWN(+C6*0.001425*0.45,0)</f>
+        <v>366</v>
       </c>
       <c r="D7" s="318">
-        <f t="shared" ref="D7:K7" si="1">+D6*0.001425*0.45</f>
-        <v>183.14099999999996</v>
+        <f t="shared" ref="D7:L7" si="1">ROUNDDOWN(+D6*0.001425*0.45,0)</f>
+        <v>183</v>
       </c>
       <c r="E7" s="318">
         <f t="shared" si="1"/>
-        <v>366.15375000000006</v>
+        <v>366</v>
       </c>
       <c r="F7" s="318">
         <f t="shared" si="1"/>
-        <v>182.75624999999999</v>
+        <v>182</v>
       </c>
       <c r="G7" s="318">
         <f t="shared" si="1"/>
-        <v>182.49975000000001</v>
+        <v>182</v>
       </c>
       <c r="H7" s="318">
         <f t="shared" si="1"/>
-        <v>364.48650000000009</v>
+        <v>364</v>
       </c>
       <c r="I7" s="318">
         <f t="shared" si="1"/>
-        <v>367.30799999999999</v>
+        <v>367</v>
       </c>
       <c r="J7" s="318">
         <f t="shared" si="1"/>
-        <v>373.33575000000002</v>
+        <v>373</v>
       </c>
       <c r="K7" s="318">
         <f t="shared" si="1"/>
-        <v>373.20750000000004</v>
+        <v>373</v>
       </c>
       <c r="L7" s="318">
-        <f t="shared" ref="L7" si="2">+L6*0.001425*0.45</f>
-        <v>562.50450000000001</v>
+        <f t="shared" si="1"/>
+        <v>562</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -40126,43 +40130,43 @@
       </c>
       <c r="C10" s="319">
         <f>+C6+C7</f>
-        <v>571766.41024999996</v>
+        <v>571766</v>
       </c>
       <c r="D10" s="319">
-        <f t="shared" ref="D10:L10" si="3">+D6+D7</f>
-        <v>285783.14099999995</v>
+        <f t="shared" ref="D10:L10" si="2">+D6+D7</f>
+        <v>285782.99999999994</v>
       </c>
       <c r="E10" s="319">
-        <f t="shared" si="3"/>
-        <v>571366.15375000006</v>
+        <f t="shared" si="2"/>
+        <v>571366</v>
       </c>
       <c r="F10" s="319">
-        <f t="shared" si="3"/>
-        <v>285182.75624999998</v>
+        <f t="shared" si="2"/>
+        <v>285182</v>
       </c>
       <c r="G10" s="319">
-        <f t="shared" si="3"/>
-        <v>284782.49975000002</v>
+        <f t="shared" si="2"/>
+        <v>284782</v>
       </c>
       <c r="H10" s="319">
-        <f t="shared" si="3"/>
-        <v>568764.48650000012</v>
+        <f t="shared" si="2"/>
+        <v>568764.00000000012</v>
       </c>
       <c r="I10" s="319">
-        <f t="shared" si="3"/>
-        <v>573167.30799999996</v>
+        <f t="shared" si="2"/>
+        <v>573167</v>
       </c>
       <c r="J10" s="319">
-        <f t="shared" si="3"/>
-        <v>582573.33574999997</v>
+        <f t="shared" si="2"/>
+        <v>582573</v>
       </c>
       <c r="K10" s="319">
-        <f t="shared" si="3"/>
-        <v>582373.20750000002</v>
+        <f t="shared" si="2"/>
+        <v>582373</v>
       </c>
       <c r="L10" s="319">
-        <f t="shared" si="3"/>
-        <v>877762.50449999992</v>
+        <f t="shared" si="2"/>
+        <v>877761.99999999988</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -40174,43 +40178,43 @@
       </c>
       <c r="C11" s="86">
         <f>+C10</f>
-        <v>571766.41024999996</v>
+        <v>571766</v>
       </c>
       <c r="D11" s="86">
         <f>+C11+D10</f>
-        <v>857549.5512499999</v>
+        <v>857549</v>
       </c>
       <c r="E11" s="86">
-        <f t="shared" ref="E11:F11" si="4">+D11+E10</f>
-        <v>1428915.7050000001</v>
+        <f t="shared" ref="E11:F11" si="3">+D11+E10</f>
+        <v>1428915</v>
       </c>
       <c r="F11" s="86">
-        <f t="shared" si="4"/>
-        <v>1714098.4612500002</v>
+        <f t="shared" si="3"/>
+        <v>1714097</v>
       </c>
       <c r="G11" s="86">
-        <f t="shared" ref="G11" si="5">+F11+G10</f>
-        <v>1998880.9610000001</v>
+        <f t="shared" ref="G11" si="4">+F11+G10</f>
+        <v>1998879</v>
       </c>
       <c r="H11" s="86">
-        <f t="shared" ref="H11" si="6">+G11+H10</f>
-        <v>2567645.4475000002</v>
+        <f t="shared" ref="H11" si="5">+G11+H10</f>
+        <v>2567643</v>
       </c>
       <c r="I11" s="86">
-        <f t="shared" ref="I11" si="7">+H11+I10</f>
-        <v>3140812.7555</v>
+        <f t="shared" ref="I11" si="6">+H11+I10</f>
+        <v>3140810</v>
       </c>
       <c r="J11" s="86">
-        <f t="shared" ref="J11" si="8">+I11+J10</f>
-        <v>3723386.0912500001</v>
+        <f t="shared" ref="J11" si="7">+I11+J10</f>
+        <v>3723383</v>
       </c>
       <c r="K11" s="86">
-        <f t="shared" ref="K11" si="9">+J11+K10</f>
-        <v>4305759.2987500001</v>
+        <f t="shared" ref="K11" si="8">+J11+K10</f>
+        <v>4305756</v>
       </c>
       <c r="L11" s="86">
-        <f t="shared" ref="L11" si="10">+K11+L10</f>
-        <v>5183521.8032499999</v>
+        <f t="shared" ref="L11" si="9">+K11+L10</f>
+        <v>5183518</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -40229,35 +40233,35 @@
         <v>30</v>
       </c>
       <c r="E12" s="19">
-        <f t="shared" ref="E12:F12" si="11">+D12+E5</f>
+        <f t="shared" ref="E12:F12" si="10">+D12+E5</f>
         <v>50</v>
       </c>
       <c r="F12" s="19">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>60</v>
       </c>
       <c r="G12" s="19">
-        <f t="shared" ref="G12" si="12">+F12+G5</f>
+        <f t="shared" ref="G12" si="11">+F12+G5</f>
         <v>70</v>
       </c>
       <c r="H12" s="19">
-        <f t="shared" ref="H12" si="13">+G12+H5</f>
+        <f t="shared" ref="H12" si="12">+G12+H5</f>
         <v>90</v>
       </c>
       <c r="I12" s="19">
-        <f t="shared" ref="I12" si="14">+H12+I5</f>
+        <f t="shared" ref="I12" si="13">+H12+I5</f>
         <v>110</v>
       </c>
       <c r="J12" s="19">
-        <f t="shared" ref="J12" si="15">+I12+J5</f>
+        <f t="shared" ref="J12" si="14">+I12+J5</f>
         <v>130</v>
       </c>
       <c r="K12" s="19">
-        <f t="shared" ref="K12" si="16">+J12+K5</f>
+        <f t="shared" ref="K12" si="15">+J12+K5</f>
         <v>150</v>
       </c>
       <c r="L12" s="19">
-        <f t="shared" ref="L12" si="17">+K12+L5</f>
+        <f t="shared" ref="L12" si="16">+K12+L5</f>
         <v>180</v>
       </c>
     </row>
@@ -40270,43 +40274,43 @@
       </c>
       <c r="C13" s="20">
         <f>+C11/C12/1000</f>
-        <v>28.588320512499998</v>
+        <v>28.5883</v>
       </c>
       <c r="D13" s="20">
-        <f t="shared" ref="D13:F13" si="18">+D11/D12/1000</f>
-        <v>28.584985041666663</v>
+        <f t="shared" ref="D13:F13" si="17">+D11/D12/1000</f>
+        <v>28.584966666666666</v>
       </c>
       <c r="E13" s="20">
+        <f t="shared" si="17"/>
+        <v>28.578299999999999</v>
+      </c>
+      <c r="F13" s="20">
+        <f t="shared" si="17"/>
+        <v>28.568283333333333</v>
+      </c>
+      <c r="G13" s="20">
+        <f t="shared" ref="G13:H13" si="18">+G11/G12/1000</f>
+        <v>28.555414285714289</v>
+      </c>
+      <c r="H13" s="20">
         <f t="shared" si="18"/>
-        <v>28.578314100000004</v>
-      </c>
-      <c r="F13" s="20">
-        <f t="shared" si="18"/>
-        <v>28.568307687500003</v>
-      </c>
-      <c r="G13" s="20">
-        <f t="shared" ref="G13:H13" si="19">+G11/G12/1000</f>
-        <v>28.555442300000003</v>
-      </c>
-      <c r="H13" s="20">
+        <v>28.529366666666665</v>
+      </c>
+      <c r="I13" s="20">
+        <f t="shared" ref="I13:L13" si="19">+I11/I12/1000</f>
+        <v>28.552818181818179</v>
+      </c>
+      <c r="J13" s="20">
         <f t="shared" si="19"/>
-        <v>28.529393861111114</v>
-      </c>
-      <c r="I13" s="20">
-        <f t="shared" ref="I13:L13" si="20">+I11/I12/1000</f>
-        <v>28.55284323181818</v>
-      </c>
-      <c r="J13" s="20">
-        <f t="shared" si="20"/>
-        <v>28.641431471153847</v>
+        <v>28.641407692307695</v>
       </c>
       <c r="K13" s="20">
-        <f t="shared" si="20"/>
-        <v>28.705061991666664</v>
+        <f t="shared" si="19"/>
+        <v>28.70504</v>
       </c>
       <c r="L13" s="20">
-        <f t="shared" si="20"/>
-        <v>28.797343351388889</v>
+        <f t="shared" si="19"/>
+        <v>28.79732222222222</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -40578,39 +40582,39 @@
         <v>3520800</v>
       </c>
       <c r="D23" s="317">
-        <f t="shared" ref="D23:F23" si="21">+D21*D22*1000</f>
+        <f t="shared" ref="D23:F23" si="20">+D21*D22*1000</f>
         <v>893100</v>
       </c>
       <c r="E23" s="317">
+        <f t="shared" si="20"/>
+        <v>1489000</v>
+      </c>
+      <c r="F23" s="317">
+        <f t="shared" si="20"/>
+        <v>599800</v>
+      </c>
+      <c r="G23" s="317">
+        <f t="shared" ref="G23:H23" si="21">+G21*G22*1000</f>
+        <v>-124000</v>
+      </c>
+      <c r="H23" s="317">
         <f t="shared" si="21"/>
-        <v>1489000</v>
-      </c>
-      <c r="F23" s="317">
-        <f t="shared" si="21"/>
-        <v>599800</v>
-      </c>
-      <c r="G23" s="317">
-        <f t="shared" ref="G23:H23" si="22">+G21*G22*1000</f>
-        <v>-124000</v>
-      </c>
-      <c r="H23" s="317">
+        <v>1471000</v>
+      </c>
+      <c r="I23" s="317">
+        <f t="shared" ref="I23:J23" si="22">+I21*I22*1000</f>
+        <v>1469000</v>
+      </c>
+      <c r="J23" s="317">
         <f t="shared" si="22"/>
-        <v>1471000</v>
-      </c>
-      <c r="I23" s="317">
-        <f t="shared" ref="I23:J23" si="23">+I21*I22*1000</f>
-        <v>1469000</v>
-      </c>
-      <c r="J23" s="317">
+        <v>-167500</v>
+      </c>
+      <c r="K23" s="317">
+        <f t="shared" ref="K23:L23" si="23">+K21*K22*1000</f>
+        <v>-172500</v>
+      </c>
+      <c r="L23" s="317">
         <f t="shared" si="23"/>
-        <v>-167500</v>
-      </c>
-      <c r="K23" s="317">
-        <f t="shared" ref="K23:L23" si="24">+K21*K22*1000</f>
-        <v>-172500</v>
-      </c>
-      <c r="L23" s="317">
-        <f t="shared" si="24"/>
         <v>-170000</v>
       </c>
     </row>
@@ -40622,40 +40626,40 @@
         <v>12</v>
       </c>
       <c r="C24" s="318">
-        <f>+C23*0.001425*0.45</f>
-        <v>2257.7130000000002</v>
+        <f>ROUNDDOWN(+C23*0.001425*0.45,0)</f>
+        <v>2257</v>
       </c>
       <c r="D24" s="318">
-        <f t="shared" ref="D24:H24" si="25">+D23*0.001425*0.45</f>
-        <v>572.70037500000001</v>
+        <f t="shared" ref="D24:I24" si="24">ROUNDDOWN(+D23*0.001425*0.45,0)</f>
+        <v>572</v>
       </c>
       <c r="E24" s="318">
-        <f t="shared" si="25"/>
-        <v>954.82125000000019</v>
+        <f t="shared" si="24"/>
+        <v>954</v>
       </c>
       <c r="F24" s="318">
-        <f t="shared" si="25"/>
-        <v>384.62175000000002</v>
-      </c>
-      <c r="G24" s="14">
+        <f t="shared" si="24"/>
+        <v>384</v>
+      </c>
+      <c r="G24" s="318">
         <v>10</v>
       </c>
       <c r="H24" s="318">
-        <f t="shared" si="25"/>
-        <v>943.27875000000006</v>
+        <f t="shared" si="24"/>
+        <v>943</v>
       </c>
       <c r="I24" s="318">
-        <f t="shared" ref="I24" si="26">+I23*0.001425*0.45</f>
-        <v>941.99625000000015</v>
+        <f t="shared" si="24"/>
+        <v>941</v>
       </c>
       <c r="J24" s="14">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="K24" s="14">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="L24" s="14">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -40703,43 +40707,43 @@
       </c>
       <c r="C27" s="319">
         <f>+C23+C24</f>
-        <v>3523057.713</v>
+        <v>3523057</v>
       </c>
       <c r="D27" s="319">
-        <f t="shared" ref="D27:F27" si="27">+D23+D24</f>
-        <v>893672.70037500001</v>
+        <f t="shared" ref="D27:F27" si="25">+D23+D24</f>
+        <v>893672</v>
       </c>
       <c r="E27" s="319">
+        <f t="shared" si="25"/>
+        <v>1489954</v>
+      </c>
+      <c r="F27" s="319">
+        <f t="shared" si="25"/>
+        <v>600184</v>
+      </c>
+      <c r="G27" s="319">
+        <f t="shared" ref="G27:H27" si="26">+G23+G24</f>
+        <v>-123990</v>
+      </c>
+      <c r="H27" s="319">
+        <f t="shared" si="26"/>
+        <v>1471943</v>
+      </c>
+      <c r="I27" s="319">
+        <f t="shared" ref="I27:J27" si="27">+I23+I24</f>
+        <v>1469941</v>
+      </c>
+      <c r="J27" s="319">
         <f t="shared" si="27"/>
-        <v>1489954.82125</v>
-      </c>
-      <c r="F27" s="319">
-        <f t="shared" si="27"/>
-        <v>600184.62175000005</v>
-      </c>
-      <c r="G27" s="319">
-        <f t="shared" ref="G27:H27" si="28">+G23+G24</f>
-        <v>-123990</v>
-      </c>
-      <c r="H27" s="319">
+        <v>-167490</v>
+      </c>
+      <c r="K27" s="319">
+        <f t="shared" ref="K27:L27" si="28">+K23+K24</f>
+        <v>-172490</v>
+      </c>
+      <c r="L27" s="319">
         <f t="shared" si="28"/>
-        <v>1471943.2787500001</v>
-      </c>
-      <c r="I27" s="319">
-        <f t="shared" ref="I27:J27" si="29">+I23+I24</f>
-        <v>1469941.9962500001</v>
-      </c>
-      <c r="J27" s="319">
-        <f t="shared" si="29"/>
-        <v>-167500</v>
-      </c>
-      <c r="K27" s="319">
-        <f t="shared" ref="K27:L27" si="30">+K23+K24</f>
-        <v>-172500</v>
-      </c>
-      <c r="L27" s="319">
-        <f t="shared" si="30"/>
-        <v>-170000</v>
+        <v>-169990</v>
       </c>
     </row>
     <row r="28" spans="1:12">
@@ -40751,43 +40755,43 @@
       </c>
       <c r="C28" s="86">
         <f>+C27+L11</f>
-        <v>8706579.5162499994</v>
+        <v>8706575</v>
       </c>
       <c r="D28" s="86">
         <f>D27+C28</f>
-        <v>9600252.2166249994</v>
+        <v>9600247</v>
       </c>
       <c r="E28" s="86">
-        <f t="shared" ref="E28:L28" si="31">E27+D28</f>
-        <v>11090207.037875</v>
+        <f t="shared" ref="E28:L28" si="29">E27+D28</f>
+        <v>11090201</v>
       </c>
       <c r="F28" s="86">
-        <f t="shared" si="31"/>
-        <v>11690391.659625001</v>
+        <f t="shared" si="29"/>
+        <v>11690385</v>
       </c>
       <c r="G28" s="288">
-        <f t="shared" si="31"/>
-        <v>11566401.659625001</v>
+        <f t="shared" si="29"/>
+        <v>11566395</v>
       </c>
       <c r="H28" s="289">
-        <f t="shared" si="31"/>
-        <v>13038344.938375002</v>
+        <f t="shared" si="29"/>
+        <v>13038338</v>
       </c>
       <c r="I28" s="289">
-        <f t="shared" si="31"/>
-        <v>14508286.934625002</v>
+        <f t="shared" si="29"/>
+        <v>14508279</v>
       </c>
       <c r="J28" s="289">
-        <f t="shared" si="31"/>
-        <v>14340786.934625002</v>
+        <f t="shared" si="29"/>
+        <v>14340789</v>
       </c>
       <c r="K28" s="289">
-        <f t="shared" si="31"/>
-        <v>14168286.934625002</v>
+        <f t="shared" si="29"/>
+        <v>14168299</v>
       </c>
       <c r="L28" s="289">
-        <f t="shared" si="31"/>
-        <v>13998286.934625002</v>
+        <f t="shared" si="29"/>
+        <v>13998309</v>
       </c>
     </row>
     <row r="29" spans="1:12">
@@ -40842,44 +40846,44 @@
         <v>24</v>
       </c>
       <c r="C30" s="20">
-        <f t="shared" ref="C30:F30" si="32">+C28/C29/1000</f>
-        <v>29.021931720833329</v>
+        <f t="shared" ref="C30:F30" si="30">+C28/C29/1000</f>
+        <v>29.021916666666669</v>
       </c>
       <c r="D30" s="20">
+        <f t="shared" si="30"/>
+        <v>29.091657575757576</v>
+      </c>
+      <c r="E30" s="20">
+        <f t="shared" si="30"/>
+        <v>29.184739473684211</v>
+      </c>
+      <c r="F30" s="20">
+        <f t="shared" si="30"/>
+        <v>29.225962500000001</v>
+      </c>
+      <c r="G30" s="44">
+        <f t="shared" ref="G30:H30" si="31">+G28/G29/1000</f>
+        <v>28.9159875</v>
+      </c>
+      <c r="H30" s="10">
+        <f t="shared" si="31"/>
+        <v>28.974084444444443</v>
+      </c>
+      <c r="I30" s="20">
+        <f t="shared" ref="I30:J30" si="32">+I28/I29/1000</f>
+        <v>29.016558</v>
+      </c>
+      <c r="J30" s="10">
         <f t="shared" si="32"/>
-        <v>29.09167338371212</v>
-      </c>
-      <c r="E30" s="20">
-        <f t="shared" si="32"/>
-        <v>29.184755362828948</v>
-      </c>
-      <c r="F30" s="20">
-        <f t="shared" si="32"/>
-        <v>29.225979149062503</v>
-      </c>
-      <c r="G30" s="44">
-        <f t="shared" ref="G30:H30" si="33">+G28/G29/1000</f>
-        <v>28.916004149062505</v>
-      </c>
-      <c r="H30" s="10">
+        <v>28.681578000000002</v>
+      </c>
+      <c r="K30" s="10">
+        <f t="shared" ref="K30:L30" si="33">+K28/K29/1000</f>
+        <v>28.336598000000002</v>
+      </c>
+      <c r="L30" s="20">
         <f t="shared" si="33"/>
-        <v>28.97409986305556</v>
-      </c>
-      <c r="I30" s="20">
-        <f t="shared" ref="I30:J30" si="34">+I28/I29/1000</f>
-        <v>29.016573869250003</v>
-      </c>
-      <c r="J30" s="10">
-        <f t="shared" si="34"/>
-        <v>28.681573869250002</v>
-      </c>
-      <c r="K30" s="10">
-        <f t="shared" ref="K30:L30" si="35">+K28/K29/1000</f>
-        <v>28.336573869250003</v>
-      </c>
-      <c r="L30" s="20">
-        <f t="shared" si="35"/>
-        <v>27.996573869250003</v>
+        <v>27.996617999999998</v>
       </c>
     </row>
     <row r="31" spans="1:12">
@@ -41070,7 +41074,7 @@
         <v>10</v>
       </c>
       <c r="C40" s="317">
-        <f t="shared" ref="C40" si="36">+C38*C39*1000</f>
+        <f t="shared" ref="C40" si="34">+C38*C39*1000</f>
         <v>-170000</v>
       </c>
       <c r="D40" s="317"/>
@@ -41147,7 +41151,7 @@
         <v>18</v>
       </c>
       <c r="C44" s="319">
-        <f t="shared" ref="C44" si="37">+C40+C41</f>
+        <f t="shared" ref="C44" si="35">+C40+C41</f>
         <v>-170000</v>
       </c>
       <c r="D44" s="319"/>
@@ -41168,7 +41172,7 @@
         <v>20</v>
       </c>
       <c r="C45" s="289" t="e">
-        <f t="shared" ref="C45" si="38">C44+B45</f>
+        <f t="shared" ref="C45" si="36">C44+B45</f>
         <v>#VALUE!</v>
       </c>
       <c r="D45" s="86"/>
@@ -41209,7 +41213,7 @@
         <v>24</v>
       </c>
       <c r="C47" s="20" t="e">
-        <f t="shared" ref="C47" si="39">+C45/C46/1000</f>
+        <f t="shared" ref="C47" si="37">+C45/C46/1000</f>
         <v>#VALUE!</v>
       </c>
       <c r="D47" s="20"/>

--- a/公司股票成本表+總表113.12.12改.xlsx
+++ b/公司股票成本表+總表113.12.12改.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28227"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{275961ED-CDE1-40BC-AD1C-C9B00ED0C25A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{764FD3E5-995F-47E1-9237-D17562023A01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="741" firstSheet="5" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="741" firstSheet="2" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="總表20240312" sheetId="46" r:id="rId1"/>
@@ -19,8 +19,8 @@
     <sheet name="台塑化(OK)" sheetId="56" r:id="rId9"/>
     <sheet name="達欣工(OK)" sheetId="17" r:id="rId10"/>
     <sheet name="台企銀" sheetId="4" r:id="rId11"/>
-    <sheet name="玉山金" sheetId="44" r:id="rId12"/>
-    <sheet name="台新金" sheetId="15" r:id="rId13"/>
+    <sheet name="玉山金(OK)" sheetId="44" r:id="rId12"/>
+    <sheet name="台新金(OK)" sheetId="15" r:id="rId13"/>
     <sheet name="國眾" sheetId="41" r:id="rId14"/>
     <sheet name="致和證" sheetId="45" r:id="rId15"/>
     <sheet name="5706鳳凰(結案)" sheetId="35" r:id="rId16"/>
@@ -7743,7 +7743,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:L67"/>
   <sheetViews>
-    <sheetView topLeftCell="B34" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="B10" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="H62" sqref="H62"/>
     </sheetView>
   </sheetViews>
@@ -12716,8 +12716,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1:L33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24:E24"/>
+    <sheetView topLeftCell="A7" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -13761,8 +13761,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="A1:L67"/>
   <sheetViews>
-    <sheetView topLeftCell="A39" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H47" sqref="H47"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="N10" sqref="N10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -13906,7 +13906,7 @@
         <v>-0.50838554999999996</v>
       </c>
       <c r="G4" s="66">
-        <v>-0.56549000000000005</v>
+        <v>-0.56551766000000003</v>
       </c>
       <c r="H4" s="6">
         <v>13.05</v>
@@ -13986,7 +13986,7 @@
       </c>
       <c r="G6" s="80">
         <f>G5*G4*1000</f>
-        <v>-230899.74582000001</v>
+        <v>-230911.03989588001</v>
       </c>
       <c r="H6" s="80">
         <f t="shared" ref="H6:K6" si="1">+H4*H5*1000</f>
@@ -14016,32 +14016,42 @@
         <v>12</v>
       </c>
       <c r="C7" s="33">
-        <f>+C6*0.001425*0.45</f>
-        <v>1795.5</v>
+        <f>ROUNDDOWN(ABS(C6)*0.001425*0.45,0)</f>
+        <v>1795</v>
       </c>
       <c r="D7" s="33">
-        <f t="shared" ref="D7:E7" si="2">+D6*0.001425*0.45</f>
-        <v>897.75</v>
+        <f t="shared" ref="D7:K7" si="2">ROUNDDOWN(ABS(D6)*0.001425*0.45,0)</f>
+        <v>897</v>
       </c>
       <c r="E7" s="33">
         <f t="shared" si="2"/>
-        <v>894.54375000000005</v>
-      </c>
-      <c r="F7" s="31"/>
-      <c r="G7" s="31"/>
-      <c r="H7" s="31">
+        <v>894</v>
+      </c>
+      <c r="F7" s="33">
+        <v>10</v>
+      </c>
+      <c r="G7" s="33">
+        <v>10</v>
+      </c>
+      <c r="H7" s="33">
+        <f t="shared" si="2"/>
         <v>251</v>
       </c>
-      <c r="I7" s="31">
+      <c r="I7" s="33">
+        <f t="shared" si="2"/>
         <v>252</v>
       </c>
-      <c r="J7" s="31">
-        <v>253</v>
-      </c>
-      <c r="K7" s="31">
-        <v>229</v>
-      </c>
-      <c r="L7" s="31"/>
+      <c r="J7" s="33">
+        <f t="shared" si="2"/>
+        <v>252</v>
+      </c>
+      <c r="K7" s="33">
+        <f t="shared" si="2"/>
+        <v>228</v>
+      </c>
+      <c r="L7" s="31">
+        <v>10</v>
+      </c>
     </row>
     <row r="8" spans="1:12">
       <c r="A8" s="32" t="s">
@@ -14055,16 +14065,16 @@
       <c r="E8" s="31"/>
       <c r="F8" s="31"/>
       <c r="G8" s="31"/>
-      <c r="H8" s="31">
+      <c r="H8" s="40">
         <v>1175</v>
       </c>
-      <c r="I8" s="31">
+      <c r="I8" s="40">
         <v>1179</v>
       </c>
-      <c r="J8" s="31">
+      <c r="J8" s="40">
         <v>1184</v>
       </c>
-      <c r="K8" s="31">
+      <c r="K8" s="40">
         <v>1069</v>
       </c>
       <c r="L8" s="31"/>
@@ -14096,23 +14106,23 @@
       </c>
       <c r="C10" s="83">
         <f>+C6+C7</f>
-        <v>2801795.5</v>
+        <v>2801795</v>
       </c>
       <c r="D10" s="83">
         <f t="shared" ref="D10" si="3">+D6+D7</f>
-        <v>1400897.75</v>
+        <v>1400897</v>
       </c>
       <c r="E10" s="83">
         <f>+E6+E7</f>
-        <v>1395894.54375</v>
+        <v>1395894</v>
       </c>
       <c r="F10" s="83">
         <f>SUM(F6:F9)</f>
-        <v>-203340</v>
+        <v>-203330</v>
       </c>
       <c r="G10" s="83">
         <f>SUM(G6:G9)</f>
-        <v>-230899.74582000001</v>
+        <v>-230901.03989588001</v>
       </c>
       <c r="H10" s="83">
         <f>+H6+H7+H8</f>
@@ -14124,11 +14134,11 @@
       </c>
       <c r="J10" s="83">
         <f>+J6+J7+J8</f>
-        <v>-393063</v>
+        <v>-393064</v>
       </c>
       <c r="K10" s="83">
         <f>+K6+K7+K8</f>
-        <v>-355102</v>
+        <v>-355103</v>
       </c>
       <c r="L10" s="83">
         <v>-166988</v>
@@ -14143,43 +14153,43 @@
       </c>
       <c r="C11" s="77">
         <f>+C10</f>
-        <v>2801795.5</v>
+        <v>2801795</v>
       </c>
       <c r="D11" s="77">
         <f>+C11+D10</f>
-        <v>4202693.25</v>
+        <v>4202692</v>
       </c>
       <c r="E11" s="77">
         <f>+D11+E10</f>
-        <v>5598587.7937500002</v>
+        <v>5598586</v>
       </c>
       <c r="F11" s="77">
         <f>+E11+F10</f>
-        <v>5395247.7937500002</v>
+        <v>5395256</v>
       </c>
       <c r="G11" s="77">
         <f>F11+G10</f>
-        <v>5164348.0479300003</v>
+        <v>5164354.96010412</v>
       </c>
       <c r="H11" s="77">
         <f>+G11+H10</f>
-        <v>4774274.0479300003</v>
+        <v>4774280.96010412</v>
       </c>
       <c r="I11" s="77">
         <f>+H11+I10</f>
-        <v>4382705.0479300003</v>
+        <v>4382711.96010412</v>
       </c>
       <c r="J11" s="77">
         <f>+I11+J10-1</f>
-        <v>3989641.0479300003</v>
+        <v>3989646.96010412</v>
       </c>
       <c r="K11" s="77">
         <f>+J11+K10</f>
-        <v>3634539.0479300003</v>
+        <v>3634543.96010412</v>
       </c>
       <c r="L11" s="77">
         <f>+K11+L10</f>
-        <v>3467551.0479300003</v>
+        <v>3467555.96010412</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -14238,43 +14248,43 @@
       </c>
       <c r="C13" s="20">
         <f>+C11/C12/1000</f>
-        <v>14.0089775</v>
+        <v>14.008975</v>
       </c>
       <c r="D13" s="20">
         <f t="shared" ref="D13:H13" si="4">+D11/D12/1000</f>
-        <v>14.0089775</v>
+        <v>14.008973333333333</v>
       </c>
       <c r="E13" s="20">
         <f t="shared" si="4"/>
-        <v>13.996469484375</v>
+        <v>13.996465000000001</v>
       </c>
       <c r="F13" s="44">
         <f t="shared" si="4"/>
-        <v>13.213334970331976</v>
+        <v>13.213355068005752</v>
       </c>
       <c r="G13" s="45">
         <f>G11/G12/1000</f>
-        <v>12.361879431903407</v>
+        <v>12.361895977547173</v>
       </c>
       <c r="H13" s="20">
         <f t="shared" si="4"/>
-        <v>12.312319344715036</v>
+        <v>12.3123371704398</v>
       </c>
       <c r="I13" s="20">
         <f t="shared" ref="I13:K13" si="5">+I11/I12/1000</f>
-        <v>12.250268885706323</v>
+        <v>12.250288206192328</v>
       </c>
       <c r="J13" s="20">
         <f t="shared" si="5"/>
-        <v>12.172298350865416</v>
+        <v>12.172316388765674</v>
       </c>
       <c r="K13" s="20">
         <f t="shared" si="5"/>
-        <v>12.08435582582494</v>
+        <v>12.084372158146358</v>
       </c>
       <c r="L13" s="45">
         <f t="shared" ref="L13" si="6">+L11/L12/1000</f>
-        <v>11.028194385737823</v>
+        <v>11.028210008409356</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -14716,39 +14726,39 @@
       </c>
       <c r="C28" s="86">
         <f>L11+C27</f>
-        <v>4413157.0291800005</v>
+        <v>4413161.9413541202</v>
       </c>
       <c r="D28" s="87">
         <f>D27+C28</f>
-        <v>5356261.4073050003</v>
+        <v>5356266.31947912</v>
       </c>
       <c r="E28" s="87">
         <f t="shared" ref="E28:K28" si="10">E27+D28</f>
-        <v>6487986.6610550005</v>
+        <v>6487991.5732291201</v>
       </c>
       <c r="F28" s="87">
         <f t="shared" si="10"/>
-        <v>7804830.5460550003</v>
+        <v>7804835.4582291199</v>
       </c>
       <c r="G28" s="87">
         <f t="shared" si="10"/>
-        <v>8930551.9523050003</v>
+        <v>8930556.8644791208</v>
       </c>
       <c r="H28" s="87">
         <f t="shared" si="10"/>
-        <v>9488909.7698050011</v>
+        <v>9488914.6819791216</v>
       </c>
       <c r="I28" s="87">
         <f t="shared" si="10"/>
-        <v>10047267.587305002</v>
+        <v>10047272.499479122</v>
       </c>
       <c r="J28" s="87">
         <f t="shared" si="10"/>
-        <v>10602623.481055003</v>
+        <v>10602628.393229123</v>
       </c>
       <c r="K28" s="86">
         <f t="shared" si="10"/>
-        <v>10182511.481055003</v>
+        <v>10182516.393229123</v>
       </c>
       <c r="L28" s="77"/>
     </row>
@@ -14806,39 +14816,39 @@
       </c>
       <c r="C30" s="35">
         <f>+C28/C29/1000</f>
-        <v>12.109885214501713</v>
+        <v>12.109898693710438</v>
       </c>
       <c r="D30" s="35">
         <f t="shared" ref="D30:K30" si="12">+D28/D29/1000</f>
-        <v>12.924530331844528</v>
+        <v>12.924542184802883</v>
       </c>
       <c r="E30" s="35">
         <f t="shared" si="12"/>
-        <v>13.675444982051996</v>
+        <v>13.675455335983104</v>
       </c>
       <c r="F30" s="35">
         <f t="shared" si="12"/>
-        <v>14.33588870857564</v>
+        <v>14.335897731241934</v>
       </c>
       <c r="G30" s="35">
         <f t="shared" si="12"/>
-        <v>14.775261077956609</v>
+        <v>14.775269204963257</v>
       </c>
       <c r="H30" s="35">
         <f t="shared" si="12"/>
-        <v>14.956684892808621</v>
+        <v>14.956692635514814</v>
       </c>
       <c r="I30" s="35">
         <f t="shared" si="12"/>
-        <v>15.12172550036423</v>
+        <v>15.12173289347365</v>
       </c>
       <c r="J30" s="35">
         <f t="shared" si="12"/>
-        <v>15.268183335668601</v>
+        <v>15.268190409387213</v>
       </c>
       <c r="K30" s="68">
         <f t="shared" si="12"/>
-        <v>13.971611231510463</v>
+        <v>13.971617971594897</v>
       </c>
       <c r="L30" s="10"/>
     </row>
@@ -15220,27 +15230,27 @@
       </c>
       <c r="C45" s="86">
         <f>C44+K28</f>
-        <v>10345616.004805002</v>
+        <v>10345620.916979123</v>
       </c>
       <c r="D45" s="86">
         <f>+C45+D44</f>
-        <v>10670824.411055002</v>
+        <v>10670829.323229123</v>
       </c>
       <c r="E45" s="86">
         <f>+D45+E44</f>
-        <v>11157136.058555003</v>
+        <v>11157140.970729124</v>
       </c>
       <c r="F45" s="86">
         <f>+E45+F44</f>
-        <v>12126757.429805003</v>
+        <v>12126762.341979124</v>
       </c>
       <c r="G45" s="86">
         <f>F45+G44</f>
-        <v>11693869.385435004</v>
+        <v>11693874.297609124</v>
       </c>
       <c r="H45" s="86">
         <f>G45+H44</f>
-        <v>11163209.571042605</v>
+        <v>11163214.483216725</v>
       </c>
       <c r="I45" s="86"/>
       <c r="J45" s="86"/>
@@ -15291,27 +15301,27 @@
       </c>
       <c r="C47" s="20">
         <f>+C45/C46/1000</f>
-        <v>14.003268525339253</v>
+        <v>14.003275174193535</v>
       </c>
       <c r="D47" s="20">
         <f t="shared" ref="D47:F47" si="17">+D45/D46/1000</f>
-        <v>14.062761185549261</v>
+        <v>14.062767659157007</v>
       </c>
       <c r="E47" s="20">
         <f t="shared" si="17"/>
-        <v>14.144440704853782</v>
+        <v>14.144446932254363</v>
       </c>
       <c r="F47" s="44">
         <f t="shared" si="17"/>
-        <v>14.286941784685519</v>
+        <v>14.286947571883466</v>
       </c>
       <c r="G47" s="45">
         <f>G45/G46/1000</f>
-        <v>13.221633190677084</v>
+        <v>13.221638744609852</v>
       </c>
       <c r="H47" s="44">
         <f>H45/H46/1000</f>
-        <v>12.136218775118994</v>
+        <v>12.136224115448709</v>
       </c>
       <c r="I47" s="44"/>
       <c r="J47" s="44"/>
@@ -15836,8 +15846,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <dimension ref="A1:L102"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F59" sqref="F59"/>
+    <sheetView tabSelected="1" topLeftCell="A46" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C58" sqref="C58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -16091,44 +16101,44 @@
         <v>12</v>
       </c>
       <c r="C7" s="33">
-        <f>+C6*0.001425*0.45</f>
-        <v>41.456812500000005</v>
+        <f>ROUNDDOWN(+C6*0.001425*0.45,0)</f>
+        <v>41</v>
       </c>
       <c r="D7" s="33">
-        <f t="shared" ref="D7:L7" si="1">+D6*0.001425*0.45</f>
-        <v>68.613749999999996</v>
+        <f t="shared" ref="D7:L7" si="1">ROUNDDOWN(+D6*0.001425*0.45,0)</f>
+        <v>68</v>
       </c>
       <c r="E7" s="33">
         <f t="shared" si="1"/>
-        <v>97.630312500000002</v>
+        <v>97</v>
       </c>
       <c r="F7" s="33">
         <f t="shared" si="1"/>
-        <v>281.50875000000002</v>
+        <v>281</v>
       </c>
       <c r="G7" s="33">
         <f t="shared" si="1"/>
-        <v>71.339062499999997</v>
+        <v>71</v>
       </c>
       <c r="H7" s="33">
         <f t="shared" si="1"/>
-        <v>71.178750000000008</v>
+        <v>71</v>
       </c>
       <c r="I7" s="33">
         <f t="shared" si="1"/>
-        <v>71.178750000000008</v>
+        <v>71</v>
       </c>
       <c r="J7" s="33">
         <f t="shared" si="1"/>
-        <v>142.03687500000001</v>
+        <v>142</v>
       </c>
       <c r="K7" s="33">
         <f t="shared" si="1"/>
-        <v>141.71625</v>
+        <v>141</v>
       </c>
       <c r="L7" s="33">
         <f t="shared" si="1"/>
-        <v>142.03687500000001</v>
+        <v>142</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -16176,43 +16186,43 @@
       </c>
       <c r="C10" s="83">
         <f>SUM(C6:C9)</f>
-        <v>64691.456812500008</v>
+        <v>64691.000000000007</v>
       </c>
       <c r="D10" s="83">
         <f t="shared" ref="D10:L10" si="2">SUM(D6:D9)</f>
-        <v>107068.61375</v>
+        <v>107068</v>
       </c>
       <c r="E10" s="83">
         <f t="shared" si="2"/>
-        <v>152347.6303125</v>
+        <v>152347</v>
       </c>
       <c r="F10" s="83">
         <f t="shared" si="2"/>
-        <v>439281.50874999998</v>
+        <v>439281</v>
       </c>
       <c r="G10" s="83">
         <f t="shared" si="2"/>
-        <v>111321.3390625</v>
+        <v>111321</v>
       </c>
       <c r="H10" s="83">
         <f t="shared" si="2"/>
-        <v>111071.17875000001</v>
+        <v>111071</v>
       </c>
       <c r="I10" s="83">
         <f t="shared" si="2"/>
-        <v>111071.17875000001</v>
+        <v>111071</v>
       </c>
       <c r="J10" s="83">
         <f t="shared" si="2"/>
-        <v>221642.03687499999</v>
+        <v>221642</v>
       </c>
       <c r="K10" s="83">
         <f t="shared" si="2"/>
-        <v>221141.71625</v>
+        <v>221141</v>
       </c>
       <c r="L10" s="83">
         <f t="shared" si="2"/>
-        <v>221642.03687499999</v>
+        <v>221642</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -16224,43 +16234,43 @@
       </c>
       <c r="C11" s="77">
         <f>C10</f>
-        <v>64691.456812500008</v>
+        <v>64691.000000000007</v>
       </c>
       <c r="D11" s="77">
         <f>C11+D10</f>
-        <v>171760.07056250001</v>
+        <v>171759</v>
       </c>
       <c r="E11" s="77">
         <f t="shared" ref="E11:L11" si="3">D11+E10</f>
-        <v>324107.70087499998</v>
+        <v>324106</v>
       </c>
       <c r="F11" s="77">
         <f t="shared" si="3"/>
-        <v>763389.2096249999</v>
+        <v>763387</v>
       </c>
       <c r="G11" s="77">
         <f t="shared" si="3"/>
-        <v>874710.54868749995</v>
+        <v>874708</v>
       </c>
       <c r="H11" s="77">
         <f t="shared" si="3"/>
-        <v>985781.72743749991</v>
+        <v>985779</v>
       </c>
       <c r="I11" s="77">
         <f t="shared" si="3"/>
-        <v>1096852.9061874999</v>
+        <v>1096850</v>
       </c>
       <c r="J11" s="77">
         <f t="shared" si="3"/>
-        <v>1318494.9430624999</v>
+        <v>1318492</v>
       </c>
       <c r="K11" s="77">
         <f t="shared" si="3"/>
-        <v>1539636.6593124999</v>
+        <v>1539633</v>
       </c>
       <c r="L11" s="77">
         <f t="shared" si="3"/>
-        <v>1761278.6961874999</v>
+        <v>1761275</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -16319,43 +16329,43 @@
       </c>
       <c r="C13" s="20">
         <f>+C11/C12/1000</f>
-        <v>21.563818937500002</v>
+        <v>21.563666666666666</v>
       </c>
       <c r="D13" s="20">
         <f t="shared" ref="D13:L13" si="5">+D11/D12/1000</f>
-        <v>21.470008820312501</v>
+        <v>21.469874999999998</v>
       </c>
       <c r="E13" s="20">
         <f t="shared" si="5"/>
-        <v>21.607180058333331</v>
+        <v>21.607066666666665</v>
       </c>
       <c r="F13" s="20">
         <f t="shared" si="5"/>
-        <v>21.811120274999997</v>
+        <v>21.811057142857141</v>
       </c>
       <c r="G13" s="20">
         <f t="shared" si="5"/>
-        <v>21.867763717187501</v>
+        <v>21.867699999999999</v>
       </c>
       <c r="H13" s="20">
         <f t="shared" si="5"/>
-        <v>21.906260609722221</v>
+        <v>21.906200000000002</v>
       </c>
       <c r="I13" s="20">
         <f t="shared" si="5"/>
-        <v>21.937058123749999</v>
+        <v>21.937000000000001</v>
       </c>
       <c r="J13" s="20">
         <f t="shared" si="5"/>
-        <v>21.974915717708331</v>
+        <v>21.974866666666664</v>
       </c>
       <c r="K13" s="20">
         <f t="shared" si="5"/>
-        <v>21.994809418749998</v>
+        <v>21.994757142857143</v>
       </c>
       <c r="L13" s="20">
         <f t="shared" si="5"/>
-        <v>22.01598370234375</v>
+        <v>22.0159375</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -16670,42 +16680,44 @@
         <v>12</v>
       </c>
       <c r="C24" s="33">
-        <f>+C23*0.001425*0.45</f>
-        <v>141.71625</v>
+        <f>ROUNDDOWN(+C23*0.001425*0.45,0)</f>
+        <v>141</v>
       </c>
       <c r="D24" s="33">
-        <f t="shared" ref="D24:K24" si="7">+D23*0.001425*0.45</f>
-        <v>141.39562500000002</v>
+        <f t="shared" ref="D24:K24" si="7">ROUNDDOWN(+D23*0.001425*0.45,0)</f>
+        <v>141</v>
       </c>
       <c r="E24" s="33">
         <f t="shared" si="7"/>
-        <v>141.39562500000002</v>
+        <v>141</v>
       </c>
       <c r="F24" s="33">
         <f t="shared" si="7"/>
-        <v>141.07500000000002</v>
+        <v>141</v>
       </c>
       <c r="G24" s="33">
         <f t="shared" si="7"/>
-        <v>140.75437500000001</v>
+        <v>140</v>
       </c>
       <c r="H24" s="33">
         <f t="shared" si="7"/>
-        <v>140.75437500000001</v>
+        <v>140</v>
       </c>
       <c r="I24" s="33">
         <f t="shared" si="7"/>
-        <v>140.43375</v>
+        <v>140</v>
       </c>
       <c r="J24" s="33">
         <f t="shared" si="7"/>
-        <v>140.43375</v>
+        <v>140</v>
       </c>
       <c r="K24" s="33">
         <f t="shared" si="7"/>
-        <v>28.150875000000003</v>
-      </c>
-      <c r="L24" s="31"/>
+        <v>28</v>
+      </c>
+      <c r="L24" s="31">
+        <v>10</v>
+      </c>
     </row>
     <row r="25" spans="1:12">
       <c r="A25" s="32" t="s">
@@ -16752,43 +16764,43 @@
       </c>
       <c r="C27" s="83">
         <f>SUM(C23:C26)</f>
-        <v>221141.71625</v>
+        <v>221141</v>
       </c>
       <c r="D27" s="83">
         <f t="shared" ref="D27:L27" si="8">SUM(D23:D26)</f>
-        <v>220641.395625</v>
+        <v>220641</v>
       </c>
       <c r="E27" s="83">
         <f t="shared" si="8"/>
-        <v>220641.395625</v>
+        <v>220641</v>
       </c>
       <c r="F27" s="83">
         <f t="shared" si="8"/>
-        <v>220141.07500000001</v>
+        <v>220141</v>
       </c>
       <c r="G27" s="83">
         <f t="shared" si="8"/>
-        <v>219640.75437499999</v>
+        <v>219640</v>
       </c>
       <c r="H27" s="83">
         <f t="shared" si="8"/>
-        <v>219640.75437499999</v>
+        <v>219640</v>
       </c>
       <c r="I27" s="83">
         <f t="shared" si="8"/>
-        <v>219140.43375</v>
+        <v>219140</v>
       </c>
       <c r="J27" s="83">
         <f t="shared" si="8"/>
-        <v>219140.43375</v>
+        <v>219140</v>
       </c>
       <c r="K27" s="83">
         <f t="shared" si="8"/>
-        <v>43928.150874999999</v>
+        <v>43928</v>
       </c>
       <c r="L27" s="83">
         <f t="shared" si="8"/>
-        <v>-298967.24159999995</v>
+        <v>-298957.24159999995</v>
       </c>
     </row>
     <row r="28" spans="1:12">
@@ -16800,43 +16812,43 @@
       </c>
       <c r="C28" s="77">
         <f>C27+L11</f>
-        <v>1982420.4124375</v>
+        <v>1982416</v>
       </c>
       <c r="D28" s="77">
         <f>D27+C28</f>
-        <v>2203061.8080624999</v>
+        <v>2203057</v>
       </c>
       <c r="E28" s="77">
         <f t="shared" ref="E28:L28" si="9">E27+D28</f>
-        <v>2423703.2036874997</v>
+        <v>2423698</v>
       </c>
       <c r="F28" s="77">
         <f t="shared" si="9"/>
-        <v>2643844.2786874999</v>
+        <v>2643839</v>
       </c>
       <c r="G28" s="77">
         <f t="shared" si="9"/>
-        <v>2863485.0330624999</v>
+        <v>2863479</v>
       </c>
       <c r="H28" s="77">
         <f t="shared" si="9"/>
-        <v>3083125.7874375</v>
+        <v>3083119</v>
       </c>
       <c r="I28" s="77">
         <f t="shared" si="9"/>
-        <v>3302266.2211874998</v>
+        <v>3302259</v>
       </c>
       <c r="J28" s="77">
         <f t="shared" si="9"/>
-        <v>3521406.6549374997</v>
+        <v>3521399</v>
       </c>
       <c r="K28" s="77">
         <f t="shared" si="9"/>
-        <v>3565334.8058124995</v>
+        <v>3565327</v>
       </c>
       <c r="L28" s="77">
         <f t="shared" si="9"/>
-        <v>3266367.5642124997</v>
+        <v>3266369.7584000002</v>
       </c>
     </row>
     <row r="29" spans="1:12">
@@ -16896,43 +16908,43 @@
       </c>
       <c r="C30" s="35">
         <f>+C28/C29/1000</f>
-        <v>22.026893471527778</v>
+        <v>22.026844444444443</v>
       </c>
       <c r="D30" s="35">
         <f t="shared" ref="D30:L30" si="11">+D28/D29/1000</f>
-        <v>22.030618080624997</v>
+        <v>22.030570000000001</v>
       </c>
       <c r="E30" s="35">
         <f t="shared" si="11"/>
-        <v>22.033665488068177</v>
+        <v>22.033618181818184</v>
       </c>
       <c r="F30" s="35">
         <f t="shared" si="11"/>
-        <v>22.032035655729167</v>
+        <v>22.031991666666666</v>
       </c>
       <c r="G30" s="35">
         <f t="shared" si="11"/>
-        <v>22.026807946634612</v>
+        <v>22.026761538461539</v>
       </c>
       <c r="H30" s="35">
         <f t="shared" si="11"/>
-        <v>22.022327053124997</v>
+        <v>22.022278571428572</v>
       </c>
       <c r="I30" s="35">
         <f t="shared" si="11"/>
-        <v>22.01510814125</v>
+        <v>22.015060000000002</v>
       </c>
       <c r="J30" s="35">
         <f t="shared" si="11"/>
-        <v>22.008791593359373</v>
+        <v>22.008743750000001</v>
       </c>
       <c r="K30" s="35">
         <f t="shared" si="11"/>
-        <v>22.008239542052465</v>
+        <v>22.008191358024693</v>
       </c>
       <c r="L30" s="35">
         <f t="shared" si="11"/>
-        <v>20.162762742052465</v>
+        <v>20.162776286419753</v>
       </c>
     </row>
     <row r="31" spans="1:12">
@@ -17124,7 +17136,7 @@
         <v>36</v>
       </c>
       <c r="G38" s="30">
-        <v>-2.4931999999999999</v>
+        <v>-2.49323848</v>
       </c>
       <c r="H38" s="6">
         <v>39.1</v>
@@ -17203,8 +17215,8 @@
         <v>-180000</v>
       </c>
       <c r="G40" s="80">
-        <f t="shared" si="12"/>
-        <v>-361513.99999999994</v>
+        <f>ROUNDDOWN(+G38*G39*1000,0)</f>
+        <v>-361519</v>
       </c>
       <c r="H40" s="80">
         <f t="shared" ref="H40" si="13">+H38*H39*1000</f>
@@ -17234,39 +17246,43 @@
       <c r="B41" s="61" t="s">
         <v>12</v>
       </c>
-      <c r="C41" s="33"/>
+      <c r="C41" s="33">
+        <v>10</v>
+      </c>
       <c r="D41" s="33">
-        <f>-+D40*0.001425*0.45</f>
-        <v>150.37312500000002</v>
+        <f>ROUNDDOWN(ABS(D40)*0.001425*0.45,0)</f>
+        <v>150</v>
       </c>
       <c r="E41" s="33">
-        <f t="shared" ref="E41:F41" si="15">-+E40*0.001425*0.45</f>
-        <v>111.57750000000001</v>
+        <f t="shared" ref="E41:F41" si="15">ROUNDDOWN(ABS(E40)*0.001425*0.45,0)</f>
+        <v>111</v>
       </c>
       <c r="F41" s="33">
         <f t="shared" si="15"/>
-        <v>115.425</v>
-      </c>
-      <c r="G41" s="33"/>
+        <v>115</v>
+      </c>
+      <c r="G41" s="33">
+        <v>10</v>
+      </c>
       <c r="H41" s="33">
-        <f t="shared" ref="H41" si="16">-+H40*0.001425*0.45</f>
-        <v>250.72875000000005</v>
+        <f>ROUNDDOWN(ABS(H40)*0.001425*0.45,0)</f>
+        <v>250</v>
       </c>
       <c r="I41" s="33">
-        <f t="shared" ref="I41:L41" si="17">-+I40*0.001425*0.45</f>
-        <v>50.786999999999999</v>
+        <f t="shared" ref="I41:L41" si="16">ROUNDDOWN(ABS(I40)*0.001425*0.45,0)</f>
+        <v>50</v>
       </c>
       <c r="J41" s="33">
-        <f t="shared" si="17"/>
-        <v>51.043500000000002</v>
+        <f t="shared" si="16"/>
+        <v>51</v>
       </c>
       <c r="K41" s="33">
-        <f t="shared" si="17"/>
-        <v>51.556500000000007</v>
+        <f t="shared" si="16"/>
+        <v>51</v>
       </c>
       <c r="L41" s="33">
-        <f t="shared" si="17"/>
-        <v>77.911875000000009</v>
+        <f t="shared" si="16"/>
+        <v>77</v>
       </c>
     </row>
     <row r="42" spans="1:12">
@@ -17278,36 +17294,36 @@
       </c>
       <c r="C42" s="33"/>
       <c r="D42" s="33">
-        <f>-ROUNDDOWN(D40*3/1000,0)+1</f>
-        <v>704</v>
+        <f>-ROUNDDOWN(D40*3/1000,0)</f>
+        <v>703</v>
       </c>
       <c r="E42" s="33">
-        <f t="shared" ref="E42:F42" si="18">-ROUNDDOWN(E40*3/1000,0)</f>
+        <f t="shared" ref="E42:F42" si="17">-ROUNDDOWN(E40*3/1000,0)</f>
         <v>522</v>
       </c>
       <c r="F42" s="33">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v>540</v>
       </c>
       <c r="G42" s="33"/>
       <c r="H42" s="33">
-        <f t="shared" ref="H42" si="19">-ROUNDDOWN(H40*3/1000,0)</f>
+        <f t="shared" ref="H42" si="18">-ROUNDDOWN(H40*3/1000,0)</f>
         <v>1173</v>
       </c>
       <c r="I42" s="33">
-        <f t="shared" ref="I42:L42" si="20">-ROUNDDOWN(I40*3/1000,0)</f>
+        <f t="shared" ref="I42:L42" si="19">-ROUNDDOWN(I40*3/1000,0)</f>
         <v>237</v>
       </c>
       <c r="J42" s="33">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>238</v>
       </c>
       <c r="K42" s="33">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>241</v>
       </c>
       <c r="L42" s="33">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>364</v>
       </c>
     </row>
@@ -17337,43 +17353,43 @@
         <v>18</v>
       </c>
       <c r="C44" s="83">
-        <v>-298967.24159999995</v>
+        <v>-298957.24159999995</v>
       </c>
       <c r="D44" s="83">
         <f>SUM(D40:D43)</f>
-        <v>-233645.62687499999</v>
+        <v>-233647</v>
       </c>
       <c r="E44" s="83">
-        <f t="shared" ref="E44:G44" si="21">SUM(E40:E43)</f>
-        <v>-173366.42249999999</v>
+        <f t="shared" ref="E44:G44" si="20">SUM(E40:E43)</f>
+        <v>-173367</v>
       </c>
       <c r="F44" s="83">
-        <f t="shared" si="21"/>
-        <v>-179344.57500000001</v>
+        <f t="shared" si="20"/>
+        <v>-179345</v>
       </c>
       <c r="G44" s="83">
-        <f t="shared" si="21"/>
-        <v>-361513.99999999994</v>
+        <f t="shared" si="20"/>
+        <v>-361509</v>
       </c>
       <c r="H44" s="83">
-        <f t="shared" ref="H44" si="22">SUM(H40:H43)</f>
-        <v>-389576.27124999999</v>
+        <f t="shared" ref="H44" si="21">SUM(H40:H43)</f>
+        <v>-389577</v>
       </c>
       <c r="I44" s="83">
-        <f t="shared" ref="I44:L44" si="23">SUM(I40:I43)</f>
-        <v>-78912.213000000003</v>
+        <f t="shared" ref="I44:L44" si="22">SUM(I40:I43)</f>
+        <v>-78913</v>
       </c>
       <c r="J44" s="83">
-        <f t="shared" si="23"/>
-        <v>-79310.9565</v>
+        <f t="shared" si="22"/>
+        <v>-79311</v>
       </c>
       <c r="K44" s="83">
-        <f t="shared" si="23"/>
-        <v>-80107.443499999994</v>
+        <f t="shared" si="22"/>
+        <v>-80108</v>
       </c>
       <c r="L44" s="83">
-        <f t="shared" si="23"/>
-        <v>-121058.08812499999</v>
+        <f t="shared" si="22"/>
+        <v>-121059</v>
       </c>
     </row>
     <row r="45" spans="1:12">
@@ -17384,43 +17400,43 @@
         <v>20</v>
       </c>
       <c r="C45" s="77">
-        <v>3266367.5642124997</v>
+        <v>3266369.7584000002</v>
       </c>
       <c r="D45" s="77">
         <f>C45+D44</f>
-        <v>3032721.9373374996</v>
+        <v>3032722.7584000002</v>
       </c>
       <c r="E45" s="77">
-        <f t="shared" ref="E45:F45" si="24">D45+E44</f>
-        <v>2859355.5148374997</v>
+        <f t="shared" ref="E45:F45" si="23">D45+E44</f>
+        <v>2859355.7584000002</v>
       </c>
       <c r="F45" s="77">
-        <f t="shared" si="24"/>
-        <v>2680010.9398374995</v>
+        <f t="shared" si="23"/>
+        <v>2680010.7584000002</v>
       </c>
       <c r="G45" s="77">
         <f>F45+G44</f>
-        <v>2318496.9398374995</v>
+        <v>2318501.7584000002</v>
       </c>
       <c r="H45" s="77">
         <f>G45+H44</f>
-        <v>1928920.6685874995</v>
+        <v>1928924.7584000002</v>
       </c>
       <c r="I45" s="77">
         <f>H45+I44</f>
-        <v>1850008.4555874995</v>
+        <v>1850011.7584000002</v>
       </c>
       <c r="J45" s="77">
-        <f t="shared" ref="J45:L45" si="25">I45+J44</f>
-        <v>1770697.4990874995</v>
+        <f t="shared" ref="J45:L45" si="24">I45+J44</f>
+        <v>1770700.7584000002</v>
       </c>
       <c r="K45" s="77">
-        <f t="shared" si="25"/>
-        <v>1690590.0555874994</v>
+        <f t="shared" si="24"/>
+        <v>1690592.7584000002</v>
       </c>
       <c r="L45" s="77">
-        <f t="shared" si="25"/>
-        <v>1569531.9674624994</v>
+        <f t="shared" si="24"/>
+        <v>1569533.7584000002</v>
       </c>
     </row>
     <row r="46" spans="1:12">
@@ -17458,11 +17474,11 @@
         <v>133</v>
       </c>
       <c r="J46" s="19">
-        <f t="shared" ref="J46:K46" si="26">I46+J39</f>
+        <f t="shared" ref="J46:K46" si="25">I46+J39</f>
         <v>131</v>
       </c>
       <c r="K46" s="19">
-        <f t="shared" si="26"/>
+        <f t="shared" si="25"/>
         <v>129</v>
       </c>
       <c r="L46" s="19">
@@ -17478,43 +17494,43 @@
         <v>24</v>
       </c>
       <c r="C47" s="44">
-        <v>20.162762742052465</v>
+        <v>20.162776286419753</v>
       </c>
       <c r="D47" s="44">
-        <f t="shared" ref="D47" si="27">+D45/D46/1000</f>
-        <v>19.565947982822578</v>
+        <f t="shared" ref="D47" si="26">+D45/D46/1000</f>
+        <v>19.565953280000002</v>
       </c>
       <c r="E47" s="44">
-        <f t="shared" ref="E47" si="28">+E45/E46/1000</f>
-        <v>19.062370098916663</v>
+        <f t="shared" ref="E47" si="27">+E45/E46/1000</f>
+        <v>19.062371722666668</v>
       </c>
       <c r="F47" s="44">
-        <f t="shared" ref="F47:G47" si="29">+F45/F46/1000</f>
-        <v>18.482834067844827</v>
+        <f t="shared" ref="F47:G47" si="28">+F45/F46/1000</f>
+        <v>18.482832816551728</v>
       </c>
       <c r="G47" s="44">
-        <f t="shared" si="29"/>
-        <v>15.989634067844825</v>
+        <f t="shared" si="28"/>
+        <v>15.989667299310346</v>
       </c>
       <c r="H47" s="20">
-        <f t="shared" ref="H47" si="30">+H45/H46/1000</f>
-        <v>14.288301248796293</v>
+        <f t="shared" ref="H47" si="29">+H45/H46/1000</f>
+        <v>14.288331543703706</v>
       </c>
       <c r="I47" s="34">
-        <f t="shared" ref="I47:L47" si="31">+I45/I46/1000</f>
-        <v>13.909838011936086</v>
+        <f t="shared" ref="I47:L47" si="30">+I45/I46/1000</f>
+        <v>13.909862845112782</v>
       </c>
       <c r="J47" s="34">
-        <f t="shared" si="31"/>
-        <v>13.516774802194652</v>
+        <f t="shared" si="30"/>
+        <v>13.51679968244275</v>
       </c>
       <c r="K47" s="34">
-        <f t="shared" si="31"/>
-        <v>13.10534926812015</v>
+        <f t="shared" si="30"/>
+        <v>13.10537022015504</v>
       </c>
       <c r="L47" s="34">
-        <f t="shared" si="31"/>
-        <v>12.456602916369043</v>
+        <f t="shared" si="30"/>
+        <v>12.456617130158731</v>
       </c>
     </row>
     <row r="48" spans="1:12">
@@ -17787,43 +17803,43 @@
         <v>10</v>
       </c>
       <c r="C57" s="80">
-        <f t="shared" ref="C57:E57" si="32">+C55*C56*1000</f>
+        <f t="shared" ref="C57:E57" si="31">+C55*C56*1000</f>
         <v>-80200</v>
       </c>
       <c r="D57" s="80">
+        <f t="shared" si="31"/>
+        <v>-197250</v>
+      </c>
+      <c r="E57" s="80">
+        <f t="shared" si="31"/>
+        <v>-201500</v>
+      </c>
+      <c r="F57" s="80">
+        <f t="shared" ref="F57:K57" si="32">+F55*F56*1000</f>
+        <v>-40450</v>
+      </c>
+      <c r="G57" s="80">
         <f t="shared" si="32"/>
-        <v>-197250</v>
-      </c>
-      <c r="E57" s="80">
+        <v>-80900</v>
+      </c>
+      <c r="H57" s="80">
         <f t="shared" si="32"/>
-        <v>-201500</v>
-      </c>
-      <c r="F57" s="80">
-        <f t="shared" ref="F57:K57" si="33">+F55*F56*1000</f>
-        <v>-40450</v>
-      </c>
-      <c r="G57" s="80">
-        <f t="shared" si="33"/>
-        <v>-80900</v>
-      </c>
-      <c r="H57" s="80">
-        <f t="shared" si="33"/>
         <v>-40500</v>
       </c>
       <c r="I57" s="80">
-        <f t="shared" si="33"/>
+        <f t="shared" si="32"/>
         <v>-40550</v>
       </c>
       <c r="J57" s="80">
-        <f t="shared" si="33"/>
+        <f t="shared" si="32"/>
         <v>-40650</v>
       </c>
       <c r="K57" s="80">
-        <f t="shared" si="33"/>
+        <f t="shared" si="32"/>
         <v>-40750</v>
       </c>
       <c r="L57" s="80">
-        <f t="shared" ref="L57" si="34">+L55*L56*1000</f>
+        <f t="shared" ref="L57" si="33">+L55*L56*1000</f>
         <v>-41200</v>
       </c>
     </row>
@@ -17835,44 +17851,44 @@
         <v>12</v>
       </c>
       <c r="C58" s="33">
-        <f t="shared" ref="C58:E58" si="35">-+C57*0.001425*0.45</f>
-        <v>51.428250000000006</v>
+        <f>ROUNDDOWN(-+C57*0.001425*0.45,0)</f>
+        <v>51</v>
       </c>
       <c r="D58" s="33">
-        <f t="shared" si="35"/>
-        <v>126.48656250000001</v>
+        <f t="shared" ref="D58:L58" si="34">ROUNDDOWN(-+D57*0.001425*0.45,0)</f>
+        <v>126</v>
       </c>
       <c r="E58" s="33">
-        <f t="shared" si="35"/>
-        <v>129.21187499999999</v>
+        <f t="shared" si="34"/>
+        <v>129</v>
       </c>
       <c r="F58" s="33">
-        <f t="shared" ref="F58:K58" si="36">-+F57*0.001425*0.45</f>
-        <v>25.9385625</v>
+        <f t="shared" si="34"/>
+        <v>25</v>
       </c>
       <c r="G58" s="33">
-        <f t="shared" si="36"/>
-        <v>51.877124999999999</v>
+        <f t="shared" si="34"/>
+        <v>51</v>
       </c>
       <c r="H58" s="33">
-        <f t="shared" si="36"/>
-        <v>25.970624999999998</v>
+        <f t="shared" si="34"/>
+        <v>25</v>
       </c>
       <c r="I58" s="33">
-        <f t="shared" si="36"/>
-        <v>26.002687500000004</v>
+        <f t="shared" si="34"/>
+        <v>26</v>
       </c>
       <c r="J58" s="33">
-        <f t="shared" si="36"/>
-        <v>26.066812500000001</v>
+        <f t="shared" si="34"/>
+        <v>26</v>
       </c>
       <c r="K58" s="33">
-        <f t="shared" si="36"/>
-        <v>26.130937500000002</v>
+        <f t="shared" si="34"/>
+        <v>26</v>
       </c>
       <c r="L58" s="33">
-        <f t="shared" ref="L58" si="37">-+L57*0.001425*0.45</f>
-        <v>26.419499999999999</v>
+        <f t="shared" si="34"/>
+        <v>26</v>
       </c>
     </row>
     <row r="59" spans="1:12">
@@ -17883,43 +17899,43 @@
         <v>14</v>
       </c>
       <c r="C59" s="33">
-        <f t="shared" ref="C59:E59" si="38">-ROUNDDOWN(C57*3/1000,0)</f>
+        <f t="shared" ref="C59:E59" si="35">-ROUNDDOWN(C57*3/1000,0)</f>
         <v>240</v>
       </c>
       <c r="D59" s="33">
-        <f t="shared" si="38"/>
+        <f t="shared" si="35"/>
         <v>591</v>
       </c>
       <c r="E59" s="33">
-        <f t="shared" si="38"/>
+        <f t="shared" si="35"/>
         <v>604</v>
       </c>
       <c r="F59" s="33">
-        <f t="shared" ref="F59:K59" si="39">-ROUNDDOWN(F57*3/1000,0)</f>
+        <f t="shared" ref="F59:K59" si="36">-ROUNDDOWN(F57*3/1000,0)</f>
         <v>121</v>
       </c>
       <c r="G59" s="33">
-        <f t="shared" si="39"/>
+        <f t="shared" si="36"/>
         <v>242</v>
       </c>
       <c r="H59" s="33">
-        <f t="shared" si="39"/>
+        <f t="shared" si="36"/>
         <v>121</v>
       </c>
       <c r="I59" s="33">
-        <f t="shared" si="39"/>
+        <f t="shared" si="36"/>
         <v>121</v>
       </c>
       <c r="J59" s="33">
-        <f t="shared" si="39"/>
+        <f t="shared" si="36"/>
         <v>121</v>
       </c>
       <c r="K59" s="33">
-        <f t="shared" si="39"/>
+        <f t="shared" si="36"/>
         <v>122</v>
       </c>
       <c r="L59" s="33">
-        <f t="shared" ref="L59" si="40">-ROUNDDOWN(L57*3/1000,0)</f>
+        <f t="shared" ref="L59" si="37">-ROUNDDOWN(L57*3/1000,0)</f>
         <v>123</v>
       </c>
     </row>
@@ -17949,44 +17965,44 @@
         <v>18</v>
       </c>
       <c r="C61" s="83">
-        <f t="shared" ref="C61:E61" si="41">SUM(C57:C60)</f>
-        <v>-79908.571750000003</v>
+        <f t="shared" ref="C61:E61" si="38">SUM(C57:C60)</f>
+        <v>-79909</v>
       </c>
       <c r="D61" s="83">
-        <f t="shared" si="41"/>
-        <v>-196532.51343749999</v>
+        <f t="shared" si="38"/>
+        <v>-196533</v>
       </c>
       <c r="E61" s="83">
-        <f t="shared" si="41"/>
-        <v>-200766.78812499999</v>
+        <f t="shared" si="38"/>
+        <v>-200767</v>
       </c>
       <c r="F61" s="83">
-        <f t="shared" ref="F61:K61" si="42">SUM(F57:F60)</f>
-        <v>-40303.0614375</v>
+        <f t="shared" ref="F61:K61" si="39">SUM(F57:F60)</f>
+        <v>-40304</v>
       </c>
       <c r="G61" s="83">
-        <f t="shared" si="42"/>
-        <v>-80606.122875000001</v>
+        <f t="shared" si="39"/>
+        <v>-80607</v>
       </c>
       <c r="H61" s="83">
-        <f t="shared" si="42"/>
-        <v>-40353.029374999998</v>
+        <f t="shared" si="39"/>
+        <v>-40354</v>
       </c>
       <c r="I61" s="83">
-        <f t="shared" si="42"/>
-        <v>-40402.997312500003</v>
+        <f t="shared" si="39"/>
+        <v>-40403</v>
       </c>
       <c r="J61" s="83">
-        <f t="shared" si="42"/>
-        <v>-40502.933187499999</v>
+        <f t="shared" si="39"/>
+        <v>-40503</v>
       </c>
       <c r="K61" s="83">
-        <f t="shared" si="42"/>
-        <v>-40601.869062500002</v>
+        <f t="shared" si="39"/>
+        <v>-40602</v>
       </c>
       <c r="L61" s="83">
-        <f t="shared" ref="L61" si="43">SUM(L57:L60)</f>
-        <v>-41050.580499999996</v>
+        <f t="shared" ref="L61" si="40">SUM(L57:L60)</f>
+        <v>-41051</v>
       </c>
     </row>
     <row r="62" spans="1:12">
@@ -17998,43 +18014,43 @@
       </c>
       <c r="C62" s="77">
         <f>L45+C61</f>
-        <v>1489623.3957124995</v>
+        <v>1489624.7584000002</v>
       </c>
       <c r="D62" s="77">
         <f>C62+D61</f>
-        <v>1293090.8822749995</v>
+        <v>1293091.7584000002</v>
       </c>
       <c r="E62" s="77">
         <f>D62+E61</f>
-        <v>1092324.0941499996</v>
+        <v>1092324.7584000002</v>
       </c>
       <c r="F62" s="77">
         <f>E62+F61</f>
-        <v>1052021.0327124996</v>
+        <v>1052020.7584000002</v>
       </c>
       <c r="G62" s="77">
-        <f t="shared" ref="G62:L62" si="44">F62+G61</f>
-        <v>971414.90983749961</v>
+        <f t="shared" ref="G62:L62" si="41">F62+G61</f>
+        <v>971413.75840000017</v>
       </c>
       <c r="H62" s="77">
-        <f t="shared" si="44"/>
-        <v>931061.88046249957</v>
+        <f t="shared" si="41"/>
+        <v>931059.75840000017</v>
       </c>
       <c r="I62" s="77">
-        <f t="shared" si="44"/>
-        <v>890658.88314999954</v>
+        <f t="shared" si="41"/>
+        <v>890656.75840000017</v>
       </c>
       <c r="J62" s="77">
-        <f t="shared" si="44"/>
-        <v>850155.94996249955</v>
+        <f t="shared" si="41"/>
+        <v>850153.75840000017</v>
       </c>
       <c r="K62" s="77">
-        <f t="shared" si="44"/>
-        <v>809554.08089999959</v>
+        <f t="shared" si="41"/>
+        <v>809551.75840000017</v>
       </c>
       <c r="L62" s="77">
-        <f t="shared" si="44"/>
-        <v>768503.50039999955</v>
+        <f t="shared" si="41"/>
+        <v>768500.75840000017</v>
       </c>
     </row>
     <row r="63" spans="1:12">
@@ -18061,27 +18077,27 @@
         <v>113</v>
       </c>
       <c r="G63" s="19">
-        <f t="shared" ref="G63:L63" si="45">F63+G56</f>
+        <f t="shared" ref="G63:L63" si="42">F63+G56</f>
         <v>111</v>
       </c>
       <c r="H63" s="19">
-        <f t="shared" si="45"/>
+        <f t="shared" si="42"/>
         <v>110</v>
       </c>
       <c r="I63" s="19">
-        <f t="shared" si="45"/>
+        <f t="shared" si="42"/>
         <v>109</v>
       </c>
       <c r="J63" s="19">
-        <f t="shared" si="45"/>
+        <f t="shared" si="42"/>
         <v>108</v>
       </c>
       <c r="K63" s="19">
-        <f t="shared" si="45"/>
+        <f t="shared" si="42"/>
         <v>107</v>
       </c>
       <c r="L63" s="19">
-        <f t="shared" si="45"/>
+        <f t="shared" si="42"/>
         <v>106</v>
       </c>
     </row>
@@ -18093,44 +18109,44 @@
         <v>24</v>
       </c>
       <c r="C64" s="34">
-        <f t="shared" ref="C64:E64" si="46">+C62/C63/1000</f>
-        <v>12.013091900907256</v>
+        <f t="shared" ref="C64:E64" si="43">+C62/C63/1000</f>
+        <v>12.013102890322582</v>
       </c>
       <c r="D64" s="34">
-        <f t="shared" si="46"/>
-        <v>10.866309935084029</v>
+        <f t="shared" si="43"/>
+        <v>10.866317297478993</v>
       </c>
       <c r="E64" s="34">
-        <f t="shared" si="46"/>
-        <v>9.5817902995614013</v>
+        <f t="shared" si="43"/>
+        <v>9.5817961263157905</v>
       </c>
       <c r="F64" s="34">
-        <f t="shared" ref="F64:K64" si="47">+F62/F63/1000</f>
-        <v>9.3099206434734487</v>
+        <f t="shared" ref="F64:K64" si="44">+F62/F63/1000</f>
+        <v>9.3099182159292049</v>
       </c>
       <c r="G64" s="34">
-        <f t="shared" si="47"/>
-        <v>8.7514856742117075</v>
+        <f t="shared" si="44"/>
+        <v>8.7514753009009016</v>
       </c>
       <c r="H64" s="34">
-        <f t="shared" si="47"/>
-        <v>8.4641989132954514</v>
+        <f t="shared" si="44"/>
+        <v>8.4641796218181824</v>
       </c>
       <c r="I64" s="34">
-        <f t="shared" si="47"/>
-        <v>8.1711824142201799</v>
+        <f t="shared" si="44"/>
+        <v>8.1711629211009189</v>
       </c>
       <c r="J64" s="34">
-        <f t="shared" si="47"/>
-        <v>7.8718143515046259</v>
+        <f t="shared" si="44"/>
+        <v>7.8717940592592601</v>
       </c>
       <c r="K64" s="34">
-        <f t="shared" si="47"/>
-        <v>7.5659259897196227</v>
+        <f t="shared" si="44"/>
+        <v>7.5659042841121513</v>
       </c>
       <c r="L64" s="34">
-        <f t="shared" ref="L64" si="48">+L62/L63/1000</f>
-        <v>7.2500330226415057</v>
+        <f t="shared" ref="L64" si="45">+L62/L63/1000</f>
+        <v>7.2500071547169824</v>
       </c>
     </row>
     <row r="65" spans="1:12">
@@ -18314,11 +18330,11 @@
         <v>10</v>
       </c>
       <c r="C74" s="80">
-        <f t="shared" ref="C74:D74" si="49">+C72*C73*1000</f>
+        <f t="shared" ref="C74:D74" si="46">+C72*C73*1000</f>
         <v>-83200</v>
       </c>
       <c r="D74" s="80">
-        <f t="shared" si="49"/>
+        <f t="shared" si="46"/>
         <v>-41800</v>
       </c>
       <c r="E74" s="80">
@@ -18340,11 +18356,11 @@
         <v>12</v>
       </c>
       <c r="C75" s="33">
-        <f t="shared" ref="C75:D75" si="50">-+C74*0.001425*0.45</f>
+        <f t="shared" ref="C75:D75" si="47">-+C74*0.001425*0.45</f>
         <v>53.352000000000004</v>
       </c>
       <c r="D75" s="33">
-        <f t="shared" si="50"/>
+        <f t="shared" si="47"/>
         <v>26.804250000000003</v>
       </c>
       <c r="E75" s="33"/>
@@ -18364,11 +18380,11 @@
         <v>14</v>
       </c>
       <c r="C76" s="33">
-        <f t="shared" ref="C76:D76" si="51">-ROUNDDOWN(C74*3/1000,0)</f>
+        <f t="shared" ref="C76:D76" si="48">-ROUNDDOWN(C74*3/1000,0)</f>
         <v>249</v>
       </c>
       <c r="D76" s="33">
-        <f t="shared" si="51"/>
+        <f t="shared" si="48"/>
         <v>125</v>
       </c>
       <c r="E76" s="33"/>
@@ -18406,15 +18422,15 @@
         <v>18</v>
       </c>
       <c r="C78" s="83">
-        <f t="shared" ref="C78:E78" si="52">SUM(C74:C77)</f>
+        <f t="shared" ref="C78:E78" si="49">SUM(C74:C77)</f>
         <v>-82897.648000000001</v>
       </c>
       <c r="D78" s="83">
-        <f t="shared" si="52"/>
+        <f t="shared" si="49"/>
         <v>-41648.195749999999</v>
       </c>
       <c r="E78" s="83">
-        <f t="shared" si="52"/>
+        <f t="shared" si="49"/>
         <v>-212331</v>
       </c>
       <c r="F78" s="83"/>
@@ -18434,15 +18450,15 @@
       </c>
       <c r="C79" s="77">
         <f>L62+C78</f>
-        <v>685605.85239999951</v>
+        <v>685603.11040000012</v>
       </c>
       <c r="D79" s="94">
         <f>C79+D78</f>
-        <v>643957.65664999955</v>
+        <v>643954.91465000017</v>
       </c>
       <c r="E79" s="77">
         <f>D79+E78</f>
-        <v>431626.65664999955</v>
+        <v>431623.91465000017</v>
       </c>
       <c r="F79" s="94"/>
       <c r="G79" s="94"/>
@@ -18487,16 +18503,16 @@
         <v>24</v>
       </c>
       <c r="C81" s="20">
-        <f t="shared" ref="C81:E81" si="53">+C79/C80/1000</f>
-        <v>6.5923639653846102</v>
+        <f t="shared" ref="C81:E81" si="50">+C79/C80/1000</f>
+        <v>6.5923376000000005</v>
       </c>
       <c r="D81" s="20">
-        <f t="shared" si="53"/>
-        <v>6.2520160839805783</v>
+        <f t="shared" si="50"/>
+        <v>6.2519894626213608</v>
       </c>
       <c r="E81" s="44">
-        <f t="shared" si="53"/>
-        <v>4.1905500645631024</v>
+        <f t="shared" si="50"/>
+        <v>4.1905234432038849</v>
       </c>
       <c r="F81" s="20"/>
       <c r="G81" s="20"/>
@@ -18672,7 +18688,7 @@
         <v>10</v>
       </c>
       <c r="C91" s="80">
-        <f t="shared" ref="C91" si="54">+C89*C90*1000</f>
+        <f t="shared" ref="C91" si="51">+C89*C90*1000</f>
         <v>0</v>
       </c>
       <c r="D91" s="80"/>
@@ -18693,7 +18709,7 @@
         <v>12</v>
       </c>
       <c r="C92" s="33">
-        <f t="shared" ref="C92" si="55">-+C91*0.001425*0.45</f>
+        <f t="shared" ref="C92" si="52">-+C91*0.001425*0.45</f>
         <v>0</v>
       </c>
       <c r="D92" s="33"/>
@@ -18714,7 +18730,7 @@
         <v>14</v>
       </c>
       <c r="C93" s="33">
-        <f t="shared" ref="C93" si="56">-ROUNDDOWN(C91*3/1000,0)</f>
+        <f t="shared" ref="C93" si="53">-ROUNDDOWN(C91*3/1000,0)</f>
         <v>0</v>
       </c>
       <c r="D93" s="33"/>
@@ -18753,7 +18769,7 @@
         <v>18</v>
       </c>
       <c r="C95" s="83">
-        <f t="shared" ref="C95" si="57">SUM(C91:C94)</f>
+        <f t="shared" ref="C95" si="54">SUM(C91:C94)</f>
         <v>0</v>
       </c>
       <c r="D95" s="83"/>
@@ -38632,8 +38648,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:L33"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -39788,7 +39804,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:L50"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="L25" sqref="L25"/>
     </sheetView>
   </sheetViews>

--- a/公司股票成本表+總表113.12.12改.xlsx
+++ b/公司股票成本表+總表113.12.12改.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28227"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{764FD3E5-995F-47E1-9237-D17562023A01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CD06D48-2A51-4CCE-8DCE-AD15A0B55665}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="741" firstSheet="2" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="741" firstSheet="9" activeTab="14" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="總表20240312" sheetId="46" r:id="rId1"/>
@@ -21,7 +21,7 @@
     <sheet name="台企銀" sheetId="4" r:id="rId11"/>
     <sheet name="玉山金(OK)" sheetId="44" r:id="rId12"/>
     <sheet name="台新金(OK)" sheetId="15" r:id="rId13"/>
-    <sheet name="國眾" sheetId="41" r:id="rId14"/>
+    <sheet name="國眾(OK)" sheetId="41" r:id="rId14"/>
     <sheet name="致和證" sheetId="45" r:id="rId15"/>
     <sheet name="5706鳳凰(結案)" sheetId="35" r:id="rId16"/>
     <sheet name="9933中鼎" sheetId="39" r:id="rId17"/>
@@ -15846,7 +15846,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <dimension ref="A1:L102"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView topLeftCell="A58" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="C58" sqref="C58"/>
     </sheetView>
   </sheetViews>
@@ -18924,8 +18924,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
   <dimension ref="A1:L33"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7:F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -19140,25 +19140,22 @@
         <v>12</v>
       </c>
       <c r="C7" s="318">
-        <f>+C6*0.001425*0.45</f>
-        <v>328.32</v>
+        <f>ROUNDDOWN(+C6*0.001425*0.45,0)</f>
+        <v>328</v>
       </c>
       <c r="D7" s="318">
-        <f t="shared" ref="D7:G7" si="1">+D6*0.001425*0.45</f>
-        <v>817.59375</v>
+        <f t="shared" ref="D7:F7" si="1">ROUNDDOWN(+D6*0.001425*0.45,0)</f>
+        <v>817</v>
       </c>
       <c r="E7" s="318">
         <f t="shared" si="1"/>
-        <v>488.63250000000005</v>
+        <v>488</v>
       </c>
       <c r="F7" s="318">
         <f t="shared" si="1"/>
-        <v>809.578125</v>
-      </c>
-      <c r="G7" s="41">
-        <f t="shared" si="1"/>
-        <v>124.08187500000001</v>
-      </c>
+        <v>809</v>
+      </c>
+      <c r="G7" s="41"/>
       <c r="H7" s="318"/>
       <c r="I7" s="318"/>
       <c r="J7" s="318"/>
@@ -19210,23 +19207,23 @@
       </c>
       <c r="C10" s="319">
         <f>+C6+C7</f>
-        <v>512328.32</v>
+        <v>512328</v>
       </c>
       <c r="D10" s="319">
         <f t="shared" ref="D10:H10" si="2">+D6+D7</f>
-        <v>1275817.59375</v>
+        <v>1275817</v>
       </c>
       <c r="E10" s="319">
         <f t="shared" si="2"/>
-        <v>762488.63249999995</v>
+        <v>762488</v>
       </c>
       <c r="F10" s="319">
         <f t="shared" si="2"/>
-        <v>1263309.578125</v>
+        <v>1263309</v>
       </c>
       <c r="G10" s="163">
         <f t="shared" si="2"/>
-        <v>193624.081875</v>
+        <v>193500</v>
       </c>
       <c r="H10" s="319">
         <f t="shared" si="2"/>
@@ -19249,31 +19246,31 @@
       </c>
       <c r="C11" s="86">
         <f>+C10</f>
-        <v>512328.32</v>
+        <v>512328</v>
       </c>
       <c r="D11" s="86">
         <f>+C11+D10</f>
-        <v>1788145.9137500001</v>
+        <v>1788145</v>
       </c>
       <c r="E11" s="86">
         <f t="shared" ref="E11:I11" si="4">+D11+E10</f>
-        <v>2550634.5462500001</v>
+        <v>2550633</v>
       </c>
       <c r="F11" s="86">
         <f t="shared" si="4"/>
-        <v>3813944.1243750001</v>
+        <v>3813942</v>
       </c>
       <c r="G11" s="86">
         <f t="shared" si="4"/>
-        <v>4007568.2062500003</v>
+        <v>4007442</v>
       </c>
       <c r="H11" s="86">
         <f t="shared" si="4"/>
-        <v>3925068.2062500003</v>
+        <v>3924942</v>
       </c>
       <c r="I11" s="86">
         <f t="shared" si="4"/>
-        <v>4376245.40625</v>
+        <v>4376119.2</v>
       </c>
       <c r="J11" s="86"/>
       <c r="K11" s="86"/>
@@ -19327,31 +19324,31 @@
       </c>
       <c r="C13" s="20">
         <f>+C11/C12/1000</f>
-        <v>25.616416000000001</v>
+        <v>25.616400000000002</v>
       </c>
       <c r="D13" s="20">
         <f t="shared" ref="D13:H13" si="6">+D11/D12/1000</f>
-        <v>25.544941625</v>
+        <v>25.544928571428571</v>
       </c>
       <c r="E13" s="20">
         <f t="shared" si="6"/>
-        <v>25.506345462500001</v>
+        <v>25.506330000000002</v>
       </c>
       <c r="F13" s="20">
         <f t="shared" si="6"/>
-        <v>25.426294162500003</v>
+        <v>25.426279999999998</v>
       </c>
       <c r="G13" s="20">
         <f t="shared" si="6"/>
-        <v>24.288292159090911</v>
+        <v>24.287527272727271</v>
       </c>
       <c r="H13" s="20">
         <f t="shared" si="6"/>
-        <v>21.625720144628101</v>
+        <v>21.62502479338843</v>
       </c>
       <c r="I13" s="20">
         <f t="shared" ref="I13" si="7">+I11/I12/1000</f>
-        <v>20.431223125997928</v>
+        <v>20.430633911314043</v>
       </c>
       <c r="J13" s="20"/>
       <c r="K13" s="34"/>

--- a/公司股票成本表+總表113.12.12改.xlsx
+++ b/公司股票成本表+總表113.12.12改.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28227"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CD06D48-2A51-4CCE-8DCE-AD15A0B55665}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D51499C9-5879-41E2-9307-BAEF4900C514}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="741" firstSheet="9" activeTab="14" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="741" firstSheet="9" activeTab="16" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="總表20240312" sheetId="46" r:id="rId1"/>
@@ -22,9 +22,9 @@
     <sheet name="玉山金(OK)" sheetId="44" r:id="rId12"/>
     <sheet name="台新金(OK)" sheetId="15" r:id="rId13"/>
     <sheet name="國眾(OK)" sheetId="41" r:id="rId14"/>
-    <sheet name="致和證" sheetId="45" r:id="rId15"/>
-    <sheet name="5706鳳凰(結案)" sheetId="35" r:id="rId16"/>
-    <sheet name="9933中鼎" sheetId="39" r:id="rId17"/>
+    <sheet name="致和證(OK)" sheetId="45" r:id="rId15"/>
+    <sheet name="5706鳳凰(OK)" sheetId="35" r:id="rId16"/>
+    <sheet name="9933中鼎(OK)" sheetId="39" r:id="rId17"/>
     <sheet name="國泰全球品牌(結清)(入檔)" sheetId="43" r:id="rId18"/>
     <sheet name="國泰智能車(結清)(入檔)" sheetId="40" r:id="rId19"/>
     <sheet name="0050元大50(入檔)" sheetId="50" r:id="rId20"/>
@@ -18924,8 +18924,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
   <dimension ref="A1:L33"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7:F7"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -19156,7 +19156,9 @@
         <v>809</v>
       </c>
       <c r="G7" s="41"/>
-      <c r="H7" s="318"/>
+      <c r="H7" s="318">
+        <v>10</v>
+      </c>
       <c r="I7" s="318"/>
       <c r="J7" s="318"/>
       <c r="K7" s="318"/>
@@ -19227,7 +19229,7 @@
       </c>
       <c r="H10" s="319">
         <f t="shared" si="2"/>
-        <v>-82500</v>
+        <v>-82490</v>
       </c>
       <c r="I10" s="319">
         <f t="shared" ref="I10" si="3">+I6+I7</f>
@@ -19266,11 +19268,11 @@
       </c>
       <c r="H11" s="86">
         <f t="shared" si="4"/>
-        <v>3924942</v>
+        <v>3924952</v>
       </c>
       <c r="I11" s="86">
         <f t="shared" si="4"/>
-        <v>4376119.2</v>
+        <v>4376129.2</v>
       </c>
       <c r="J11" s="86"/>
       <c r="K11" s="86"/>
@@ -19344,11 +19346,11 @@
       </c>
       <c r="H13" s="20">
         <f t="shared" si="6"/>
-        <v>21.62502479338843</v>
+        <v>21.625079889807161</v>
       </c>
       <c r="I13" s="20">
         <f t="shared" ref="I13" si="7">+I11/I12/1000</f>
-        <v>20.430633911314043</v>
+        <v>20.430680597962592</v>
       </c>
       <c r="J13" s="20"/>
       <c r="K13" s="34"/>
@@ -19791,8 +19793,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1200-000000000000}">
   <dimension ref="A1:L67"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24:K24"/>
+    <sheetView topLeftCell="A19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G37" sqref="G37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -21749,8 +21751,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
   <dimension ref="A1:L67"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7:L7"/>
+    <sheetView tabSelected="1" topLeftCell="A43" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C58" sqref="C58:E58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -22486,13 +22488,13 @@
         <v>28.45</v>
       </c>
       <c r="J21" s="66">
-        <v>-2</v>
+        <v>-1.99996592</v>
       </c>
       <c r="K21" s="66">
-        <v>-2</v>
+        <v>-1.9986940399999999</v>
       </c>
       <c r="L21" s="66">
-        <v>-2.2999999999999998</v>
+        <v>-2.2602808200000002</v>
       </c>
     </row>
     <row r="22" spans="1:12" ht="17.25" thickBot="1">
@@ -22571,15 +22573,15 @@
       </c>
       <c r="J23" s="80">
         <f>J21*J22*1000</f>
-        <v>-350000</v>
+        <v>-349994.03600000002</v>
       </c>
       <c r="K23" s="80">
         <f t="shared" si="16"/>
-        <v>-350000</v>
+        <v>-349771.45699999999</v>
       </c>
       <c r="L23" s="80">
-        <f t="shared" si="16"/>
-        <v>-402499.99999999994</v>
+        <f>ROUNDDOWN(+L21*L22*1000,0)</f>
+        <v>-395549</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -22590,36 +22592,42 @@
         <v>12</v>
       </c>
       <c r="C24" s="33">
-        <f>+C23*0.001425</f>
-        <v>409.6875</v>
+        <f>ROUNDDOWN(+C23*0.001425*0.45,0)</f>
+        <v>184</v>
       </c>
       <c r="D24" s="33">
-        <f>+D23*0.001425</f>
-        <v>204.48750000000001</v>
+        <f t="shared" ref="D24:I24" si="17">ROUNDDOWN(+D23*0.001425*0.45,0)</f>
+        <v>92</v>
       </c>
       <c r="E24" s="33">
-        <f t="shared" ref="E24:I24" si="17">+E23*0.001425</f>
-        <v>204.13124999999999</v>
+        <f t="shared" si="17"/>
+        <v>91</v>
       </c>
       <c r="F24" s="33">
         <f t="shared" si="17"/>
-        <v>407.55</v>
+        <v>183</v>
       </c>
       <c r="G24" s="33">
         <f t="shared" si="17"/>
-        <v>203.41875000000002</v>
+        <v>91</v>
       </c>
       <c r="H24" s="33">
         <f t="shared" si="17"/>
-        <v>203.0625</v>
+        <v>91</v>
       </c>
       <c r="I24" s="33">
         <f t="shared" si="17"/>
-        <v>202.70625000000001</v>
-      </c>
-      <c r="J24" s="31"/>
-      <c r="K24" s="31"/>
-      <c r="L24" s="31"/>
+        <v>91</v>
+      </c>
+      <c r="J24" s="31">
+        <v>10</v>
+      </c>
+      <c r="K24" s="31">
+        <v>10</v>
+      </c>
+      <c r="L24" s="31">
+        <v>10</v>
+      </c>
     </row>
     <row r="25" spans="1:12">
       <c r="A25" s="32" t="s">
@@ -22666,39 +22674,42 @@
       </c>
       <c r="C27" s="83">
         <f>SUM(C23:C26)</f>
-        <v>287909.6875</v>
+        <v>287684</v>
       </c>
       <c r="D27" s="83">
         <f>SUM(D23:D26)</f>
-        <v>143704.48749999999</v>
+        <v>143592</v>
       </c>
       <c r="E27" s="83">
-        <f t="shared" ref="E27:I27" si="18">SUM(E23:E26)</f>
-        <v>143454.13125000001</v>
+        <f t="shared" ref="E27:L27" si="18">SUM(E23:E26)</f>
+        <v>143341</v>
       </c>
       <c r="F27" s="83">
         <f t="shared" si="18"/>
-        <v>286407.55</v>
+        <v>286183</v>
       </c>
       <c r="G27" s="83">
         <f t="shared" si="18"/>
-        <v>142953.41875000001</v>
+        <v>142841</v>
       </c>
       <c r="H27" s="83">
         <f t="shared" si="18"/>
-        <v>142703.0625</v>
+        <v>142591</v>
       </c>
       <c r="I27" s="83">
         <f t="shared" si="18"/>
-        <v>142452.70624999999</v>
+        <v>142341</v>
       </c>
       <c r="J27" s="83">
-        <v>-349761</v>
+        <f t="shared" si="18"/>
+        <v>-349984.03600000002</v>
       </c>
       <c r="K27" s="83">
-        <v>-349761</v>
+        <f t="shared" si="18"/>
+        <v>-349761.45699999999</v>
       </c>
       <c r="L27" s="83">
+        <f t="shared" si="18"/>
         <v>-395539</v>
       </c>
     </row>
@@ -22710,44 +22721,44 @@
         <v>20</v>
       </c>
       <c r="C28" s="77">
-        <f>+L11+C23</f>
-        <v>4152222</v>
+        <f>+L11+C27</f>
+        <v>4152406</v>
       </c>
       <c r="D28" s="94">
         <f>+C28+D27</f>
-        <v>4295926.4874999998</v>
+        <v>4295998</v>
       </c>
       <c r="E28" s="94">
         <f t="shared" ref="E28:I28" si="19">+D28+E27</f>
-        <v>4439380.6187499994</v>
+        <v>4439339</v>
       </c>
       <c r="F28" s="94">
         <f t="shared" si="19"/>
-        <v>4725788.1687499993</v>
+        <v>4725522</v>
       </c>
       <c r="G28" s="94">
         <f t="shared" si="19"/>
-        <v>4868741.5874999994</v>
+        <v>4868363</v>
       </c>
       <c r="H28" s="94">
         <f t="shared" si="19"/>
-        <v>5011444.6499999994</v>
+        <v>5010954</v>
       </c>
       <c r="I28" s="94">
         <f t="shared" si="19"/>
-        <v>5153897.3562499993</v>
+        <v>5153295</v>
       </c>
       <c r="J28" s="77">
         <f>I28+J27</f>
-        <v>4804136.3562499993</v>
+        <v>4803310.9639999997</v>
       </c>
       <c r="K28" s="77">
         <f t="shared" ref="K28" si="20">J28+K27</f>
-        <v>4454375.3562499993</v>
+        <v>4453549.5069999993</v>
       </c>
       <c r="L28" s="77">
         <f>K28+L27</f>
-        <v>4058836.3562499993</v>
+        <v>4058010.5069999993</v>
       </c>
     </row>
     <row r="29" spans="1:12">
@@ -22807,43 +22818,43 @@
       </c>
       <c r="C30" s="20">
         <f>+C28/C29/1000</f>
-        <v>29.658728571428572</v>
+        <v>29.660042857142855</v>
       </c>
       <c r="D30" s="20">
         <f>+D28/D29/1000</f>
-        <v>29.62707922413793</v>
+        <v>29.627572413793104</v>
       </c>
       <c r="E30" s="20">
         <f t="shared" ref="E30:I30" si="23">+E28/E29/1000</f>
-        <v>29.595870791666666</v>
+        <v>29.595593333333333</v>
       </c>
       <c r="F30" s="20">
         <f t="shared" si="23"/>
-        <v>29.536176054687495</v>
+        <v>29.534512500000002</v>
       </c>
       <c r="G30" s="20">
         <f t="shared" si="23"/>
-        <v>29.507524772727269</v>
+        <v>29.505230303030306</v>
       </c>
       <c r="H30" s="20">
         <f t="shared" si="23"/>
-        <v>29.479086176470584</v>
+        <v>29.476200000000002</v>
       </c>
       <c r="I30" s="20">
         <f t="shared" si="23"/>
-        <v>29.450842035714281</v>
+        <v>29.447400000000002</v>
       </c>
       <c r="J30" s="45">
         <f>J28/J29/1000</f>
-        <v>27.452207749999992</v>
+        <v>27.447491222857142</v>
       </c>
       <c r="K30" s="45">
         <f t="shared" ref="K30:L30" si="24">K28/K29/1000</f>
-        <v>25.453573464285711</v>
+        <v>25.448854325714279</v>
       </c>
       <c r="L30" s="45">
         <f t="shared" si="24"/>
-        <v>23.193350607142854</v>
+        <v>23.188631468571423</v>
       </c>
     </row>
     <row r="31" spans="1:12">
@@ -23032,7 +23043,7 @@
         <v>6</v>
       </c>
       <c r="C38" s="66">
-        <v>-2.2999999999999998</v>
+        <v>-2.2602808200000002</v>
       </c>
       <c r="D38" s="66">
         <v>-1.8959999999999999</v>
@@ -23108,42 +23119,42 @@
         <v>10</v>
       </c>
       <c r="C40" s="80">
-        <v>-402499.99999999994</v>
+        <v>-395549.14350000001</v>
       </c>
       <c r="D40" s="80">
-        <f t="shared" ref="D40:E40" si="25">+D38*D39*1000</f>
+        <f>ROUNDDOWN(+D38*D39*1000,0)</f>
         <v>-331800</v>
       </c>
       <c r="E40" s="80">
+        <f t="shared" ref="E40:L40" si="25">ROUNDDOWN(+E38*E39*1000,0)</f>
+        <v>-105200</v>
+      </c>
+      <c r="F40" s="80">
         <f t="shared" si="25"/>
-        <v>-105200</v>
-      </c>
-      <c r="F40" s="80">
-        <f t="shared" ref="F40:I40" si="26">+F38*F39*1000</f>
-        <v>-159899.99999999997</v>
+        <v>-159900</v>
       </c>
       <c r="G40" s="80">
-        <f t="shared" si="26"/>
+        <f t="shared" si="25"/>
         <v>-268000</v>
       </c>
       <c r="H40" s="80">
-        <f t="shared" si="26"/>
+        <f t="shared" si="25"/>
         <v>-269000</v>
       </c>
       <c r="I40" s="80">
-        <f t="shared" si="26"/>
+        <f t="shared" si="25"/>
         <v>-270000</v>
       </c>
       <c r="J40" s="80">
-        <f t="shared" ref="J40:K40" si="27">+J38*J39*1000</f>
+        <f t="shared" si="25"/>
         <v>-266500</v>
       </c>
       <c r="K40" s="80">
-        <f t="shared" si="27"/>
+        <f t="shared" si="25"/>
         <v>-268000</v>
       </c>
       <c r="L40" s="80">
-        <f t="shared" ref="L40" si="28">+L38*L39*1000</f>
+        <f t="shared" si="25"/>
         <v>-528000</v>
       </c>
     </row>
@@ -23154,41 +23165,43 @@
       <c r="B41" s="61" t="s">
         <v>12</v>
       </c>
-      <c r="C41" s="33"/>
+      <c r="C41" s="33">
+        <v>10</v>
+      </c>
       <c r="D41" s="33">
         <v>10</v>
       </c>
       <c r="E41" s="33">
-        <f t="shared" ref="E41:K41" si="29">-(+E40*0.001425*0.45)</f>
-        <v>67.459500000000006</v>
+        <f>ROUNDDOWN((ABS(E40)*0.001425*0.45),0)</f>
+        <v>67</v>
       </c>
       <c r="F41" s="33">
-        <f t="shared" si="29"/>
-        <v>102.53587499999999</v>
+        <f t="shared" ref="F41:L41" si="26">ROUNDDOWN((ABS(F40)*0.001425*0.45),0)</f>
+        <v>102</v>
       </c>
       <c r="G41" s="33">
-        <f t="shared" si="29"/>
-        <v>171.85500000000002</v>
+        <f t="shared" si="26"/>
+        <v>171</v>
       </c>
       <c r="H41" s="33">
-        <f t="shared" si="29"/>
-        <v>172.49625</v>
+        <f t="shared" si="26"/>
+        <v>172</v>
       </c>
       <c r="I41" s="33">
-        <f t="shared" si="29"/>
-        <v>173.13750000000002</v>
+        <f t="shared" si="26"/>
+        <v>173</v>
       </c>
       <c r="J41" s="33">
-        <f t="shared" si="29"/>
-        <v>170.893125</v>
+        <f t="shared" si="26"/>
+        <v>170</v>
       </c>
       <c r="K41" s="33">
-        <f t="shared" si="29"/>
-        <v>171.85500000000002</v>
+        <f t="shared" si="26"/>
+        <v>171</v>
       </c>
       <c r="L41" s="33">
-        <f t="shared" ref="L41" si="30">-(+L40*0.001425*0.45)</f>
-        <v>338.58</v>
+        <f t="shared" si="26"/>
+        <v>338</v>
       </c>
     </row>
     <row r="42" spans="1:12">
@@ -23201,35 +23214,35 @@
       <c r="C42" s="33"/>
       <c r="D42" s="33"/>
       <c r="E42" s="33">
-        <f t="shared" ref="E42:K42" si="31">-ROUNDDOWN(E40*3/1000,0)</f>
+        <f t="shared" ref="E42:K42" si="27">-ROUNDDOWN(E40*3/1000,0)</f>
         <v>315</v>
       </c>
       <c r="F42" s="33">
-        <f t="shared" si="31"/>
+        <f t="shared" si="27"/>
         <v>479</v>
       </c>
       <c r="G42" s="33">
-        <f t="shared" si="31"/>
+        <f t="shared" si="27"/>
         <v>804</v>
       </c>
       <c r="H42" s="33">
-        <f t="shared" si="31"/>
+        <f t="shared" si="27"/>
         <v>807</v>
       </c>
       <c r="I42" s="33">
-        <f t="shared" si="31"/>
+        <f t="shared" si="27"/>
         <v>810</v>
       </c>
       <c r="J42" s="33">
-        <f t="shared" si="31"/>
+        <f t="shared" si="27"/>
         <v>799</v>
       </c>
       <c r="K42" s="33">
-        <f t="shared" si="31"/>
+        <f t="shared" si="27"/>
         <v>804</v>
       </c>
       <c r="L42" s="33">
-        <f t="shared" ref="L42" si="32">-ROUNDDOWN(L40*3/1000,0)</f>
+        <f t="shared" ref="L42" si="28">-ROUNDDOWN(L40*3/1000,0)</f>
         <v>1584</v>
       </c>
     </row>
@@ -23259,43 +23272,43 @@
         <v>18</v>
       </c>
       <c r="C44" s="83">
-        <v>-395539</v>
+        <v>-395539.14350000001</v>
       </c>
       <c r="D44" s="83">
         <f>SUM(D40:D43)</f>
         <v>-331790</v>
       </c>
       <c r="E44" s="83">
-        <f t="shared" ref="E44:I44" si="33">SUM(E40:E43)</f>
-        <v>-104817.5405</v>
+        <f t="shared" ref="E44:I44" si="29">SUM(E40:E43)</f>
+        <v>-104818</v>
       </c>
       <c r="F44" s="83">
-        <f t="shared" si="33"/>
-        <v>-159318.46412499997</v>
+        <f t="shared" si="29"/>
+        <v>-159319</v>
       </c>
       <c r="G44" s="83">
-        <f t="shared" si="33"/>
-        <v>-267024.14500000002</v>
+        <f t="shared" si="29"/>
+        <v>-267025</v>
       </c>
       <c r="H44" s="83">
-        <f t="shared" si="33"/>
-        <v>-268020.50374999997</v>
+        <f t="shared" si="29"/>
+        <v>-268021</v>
       </c>
       <c r="I44" s="83">
-        <f t="shared" si="33"/>
-        <v>-269016.86249999999</v>
+        <f t="shared" si="29"/>
+        <v>-269017</v>
       </c>
       <c r="J44" s="83">
-        <f t="shared" ref="J44:K44" si="34">SUM(J40:J43)</f>
-        <v>-265530.106875</v>
+        <f t="shared" ref="J44:K44" si="30">SUM(J40:J43)</f>
+        <v>-265531</v>
       </c>
       <c r="K44" s="83">
-        <f t="shared" si="34"/>
-        <v>-267024.14500000002</v>
+        <f t="shared" si="30"/>
+        <v>-267025</v>
       </c>
       <c r="L44" s="83">
-        <f t="shared" ref="L44" si="35">SUM(L40:L43)</f>
-        <v>-526077.42000000004</v>
+        <f t="shared" ref="L44" si="31">SUM(L40:L43)</f>
+        <v>-526078</v>
       </c>
     </row>
     <row r="45" spans="1:12">
@@ -23306,43 +23319,43 @@
         <v>20</v>
       </c>
       <c r="C45" s="77">
-        <v>4058841.0240625003</v>
+        <v>4058011</v>
       </c>
       <c r="D45" s="77">
         <f>C45+D44</f>
-        <v>3727051.0240625003</v>
+        <v>3726221</v>
       </c>
       <c r="E45" s="77">
-        <f t="shared" ref="E45" si="36">E44+D45</f>
-        <v>3622233.4835625002</v>
+        <f t="shared" ref="E45" si="32">E44+D45</f>
+        <v>3621403</v>
       </c>
       <c r="F45" s="77">
-        <f t="shared" ref="F45" si="37">F44+E45</f>
-        <v>3462915.0194375003</v>
+        <f t="shared" ref="F45" si="33">F44+E45</f>
+        <v>3462084</v>
       </c>
       <c r="G45" s="77">
-        <f t="shared" ref="G45" si="38">G44+F45</f>
-        <v>3195890.8744375003</v>
+        <f t="shared" ref="G45" si="34">G44+F45</f>
+        <v>3195059</v>
       </c>
       <c r="H45" s="77">
-        <f t="shared" ref="H45" si="39">H44+G45</f>
-        <v>2927870.3706875001</v>
+        <f t="shared" ref="H45" si="35">H44+G45</f>
+        <v>2927038</v>
       </c>
       <c r="I45" s="77">
-        <f t="shared" ref="I45:L45" si="40">I44+H45</f>
-        <v>2658853.5081875003</v>
+        <f t="shared" ref="I45:L45" si="36">I44+H45</f>
+        <v>2658021</v>
       </c>
       <c r="J45" s="77">
-        <f t="shared" si="40"/>
-        <v>2393323.4013125002</v>
+        <f t="shared" si="36"/>
+        <v>2392490</v>
       </c>
       <c r="K45" s="77">
-        <f t="shared" si="40"/>
-        <v>2126299.2563125002</v>
+        <f t="shared" si="36"/>
+        <v>2125465</v>
       </c>
       <c r="L45" s="77">
-        <f t="shared" si="40"/>
-        <v>1600221.8363125003</v>
+        <f t="shared" si="36"/>
+        <v>1599387</v>
       </c>
     </row>
     <row r="46" spans="1:12">
@@ -23359,35 +23372,35 @@
         <v>175</v>
       </c>
       <c r="E46" s="19">
-        <f t="shared" ref="E46" si="41">+D46+E39</f>
+        <f t="shared" ref="E46" si="37">+D46+E39</f>
         <v>173</v>
       </c>
       <c r="F46" s="19">
-        <f t="shared" ref="F46" si="42">+E46+F39</f>
+        <f t="shared" ref="F46" si="38">+E46+F39</f>
         <v>170</v>
       </c>
       <c r="G46" s="19">
-        <f t="shared" ref="G46" si="43">+F46+G39</f>
+        <f t="shared" ref="G46" si="39">+F46+G39</f>
         <v>165</v>
       </c>
       <c r="H46" s="19">
-        <f t="shared" ref="H46" si="44">+G46+H39</f>
+        <f t="shared" ref="H46" si="40">+G46+H39</f>
         <v>160</v>
       </c>
       <c r="I46" s="19">
-        <f t="shared" ref="I46" si="45">+H46+I39</f>
+        <f t="shared" ref="I46" si="41">+H46+I39</f>
         <v>155</v>
       </c>
       <c r="J46" s="19">
-        <f t="shared" ref="J46" si="46">+I46+J39</f>
+        <f t="shared" ref="J46" si="42">+I46+J39</f>
         <v>150</v>
       </c>
       <c r="K46" s="19">
-        <f t="shared" ref="K46:L46" si="47">+J46+K39</f>
+        <f t="shared" ref="K46:L46" si="43">+J46+K39</f>
         <v>145</v>
       </c>
       <c r="L46" s="19">
-        <f t="shared" si="47"/>
+        <f t="shared" si="43"/>
         <v>135</v>
       </c>
     </row>
@@ -23399,43 +23412,43 @@
         <v>24</v>
       </c>
       <c r="C47" s="44">
-        <v>23.193377280357144</v>
+        <v>23.188630648571422</v>
       </c>
       <c r="D47" s="44">
         <f>+D45/D46/1000</f>
-        <v>21.297434423214288</v>
+        <v>21.29269142857143</v>
       </c>
       <c r="E47" s="20">
-        <f t="shared" ref="E47:I47" si="48">+E45/E46/1000</f>
-        <v>20.93776580093931</v>
+        <f t="shared" ref="E47:I47" si="44">+E45/E46/1000</f>
+        <v>20.932965317919077</v>
       </c>
       <c r="F47" s="20">
-        <f t="shared" si="48"/>
-        <v>20.370088349632354</v>
+        <f t="shared" si="44"/>
+        <v>20.365200000000002</v>
       </c>
       <c r="G47" s="20">
-        <f t="shared" si="48"/>
-        <v>19.369035602651518</v>
+        <f t="shared" si="44"/>
+        <v>19.363993939393939</v>
       </c>
       <c r="H47" s="20">
-        <f t="shared" si="48"/>
-        <v>18.299189816796876</v>
+        <f t="shared" si="44"/>
+        <v>18.2939875</v>
       </c>
       <c r="I47" s="34">
-        <f t="shared" si="48"/>
-        <v>17.153893601209678</v>
+        <f t="shared" si="44"/>
+        <v>17.14852258064516</v>
       </c>
       <c r="J47" s="34">
-        <f t="shared" ref="J47:K47" si="49">+J45/J46/1000</f>
-        <v>15.955489342083334</v>
+        <f t="shared" ref="J47:K47" si="45">+J45/J46/1000</f>
+        <v>15.949933333333332</v>
       </c>
       <c r="K47" s="34">
-        <f t="shared" si="49"/>
-        <v>14.664132802155175</v>
+        <f t="shared" si="45"/>
+        <v>14.658379310344827</v>
       </c>
       <c r="L47" s="34">
-        <f t="shared" ref="L47" si="50">+L45/L46/1000</f>
-        <v>11.853495083796298</v>
+        <f t="shared" ref="L47" si="46">+L45/L46/1000</f>
+        <v>11.847311111111111</v>
       </c>
     </row>
     <row r="48" spans="1:12">
@@ -23650,19 +23663,19 @@
         <v>10</v>
       </c>
       <c r="C57" s="80">
-        <f t="shared" ref="C57:F57" si="51">+C55*C56*1000</f>
+        <f t="shared" ref="C57:F57" si="47">+C55*C56*1000</f>
         <v>-264500</v>
       </c>
       <c r="D57" s="80">
-        <f t="shared" si="51"/>
+        <f t="shared" si="47"/>
         <v>-267500</v>
       </c>
       <c r="E57" s="80">
-        <f t="shared" si="51"/>
+        <f t="shared" si="47"/>
         <v>-268000</v>
       </c>
       <c r="F57" s="80">
-        <f t="shared" si="51"/>
+        <f t="shared" si="47"/>
         <v>-245834.99999999997</v>
       </c>
       <c r="G57" s="80"/>
@@ -23680,16 +23693,16 @@
         <v>12</v>
       </c>
       <c r="C58" s="33">
-        <f t="shared" ref="C58:E58" si="52">-(+C57*0.001425*0.45)</f>
-        <v>169.61062500000003</v>
+        <f>ROUNDDOWN((ABS(C57)*0.001425*0.45),0)</f>
+        <v>169</v>
       </c>
       <c r="D58" s="33">
-        <f t="shared" si="52"/>
-        <v>171.53437500000001</v>
+        <f t="shared" ref="D58:E58" si="48">ROUNDDOWN((ABS(D57)*0.001425*0.45),0)</f>
+        <v>171</v>
       </c>
       <c r="E58" s="33">
-        <f t="shared" si="52"/>
-        <v>171.85500000000002</v>
+        <f t="shared" si="48"/>
+        <v>171</v>
       </c>
       <c r="F58" s="31">
         <v>10</v>
@@ -23709,15 +23722,15 @@
         <v>14</v>
       </c>
       <c r="C59" s="33">
-        <f t="shared" ref="C59:E59" si="53">-ROUNDDOWN(C57*3/1000,0)</f>
+        <f t="shared" ref="C59:E59" si="49">-ROUNDDOWN(C57*3/1000,0)</f>
         <v>793</v>
       </c>
       <c r="D59" s="33">
-        <f t="shared" si="53"/>
+        <f t="shared" si="49"/>
         <v>802</v>
       </c>
       <c r="E59" s="33">
-        <f t="shared" si="53"/>
+        <f t="shared" si="49"/>
         <v>804</v>
       </c>
       <c r="F59" s="31"/>
@@ -23754,16 +23767,16 @@
         <v>18</v>
       </c>
       <c r="C61" s="83">
-        <f t="shared" ref="C61:E61" si="54">SUM(C57:C60)</f>
-        <v>-263537.38937500003</v>
+        <f t="shared" ref="C61:E61" si="50">SUM(C57:C60)</f>
+        <v>-263538</v>
       </c>
       <c r="D61" s="83">
-        <f t="shared" si="54"/>
-        <v>-266526.46562500001</v>
+        <f t="shared" si="50"/>
+        <v>-266527</v>
       </c>
       <c r="E61" s="83">
-        <f t="shared" si="54"/>
-        <v>-267024.14500000002</v>
+        <f t="shared" si="50"/>
+        <v>-267025</v>
       </c>
       <c r="F61" s="83">
         <f>SUM(F57:F60)</f>
@@ -23785,19 +23798,19 @@
       </c>
       <c r="C62" s="77">
         <f>L45+C61</f>
-        <v>1336684.4469375003</v>
+        <v>1335849</v>
       </c>
       <c r="D62" s="77">
         <f>C62+D61</f>
-        <v>1070157.9813125003</v>
+        <v>1069322</v>
       </c>
       <c r="E62" s="77">
         <f>D62+E61</f>
-        <v>803133.83631250029</v>
+        <v>802297</v>
       </c>
       <c r="F62" s="77">
         <f>E62+F61</f>
-        <v>557308.83631250029</v>
+        <v>556472</v>
       </c>
       <c r="G62" s="94"/>
       <c r="H62" s="94"/>
@@ -23826,7 +23839,7 @@
         <v>120</v>
       </c>
       <c r="F63" s="17">
-        <f t="shared" ref="F63" si="55">F56</f>
+        <f t="shared" ref="F63" si="51">F56</f>
         <v>120</v>
       </c>
       <c r="G63" s="26"/>
@@ -23845,19 +23858,19 @@
       </c>
       <c r="C64" s="34">
         <f>C62/C63/1000</f>
-        <v>10.282188053365388</v>
+        <v>10.275761538461538</v>
       </c>
       <c r="D64" s="34">
-        <f t="shared" ref="D64:F64" si="56">D62/D63/1000</f>
-        <v>8.5612638505000032</v>
+        <f t="shared" ref="D64:F64" si="52">D62/D63/1000</f>
+        <v>8.5545759999999991</v>
       </c>
       <c r="E64" s="34">
-        <f t="shared" si="56"/>
-        <v>6.6927819692708352</v>
+        <f t="shared" si="52"/>
+        <v>6.6858083333333331</v>
       </c>
       <c r="F64" s="45">
-        <f t="shared" si="56"/>
-        <v>4.6442403026041692</v>
+        <f t="shared" si="52"/>
+        <v>4.6372666666666662</v>
       </c>
       <c r="G64" s="20"/>
       <c r="H64" s="20"/>
